--- a/Identifier/to_label.xlsx
+++ b/Identifier/to_label.xlsx
@@ -458,3201 +458,3201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hoe verhouden de cijfers zich tot het Vlaamse gemiddelde?</t>
+          <t>Is er een positieve trend waar te nemen en zo ja, welke?</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5178589820861816</v>
+        <v>0.5608973503112793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4821410179138184</v>
+        <v>0.4391026496887207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Heeft de minister het doel om 100.000 bomen te planten in de Vlaamse Rand vanaf 2022 gehaald?</t>
+          <t>2021 2022Antwerpen 274 415Limburg 23 44Oost-Vlaanderen 121 195Vlaams-Brabant 58 85West-Vlaanderen 59 92Daarnaast geeft onderstaande tabel weer hoeveel e-stepslachtoffers er vielen in die ongevallen, opgedeeld naar provincie en letselernst (bron: FOD Economie, Statbel).</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5639283061027527</v>
+        <v>0.5643495321273804</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4360716938972473</v>
+        <v>0.4356504678726196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Verwacht hij dat het aantal leerlingen in het buitengewoon onderwijs de komende jaren zal afnemen?</t>
+          <t>214 kreeg ik volgende tabel van de minister voor het jaar 2018:Hoe wordt het PVB ingezet in 2018?% onderbenutting Aantal personenEnkel via voucher 0,95 % 21.015Enkel via cash nVZA 19,74 % 1.784Enkel via cash VZA 6,87 % 53Voucher en cash nVZA 12,37 % 1.056Voucher en cash VZA 4,03 % 41Cash VZA en cash nVZA 13,61 % 313Voucher, cash VZA en cash nVZA 11,90 % 158(nog) geen besteding cash of voucher99,35 % 323Allen 3,50 % 24.420Kan de minister een update van die tabel bezorgen voor de jaren 2019, 2020 en 2021?</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5670823454856873</v>
+        <v>0.5681431293487549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4329176545143127</v>
+        <v>0.4318568706512451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>817 gaf de minister aan dat de resultaten Kan de minister een cijfermatige en beoordelende update geven van de effecten van de uitbreiding van het verlof voor verminderde prestaties wegens ziekte voor de personeelsleden van de hogescholen?</t>
+          <t>Wanneer is die aanvraag ingediend?</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5842055678367615</v>
+        <v>0.5681633353233337</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4157944321632385</v>
+        <v>0.4318366646766663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Als het effectief om een besparing gaat, zoals de cijfers lijken aan te tonen, is het dan al duidelijk waar het geld concreet bespaard zal worden?</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5856462121009827</v>
+        <v>0.5703068375587463</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4143537878990173</v>
+        <v>0.4296931624412537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Heeft de minister er zicht op hoe dat bedrag concreet werd geïnvesteerd?</t>
+          <t>Hoe evalueert de minister de cijfers ten opzichte van voorgaande jaren?</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5861800909042358</v>
+        <v>0.5949475169181824</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4138199090957642</v>
+        <v>0.4050524830818176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wat is voor de zwarte verkeerspunten in West-Vlaanderen die (nog) op de lijst staan:a) de stand van zaken;b) de timing om ze aan te pakken;c) het vermoedelijke budget;d) de eventueel betrokken partners?</t>
+          <t>Wat zijn de verschillen van onderbenutting wanneer het PVB is verkregen via de reguliere procedure of via de automatische toekenningsgroepen (opgedeeld per automatische toekenningsgroep)?</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5889269113540649</v>
+        <v>0.5978026986122131</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4110730886459351</v>
+        <v>0.4021973013877869</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zal hij ze allemaal planten tegen het einde van de legislatuur?</t>
+          <t>Wanneer is het proces-verbaal door het Departement Omgeving opgemaakt?</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5975625514984131</v>
+        <v>0.6018190979957581</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4024374485015869</v>
+        <v>0.3981809020042419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wie in een Limburgse risicozone een wolf-werende omheining plaatst, kan vanuit ANB rekenen op zowel een plaatsings-, als een onderhoudsvergoeding.</t>
+          <t>Welk aandeel van de kruispunten in Vlaanderen, beheerd door het Agentschap Wegen en Verkeer (AWV), is intussen conflictvrij?</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6313496828079224</v>
+        <v>0.6179395318031311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3686503171920776</v>
+        <v>0.3820604681968689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht bezorgen van de Vlaamse gemeenten die een samenwerkingsakkoord onderhielden met Dyzo?</t>
+          <t>Worden er veel afwijkingen vastgesteld op de tweejaarlijkse ijking?</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6439708471298218</v>
+        <v>0.6183764338493347</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3560291528701782</v>
+        <v>0.3816235661506653</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Heeft de VRM toegezegd dat de omschakeling naar Nostalie Plus voldoende is om de erkenning te behouden?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6529092192649841</v>
+        <v>0.624126136302948</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3470907807350159</v>
+        <v>0.375873863697052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Indien de minister een aanpassing plant, wat is daarvan het concept, de timing en het budget?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6654695272445679</v>
+        <v>0.624126136302948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3345304727554321</v>
+        <v>0.375873863697052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-2022 2022-2023Provincie# ingeschreven lln in 1B#lln die het LO niet afwerkten %# ingeschreven lln in 1B#lln die het LO niet afwerkten%Antwerpen 3.047 52117,10% 3.164 464 14,66%Brussels Hoofdstedelijk Gewest 361 6818,84% 363 48 13,22%Limburg 1.398 31122,25% 1.419 299 21,07%Oost-Vlaanderen 2.365 32613,78% 2.581 454 17,59%Vlaams-Brabant 1.199 23519,60% 1.311 204 15,56%West-Vlaanderen 1.664 22613,58% 1.801 272 15,10%Totaal 10.034 1.68716,81% 10.639 1.741 16,36%Onderstaande tabel geeft weer hoeveel leerlingen de voorbije 2 schooljaren tijdens het schooljaar doorstroomden van 1A naar 1B met gunstige beslissing van de toelatingsklassenraad.</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6741490364074707</v>
+        <v>0.624126136302948</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3258509635925293</v>
+        <v>0.375873863697052</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>57 (2023-2024) over de werking en veiligheid van de dierenartsen met opdracht in de slachthuizen, stelde de minister dat momenteel 56 DMO’s een contract met de Vlaamse overheid hebben, van wie er 46 een vaste opdracht uitvoeren.</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6788867712020874</v>
+        <v>0.624126136302948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3211132287979126</v>
+        <v>0.375873863697052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kunnen de cijfers ook voor die instellingen gegeven worden?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.682645320892334</v>
+        <v>0.624126136302948</v>
       </c>
       <c r="D16" t="n">
-        <v>0.317354679107666</v>
+        <v>0.375873863697052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bijvoorbeeld een maximale geluidsnorm voor niet-ingedeelde warmtepompen van 40 dB op de perceelsgrens? Zo ja, wat zijn de stappen die de minister daarvoor gaat ondernemen en wat is de vooropgestelde timing?</t>
+          <t>&gt; 60 jaar?</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6953750252723694</v>
+        <v>0.6513121724128723</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3046249747276306</v>
+        <v>0.3486878275871277</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Welke timing plant de minister voor de uit dit besluit voortkomende beautycontest?</t>
+          <t>&gt; 60 jaar?</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7019119262695312</v>
+        <v>0.6513121724128723</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2980880737304688</v>
+        <v>0.3486878275871277</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kan de minister de meest recente dynamische lijst beschikbaar stellen van de provincie West-Vlaanderen?</t>
+          <t>&gt; 60 jaar?</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7160115242004395</v>
+        <v>0.6513121724128723</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2839884757995605</v>
+        <v>0.3486878275871277</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kan de minister toelichten of de initiatieven van de pleegzorggemeenten merkbare positieve effecten hebben gehad; hebben er het afgelopen jaar bijvoorbeeld meer gezinnen zich aangemeld als pleeggezin ten opzichte van de vorige jaren?</t>
+          <t>&gt; 60 jaar?</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7251467704772949</v>
+        <v>0.6513121724128723</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2748532295227051</v>
+        <v>0.3486878275871277</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>d) Waarom voorziet ANB nog in de aanwerving van vier bijkomende “everzwijnspecialisten met jachtverlof” ter aanvulling/ondersteuning van de al aangestelde Vlaamse everzwijncoördinator?</t>
+          <t>De gegevens voor 2022 worden momenteel verwerkt zodat ook deze ter beschikking kunnen worden gesteld via het Dataplatform Departement Werk en Sociale Economie ( Open data | Vlaanderen.be)a-b) Overzicht van het aantal maatwerkbedrijven, opgedeeld naar hoeveel maatwerkers er actief zijn binnen de onderneming en contingent2022 - Totaal 126 126 126 124 122 122Toegekend contingent19.740 19.740 19.740 20.014 20.082 20.082Het aantal maatwerkbedrijven daalt over de kwartalen heen, omwille van een fusiebeweging binnen de sector die in 2021 is ingezet en zich nog steeds verderzet.</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7296812534332275</v>
+        <v>0.6526496410369873</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2703187465667725</v>
+        <v>0.3473503589630127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Welke extra subsidies verleent de minister aan de scholen en onderwijsinstellingen om leerlingen die gevlucht zijn uit Oekraïne op te vangen?</t>
+          <t>Vanaf wanneer is de geboden ondersteuning niet voldoende aangepast?</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7450641393661499</v>
+        <v>0.6855155229568481</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2549358606338501</v>
+        <v>0.3144844770431519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wie in Limburg echter een everzwijn-werende omheining of elektrische draad plaatst die vereist is om in aanmerking te kunnen komen voor de vergoeding van everzwijnschade, moet zelf voor deze kosten opdraaien.</t>
+          <t>Welke van die dossiers staan al op het meerjaren-GIP en voor welk bedrag per jaar?</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7459707856178284</v>
+        <v>0.6889446377754211</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2540292143821716</v>
+        <v>0.3110553622245789</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Heeft de VRM eraan herinnerd dat men 70% muziek van de laatste vijf jaar moet draaien conform het ingediende dossier?</t>
+          <t>Deze manier van evalueren laat toe te achterhalen hoeveel bestuurders zich de campagne na afloop kunnen herinneren (bereik) en wat het effect autobestuurder.</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7493088245391846</v>
+        <v>0.7051619291305542</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2506911754608154</v>
+        <v>0.2948380708694458</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Is het een optie om de beheersovereenkomsten met herders uit te breiden van bijvoorbeeld twee naar vijf graasbeurten?</t>
+          <t>Of dat lukt, zal vooral afhangen van het aantal mensen dat een ticket individueel maatwerk krijgt en van hoeveel bedrijven de inspanning willen doen om personen met zo’n ticket tewerk te stellen.</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7543051242828369</v>
+        <v>0.705502450466156</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2456948757171631</v>
+        <v>0.294497549533844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Is ondertussen de exacte datum voor de Contract Close gekend? Zo ja, wat is de exacte datum?</t>
+          <t>Zijn er in de nabije toekomst nog bijkomende initiatieven gepland om studenten met een handicap of functiebeperking te ondersteunen? Zo ja, wat is het plan van aanpak en het budget?</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7698290944099426</v>
+        <v>0.7127206325531006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2301709055900574</v>
+        <v>0.2872793674468994</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hoe evolueerden de aantallen hierboven de voorbije 3 jaar?</t>
+          <t>Zijn er in de nabije toekomst nog bijkomende initiatieven gepland om studenten met een handicap of functiebeperking te ondersteunen? Zo ja, wat is het plan van aanpak en het budget?</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.770662784576416</v>
+        <v>0.7127206325531006</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229337215423584</v>
+        <v>0.2872793674468994</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>c) Wat waren de resultaten van de vooronderzoeken en stabiliteitsstudie die al werden opgestart?</t>
+          <t>Wanneer zal de derde oproep door de Vlaamse Regering in de markt worden gezet?</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7716574668884277</v>
+        <v>0.7300378680229187</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2283425331115723</v>
+        <v>0.2699621319770813</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>c) Kan de minister een overzicht geven van het ondersteuningsaanbod per casus?</t>
+          <t>Hoe evolueert het aantal aanvragen en goedkeuringen in het kader van de projectoproep Landbouw - Natuur doorheen de jaren?</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7771450877189636</v>
+        <v>0.7364243865013123</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2228549122810364</v>
+        <v>0.2635756134986877</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Werd de omgevingsvergunning afgeleverd?</t>
+          <t>c) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7787595391273499</v>
+        <v>0.7377975583076477</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2212404608726501</v>
+        <v>0.2622024416923523</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kan de minister een lijst van de getraceerde ‘grijze punten’ geven?</t>
+          <t>c) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7909579277038574</v>
+        <v>0.7377975583076477</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2090420722961426</v>
+        <v>0.2622024416923523</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Op zijn website stelt ANB: “een aantal A1-studies in landen die al langer met deze invasieve exoot te maken hebben, wijzen erop dat de schade aan de honingbij onmiskenbaar is [3].” Beschikt de minister ook al over eigen Vlaamse cijfergegevens voor de jaren 2019, 2020, 2021, 2022 en 2023 wat betreft enerzijds het aantal door de Vlaamse imkers geregistreerde bijenkasten/bijenvolken in Vlaanderen en anderzijds het aantal bijenkasten/bijenvolken dat tijdens voormelde jaren door de Aziatische hoornaar werd uitgemoord? Zo ja, graag een schematisch overzicht van deze data?</t>
+          <t>c) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7925609946250916</v>
+        <v>0.7377975583076477</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2074390053749084</v>
+        <v>0.2622024416923523</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hoelang duurde die ontkoppeling gemiddeld?</t>
+          <t>c) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7967144250869751</v>
+        <v>0.7377975583076477</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2032855749130249</v>
+        <v>0.2622024416923523</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Wie in de buurt van een nest komt, riskeert immers een massale aanval van Aziatische hoornaars, en met het exponentieel toenemend aantal nesten neemt dat risico in Vlaanderen alleen maar evenredig toe.</t>
+          <t>Is het ziekteverzuim bij De Lijn gestegen sinds het ziektebriefje voor 1 dag is afgeschaft?</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7974569797515869</v>
+        <v>0.7395509481430054</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2025430202484131</v>
+        <v>0.2604490518569946</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Over welke cijfers beschikt de administratie van de minister met betrekking tot Indiase verpleegkundigen?</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7985000610351562</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2014999389648438</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>De minister laat weten dat de hogescholen vrij zijn om te bepalen hoeveel graduaatsopleidingen ze wensen in te richten, maar dat ze er ook moeten over waken dat die opleidingen op lange termijn door de instellingen gefinancierd kunnen worden.</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8024354577064514</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1975645422935486</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Het basisonderwijs is, zoals het woord het zegt, het onderwijssegment waar aan leerlingen de basis van alle schoolse leerstof wordt geleerd; als we dan als overheid in een kaderdecreet vastleggen dat de basis bestaat uit zestien sleutelcompetenties, dan is het toch tegenstrijdig dat er sleutelcompetenties leeg worden gelaten?</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8070237040519714</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1929762959480286</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b) Plant de minister om nieuwe/andere subsidies of extra middelen te verlenen aan scholen/onderwijsinstellingen in het kader van de opvang van leerlingen uit Oekraïne in het schooljaar 2023-2024?</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.814944326877594</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D38" t="n">
-        <v>0.185055673122406</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Leerlingen die niet uit het hoofd kunnen uitrekenen hoeveel 18+13 is, die geen analoge klok kunnen lezen, die basiswoorden niet begrijpen, laat staan dat ze die correct kunnen schrijven, etc.</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.817829966545105</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182170033454895</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Liggen alle 874 schoolrouteknelpunten op gewestelijke infrastructuur, of is er ook sprake van schoolrouteknelpunten op lokale wegen die met die middelen aangepakt worden?</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8197145462036133</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1802854537963867</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bij het overhevelen van de graduaatsopleidingen van de centra voor volwassenenonderwijs (CVO’s) naar de hogescholen in 2019, wijzigde de financiering Werd bij die beslissing rekening gehouden met het mogelijke succes van die opleidingen, waardoor het aantal opgenomen studiepunten significant veel groter is dan de aanpassing van de financiering (aantal inschrijvingen 2022-2023: +16%; stijging financiering: +2%)?</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8207924365997314</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1792075634002686</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://extranet.vaph.be/jaarverslag/2022/pages/25/ voor 2022 en via https://www.vaph.be/documenten?f%5B0%5D=type%3A54 voor de voorafgaande jaren.</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8212417364120483</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1787582635879517</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Zal het pakket bijdragen aan het halen van de STEM-leerdoelen, zoals de uitgeverij beweert?</t>
+          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8215951323509216</v>
+        <v>0.7468575239181519</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1784048676490784</v>
+        <v>0.2531424760818481</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Zijn er voldoende reserveonderdelen en technici om de lift bij problemen onmiddellijk te herstellen?</t>
+          <t>Uit welke steun bestaat deze 14,2 miljoen euro?</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8236657381057739</v>
+        <v>0.782109260559082</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1763342618942261</v>
+        <v>0.217890739440918</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hoe verklaart de minister dat zoveel adviserende gemeenten de nochtans al vorig jaar aangevraagde adviezen nog niet hebben afgeleverd?</t>
+          <t>Is de minister tevreden over het aantal toegekende subsidies en de effecten van de oproep?</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8240914940834045</v>
+        <v>0.788632869720459</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1759085059165955</v>
+        <v>0.211367130279541</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Toch prijkt onder de lijst van 2021 van degenen aan wie zo’n ereteken werd toegekend Pfizer Belgium, niet meteen een natuurlijke persoon.</t>
+          <t>Is de minister tevreden over het aantal toegekende subsidies en de effecten van de oproep?</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.825647234916687</v>
+        <v>0.788632869720459</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174352765083313</v>
+        <v>0.211367130279541</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van de financiering van dit project?</t>
+          <t>Kan de minister een overzicht geven van alle lokale dienstencentra in Vlaanderen?</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8267066478729248</v>
+        <v>0.7890015840530396</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1732933521270752</v>
+        <v>0.2109984159469604</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de gemeenten die momenteel niet over een volledige gemeenteraad beschikken?</t>
+          <t>Zal de minister deze legislatuur nog budgetten reserveren voor de stelplaatsen in Antwerpen, behalve de reguliere budgetten voor onderhoud en werking?</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8310822248458862</v>
+        <v>0.7975480556488037</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1689177751541138</v>
+        <v>0.2024519443511963</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Was in die sterke groei voorzien?</t>
+          <t>Plant de minister initiatieven om deze anomalie recht te zetten? Zo ja, welke en wanneer kunnen we dat verwachten?</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8522295355796814</v>
+        <v>0.8293402194976807</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1477704644203186</v>
+        <v>0.1706597805023193</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>f) Hoelang duurt het gemiddeld vooraleer een vacature wordt ingevuld?</t>
+          <t>Hoe evalueert de minister de cijfers?</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.858546257019043</v>
+        <v>0.8312382698059082</v>
       </c>
       <c r="D50" t="n">
-        <v>0.141453742980957</v>
+        <v>0.1687617301940918</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht van de kansarmoede-index voor de gemeente Zoutleeuw geven en daarbij de collectieve opvangfaciliteit van Fedasil buiten beschouwing laten?</t>
+          <t>b) Wanneer zijn deze toestemmingen/documenten aangevraagd?</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8586463928222656</v>
+        <v>0.831916868686676</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1413536071777344</v>
+        <v>0.168083131313324</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wie het centenboekje van de Vlaamse Regering van iets dichter bekijkt, ziet echter dat er naast de 4 miljoen euro extra voor jeugdinfrastructuur, ook een besparing van 5 miljoen euro op jeugdinfrastructuur wordt doorgevoerd.</t>
+          <t>Provincie Indiener Project Totaal projectbedrag (euro)Komt in aanmerking voor subsidiëring?</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8626709580421448</v>
+        <v>0.8368119597434998</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1373290419578552</v>
+        <v>0.1631880402565002</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Valt een dergelijk pakket te rijmen met de objectieven rond educatie voor duurzame ontwikkeling?</t>
+          <t>Welke eindbestemming werd er voor elke grond gevonden?</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8629118800163269</v>
+        <v>0.8370885848999023</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1370881199836731</v>
+        <v>0.1629114151000977</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Zo niet, wat plant de minister te doen met het eventuele resterende budget?</t>
+          <t>b) Kan de minister een lijst geven - ingedeeld naar provincie en naar gemeente of stad - van alle kruispunten die momenteel op de lijst van zwarte kruispunten staan?</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8665314912796021</v>
+        <v>0.8371675610542297</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1334685087203979</v>
+        <v>0.1628324389457703</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Kan de minister de haalbaarheidsstudie bezorgen?</t>
+          <t>werd de studie betaald met het voorbehouden budget van 700.000 euro van toenmalig bevoegd minister Weyts in 2017?</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.87314373254776</v>
+        <v>0.8462185859680176</v>
       </c>
       <c r="D55" t="n">
-        <v>0.12685626745224</v>
+        <v>0.1537814140319824</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Met andere woorden: welke zaken waar eerst middelen voor begroot waren, zullen nu niet uitgevoerd kunnen worden als gevolg van de besparing?</t>
+          <t>Welke voorwaarden rond tewerkstelling zijn er gekoppeld aan deze steun en wat zijn de termijnen die men moet naleven?</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8911840915679932</v>
+        <v>0.8467148542404175</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1088159084320068</v>
+        <v>0.1532851457595825</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>De minister gaf aan dat het nog te vroeg was om gedetailleerde cijfers over de invulling VDAB wel kan meedelen hoeveel werkzoekenden al werden toegeleid naar de gemeenschapsdienst.</t>
+          <t>Vanaf wanneer zal de maatregel ingaan?</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8962787389755249</v>
+        <v>0.8472135663032532</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1037212610244751</v>
+        <v>0.1527864336967468</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>- Wat is de impact van deze gebruiksduur op de bestaande levenspaden van manuele rolstoelen?</t>
+          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8970368504524231</v>
+        <v>0.8501444458961487</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1029631495475769</v>
+        <v>0.1498555541038513</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>a) Kan dat inderdaad afgeleid worden uit de cijfers van het aantal vastgestelde overtredingen?</t>
+          <t>Komen die gronden ook voor in de cijfers op de slide van de presentatie?</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.901175856590271</v>
+        <v>0.8548300266265869</v>
       </c>
       <c r="D59" t="n">
-        <v>0.098824143409729</v>
+        <v>0.1451699733734131</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Wat zal de exacte aard zijn van de minimumdoelen Nederlands voor kleuters?</t>
+          <t>Welke timing zal daarbij gehanteerd worden?</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.902548611164093</v>
+        <v>0.8606788516044617</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09745138883590698</v>
+        <v>0.1393211483955383</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kan hij daarnaast een opdeling geven, in totaal en per casus, waarbij de verbindingsofficieren ofwel vóór ofwel na de publieke aankondiging van het nieuwe asielcentrum werden betrokken?</t>
+          <t>Wat was de kostprijs van deze studie en waarom moet er door datzelfde studiebureau opnieuw bijkomend onderzoek worden gedaan naar de kilometerheffing?</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9148707389831543</v>
+        <v>0.861691415309906</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0851292610168457</v>
+        <v>0.138308584690094</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kan de minister een opdeling geven van deze personen per snel degeneratieve aandoening voor 2021 en 2022?</t>
+          <t>d) Zal er elders voldoende stelplaatscapaciteit beschikbaar zijn om dat op te vangen?</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9217867851257324</v>
+        <v>0.8657521605491638</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07821321487426758</v>
+        <v>0.1342478394508362</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>a) Wat is het effect van een fusie op enerzijds het tarief en anderzijds de werkelijke waarde van een opcentiem?</t>
+          <t>b) Wanneer loopt deze aanvraagperiode dan af?</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.922995924949646</v>
+        <v>0.866767406463623</v>
       </c>
       <c r="D63" t="n">
-        <v>0.077004075050354</v>
+        <v>0.133232593536377</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Zijn er export- en importcijfers beschikbaar?</t>
+          <t>Als er grote verschillen zijn in het aantal aanvragen per provincie, hoe verklaart de minister dan die verschillen?</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9237696528434753</v>
+        <v>0.86737060546875</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07623034715652466</v>
+        <v>0.13262939453125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>a) Betekent dit dat die 112 trajecten voor klanten die langer dan twee jaar werkzoekend zijn per definitie trajecten in de gemeenschapsdienst zullen worden?</t>
+          <t>Als er grote verschillen zijn in het aantal aanvragen per provincie, hoe verklaart de minister dan die verschillen?</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.923859179019928</v>
+        <v>0.86737060546875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07614082098007202</v>
+        <v>0.13262939453125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Indien voor het bovenstaande geen cijfers beschikbaar zijn, is het dan zinvol om de cijfers in de toekomst te verzamelen?</t>
+          <t>a) Zullen de rijexamencentra voorzien worden van extra middelen om die toestellen b) Heeft deze nieuwe regelgeving een financiële impact op de kostprijs van het rijexamen voor de kandidaat-bestuurder? Zo ja, welke?</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9247907996177673</v>
+        <v>0.8768247961997986</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07520920038223267</v>
+        <v>0.1231752038002014</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Welke budgetten moeten nog uitgetrokken worden voor de knelpunten die nog uitgevoerd moeten worden?</t>
+          <t>De gegevens voor 2022 worden momenteel verwerkt zodat ook deze ter beschikking kunnen worden gesteld via het Dataplatform Departement Werk en Sociale Economie ( Open data | Vlaanderen.be)a-b) Overzicht van het aantal LDE-ondernemingen, opgedeeld naar hoeveel LDE’ers er actief zijn binnen de onderneming (ondernemingen met minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+) en contingent.</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.927467405796051</v>
+        <v>0.8771883249282837</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07253259420394897</v>
+        <v>0.1228116750717163</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wat is zijn de budgettaire implicaties van dat nieuwe statuut?</t>
+          <t>Wanneer werd de opdracht van het studiebureau Tractebel Engineering nv afgerond?</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9276491403579712</v>
+        <v>0.878750741481781</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07235085964202881</v>
+        <v>0.121249258518219</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Wat betekent die overgangsregeling met betrekking tot de ontslagregeling concreet?</t>
+          <t>Kan de minister meedelen telkens voor het jaar 2021, 2022 en 2023?</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9329578876495361</v>
+        <v>0.8887544274330139</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06704211235046387</v>
+        <v>0.1112455725669861</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Zijn de scholen vragende partij om het maximale aantal dagen per leerling op te trekken?</t>
+          <t>Kan de minister een oplijsting bezorgen van de West-Vlaamse scholen en verenigingen die deelnamen in het schooljaar 2022-2023, met vermelding van de gemeente waarbinnen de school of vereniging gevestigd is, de status van het actieplan (al dan niet voltooid) en de toegekende beloning per school en per vereniging?</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9344092607498169</v>
+        <v>0.8907580375671387</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06559073925018311</v>
+        <v>0.1092419624328613</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Wie geregeld gaat wandelen en fietsen, kan er niet meer naast kijken: de Japanse duizendknoop duikt overal, gaande van dijken over natuurgebieden tot zelfs ‘reguliere’ velden, op en overwoekert zo de bestaande gewassen en grassen.</t>
+          <t>a) Is de minister tevreden over het aantal aanvragen?</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.936144232749939</v>
+        <v>0.8973835706710815</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06385576725006104</v>
+        <v>0.1026164293289185</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Er is vanuit het onderwijs een nieuw systeem ontwikkeld - de Movis-apps - waarmee de scholen de leerlingen inschrijven en waarin ook in aangeduid wordt wie gebruik wenst te maken van het leerlingenvervoer.</t>
+          <t>Wanneer is dat voor het laatst gemeten?</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9379714727401733</v>
+        <v>0.8974357843399048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06202852725982666</v>
+        <v>0.1025642156600952</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hoe evolueren voorgaande cijfers bij fusionerende gemeenten?</t>
+          <t>Kan de minister een overzicht geven van de schoolroutes in Limburg waar verkeersslachtoffers bij 6- tot 18-jarigen vielen in de laatste vijf jaar?</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9383770823478699</v>
+        <v>0.9072400331497192</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06162291765213013</v>
+        <v>0.09275996685028076</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Het is vaak een reminder of trigger voor al wie misschien al interesse heeft, maar nog twijfelt.</t>
+          <t>Welke timing wordt voor het volledige project gehanteerd?</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9424065947532654</v>
+        <v>0.9150487780570984</v>
       </c>
       <c r="D74" t="n">
-        <v>0.05759340524673462</v>
+        <v>0.08495122194290161</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Heeft de minister er zicht op of de extra middelen voldoende kostendekkend zijn om de vooropgestelde doelen te bereiken?</t>
+          <t>Kunnen de cijfers van de diversiteitsonderzoeken van 2021 en 2022 bekendgemaakt worden, aangezien ze aanwezig blijken?</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.94249427318573</v>
+        <v>0.9174978733062744</v>
       </c>
       <c r="D75" t="n">
-        <v>0.05750572681427002</v>
+        <v>0.08250212669372559</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hoe dan?" met daarin propaganda voor een groot auto-infrastructuurproject gefinancierd met Vlaams belastinggeld.</t>
+          <t>Hoe breed is het tweerichtingsfietspad langs de Lierselei?</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9431845545768738</v>
+        <v>0.9182776808738708</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05681544542312622</v>
+        <v>0.08172231912612915</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hoe realistisch is het blijven aanhouden van alle 16 sleutelcompetenties zonder dat bepaalde sleutelcompetenties worden gereduceerd tot restjescompetenties?</t>
+          <t>Waren er in het schooljaar 2021-2022 tekorten aan leerwerkplekken?</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9465851187705994</v>
+        <v>0.918756902217865</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05341488122940063</v>
+        <v>0.08124309778213501</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kan per provincie een concreet overzicht gegeven worden van welke projecten dit jaar uitgevoerd kunnen/konden worden met het vooropgestelde budget van 15 miljoen euro?</t>
+          <t>b) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9518905878067017</v>
+        <v>0.9215774536132812</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04810941219329834</v>
+        <v>0.07842254638671875</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>c) Wat voor type warmtebron betreft het?</t>
+          <t>b) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.952265739440918</v>
+        <v>0.9215774536132812</v>
       </c>
       <c r="D79" t="n">
-        <v>0.04773426055908203</v>
+        <v>0.07842254638671875</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kan de minister al evalueren of er voldoende budget is vrijgemaakt om de werken zo snel mogelijk uit te voeren?</t>
+          <t>Hoe is de verhouding in bekeuringen van Belgische ten opzichte van buitenlandse vrachtvervoerders?</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9538945555686951</v>
+        <v>0.9217989444732666</v>
       </c>
       <c r="D80" t="n">
-        <v>0.04610544443130493</v>
+        <v>0.0782010555267334</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Moet men in lerarenopleidingen secundair onderwijs bijvoorbeeld meer inzetten op kruisbestuiving met de lerarenopleiding lager onderwijs, aangezien het niveau van de leerlingen vaak ook dat van een lagereschoolleerling is?</t>
+          <t>Acht de minister het vooropgestelde budget voor de subsidie voldoende?</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9544000029563904</v>
+        <v>0.9221016764640808</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04559999704360962</v>
+        <v>0.07789832353591919</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Geldt de onverenigbaarheid tussen het mandaat van districtsraadslid en het mandaat van voorzitter of lid van het bijzonder comité voor de sociale dienst?</t>
+          <t>Acht de minister het vooropgestelde budget voor de subsidie voldoende?</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9545018672943115</v>
+        <v>0.9221016764640808</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04549813270568848</v>
+        <v>0.07789832353591919</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van de financiering van de aanpak van die knelpunten in de provincie Vlaams-Brabant?</t>
+          <t>Welk aandeel van deze gronden?</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9568672180175781</v>
+        <v>0.9245500564575195</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04313278198242188</v>
+        <v>0.07544994354248047</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Werden alle mandaten van de bestuursraden die door middel van verkiezingen, georganiseerd in april van dit jaar, voor alle erediensten ingevuld?</t>
+          <t>Wanneer zal de volgende en zevende oproep plaatsvinden?</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9596102833747864</v>
+        <v>0.9316099286079407</v>
       </c>
       <c r="D84" t="n">
-        <v>0.04038971662521362</v>
+        <v>0.06839007139205933</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Het Vlaams Vredesinstituut publiceerde in 2018 een rapport (‘Een schot in de roos?</t>
+          <t>Kan de minister een inschatting geven over de jaarlijkse meerkosten om alle vroegere rob-plaatsen voor zware zorgprofielen om te zetten naar rvt-plaatsen?</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9604334235191345</v>
+        <v>0.9333664774894714</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03956657648086548</v>
+        <v>0.06663352251052856</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Indien dit niet het geval is, kan de minister een geüpdatet plan van aanpak met timing en budget geven?</t>
+          <t>Wat zijn de grootste hordes die nog genomen moeten worden om de deadline wel te halen?</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9618756771087646</v>
+        <v>0.9350074529647827</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03812432289123535</v>
+        <v>0.06499254703521729</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wat zijn de gevolgen van de niet-naleving van de termijn van 30 dagen door de administratie?</t>
+          <t>Is het vooropstelde budget nog steeds haalbaar op basis van de al ingediende subsidieaanvragen?</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9618882536888123</v>
+        <v>0.9353166222572327</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03811174631118774</v>
+        <v>0.06468337774276733</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Zijn er minderjarigen met een snel degeneratieve aandoening die geen PAB kregen omdat hun ziekte niet in aanmerking kwam?</t>
+          <t>Waarvoor wordt dit ‘overig aangegeven areaal’ ingezet? Graag per categorie van gebruik?</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9626314043998718</v>
+        <v>0.9356328248977661</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03736859560012817</v>
+        <v>0.06436717510223389</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Geldt de onverenigbaarheid tussen het mandaat van districtsraadslid en het mandaat van provincieraadslid?</t>
+          <t>Is er nog een ruimere evaluatie gepland van de heraanleg van de Tiensepoort en tegen wanneer zal die evaluatie klaar zijn?</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9626580476760864</v>
+        <v>0.9359602928161621</v>
       </c>
       <c r="D89" t="n">
-        <v>0.03734195232391357</v>
+        <v>0.06403970718383789</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wordt de beoogde ambitie van 150 toeleidingen per jaar gehaald?</t>
+          <t>b) Hoe kijkt de minister naar die cijfers?</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9631533026695251</v>
+        <v>0.9359674453735352</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03684669733047485</v>
+        <v>0.06403255462646484</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>c) Wat voor type betreft de geplande warmtebron?</t>
+          <t>Het is voor VRT niet duidelijk wat precies bedoeld wordt met ‘hoeveel sportwedstrijden en -competities’ er werden uitgezonden.</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9637096524238586</v>
+        <v>0.9367933869361877</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03629034757614136</v>
+        <v>0.06320661306381226</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Welk engagement wordt van de betrokken gemeenten verwacht bij het wegwerken besturen, of een engagement om lokale infrastructuur aanliggend aan het schoolrouteknelpunt op een gewestweg tegelijk mee aan te pakken?</t>
+          <t>Voor de telewerkmiddelen is het niet mogelijk om na te gaan hoeveel personeelsleden daarvan gebruik hebben gemaakt.</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9648166298866272</v>
+        <v>0.9434449672698975</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0351833701133728</v>
+        <v>0.05655503273010254</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kan de minister garanderen dat die evaluatie zeker nog dit jaar wordt afgerond en er deze legislatuur nog de nodige aanpassingen gedaan worden?</t>
+          <t>Is er een definitie beschikbaar van ‘onvoldoende aangepaste ondersteuning’?</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9657052159309387</v>
+        <v>0.9437419772148132</v>
       </c>
       <c r="D93" t="n">
-        <v>0.03429478406906128</v>
+        <v>0.05625802278518677</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Moet de stemming over de toegestane maximumprijs plaatshebben in de openbare of in de besloten vergadering?</t>
+          <t>c) Tegen wanneer wordt een nieuwe versie gepland?</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9668937921524048</v>
+        <v>0.9450353384017944</v>
       </c>
       <c r="D94" t="n">
-        <v>0.03310620784759521</v>
+        <v>0.05496466159820557</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>b) Kan de minister ook een verder plan van aanpak met timing en budget geven?</t>
+          <t>Wat de vangplanken betreft die geplaatst werden voor 1 januari 2020:a) Wanneer werden die al bestaande beschermplanken nog eens gecontroleerd en onderhouden?</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.96720290184021</v>
+        <v>0.9467188715934753</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03279709815979004</v>
+        <v>0.05328112840652466</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>(zie voor aandeel onderwijs: SD2)SD5 We versterken de aandacht voor taalstimulering en vroeggeletterdheid bij wie professioneel bezig is met baby’s, peuters en kleuters en stimuleren interactief voorlezen.</t>
+          <t>a) Een overzicht van het aantal LDE-ondernemingen, opgedeeld naar hoeveel LDE’ers er actief zijn binnen de onderneming (ondernemingen met minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+).</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9677677750587463</v>
+        <v>0.9474017024040222</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03223222494125366</v>
+        <v>0.05259829759597778</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>(zie voor aandeel onderwijs: SD2)SD5 We versterken de aandacht voor taalstimulering en vroeggeletterdheid bij wie professioneel bezig is met baby’s, peuters en kleuters en stimuleren interactief voorlezen.</t>
+          <t>Is er al een concrete datum meegedeeld?</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9677677750587463</v>
+        <v>0.9474270343780518</v>
       </c>
       <c r="D97" t="n">
-        <v>0.03223222494125366</v>
+        <v>0.05257296562194824</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Het niet beschikbaar zijn van een proper toilet met de nodige voorzieningen kan voor mensen met bepaalde aandoeningen en bij wie er soms plots een dringende nood is, zelfs ronduit problematisch zijn.</t>
+          <t>Welke timing is er vooropgesteld om de consolidatieoefening, het hervormingsvoorstel en het uitvoeringsplan rond te hebben?</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9678625464439392</v>
+        <v>0.9486436247825623</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03213745355606079</v>
+        <v>0.05135637521743774</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ging het vooral over mensen die in de slachthuizen werken of waren het eerder mensen die niet in het slachthuis werkten, maar de dieren vervoerden of door eigenaars van de dieren?</t>
+          <t>Wat is de evolutie sinds 2021?</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.968762993812561</v>
+        <v>0.9487893581390381</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03123700618743896</v>
+        <v>0.05121064186096191</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wat kan worden afgeleid uit de data die momenteel worden verzameld door de diverse telpalen?</t>
+          <t>Zijn er naast deze 14,2 miljoen euro nog andere subsidies of financiële ondersteuning gegeven aan Sappi?</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9692338109016418</v>
+        <v>0.9504262804985046</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03076618909835815</v>
+        <v>0.04957371950149536</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Als er sleutelcompetenties al van in het basisonderwijs en ook in bepaalde graden in het secundair onderwijs worden leeggelaten, in hoeverre heeft het dan zin dat we aan (het geheel van) die zestien sleutelcompetenties vasthouden?</t>
+          <t>Welke budgetten werden al besteed en welke dienen nog gereserveerd te worden voor de knelpunten die nog uitgevoerd dienen te worden?</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9710237383842468</v>
+        <v>0.9522846937179565</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02897626161575317</v>
+        <v>0.04771530628204346</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>- Wat is de (huidige) omvang van de markt voor tweedehandsmobiliteitshulpmiddelen?</t>
+          <t>Wanneer is de minister hiervoor in overleg gegaan met zijn federale collega-minister?</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9719222187995911</v>
+        <v>0.9527001976966858</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02807778120040894</v>
+        <v>0.04729980230331421</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Zou het zinvol zijn om een algemeen beleidskader uit te werken voor alle zorginstellingen?</t>
+          <t>Wordt die voorraad nog verder aangevuld tegen de winter of is dat de capaciteit om voorbereid te zijn?</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.972353458404541</v>
+        <v>0.9527662992477417</v>
       </c>
       <c r="D103" t="n">
-        <v>0.02764654159545898</v>
+        <v>0.0472337007522583</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Zijn er meerdere kandidaten van wie het dossiers volledig en ontvankelijk zijn, dan worden de dossiers getoetst aan inhoudelijke criteria en kent de VRM de licentie toe binnen de 120 dagen na publicatie van de oproep tot kandidaatstelling.</t>
+          <t>Kan de minister al een indicatieve timing geven voor het verhogen en vervangen van de bruggen?</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9726055264472961</v>
+        <v>0.953096330165863</v>
       </c>
       <c r="D104" t="n">
-        <v>0.02739447355270386</v>
+        <v>0.04690366983413696</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Heeft de minister ook een ondersteunend kader vooropgesteld voor de scholen?</t>
+          <t>Wat is de intensiteit op het drukste uur langs de Lierselei?</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.972666323184967</v>
+        <v>0.9535861611366272</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02733367681503296</v>
+        <v>0.0464138388633728</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Heeft de minister ook een ondersteunend kader vooropgesteld voor de scholen?</t>
+          <t>c) Is de langere wachttijd voor een oproep merkbaar bij het aantal aanvragen?</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.972666323184967</v>
+        <v>0.9537416696548462</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02733367681503296</v>
+        <v>0.04625833034515381</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Zijn de diensten van de minister in het bezit van een globaal overzicht van alle geopende asielcentra sinds 2019? Zo ja, kan de minister die lijst toevoegen bij zijn antwoord?</t>
+          <t>Wanneer zullen die werken plaatsvinden?</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9727662801742554</v>
+        <v>0.956331193447113</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02723371982574463</v>
+        <v>0.04366880655288696</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wanneer mogen wij eindelijk dat actieplan tegen schooluitval, zoals vermeld in het regeerakkoord, verwachten?</t>
+          <t>Wanneer werden de metingen precies uitgevoerd?</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9731479287147522</v>
+        <v>0.9566543102264404</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0268520712852478</v>
+        <v>0.04334568977355957</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kan er eventueel een overzicht gegeven worden van het aantal deelnemers per knelpuntberoep, per gender en leeftijdscategorie?</t>
+          <t>Hoe groot is het ‘kort’ ziekteverzuim bij De Lijn?</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.973509669303894</v>
+        <v>0.9583697915077209</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02649033069610596</v>
+        <v>0.04163020849227905</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Is alles aangewend zoals de minister begroot had of is er onderbenutting?</t>
+          <t>Wat zijn de criteria om een werkzoekende een ticket individueel maatwerk voor 2 jaar te geven in plaats van een ticket voor individueel maatwerk voor een traject van 5 jaar?</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9736652374267578</v>
+        <v>0.9583955407142639</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02633476257324219</v>
+        <v>0.04160445928573608</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Beschikt de minister over de effectieve waarde (in euro) van een opcentiem voor elke gemeente?</t>
+          <t>Wanneer zal er in een definitieve afsluiting worden voorzien?</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9737228751182556</v>
+        <v>0.9591220617294312</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02627712488174438</v>
+        <v>0.04087793827056885</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kan de minister een actuele evaluatie geven van het IBM ‘SMAS’-platform dat grijze punten detecteert in het wegennetwerk?</t>
+          <t>Welke budgetten werden uitgetrokken om de toepassing te bouwen en uit te rollen?</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9739218354225159</v>
+        <v>0.9594151377677917</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02607816457748413</v>
+        <v>0.04058486223220825</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>a) Tegen wanneer zal de minister die oefening klaar hebben?</t>
+          <t>Kan de minister een overzicht geven van de ontvangen klachten voor mei, augustus en september 2023?</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9743820428848267</v>
+        <v>0.9597422480583191</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02561795711517334</v>
+        <v>0.04025775194168091</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kan de minister een update van de lijst bezorgen van het aantal ongevallen op de gevaarlijke punten in West-Vlaanderen voor 2019, 2020, 2021, 2022 en 2023?</t>
+          <t>Is er een evaluatie gebeurd over de berekening van de beloningen?</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9744972586631775</v>
+        <v>0.9631454944610596</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02550274133682251</v>
+        <v>0.03685450553894043</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>a) Op basis waarvan is de lijst van producten waarvoor men een vergoeding kan krijgen, opgesteld?</t>
+          <t>Werden alle beschikbare leerwerkplekken ingevuld?</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.97453373670578</v>
+        <v>0.9645271897315979</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02546626329421997</v>
+        <v>0.0354728102684021</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>882 van 6 september 2023 verwijst minister Weyts mij door naar het Agentschap Integratie en Inburgering voor de volgende vraag: “Met een CNaVT-certificaat kan een vrijstelling verkregen worden bij het Vlaamse inburgeringsprogramma voor het luik kennis van het Nederlands voor inburgeraars.” Hoe vaak werd in de voorbije 5 jaar een vrijstelling voor het luik Nederlands verleend op basis van dit CNaVT-certificaat?</t>
+          <t>Werden alle beschikbare leerwerkplekken ingevuld?</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.974638819694519</v>
+        <v>0.9645271897315979</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02536118030548096</v>
+        <v>0.0354728102684021</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hoe vaak werd de Toegankelijkheidswijzer sinds de lancering geraadpleegd?</t>
+          <t>Wanneer kunnen we de analyse in het parlement verwachten?</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9746556878089905</v>
+        <v>0.9686517119407654</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02534431219100952</v>
+        <v>0.03134828805923462</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>e) Wanneer zal dat op de raad van bestuur komen?</t>
+          <t>a) Kan de minister een lijst geven - ingedeeld naar provincie en naar gemeente of stad - van alle kruispunten die in hun totaliteit (dus alle takken) volledig conflictvrij zijn (in absolute aantallen en procentueel)?</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9747529625892639</v>
+        <v>0.969679057598114</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02524703741073608</v>
+        <v>0.03032094240188599</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>a) Kan de minister een overzicht geven per jaar in de periode 2019-2023?</t>
+          <t>Welke vertragingen zijn er gemiddeld?</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.974821925163269</v>
+        <v>0.9712814092636108</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02517807483673096</v>
+        <v>0.02871859073638916</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kan een jaarlijks overzicht gegeven worden voor deze legislatuur van welke projecten uitgevoerd konden worden en welke financiering daarvoor vooropgesteld werd?</t>
+          <t>Hoe groot is het ‘middellang’ ziekteverzuim bij De Lijn?</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9748835563659668</v>
+        <v>0.9722506999969482</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0251164436340332</v>
+        <v>0.02774930000305176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kan de minister per jaar en per provincie een onderverdeling maken voor de periode 2018 tot heden met enerzijds nieuwe aanmeldingen bij Dyzo en anderzijds lopende dossiers waarbij een beroep werd gedaan op Dyzo, maar de aanmelding al plaatsvond in het verleden? Zo ja, zijn de effecten van de COVID-19-crisis op deze manier duidelijk zichtbaar? Zo ja, zijn de effecten van de loonindexering, de stijgende grondstof- en bouwkosten en de energiecrisis zichtbaar in de cijfers?</t>
+          <t>Hoe staat de minister tegenover een snelheidsverlaging naar 50 km/u op de Lierselei, en meer in het algemeen op wegen waar 70 km/u de maximumsnelheid is en er geen vrijliggend fietspad aanwezig is?</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9754484295845032</v>
+        <v>0.9733081459999084</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02455157041549683</v>
+        <v>0.02669185400009155</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Werd de ambitie om in elke gemeente, waar mogelijk, nodig en nuttig, in ten minste één speelzone te voorzien, ondertussen behaald?</t>
+          <t>Wat was de verwachte duur van de verwijdering?</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9757347106933594</v>
+        <v>0.973653256893158</v>
       </c>
       <c r="D122" t="n">
-        <v>0.02426528930664062</v>
+        <v>0.02634674310684204</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>a) Zijn er provincies met opvallend veel dan wel opvallend weinig speelzones?</t>
+          <t>Wat zal de (na) bestemming zijn van de strook verharding?</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.976212739944458</v>
+        <v>0.9762275218963623</v>
       </c>
       <c r="D123" t="n">
-        <v>0.02378726005554199</v>
+        <v>0.0237724781036377</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Hoe lang duurde het telkens om de reparatie te voltooien en wat was de gemiddelde ‘buiten dienst’-tijd?</t>
+          <t>Kan de minister een overzicht geven van de resultaten van de zesde oproep voor huursubsidies in het onderwijs?</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9771578311920166</v>
+        <v>0.9772765636444092</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0228421688079834</v>
+        <v>0.02272343635559082</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Uitbreiding huursysteem thuiszorg- Welke andere leeftijdsgroepen komen potentieel in aanmerking voor opname in het huidige huursysteem?</t>
+          <t>Wat is de vooropgestelde datum van de effectieve inwerkingtreding?</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9777116775512695</v>
+        <v>0.977390468120575</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02228832244873047</v>
+        <v>0.02260953187942505</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven per jaar in de periode 2019-2023?</t>
+          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem dat op dit knelpunt gesignaleerd was, welke maatregelen hier genomen werden, welke resultaten dit oplevert en hoeveel het budget bedroeg?</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9777145385742188</v>
+        <v>0.9775400161743164</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02228546142578125</v>
+        <v>0.02245998382568359</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>d) Is er ook een opmerkelijk verschil van gerapporteerde overtredingen vast te stellen in slachthuizen waar nog geen Vlaamse DMO’s actief zijn ten aanzien van zij die wel toezicht hebben van Vlaamse DMO’s?</t>
+          <t>De federale overheid bleef na de zesde staatshervorming instaan voor de financiering Om hoeveel woongelegenheden gaat dit in Vlaanderen?</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9777758717536926</v>
+        <v>0.9776579141616821</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02222412824630737</v>
+        <v>0.02234208583831787</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Wat was het resultaat van de evaluatie?</t>
+          <t>Wanneer zal de vergunning van de tramstelplaats in de Jan Van de Wouwerstraat in Hoboken verlopen?</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9777873754501343</v>
+        <v>0.9778242707252502</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02221262454986572</v>
+        <v>0.02217572927474976</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Worden op die manier die leeg gelaten sleutelcompetenties dan niet gereduceerd tot restjescompetenties?</t>
+          <t>Hoe groot is het ‘globaal’ ziekteverzuim bij De Lijn?</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.97852623462677</v>
+        <v>0.9784333109855652</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02147376537322998</v>
+        <v>0.02156668901443481</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Zal dat ook werken aan specifiek evidence informed materiaal over en voor de B-stroom?</t>
+          <t>Is er een termijn bepaald van hoelang de persoon met een handicap ondersteund moet worden door bijvoorbeeld een woonzorgcentrum of een psychiatrische instelling?</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9785619974136353</v>
+        <v>0.9790761470794678</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02143800258636475</v>
+        <v>0.02092385292053223</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Kan de minister een geanonimiseerde lijst bezorgen van de ingediende steunaanvragen voor de uitkoopregeling varkens per provincie, met per bedrijf vermelding van het aantal dieren, het huidige type of de leeftijd van de stal?</t>
+          <t>Klopt het dat de files voor het gemotoriseerd verkeer op de Tiensesteenweg langer zijn geworden ten gevolge van de heraanleg van de Tiensepoort?</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9788387417793274</v>
+        <v>0.9797599911689758</v>
       </c>
       <c r="D131" t="n">
-        <v>0.02116125822067261</v>
+        <v>0.02024000883102417</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Werden er berekeningen gemaakt van de effecten op de snelwegen die aansluiten op de R0 en dus op de dagdagelijkse pendelaar?</t>
+          <t>Zijn de files richting Tiensepoort op de vesten verminderd, vergroot of hetzelfde gebleven?</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9791314601898193</v>
+        <v>0.9817548394203186</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02086853981018066</v>
+        <v>0.0182451605796814</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>b) Kan de minister ook een verdere aanpak, timing en budget geven?</t>
+          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welke maatregelen hier genomen worden, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9792225360870361</v>
+        <v>0.9820739030838013</v>
       </c>
       <c r="D133" t="n">
-        <v>0.02077746391296387</v>
+        <v>0.01792609691619873</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>- Hoe kan de vergoedbaarheid van tweedehandshulpmiddelen opgenomen worden in het bestaande derdebetalerssysteem?</t>
+          <t>Als de 100 miljoen niet gebruikt wordt, wat zal de minister dan met het overschot van dat budget doen?</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9792382121086121</v>
+        <v>0.9824368953704834</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02076178789138794</v>
+        <v>0.0175631046295166</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wat is de reden dat de lift opnieuw buiten dienst is?</t>
+          <t>Wat zijn per grond nog de geplande initiatieven?</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9805760979652405</v>
+        <v>0.9827114939689636</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01942390203475952</v>
+        <v>0.01728850603103638</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Beschikt de minister over cijfers over het aantal ondernemingen in moeilijkheden die begeleid werden door Dyzo in 2023? Zo ja, kan de minister per provincie de beschikbare cijfers vergelijken met eenzelfde periode van 2019 tot 2023?</t>
+          <t>Zijn er al resultaten beschikbaar die gedeeld kunnen worden?</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9805780649185181</v>
+        <v>0.9833329916000366</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01942193508148193</v>
+        <v>0.01666700839996338</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Welke timing wordt vooropgesteld om alle mogelijke knelpunten weg te werken?</t>
+          <t>b) Welke plaatsen werden gerealiseerd tussen 1 januari 2020 en heden?</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9810552597045898</v>
+        <v>0.9837765097618103</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01894474029541016</v>
+        <v>0.0162234902381897</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Wat is de inschatting van de Dienst Controle Strategische Goederen om de vergunning goed te keuren?</t>
+          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem stappen en timing hierin worden vooropgesteld?</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9812493920326233</v>
+        <v>0.9839385151863098</v>
       </c>
       <c r="D138" t="n">
-        <v>0.01875060796737671</v>
+        <v>0.01606148481369019</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Wat is de inschatting van de Dienst Controle Strategische Goederen om de vergunning goed te keuren?</t>
+          <t>In verband met de kostprijs en besparing daarop:a) Wat was de jaarlijkse investeringskostprijs in de voorbije 5 jaar om meer gericht te kunnen strooien?</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9812493920326233</v>
+        <v>0.9839608669281006</v>
       </c>
       <c r="D139" t="n">
-        <v>0.01875060796737671</v>
+        <v>0.01603913307189941</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Wat is de inschatting van de Dienst Controle Strategische Goederen om de vergunning goed te keuren?</t>
+          <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ingeschreven SUV’s?</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9812493920326233</v>
+        <v>0.9844368696212769</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01875060796737671</v>
+        <v>0.01556313037872314</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Wat is de inschatting van de Dienst Controle Strategische Goederen om de vergunning goed te keuren?</t>
+          <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ingeschreven SUV’s?</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9812493920326233</v>
+        <v>0.9844368696212769</v>
       </c>
       <c r="D141" t="n">
-        <v>0.01875060796737671</v>
+        <v>0.01556313037872314</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Wat zijn de resultaten van het zachte handhavingstraject dat werd gelopen?</t>
+          <t>Waren er in het schooljaar 2022-2023 tekorten aan leerwerkplekken?</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9819642305374146</v>
+        <v>0.9846816062927246</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01803576946258545</v>
+        <v>0.01531839370727539</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>- Wat is de gemiddelde gebruiksduur van mobiliteitshulpmiddelen voor deze leeftijdsgroepen?</t>
+          <t>Vroeger werd er ‘wild’ gestrooid maar de laatste jaren meer gericht op basis van weersvoorspellingen, metingen en met materiaal dat beter bepaalt hoeveel en waar exact er gestrooid moet worden.</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9820942282676697</v>
+        <v>0.984683096408844</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01790577173233032</v>
+        <v>0.01531690359115601</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>a) Wat is de huidige situatie met betrekking tot de omgevingsvergunning voor deze werken?</t>
+          <t>a) Een overzicht van het aantal maatwerkondernemingen, opgedeeld naar hoeveel maatwerkers er actief zijn binnen de onderneming.</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9822083115577698</v>
+        <v>0.9848832488059998</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01779168844223022</v>
+        <v>0.01511675119400024</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Zijn er procentueel meer inschrijvingen dan het voorgaande jaar (schooljaar 2022-2023) omdat we twijfelaars mee aan boord trekken?</t>
+          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welke maatregelen hier genomen zullen worden, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9824322462081909</v>
+        <v>0.9850908517837524</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01756775379180908</v>
+        <v>0.01490914821624756</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Werden nog bijkomende budgetten uitgetrokken voor een verdere uitrol?</t>
+          <t>Welke woonzorgvoorzieningen kregen een Kappa-controle in de jaren 2021, 2022 en tot op heden in 2023?</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.982529878616333</v>
+        <v>0.9851527214050293</v>
       </c>
       <c r="D146" t="n">
-        <v>0.01747012138366699</v>
+        <v>0.0148472785949707</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Kan de minister, eveneens opgesplitst per kabinet, het totaalaantal kabinetsmedewerkers dat opnieuw vertrok opsommen?</t>
+          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welk onderzoek hier concreet loopt, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9829628467559814</v>
+        <v>0.9854530692100525</v>
       </c>
       <c r="D147" t="n">
-        <v>0.01703715324401855</v>
+        <v>0.01454693078994751</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Dit budgettair uitsplitsen is bijgevolg niet mogelijk.” Welk budget werd er voor 2023 gereserveerd voor de bestrijding van al deze invasieve exoten waarvan er overigens - denk bijvoorbeeld alleen al maar aan de Aziatische hoornaar - steeds meer opduiken?</t>
+          <t>VDAB heeft geen data over het aantal “oudkomers” die in de voorbije 10 jaar verplicht werden door VDAB om een inburgeringstraject te volgen, wel hoeveel keer werkzoekenden de opdracht kregen door de VDAB bemiddelaar om een inburgeringstraject te volgen sinds de hernieuwde samenwerking in 2022.</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9830681681632996</v>
+        <v>0.9855421781539917</v>
       </c>
       <c r="D148" t="n">
-        <v>0.01693183183670044</v>
+        <v>0.0144578218460083</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Maar op het niveau van het kleuteronderwijs zijn er toch geen peilingen of Vlaamse centrale toetsen?’5.</t>
+          <t>b) Wat was de besparing in de hoeveelheid strooizout, kostprijs van strooizout en ook werkuren door dat meer gericht strooien?</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9831470847129822</v>
+        <v>0.985586404800415</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01685291528701782</v>
+        <v>0.01441359519958496</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Werd er al een model-IDO aangepast door het VAPH? Zo ja, om welk type model-IDO gaat het en wat werd er aangepast?</t>
+          <t>Beschikt de minister over cijfers van het aantal aannemers dat zijn lidmaatschap stop wenst te zetten? Zo ja, kan hij die meedelen?</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9831493496894836</v>
+        <v>0.9857012033462524</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01685065031051636</v>
+        <v>0.01429879665374756</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Wanneer wordt de nieuwe regeling opengesteld en wat zal de indieningsdeadline zijn?</t>
+          <t>Wanneer zal De Lijn de alternatieve stelplaatsstudie opleveren?</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9833998084068298</v>
+        <v>0.9858801960945129</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01660019159317017</v>
+        <v>0.01411980390548706</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Wat is nu eigenlijk de concrete stand van zaken wat betreft deze beheerregeling?</t>
+          <t>Wanneer verwacht de minister het resultaat van deze studie?</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9834437370300293</v>
+        <v>0.9860509037971497</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0165562629699707</v>
+        <v>0.01394909620285034</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>b) Klopt het dat de federale DMO’s opmerkelijk minder overtredingen rapporteren op ogenblikken dat de Vlaamse DMO’s niet aanwezig zijn?</t>
+          <t>Wanneer kunnen de richtlijnen daaromtrent verwacht worden?</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9836789965629578</v>
+        <v>0.9861765503883362</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01632100343704224</v>
+        <v>0.01382344961166382</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>a) Verwacht de minister een stijgend aantal bedrijven in moeilijkheden door deze crisissen?</t>
+          <t>Is de minister tevreden met de geografische spreiding van de aanvragen?</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9837820529937744</v>
+        <v>0.9866304993629456</v>
       </c>
       <c r="D154" t="n">
-        <v>0.01621794700622559</v>
+        <v>0.01336950063705444</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Als er onderbenutting is van de gereserveerde middelen, hoe zal de minister dat aanwenden?</t>
+          <t>Waarvoor is het bedrag van 9 miljoen euro exact bestemd?</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9838299155235291</v>
+        <v>0.9868029952049255</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01617008447647095</v>
+        <v>0.01319700479507446</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Kan een update worden gegeven van bruggen in beheer van het AWV, DVW (De Vlaamse Waterweg), MOW, … per provincie waar een fietssnelweg over loopt?</t>
+          <t>Hoe verhouden deze cijfers zich tot het aantal 6- tot 18-jarige inwoners in de provincie?</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9839698672294617</v>
+        <v>0.987443745136261</v>
       </c>
       <c r="D156" t="n">
-        <v>0.01603013277053833</v>
+        <v>0.01255625486373901</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Welke onderzoeksresultaten heeft het everzwijnproefproject in Genk tot op heden opgeleverd, hoe zullen ze beleidsmatig vertaald worden, en hoeveel bedraagt de kostprijs van het proefproject?</t>
+          <t>Hoe verhouden deze cijfers zich tot het aantal 6- tot 18-jarige inwoners in de provincie?</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9840667247772217</v>
+        <v>0.987443745136261</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01593327522277832</v>
+        <v>0.01255625486373901</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem stappen en timing worden vooropgesteld?</t>
+          <t>Hoe verhouden deze cijfers zich tot het aantal 6- tot 18-jarige inwoners in de provincie?</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9841694831848145</v>
+        <v>0.987443745136261</v>
       </c>
       <c r="D158" t="n">
-        <v>0.01583051681518555</v>
+        <v>0.01255625486373901</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Kan hij een overzicht geven van de budgettaire kostprijs daarvan?</t>
+          <t>Hoe verhoudt dat zich tot het totaalaantal bewoners in een woonzorgcentrum?</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9841869473457336</v>
+        <v>0.9883245229721069</v>
       </c>
       <c r="D159" t="n">
-        <v>0.01581305265426636</v>
+        <v>0.01167547702789307</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Wat verwachten we van dat soort jongeren?</t>
+          <t>Welk subsidiebudget werd vrijgemaakt voor deze oproep?</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9842554926872253</v>
+        <v>0.9884892106056213</v>
       </c>
       <c r="D160" t="n">
-        <v>0.01574450731277466</v>
+        <v>0.01151078939437866</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Als er een vertraging zit op de uitvoering, kan de minister dan een plan van aanpak en geüpdatete timing geven?</t>
+          <t>Wat is de laatste stand van zaken in de uitvoering van het akkoord dat door beide landen met bemiddeling van de EU gesloten werd?</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9843016862869263</v>
+        <v>0.9889751672744751</v>
       </c>
       <c r="D161" t="n">
-        <v>0.01569831371307373</v>
+        <v>0.0110248327255249</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Kan een update gegeven worden over de 874 onveilige plekken op schoolroutes die gedetecteerd werden?</t>
+          <t>Hoe groot is het ‘lang’ ziekteverzuim bij De Lijn?</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9847348928451538</v>
+        <v>0.9889914989471436</v>
       </c>
       <c r="D162" t="n">
-        <v>0.01526510715484619</v>
+        <v>0.01100850105285645</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>In welke budgetten dient nog te worden voorzien voor de knelpunten die nog moeten worden aangepakt?</t>
+          <t>Wat zijn de gevolgen gekoppeld aan het niet voldoen?</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0.984847366809845</v>
+        <v>0.9895373582839966</v>
       </c>
       <c r="D163" t="n">
-        <v>0.01515263319015503</v>
+        <v>0.01046264171600342</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>In welke Vlaamse gemeenten zal het project verder uitgerold worden, op hoeveel euro wordt die uitrol voorlopig geraamd, welke cijfermatige doelstellingen worden vooropgesteld, wanneer is een eerste evaluatie van deze verdere uitrol gepland, en welke extra mensen zullen daarvoor door welke diensten aangeworven worden?</t>
+          <t>Wat zijn de gevolgen gekoppeld aan het niet voldoen?</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.984980583190918</v>
+        <v>0.9895373582839966</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01501941680908203</v>
+        <v>0.01046264171600342</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Acht de minister dat bedrag voldoende of wordt in de toekomst in verdere financiële middelen voorzien?</t>
+          <t>Welke timing heeft de minister voor ogen om de actie in haar geheel af te ronden?</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9849886894226074</v>
+        <v>0.989790141582489</v>
       </c>
       <c r="D165" t="n">
-        <v>0.01501131057739258</v>
+        <v>0.01020985841751099</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Is er ook fysieke bewaking door politionele ordediensten voor het Errerahuis (militaire politie…)?</t>
+          <t>En wie op basis van zijn functie een laptop, GSM of draagtas nodig heeft die krijgt er één.</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9850356578826904</v>
+        <v>0.9897997379302979</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01496434211730957</v>
+        <v>0.01020026206970215</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Kan de minister bevestigen dat bovenvermelde Zoutleeuwse deelgemeenten enkel door functionele lijnen bediend worden?</t>
+          <t>Over welke grond (locatie, hoeveelheid, vervuilingsgraad en juridisch statuut) gaat het precies?</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9851678609848022</v>
+        <v>0.9898175597190857</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01483213901519775</v>
+        <v>0.01018244028091431</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Zijn er in die context al overtredingen vastgesteld door en/of meldingen gemaakt bij de Onderwijsinspectie, de Vlaamse Ombudsdienst, het Kinderrechtencommissariaat of juridische instanties? Zo ja, om hoeveel klachten/meldingen gaat het hier?</t>
+          <t>Hoe verhouden deze cijfers zich tot het aantal ongevallen met 6- tot 18-jarigen in andere provincies?</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9855883717536926</v>
+        <v>0.9898236393928528</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01441162824630737</v>
+        <v>0.01017636060714722</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Kan de minister een stand van zaken geven met betrekking tot deze uitvoering en de kosten?</t>
+          <t>Hoe verhouden deze cijfers zich tot het aantal ongevallen met 6- tot 18-jarigen in andere provincies?</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9856070280075073</v>
+        <v>0.9898236393928528</v>
       </c>
       <c r="D169" t="n">
-        <v>0.01439297199249268</v>
+        <v>0.01017636060714722</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Beschikt de minister over actuele cijfers met betrekking tot de langdurig zieken?</t>
+          <t>Hoe verhouden deze cijfers zich tot het aantal ongevallen met 6- tot 18-jarigen in andere provincies?</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9857675433158875</v>
+        <v>0.9898236393928528</v>
       </c>
       <c r="D170" t="n">
-        <v>0.01423245668411255</v>
+        <v>0.01017636060714722</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Maar in de eerste plaats wijzen ze op de urgente nood aan meer visie omtrent de opzet en de doelen van de B-stroom: wat moeten we in godsnaam met die grote groep 12- à 14-jarigen die zelfs na 6 jaar lager onderwijs niet meekunnen met die basis?</t>
+          <t>Zullen scholen vacante uren kunnen omzetten in een krediet om flexi-jobbers te kunnen betalen?</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.98593670129776</v>
+        <v>0.9900223612785339</v>
       </c>
       <c r="D171" t="n">
-        <v>0.01406329870223999</v>
+        <v>0.009977638721466064</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Zijn er nog andere manieren om als inburgeraar een vrijstelling te krijgen voor het luik kennis van het Nederlands? Zo ja, welke en hoe vaak werden die de voorbije vijf jaren gebruikt?</t>
+          <t>Hebben die geen gronden in bezit/gebruik (en dan verdwijnen er ook geen ha in de data als we die niet meetellen)?</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9860836863517761</v>
+        <v>0.9901447296142578</v>
       </c>
       <c r="D172" t="n">
-        <v>0.01391631364822388</v>
+        <v>0.009855270385742188</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wat was toen de evaluatie van de commissie over de proefopstelling en wat zijn de conclusies?</t>
+          <t>Welk gevolg werd er gegeven aan de dossiers?</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9862408638000488</v>
+        <v>0.990577220916748</v>
       </c>
       <c r="D173" t="n">
-        <v>0.01375913619995117</v>
+        <v>0.009422779083251953</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1 https://www.antigifcentrum.be/natuur/dieren/steken-van-wespen-bijen-hommels-en-aziatische-hoornaars2 https://natuurenbos.vlaanderen.be/schade-en-overlast/schade-overlast-door-invasieve-exoten/invasieve-exoten-vlaanderen 3 https://www.vespawatch.be/4 Wespennest gevonden?</t>
+          <t>a) Een overzicht van het aantal ondernemingen dat werkt met individueel maatwerkers, opgedeeld naar hoeveel individueel maatwerkers er actief zijn binnen de onderneming (ondernemingen met: minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+).</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9863090515136719</v>
+        <v>0.9906460046768188</v>
       </c>
       <c r="D174" t="n">
-        <v>0.01369094848632812</v>
+        <v>0.009353995323181152</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven van de financiering van de aanpak van de knelpunten in de provincie Antwerpen?</t>
+          <t>b) Als blijkt dat er nog budget over is, wat zal de minister daar dan mee doen?</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9863798022270203</v>
+        <v>0.9910049438476562</v>
       </c>
       <c r="D175" t="n">
-        <v>0.01362019777297974</v>
+        <v>0.00899505615234375</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>b) Ziet de minister een stijging of daling in die cijfers?</t>
+          <t>Deels?</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9866151213645935</v>
+        <v>0.9910935759544373</v>
       </c>
       <c r="D176" t="n">
-        <v>0.01338487863540649</v>
+        <v>0.008906424045562744</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Kan de minister verduidelijken vanuit welk beleidsdomein die subsidiëring is gebeurd, of dat de financiering vanuit het Vlaamse Randfonds komt?</t>
+          <t>Is het gebruik van iPads en gsm’s achter het stuur wel toegestaan voor chauffeurs?</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9866992235183716</v>
+        <v>0.9911508560180664</v>
       </c>
       <c r="D177" t="n">
-        <v>0.01330077648162842</v>
+        <v>0.008849143981933594</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>b) Is de geografische spreiding evenredig gebeurd of heeft men er bij de uiteindelijke selectie toch van afgeweken?</t>
+          <t>Beschikt de minister over de voornaamste reden van afwijzing?</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9867645502090454</v>
+        <v>0.9912909269332886</v>
       </c>
       <c r="D178" t="n">
-        <v>0.01323544979095459</v>
+        <v>0.008709073066711426</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>b) Is de geografische spreiding evenredig gebeurd of heeft men er bij de uiteindelijke selectie toch van afgeweken?</t>
+          <t>Hoe lang worden ze al gebruikt?</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9867645502090454</v>
+        <v>0.991445779800415</v>
       </c>
       <c r="D179" t="n">
-        <v>0.01323544979095459</v>
+        <v>0.008554220199584961</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Welke scholen in Vlaanderen werden uiteindelijk geselecteerd voor een auteursresidentie in het schooljaar 2023-2024?</t>
+          <t>In 2022, hoeveel sportwedstrijden en -competities werden rechtstreeks uitgezonden op de VRT?</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9868266582489014</v>
+        <v>0.991814136505127</v>
       </c>
       <c r="D180" t="n">
-        <v>0.01317334175109863</v>
+        <v>0.008185863494873047</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Welke scholen in Vlaanderen werden uiteindelijk geselecteerd voor een auteursresidentie in het schooljaar 2023-2024?</t>
+          <t>STAGEbonussen in schooljaar 2021-2022?</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9868266582489014</v>
+        <v>0.9918363690376282</v>
       </c>
       <c r="D181" t="n">
-        <v>0.01317334175109863</v>
+        <v>0.008163630962371826</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Als we in het basisonderwijs meteen al beginnen met sleutelcompetenties leeg te laten, dan zijn we toch een duidelijk signaal aan het geven dat niet alle sleutelcompetenties evenwaardig zijn en dat niet alle sleutelcompetenties belangrijk zijn?</t>
+          <t>Maakt die trajectcontrole langs de N368 effectief deel uit van de twintig nieuwe locaties die dit jaar door AWV werden geselecteerd?</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9871658682823181</v>
+        <v>0.9919107556343079</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01283413171768188</v>
+        <v>0.008089244365692139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>d) Kan de minister ook een verder verloop en timing geven van het project?</t>
+          <t>Wat is de verhouding tussen het aantal ongevallen met personenwagens en het aantal ingeschreven personenwagens, zonder de SUV’s?</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9874371290206909</v>
+        <v>0.9922789335250854</v>
       </c>
       <c r="D183" t="n">
-        <v>0.01256287097930908</v>
+        <v>0.007721066474914551</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Hoe ver staat de voorstudie?</t>
+          <t>Wat is de verhouding tussen het aantal ongevallen met personenwagens en het aantal ingeschreven personenwagens, zonder de SUV’s?</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0.987558901309967</v>
+        <v>0.9922789335250854</v>
       </c>
       <c r="D184" t="n">
-        <v>0.01244109869003296</v>
+        <v>0.007721066474914551</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Hoe ver staat de voorstudie?</t>
+          <t>Kan de minister-president, meer specifiek voor het arrondissement Mechelen, een overzicht geven van de lokale straat-, buurt- of verenigingsinitiatieven die in 2023 en 2022 een feestcheque ontvingen?</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.987558901309967</v>
+        <v>0.9922996163368225</v>
       </c>
       <c r="D185" t="n">
-        <v>0.01244109869003296</v>
+        <v>0.00770038366317749</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Wordt er 1 miljoen euro bespaard op jeugdinfrastructuur?</t>
+          <t>e) Wordt voor het totaal van deze 674.000ha hectaresteun toegekend?</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0.987754762172699</v>
+        <v>0.9923431277275085</v>
       </c>
       <c r="D186" t="n">
-        <v>0.01224523782730103</v>
+        <v>0.007656872272491455</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>- Voor welke mobiliteitshulpmiddelen is een tweedehandssysteem geschikt?</t>
+          <t>Worden in 2023 en 2024 specifieke acties opgezet op basis van wat men heeft geleerd uit de voorgaande jaren? Zo ja, welke en wat zijn de resultaten daarvan?</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9877806901931763</v>
+        <v>0.9923507571220398</v>
       </c>
       <c r="D187" t="n">
-        <v>0.01221930980682373</v>
+        <v>0.007649242877960205</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Is de minister van oordeel dat er nood is aan meer en/of beter onderhouden openbare toiletten in de metrostations?</t>
+          <t>Graag verduidelijking over die extra 55-60.000ha:a) Onder welke categorieën worden deze gronden in het betaalorgaan genoteerd zodat ze daarna uit de cijfers kunnen gefilterd worden richting Statbel?</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9878971576690674</v>
+        <v>0.9923515915870667</v>
       </c>
       <c r="D188" t="n">
-        <v>0.01210284233093262</v>
+        <v>0.00764840841293335</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Wat is het concrete doel van dat onderzoek?</t>
+          <t>2.Hoe en wanneer kan dit initiatief verder worden uitgerold over heel Vlaanderen ?</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9879671931266785</v>
+        <v>0.9923552274703979</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01203280687332153</v>
+        <v>0.007644772529602051</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven per West-Vlaamse gemeente van het huidige aantal kinderen in pleegzorg en het huidige aantal pleeggezinnen?</t>
+          <t>2.Hoe en wanneer kan dit initiatief verder worden uitgerold over heel Vlaanderen ?</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9881256818771362</v>
+        <v>0.9923552274703979</v>
       </c>
       <c r="D190" t="n">
-        <v>0.01187431812286377</v>
+        <v>0.007644772529602051</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Voldoet het museum aan de beoogde doelstellingen?</t>
+          <t>Wat was de kostprijs van de uitwerking van het ontwerp van de N41 door het studiebureau Tractebel Engineering nv?</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9885184168815613</v>
+        <v>0.9924909472465515</v>
       </c>
       <c r="D191" t="n">
-        <v>0.01148158311843872</v>
+        <v>0.007509052753448486</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Voldoet het museum aan de beoogde doelstellingen?</t>
+          <t>Kan de minister een overzicht geven van het aantal verkeersslachtoffers bij 6- tot 18-jarigen die de laatste vijf jaar in Limburg vielen tijdens de uren van de verplaatsingen donderdag, vrijdag; 12-12.59u woensdag)?</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9885184168815613</v>
+        <v>0.9926078319549561</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01148158311843872</v>
+        <v>0.007392168045043945</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Voldoet het museum aan de beoogde doelstellingen?</t>
+          <t>Gebeurde er een vergelijking met andere systemen? Zo ja, welke en wat is het resultaat?</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9885184168815613</v>
+        <v>0.9927772283554077</v>
       </c>
       <c r="D193" t="n">
-        <v>0.01148158311843872</v>
+        <v>0.007222771644592285</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sinds wanneer ontvingen alle aanvragers deze informatie?</t>
+          <t>Beschikt de minister over de voornaamste redenen van afwijzing?</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9885884523391724</v>
+        <v>0.9928029179573059</v>
       </c>
       <c r="D194" t="n">
-        <v>0.01141154766082764</v>
+        <v>0.007197082042694092</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie en het probleem van het knelpunt?</t>
+          <t>Beschikt de minister over de voornaamste redenen van afwijzing?</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.988636314868927</v>
+        <v>0.9928029179573059</v>
       </c>
       <c r="D195" t="n">
-        <v>0.011363685131073</v>
+        <v>0.007197082042694092</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Kan de minister voor deze bestuursperiode meedelen op welke data hiervan gebruik werd gemaakt?</t>
+          <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ongevallen met andere personenwagens?</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9887887835502625</v>
+        <v>0.9928814172744751</v>
       </c>
       <c r="D196" t="n">
-        <v>0.01121121644973755</v>
+        <v>0.007118582725524902</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Zijn ze veranderd doorheen de jaren?</t>
+          <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ongevallen met andere personenwagens?</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9888193011283875</v>
+        <v>0.9928814172744751</v>
       </c>
       <c r="D197" t="n">
-        <v>0.01118069887161255</v>
+        <v>0.007118582725524902</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Zijn ze veranderd doorheen de jaren?</t>
+          <t>Wat is het slaagpercentage van leerlingen die hun diploma secundair onderwijs via de centrale examencommissie wensen te behalen?</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9888193011283875</v>
+        <v>0.9930777549743652</v>
       </c>
       <c r="D198" t="n">
-        <v>0.01118069887161255</v>
+        <v>0.006922245025634766</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Zijn ze veranderd doorheen de jaren?</t>
+          <t>Wat zal de minister doen om er voor te zorgen dat een Europees ambtenaar die zijn kind wil inschrijven in een kinderopvang van de Vlaamse Gemeenschap met inkomenstarief, de gepaste prijs betaalt op basis van zijn werkelijk nettoloon en werkelijke gezinssamenstelling?</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9888193011283875</v>
+        <v>0.9932223558425903</v>
       </c>
       <c r="D199" t="n">
-        <v>0.01118069887161255</v>
+        <v>0.006777644157409668</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Moet de principiële stemming over de aankoop in de openbare of in de besloten vergadering plaatsvinden?</t>
+          <t>Wat waren die sancties per voorziening?</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9889469742774963</v>
+        <v>0.993225634098053</v>
       </c>
       <c r="D200" t="n">
-        <v>0.01105302572250366</v>
+        <v>0.006774365901947021</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kan de minister per dag tot en met 15 september het aantal inschrijvingen alsook het aantal aanvragen voor leerlingenvervoer meedelen?</t>
+          <t>Wat is de volledige kostprijs voor de aanpassingen die werden gedaan in de stelplaats Winterslag?</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9890017509460449</v>
+        <v>0.9932437539100647</v>
       </c>
       <c r="D201" t="n">
-        <v>0.01099824905395508</v>
+        <v>0.006756246089935303</v>
       </c>
     </row>
   </sheetData>

--- a/Identifier/to_label.xlsx
+++ b/Identifier/to_label.xlsx
@@ -458,3201 +458,3201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Is er een positieve trend waar te nemen en zo ja, welke?</t>
+          <t>Hoe wordt de 55.000 euro precies ingezet?</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5608973503112793</v>
+        <v>0.5139790773391724</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4391026496887207</v>
+        <v>0.4860209226608276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021 2022Antwerpen 274 415Limburg 23 44Oost-Vlaanderen 121 195Vlaams-Brabant 58 85West-Vlaanderen 59 92Daarnaast geeft onderstaande tabel weer hoeveel e-stepslachtoffers er vielen in die ongevallen, opgedeeld naar provincie en letselernst (bron: FOD Economie, Statbel).</t>
+          <t>Heeft de minister het DG Energie van de Europese Commissie intussen al opnieuw in kennis gesteld van de gerezen interpretatieproblemen, alsook gewezen op de absolute noodzaak aan verduidelijking op korte termijn? Zo ja, wanneer, en welk resultaat heeft dat opgeleverd?</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5643495321273804</v>
+        <v>0.5608975291252136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4356504678726196</v>
+        <v>0.4391024708747864</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>214 kreeg ik volgende tabel van de minister voor het jaar 2018:Hoe wordt het PVB ingezet in 2018?% onderbenutting Aantal personenEnkel via voucher 0,95 % 21.015Enkel via cash nVZA 19,74 % 1.784Enkel via cash VZA 6,87 % 53Voucher en cash nVZA 12,37 % 1.056Voucher en cash VZA 4,03 % 41Cash VZA en cash nVZA 13,61 % 313Voucher, cash VZA en cash nVZA 11,90 % 158(nog) geen besteding cash of voucher99,35 % 323Allen 3,50 % 24.420Kan de minister een update van die tabel bezorgen voor de jaren 2019, 2020 en 2021?</t>
+          <t>Wie daarin zowel ingeschreven was in een hogeschool als in een universiteit, zal twee keer meetellen in de tabel.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5681431293487549</v>
+        <v>0.561947226524353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4318568706512451</v>
+        <v>0.438052773475647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wanneer is die aanvraag ingediend?</t>
+          <t>Wat is de begin- en einddatum?</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5681633353233337</v>
+        <v>0.5674788951873779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4318366646766663</v>
+        <v>0.4325211048126221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers?</t>
+          <t>Acht(te) de minister het opportuun om in de periode tussen het afronden van de survey en het beëindigen van de datacleaning andere maatregelen/initiatieven te nemen inzake de bestrijding van gendergerelateerd geweld? Zo ja, wat zijn/waren dat, welk budget wordt/werd ervoor vrijgemaakt en wat zijn de beoogde doelstellingen van die maatregelen/initiatieven?</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5703068375587463</v>
+        <v>0.5700417757034302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4296931624412537</v>
+        <v>0.4299582242965698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de cijfers ten opzichte van voorgaande jaren?</t>
+          <t>Vijf functies zouden worden opgevuld door vijf van de negen personeelsleden, van wie de rest deel wordt van de werfreserve.</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5949475169181824</v>
+        <v>0.5722977519035339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4050524830818176</v>
+        <v>0.4277022480964661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wat zijn de verschillen van onderbenutting wanneer het PVB is verkregen via de reguliere procedure of via de automatische toekenningsgroepen (opgedeeld per automatische toekenningsgroep)?</t>
+          <t>Aangezien de samenwerking jaarlijks opnieuw wordt geëvalueerd, wordt de samenwerking met Belga ook volgend jaar verlengd?</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5978026986122131</v>
+        <v>0.6201326251029968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4021973013877869</v>
+        <v>0.3798673748970032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wanneer is het proces-verbaal door het Departement Omgeving opgemaakt?</t>
+          <t>Zo niet, wanneer mogen we dat verwachten?</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6018190979957581</v>
+        <v>0.6608119010925293</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3981809020042419</v>
+        <v>0.3391880989074707</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Welk aandeel van de kruispunten in Vlaanderen, beheerd door het Agentschap Wegen en Verkeer (AWV), is intussen conflictvrij?</t>
+          <t>Wat was de werklast voor het departement MOW?</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6179395318031311</v>
+        <v>0.6706766486167908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3820604681968689</v>
+        <v>0.3293233513832092</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Worden er veel afwijkingen vastgesteld op de tweejaarlijkse ijking?</t>
+          <t>Welke normen en binnen welke timing?</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6183764338493347</v>
+        <v>0.716020941734314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3816235661506653</v>
+        <v>0.283979058265686</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Welke evolutie zien we ter zake?</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.624126136302948</v>
+        <v>0.7437469959259033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.375873863697052</v>
+        <v>0.2562530040740967</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Welke evolutie zien we ter zake?</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.624126136302948</v>
+        <v>0.7437469959259033</v>
       </c>
       <c r="D13" t="n">
-        <v>0.375873863697052</v>
+        <v>0.2562530040740967</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>indien wel, wanneer en onder welke vorm mogen we dit verwachten?</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.624126136302948</v>
+        <v>0.7528078556060791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.375873863697052</v>
+        <v>0.2471921443939209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Over de aansluiting op het elektriciteitsnet: a) Werd in de concessieovereenkomst ook in een maximale termijn voorzien voor de aansluiting op het elektriciteitsnet? Zo ja, welke?</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.624126136302948</v>
+        <v>0.7569022178649902</v>
       </c>
       <c r="D15" t="n">
-        <v>0.375873863697052</v>
+        <v>0.2430977821350098</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Aan welke premies is de voorwaarde van een tijdige EPB-aangifte verbonden?</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.624126136302948</v>
+        <v>0.7723560929298401</v>
       </c>
       <c r="D16" t="n">
-        <v>0.375873863697052</v>
+        <v>0.2276439070701599</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&gt; 60 jaar?</t>
+          <t>Wat is de stand van zaken met betrekking tot de opmaak van het onteigeningsplan en het inpassen van de onteigeningsbudgetten op het investeringsprogramma?</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6513121724128723</v>
+        <v>0.8302158713340759</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3486878275871277</v>
+        <v>0.1697841286659241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>&gt; 60 jaar?</t>
+          <t>Wanneer niet alle bosuitbreidingsprojecten systematisch geregistreerd worden in de bosteller, kan de minister dan de gedetailleerde bosuitbreidingsboekhouding bezorgen voor de periode 2019-2023?</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6513121724128723</v>
+        <v>0.8325195908546448</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3486878275871277</v>
+        <v>0.1674804091453552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&gt; 60 jaar?</t>
+          <t>c) Welke evolutie is er merkbaar inzake de deelelementen die gemeenten laten screenen?</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6513121724128723</v>
+        <v>0.8354138135910034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3486878275871277</v>
+        <v>0.1645861864089966</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&gt; 60 jaar?</t>
+          <t>Welke impact heeft de klimaatverandering op de vegetatie in bermen?</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6513121724128723</v>
+        <v>0.8464345335960388</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3486878275871277</v>
+        <v>0.1535654664039612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>De gegevens voor 2022 worden momenteel verwerkt zodat ook deze ter beschikking kunnen worden gesteld via het Dataplatform Departement Werk en Sociale Economie ( Open data | Vlaanderen.be)a-b) Overzicht van het aantal maatwerkbedrijven, opgedeeld naar hoeveel maatwerkers er actief zijn binnen de onderneming en contingent2022 - Totaal 126 126 126 124 122 122Toegekend contingent19.740 19.740 19.740 20.014 20.082 20.082Het aantal maatwerkbedrijven daalt over de kwartalen heen, omwille van een fusiebeweging binnen de sector die in 2021 is ingezet en zich nog steeds verderzet.</t>
+          <t>Welke impact heeft de klimaatverandering op de vegetatie in bermen?</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6526496410369873</v>
+        <v>0.8464345335960388</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3473503589630127</v>
+        <v>0.1535654664039612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Vanaf wanneer is de geboden ondersteuning niet voldoende aangepast?</t>
+          <t>Kan de minister die cijfers ook opsplitsen tussen: a) EU-onderdanen; b) EER-onderdanen; c) niet-EU- of niet-EER-onderdanen (EER: Europese Economische Ruimte)?</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6855155229568481</v>
+        <v>0.8506177663803101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3144844770431519</v>
+        <v>0.1493822336196899</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Welke van die dossiers staan al op het meerjaren-GIP en voor welk bedrag per jaar?</t>
+          <t>Wordt de staat, de leeftijd en het type van de vangrails bijgehouden in een database?</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6889446377754211</v>
+        <v>0.8529776930809021</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3110553622245789</v>
+        <v>0.1470223069190979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Deze manier van evalueren laat toe te achterhalen hoeveel bestuurders zich de campagne na afloop kunnen herinneren (bereik) en wat het effect autobestuurder.</t>
+          <t>Zo niet, waarom niet en wanneer kan goedkeuring verwacht worden?</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7051619291305542</v>
+        <v>0.8531425595283508</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2948380708694458</v>
+        <v>0.1468574404716492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Of dat lukt, zal vooral afhangen van het aantal mensen dat een ticket individueel maatwerk krijgt en van hoeveel bedrijven de inspanning willen doen om personen met zo’n ticket tewerk te stellen.</t>
+          <t>Kan de minister een stand van zaken geven van het aantal Vlamingen dat al ondersteund is sinds de start van het programma?</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.705502450466156</v>
+        <v>0.8559725284576416</v>
       </c>
       <c r="D25" t="n">
-        <v>0.294497549533844</v>
+        <v>0.1440274715423584</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Zijn er in de nabije toekomst nog bijkomende initiatieven gepland om studenten met een handicap of functiebeperking te ondersteunen? Zo ja, wat is het plan van aanpak en het budget?</t>
+          <t>Wat zijn de verwachtingen voor het jaar 2023?</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7127206325531006</v>
+        <v>0.8588871359825134</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2872793674468994</v>
+        <v>0.1411128640174866</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Zijn er in de nabije toekomst nog bijkomende initiatieven gepland om studenten met een handicap of functiebeperking te ondersteunen? Zo ja, wat is het plan van aanpak en het budget?</t>
+          <t>Hoe en op welke termijn zal zij dat bewerkstelligen?</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7127206325531006</v>
+        <v>0.8631840348243713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2872793674468994</v>
+        <v>0.1368159651756287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Wanneer zal de derde oproep door de Vlaamse Regering in de markt worden gezet?</t>
+          <t>Zijn er al ervaringen met hacking via omvormers gemeld in Vlaanderen? Zo ja,a) Wat was de top 3 van vormen van hacking?</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7300378680229187</v>
+        <v>0.86628657579422</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2699621319770813</v>
+        <v>0.13371342420578</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hoe evolueert het aantal aanvragen en goedkeuringen in het kader van de projectoproep Landbouw - Natuur doorheen de jaren?</t>
+          <t>Wanneer niet alle boscompensatieprojecten systematisch geregistreerd worden op de bosteller, kan de minister dan de gedetailleerde boscompensatieboekhouding bezorgen voor de periode 2019-2023?</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7364243865013123</v>
+        <v>0.8714605569839478</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2635756134986877</v>
+        <v>0.1285394430160522</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>c) Hoe evalueert de minister die cijfers?</t>
+          <t>Zijn de officiële gegevens voor 2022 ondertussen beschikbaar?</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7377975583076477</v>
+        <v>0.8756571412086487</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2622024416923523</v>
+        <v>0.1243428587913513</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>c) Hoe evalueert de minister die cijfers?</t>
+          <t>Kan er een overzicht gegeven worden van de bestede middelen en een overzicht van de partners die betrokken zijn in het hele project?</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7377975583076477</v>
+        <v>0.8869045972824097</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2622024416923523</v>
+        <v>0.1130954027175903</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>c) Hoe evalueert de minister die cijfers?</t>
+          <t>f) Wanneer er bebossingsprojecten zijn die niet geregistreerd worden in de bosteller, wat is daar de oorzaak van?</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7377975583076477</v>
+        <v>0.894813597202301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2622024416923523</v>
+        <v>0.105186402797699</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>c) Hoe evalueert de minister die cijfers?</t>
+          <t>b) Welke van deze aangevraagde projecten doen voor meer dan 50% een beroep op de subsidie van de Vlaamse overheid?</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7377975583076477</v>
+        <v>0.8981442451477051</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2622024416923523</v>
+        <v>0.1018557548522949</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Is het ziekteverzuim bij De Lijn gestegen sinds het ziektebriefje voor 1 dag is afgeschaft?</t>
+          <t>Hoe zal de minister de kloof van 1000 euro tussen de graduaats- en bacheloropleidingen proberen te dichten?</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7395509481430054</v>
+        <v>0.9061340093612671</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2604490518569946</v>
+        <v>0.09386599063873291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>b) Wat waren de resultaten?</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.9085326194763184</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.09146738052368164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>c) Zijn er bepaalde uren of dagen waarop de bussen zonder airco niet uitrijden (wegens de hitte), maar vervangen worden door bussen met airco?</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.9158803820610046</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.08411961793899536</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>Kan een overzicht gegeven worden van de aanpassingen waarin in de vervoerregio Antwerpen voorzien zal worden vanaf 1 januari 2024?</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.9204357862472534</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.07956421375274658</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>Werd in de concessieovereenkomst in een maximale termijn voorzien voor het plaatsen welke?</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.9299899339675903</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.07001006603240967</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>Zo niet, wanneer is deadline?</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.9304949045181274</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.06950509548187256</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>a) Voor welke periode is die maatregel van toepassing?</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.9316155910491943</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.06838440895080566</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>Wat is de doorlooptijd bij de Raad?</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.9357361793518066</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.06426382064819336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>De Federale Regering kondigde aan dat er vanaf volgend jaar een limiet komt op hoeveel men als flexi-jobber onbelast kan bijverdienen.</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.9399994611740112</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.06000053882598877</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Werden die maatregelen geëvalueerd en wat zijn de resultaten daarvan?</t>
+          <t>Wat is de concrete timing en planning voor de uitzending ervan?</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7468575239181519</v>
+        <v>0.940319299697876</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2531424760818481</v>
+        <v>0.05968070030212402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Uit welke steun bestaat deze 14,2 miljoen euro?</t>
+          <t>Kan de minister zicht geven op de uitvoering van de projecten uit ‘Buurten op den buiten 2021 en eventueel 2022’?</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.782109260559082</v>
+        <v>0.9469250440597534</v>
       </c>
       <c r="D44" t="n">
-        <v>0.217890739440918</v>
+        <v>0.05307495594024658</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Is de minister tevreden over het aantal toegekende subsidies en de effecten van de oproep?</t>
+          <t>Kan de minister aangeven wat de mediaanprijs per m² is voor de aankoop van bebosbare grond?</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.788632869720459</v>
+        <v>0.9492113590240479</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211367130279541</v>
+        <v>0.05078864097595215</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Is de minister tevreden over het aantal toegekende subsidies en de effecten van de oproep?</t>
+          <t>Kan de minister ook een projectie in de tijd bezorgen?</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.788632869720459</v>
+        <v>0.9492432475090027</v>
       </c>
       <c r="D46" t="n">
-        <v>0.211367130279541</v>
+        <v>0.05075675249099731</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van alle lokale dienstencentra in Vlaanderen?</t>
+          <t>Sinds wanneer is een tijdige EPB-aangifte een voorwaarde voor het verkrijgen van die premies?</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7890015840530396</v>
+        <v>0.9502458572387695</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2109984159469604</v>
+        <v>0.04975414276123047</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Zal de minister deze legislatuur nog budgetten reserveren voor de stelplaatsen in Antwerpen, behalve de reguliere budgetten voor onderhoud en werking?</t>
+          <t>Hoe evalueert de minister de cijfers?</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7975480556488037</v>
+        <v>0.9530180692672729</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2024519443511963</v>
+        <v>0.04698193073272705</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Plant de minister initiatieven om deze anomalie recht te zetten? Zo ja, welke en wanneer kunnen we dat verwachten?</t>
+          <t>Liggen de cijfers van de eerste drie kwartalen van 2023 in lijn met de voorgaande jaren?</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8293402194976807</v>
+        <v>0.9549808502197266</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1706597805023193</v>
+        <v>0.04501914978027344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de cijfers?</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8312382698059082</v>
+        <v>0.9575833082199097</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1687617301940918</v>
+        <v>0.04241669178009033</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>b) Wanneer zijn deze toestemmingen/documenten aangevraagd?</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.831916868686676</v>
+        <v>0.9575833082199097</v>
       </c>
       <c r="D51" t="n">
-        <v>0.168083131313324</v>
+        <v>0.04241669178009033</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Provincie Indiener Project Totaal projectbedrag (euro)Komt in aanmerking voor subsidiëring?</t>
+          <t>Wat is het beoogde effect op de koolstofopslag van nieuw bos en compensatiebos?</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8368119597434998</v>
+        <v>0.9599452018737793</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1631880402565002</v>
+        <v>0.0400547981262207</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Welke eindbestemming werd er voor elke grond gevonden?</t>
+          <t>Wie ingeschreven is in meerdere soorten opleidingen, zal ook meerdere keren meetellen in de tabel, nl.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8370885848999023</v>
+        <v>0.965001106262207</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1629114151000977</v>
+        <v>0.03499889373779297</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b) Kan de minister een lijst geven - ingedeeld naar provincie en naar gemeente of stad - van alle kruispunten die momenteel op de lijst van zwarte kruispunten staan?</t>
+          <t>Op welke datum zullen de werken ten vroegste aangevat worden en volledig afgerond zijn?</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8371675610542297</v>
+        <v>0.9663927555084229</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1628324389457703</v>
+        <v>0.03360724449157715</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>werd de studie betaald met het voorbehouden budget van 700.000 euro van toenmalig bevoegd minister Weyts in 2017?</t>
+          <t>f) Zo ja, sinds wanneer is dat van kracht?</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8462185859680176</v>
+        <v>0.9679327011108398</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1537814140319824</v>
+        <v>0.03206729888916016</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Welke voorwaarden rond tewerkstelling zijn er gekoppeld aan deze steun en wat zijn de termijnen die men moet naleven?</t>
+          <t>1024 gaf de minister een overzicht van de realisatie Wat is de stand van zaken met betrekking tot deze nieuwe infrastructuur in 2023?</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8467148542404175</v>
+        <v>0.9685320258140564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1532851457595825</v>
+        <v>0.0314679741859436</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Vanaf wanneer zal de maatregel ingaan?</t>
+          <t>1024 gaf de minister een overzicht van de realisatie Wat is de stand van zaken met betrekking tot deze nieuwe infrastructuur in 2023?</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8472135663032532</v>
+        <v>0.9685320258140564</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1527864336967468</v>
+        <v>0.0314679741859436</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
+          <t>Plant de minister een nieuwe oproep of nieuwe initiatieven in dit kader en welke timing hanteert ze daarvoor?</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8501444458961487</v>
+        <v>0.9687447547912598</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1498555541038513</v>
+        <v>0.03125524520874023</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Komen die gronden ook voor in de cijfers op de slide van de presentatie?</t>
+          <t>Op datum van 7/11/2023 telt Audit Vlaanderen in totaal 52 medewerkers, van wie 48 met een actieve arbeidsrelatie.</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8548300266265869</v>
+        <v>0.9693173170089722</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1451699733734131</v>
+        <v>0.03068268299102783</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Welke timing zal daarbij gehanteerd worden?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8606788516044617</v>
+        <v>0.9695906043052673</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1393211483955383</v>
+        <v>0.03040939569473267</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Wat was de kostprijs van deze studie en waarom moet er door datzelfde studiebureau opnieuw bijkomend onderzoek worden gedaan naar de kilometerheffing?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.861691415309906</v>
+        <v>0.9695906043052673</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138308584690094</v>
+        <v>0.03040939569473267</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>d) Zal er elders voldoende stelplaatscapaciteit beschikbaar zijn om dat op te vangen?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8657521605491638</v>
+        <v>0.9695906043052673</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1342478394508362</v>
+        <v>0.03040939569473267</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>b) Wanneer loopt deze aanvraagperiode dan af?</t>
+          <t>Wat is het zendschema van de erediensten op de publieke omroep in 2023?</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.866767406463623</v>
+        <v>0.9701175093650818</v>
       </c>
       <c r="D63" t="n">
-        <v>0.133232593536377</v>
+        <v>0.02988249063491821</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Als er grote verschillen zijn in het aantal aanvragen per provincie, hoe verklaart de minister dan die verschillen?</t>
+          <t>Hoe evalueert de minister die evolutie?</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.86737060546875</v>
+        <v>0.9732239842414856</v>
       </c>
       <c r="D64" t="n">
-        <v>0.13262939453125</v>
+        <v>0.0267760157585144</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Als er grote verschillen zijn in het aantal aanvragen per provincie, hoe verklaart de minister dan die verschillen?</t>
+          <t>Hoe evalueert de minister die evolutie?</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.86737060546875</v>
+        <v>0.9732239842414856</v>
       </c>
       <c r="D65" t="n">
-        <v>0.13262939453125</v>
+        <v>0.0267760157585144</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>a) Zullen de rijexamencentra voorzien worden van extra middelen om die toestellen b) Heeft deze nieuwe regelgeving een financiële impact op de kostprijs van het rijexamen voor de kandidaat-bestuurder? Zo ja, welke?</t>
+          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8768247961997986</v>
+        <v>0.9746160507202148</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1231752038002014</v>
+        <v>0.02538394927978516</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>De gegevens voor 2022 worden momenteel verwerkt zodat ook deze ter beschikking kunnen worden gesteld via het Dataplatform Departement Werk en Sociale Economie ( Open data | Vlaanderen.be)a-b) Overzicht van het aantal LDE-ondernemingen, opgedeeld naar hoeveel LDE’ers er actief zijn binnen de onderneming (ondernemingen met minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+) en contingent.</t>
+          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8771883249282837</v>
+        <v>0.9746160507202148</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1228116750717163</v>
+        <v>0.02538394927978516</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wanneer werd de opdracht van het studiebureau Tractebel Engineering nv afgerond?</t>
+          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.878750741481781</v>
+        <v>0.9746160507202148</v>
       </c>
       <c r="D68" t="n">
-        <v>0.121249258518219</v>
+        <v>0.02538394927978516</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kan de minister meedelen telkens voor het jaar 2021, 2022 en 2023?</t>
+          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8887544274330139</v>
+        <v>0.9746160507202148</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1112455725669861</v>
+        <v>0.02538394927978516</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kan de minister een oplijsting bezorgen van de West-Vlaamse scholen en verenigingen die deelnamen in het schooljaar 2022-2023, met vermelding van de gemeente waarbinnen de school of vereniging gevestigd is, de status van het actieplan (al dan niet voltooid) en de toegekende beloning per school en per vereniging?</t>
+          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8907580375671387</v>
+        <v>0.9746160507202148</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1092419624328613</v>
+        <v>0.02538394927978516</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>a) Is de minister tevreden over het aantal aanvragen?</t>
+          <t>Waarom duurt die actualisatie zo lang?</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8973835706710815</v>
+        <v>0.974876880645752</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1026164293289185</v>
+        <v>0.02512311935424805</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Wanneer is dat voor het laatst gemeten?</t>
+          <t>Hoe evalueert de minister dat netwerk?</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8974357843399048</v>
+        <v>0.9760091304779053</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1025642156600952</v>
+        <v>0.02399086952209473</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de schoolroutes in Limburg waar verkeersslachtoffers bij 6- tot 18-jarigen vielen in de laatste vijf jaar?</t>
+          <t>Welke illegale dierenhuiden komen Vlaanderen binnen?</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9072400331497192</v>
+        <v>0.977302074432373</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09275996685028076</v>
+        <v>0.02269792556762695</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Welke timing wordt voor het volledige project gehanteerd?</t>
+          <t>Wanneer dienen er bermbeheerplannen voor bepaalde zones opgemaakt te worden?</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9150487780570984</v>
+        <v>0.9787217974662781</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08495122194290161</v>
+        <v>0.02127820253372192</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kunnen de cijfers van de diversiteitsonderzoeken van 2021 en 2022 bekendgemaakt worden, aangezien ze aanwezig blijken?</t>
+          <t>Wanneer dienen er bermbeheerplannen voor bepaalde zones opgemaakt te worden?</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9174978733062744</v>
+        <v>0.9787217974662781</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08250212669372559</v>
+        <v>0.02127820253372192</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hoe breed is het tweerichtingsfietspad langs de Lierselei?</t>
+          <t>Hoe evalueert de minister deze nieuwsbrief?</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9182776808738708</v>
+        <v>0.9796812534332275</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08172231912612915</v>
+        <v>0.02031874656677246</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Waren er in het schooljaar 2021-2022 tekorten aan leerwerkplekken?</t>
+          <t>Welke criteria worden er gehanteerd om die switch door te voeren?</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.918756902217865</v>
+        <v>0.981346070766449</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08124309778213501</v>
+        <v>0.01865392923355103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>b) Hoe evalueert de minister die cijfers?</t>
+          <t>Kan de minister deze doorlooptijden verklaren?</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9215774536132812</v>
+        <v>0.9815334677696228</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07842254638671875</v>
+        <v>0.0184665322303772</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>b) Hoe evalueert de minister die cijfers?</t>
+          <t>Heeft de minister zicht op de subsidiebudgetten die de verschillende West-Vlaamse VOC’s in 2023 en 2024 zullen ontvangen?</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9215774536132812</v>
+        <v>0.9819484353065491</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07842254638671875</v>
+        <v>0.01805156469345093</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hoe is de verhouding in bekeuringen van Belgische ten opzichte van buitenlandse vrachtvervoerders?</t>
+          <t>Wanneer gebeurt de uitrol van de digitale radio en welke gevolgen heeft dat voor de uitrol van de auditieve halteaankondiging?</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9217989444732666</v>
+        <v>0.9824662208557129</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0782010555267334</v>
+        <v>0.01753377914428711</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Acht de minister het vooropgestelde budget voor de subsidie voldoende?</t>
+          <t>d) naargelang de letselsernst van de slachtoffers (dodelijk verwond, zwaargewond of lichtgewond; e) naargelang het vervoersmiddel van de tegenpartij (vrachtwagen, lichte bestelwagen, auto, bromfiets, fiets, step, voetganger, …); f) naargelang de leeftijd van de bestuurder van het landbouwvoertuig dat betrokken was bij een ongeval;  g) waar vonden deze ongevallen plaats (gemeentewegen, gewestwegen, doorlopende weg, kruispunten, rotondes, ...)?</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9221016764640808</v>
+        <v>0.9827640056610107</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07789832353591919</v>
+        <v>0.01723599433898926</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Acht de minister het vooropgestelde budget voor de subsidie voldoende?</t>
+          <t>Wat is de methodologie om de boscompensatie in natura te controleren?</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9221016764640808</v>
+        <v>0.9830418825149536</v>
       </c>
       <c r="D82" t="n">
-        <v>0.07789832353591919</v>
+        <v>0.01695811748504639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Welk aandeel van deze gronden?</t>
+          <t>Hoe evalueert de minister deze evolutie?</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9245500564575195</v>
+        <v>0.984207808971405</v>
       </c>
       <c r="D83" t="n">
-        <v>0.07544994354248047</v>
+        <v>0.01579219102859497</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wanneer zal de volgende en zevende oproep plaatsvinden?</t>
+          <t>Welke tools en middelen zullen daarvoor gebruikt worden?</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9316099286079407</v>
+        <v>0.9844598770141602</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06839007139205933</v>
+        <v>0.01554012298583984</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kan de minister een inschatting geven over de jaarlijkse meerkosten om alle vroegere rob-plaatsen voor zware zorgprofielen om te zetten naar rvt-plaatsen?</t>
+          <t>De Lijn bekijkt hoeveel chauffeurs er nodig zijn om het aanbod uit te voeren dat gereden moet worden vanuit een bepaalde stelplaats.</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9333664774894714</v>
+        <v>0.9844971895217896</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06663352251052856</v>
+        <v>0.01550281047821045</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wat zijn de grootste hordes die nog genomen moeten worden om de deadline wel te halen?</t>
+          <t>Hoe evalueert de minister deze regeling?</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9350074529647827</v>
+        <v>0.9848225116729736</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06499254703521729</v>
+        <v>0.01517748832702637</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Is het vooropstelde budget nog steeds haalbaar op basis van de al ingediende subsidieaanvragen?</t>
+          <t>Is dat sindsdien veranderd? Zo ja, welke nieuwe deelaspecten plant de minister toe te voegen en vanaf wanneer?</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9353166222572327</v>
+        <v>0.9854812026023865</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06468337774276733</v>
+        <v>0.01451879739761353</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Waarvoor wordt dit ‘overig aangegeven areaal’ ingezet? Graag per categorie van gebruik?</t>
+          <t>Welke buslijnen van het huidige net zullen wegvallen?</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9356328248977661</v>
+        <v>0.9855005145072937</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06436717510223389</v>
+        <v>0.0144994854927063</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Is er nog een ruimere evaluatie gepland van de heraanleg van de Tiensepoort en tegen wanneer zal die evaluatie klaar zijn?</t>
+          <t>Wanneer staat welke fase gepland?</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9359602928161621</v>
+        <v>0.9855254292488098</v>
       </c>
       <c r="D89" t="n">
-        <v>0.06403970718383789</v>
+        <v>0.01447457075119019</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>b) Hoe kijkt de minister naar die cijfers?</t>
+          <t>253/15/1), afgemeten ten opzichte van het totaalaantal kinderen dat effectief nieuw is ingeschreven in het eerste jaar van een secundaire school van het Nederlandstalige onderwijs in diezelfde gemeente in de Vlaamse Rand?</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9359674453735352</v>
+        <v>0.9858050942420959</v>
       </c>
       <c r="D90" t="n">
-        <v>0.06403255462646484</v>
+        <v>0.01419490575790405</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Het is voor VRT niet duidelijk wat precies bedoeld wordt met ‘hoeveel sportwedstrijden en -competities’ er werden uitgezonden.</t>
+          <t>In het najaar van 2022 werd de campagne ‘Ooit gebeurd, nooit gehoord?’ gelanceerd om de bekendheid van de commissie te vergroten.</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9367933869361877</v>
+        <v>0.986187219619751</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06320661306381226</v>
+        <v>0.01381278038024902</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Voor de telewerkmiddelen is het niet mogelijk om na te gaan hoeveel personeelsleden daarvan gebruik hebben gemaakt.</t>
+          <t>Welke ambities heeft de Vlaamse Regering nog in dit kader tijdens het EU-voorzitterschap, naast het afronden van de EU-wetgeving ter zake?</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9434449672698975</v>
+        <v>0.9862983822822571</v>
       </c>
       <c r="D92" t="n">
-        <v>0.05655503273010254</v>
+        <v>0.01370161771774292</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Is er een definitie beschikbaar van ‘onvoldoende aangepaste ondersteuning’?</t>
+          <t>Welke boscompensatieprojecten worden geregistreerd in de bosteller?</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9437419772148132</v>
+        <v>0.9863165020942688</v>
       </c>
       <c r="D93" t="n">
-        <v>0.05625802278518677</v>
+        <v>0.0136834979057312</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>c) Tegen wanneer wordt een nieuwe versie gepland?</t>
+          <t>Hoe evalueert de minister de voorbije edities?</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9450353384017944</v>
+        <v>0.9865179657936096</v>
       </c>
       <c r="D94" t="n">
-        <v>0.05496466159820557</v>
+        <v>0.01348203420639038</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wat de vangplanken betreft die geplaatst werden voor 1 januari 2020:a) Wanneer werden die al bestaande beschermplanken nog eens gecontroleerd en onderhouden?</t>
+          <t>Hoe evalueert de minister de vorige edities?</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9467188715934753</v>
+        <v>0.9866021871566772</v>
       </c>
       <c r="D95" t="n">
-        <v>0.05328112840652466</v>
+        <v>0.01339781284332275</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>a) Een overzicht van het aantal LDE-ondernemingen, opgedeeld naar hoeveel LDE’ers er actief zijn binnen de onderneming (ondernemingen met minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+).</t>
+          <t>Wat waren de resultaten van de laatste drie inspecties?</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9474017024040222</v>
+        <v>0.9868069291114807</v>
       </c>
       <c r="D96" t="n">
-        <v>0.05259829759597778</v>
+        <v>0.01319307088851929</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Is er al een concrete datum meegedeeld?</t>
+          <t>Wanneer gebeuren die en welke opvolgstappen zijn er?</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9474270343780518</v>
+        <v>0.987215518951416</v>
       </c>
       <c r="D97" t="n">
-        <v>0.05257296562194824</v>
+        <v>0.01278448104858398</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Welke timing is er vooropgesteld om de consolidatieoefening, het hervormingsvoorstel en het uitvoeringsplan rond te hebben?</t>
+          <t>Wat is de timing voor de aanvraag van de omgevingsvergunning?</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9486436247825623</v>
+        <v>0.9873878359794617</v>
       </c>
       <c r="D98" t="n">
-        <v>0.05135637521743774</v>
+        <v>0.01261216402053833</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wat is de evolutie sinds 2021?</t>
+          <t>Zijn er in gemeenten waar die voorrang van toepassing is effectief procentueel minder kinderen uit anderstalige gezinnen ingeschreven in het Nederlandstalige basisonderwijs?</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9487893581390381</v>
+        <v>0.9876279830932617</v>
       </c>
       <c r="D99" t="n">
-        <v>0.05121064186096191</v>
+        <v>0.01237201690673828</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Zijn er naast deze 14,2 miljoen euro nog andere subsidies of financiële ondersteuning gegeven aan Sappi?</t>
+          <t>Wat zijn de belangrijkste resultaten die uit het netwerk komen?</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9504262804985046</v>
+        <v>0.9883499145507812</v>
       </c>
       <c r="D100" t="n">
-        <v>0.04957371950149536</v>
+        <v>0.01165008544921875</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Welke budgetten werden al besteed en welke dienen nog gereserveerd te worden voor de knelpunten die nog uitgevoerd dienen te worden?</t>
+          <t>Hoe evalueert de minister-president de werking en de resultaten?</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9522846937179565</v>
+        <v>0.9887912273406982</v>
       </c>
       <c r="D101" t="n">
-        <v>0.04771530628204346</v>
+        <v>0.01120877265930176</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wanneer is de minister hiervoor in overleg gegaan met zijn federale collega-minister?</t>
+          <t>Hoe evalueert de minister-president de samenwerking met Belga?</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9527001976966858</v>
+        <v>0.9890193343162537</v>
       </c>
       <c r="D102" t="n">
-        <v>0.04729980230331421</v>
+        <v>0.01098066568374634</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wordt die voorraad nog verder aangevuld tegen de winter of is dat de capaciteit om voorbereid te zijn?</t>
+          <t>b) Wat is de concrete timing om die doelstelling te realiseren?</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9527662992477417</v>
+        <v>0.989391565322876</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0472337007522583</v>
+        <v>0.01060843467712402</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kan de minister al een indicatieve timing geven voor het verhogen en vervangen van de bruggen?</t>
+          <t>Wanneer kan worden ingestapt en hoe gebeurt de selectie?</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.953096330165863</v>
+        <v>0.9895109534263611</v>
       </c>
       <c r="D104" t="n">
-        <v>0.04690366983413696</v>
+        <v>0.01048904657363892</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wat is de intensiteit op het drukste uur langs de Lierselei?</t>
+          <t>Welke fysieke verbindingen via het reguliere openbaar vervoer zullen met andere woorden wegvallen?</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9535861611366272</v>
+        <v>0.9897612929344177</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0464138388633728</v>
+        <v>0.01023870706558228</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>c) Is de langere wachttijd voor een oproep merkbaar bij het aantal aanvragen?</t>
+          <t>Hoe evalueert de minister deze doorlooptijden?</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9537416696548462</v>
+        <v>0.9903517365455627</v>
       </c>
       <c r="D106" t="n">
-        <v>0.04625833034515381</v>
+        <v>0.009648263454437256</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wanneer zullen die werken plaatsvinden?</t>
+          <t>Wanneer precies zal de datacleaning afgerond worden, en kunnen we de data verwachten?</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.956331193447113</v>
+        <v>0.9903891682624817</v>
       </c>
       <c r="D107" t="n">
-        <v>0.04366880655288696</v>
+        <v>0.009610831737518311</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wanneer werden de metingen precies uitgevoerd?</t>
+          <t>Waaruit bestaat dat? Zo ja, hoe en door wie worden de resultaten van die controles geregistreerd?</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9566543102264404</v>
+        <v>0.9911224842071533</v>
       </c>
       <c r="D108" t="n">
-        <v>0.04334568977355957</v>
+        <v>0.00887751579284668</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hoe groot is het ‘kort’ ziekteverzuim bij De Lijn?</t>
+          <t>b) Wat zijn de uit deze netwerken bekende noden en drempels bij singles en alleenstaanden?</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9583697915077209</v>
+        <v>0.9911297559738159</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04163020849227905</v>
+        <v>0.008870244026184082</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wat zijn de criteria om een werkzoekende een ticket individueel maatwerk voor 2 jaar te geven in plaats van een ticket voor individueel maatwerk voor een traject van 5 jaar?</t>
+          <t>Kan er een overzicht gegeven worden van alle geplande evenementen?</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9583955407142639</v>
+        <v>0.9912220239639282</v>
       </c>
       <c r="D110" t="n">
-        <v>0.04160445928573608</v>
+        <v>0.008777976036071777</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wanneer zal er in een definitieve afsluiting worden voorzien?</t>
+          <t>Zijn er opvallende verschillen ten opzichte thema?</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9591220617294312</v>
+        <v>0.9914805889129639</v>
       </c>
       <c r="D111" t="n">
-        <v>0.04087793827056885</v>
+        <v>0.008519411087036133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Welke budgetten werden uitgetrokken om de toepassing te bouwen en uit te rollen?</t>
+          <t>Welke criteria worden gehanteerd om dat te bepalen?</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9594151377677917</v>
+        <v>0.9914851784706116</v>
       </c>
       <c r="D112" t="n">
-        <v>0.04058486223220825</v>
+        <v>0.008514821529388428</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de ontvangen klachten voor mei, augustus en september 2023?</t>
+          <t>Kregen ze de aanvragen tot terugbetaling van de boetes voor laattijdige keuring wegens de lange wachttijden verwerkt?</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9597422480583191</v>
+        <v>0.9915099143981934</v>
       </c>
       <c r="D113" t="n">
-        <v>0.04025775194168091</v>
+        <v>0.008490085601806641</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Is er een evaluatie gebeurd over de berekening van de beloningen?</t>
+          <t>Daarnaast is er binnen mijn administratie nog een groep personeelsleden voor wie de tussenkomst voor de internetverbinding via het derde-betalersysteem geregeld is.</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9631454944610596</v>
+        <v>0.991546094417572</v>
       </c>
       <c r="D114" t="n">
-        <v>0.03685450553894043</v>
+        <v>0.008453905582427979</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Werden alle beschikbare leerwerkplekken ingevuld?</t>
+          <t>253/15/1) zijn ingeschreven in het eerste jaar van het secundair onderwijs in de desbetreffende gemeente?</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9645271897315979</v>
+        <v>0.9917438626289368</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0354728102684021</v>
+        <v>0.008256137371063232</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Werden alle beschikbare leerwerkplekken ingevuld?</t>
+          <t>Acht de minister dat bedrag voldoende om alle in aanmerking komende projecten te subsidiëren?</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9645271897315979</v>
+        <v>0.9921220541000366</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0354728102684021</v>
+        <v>0.007877945899963379</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wanneer kunnen we de analyse in het parlement verwachten?</t>
+          <t>Wanneer is de aanbesteding afgerond en kunnen de werken voor de aanleg van de fietspaden aanvatten?</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9686517119407654</v>
+        <v>0.9924529194831848</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03134828805923462</v>
+        <v>0.007547080516815186</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>a) Kan de minister een lijst geven - ingedeeld naar provincie en naar gemeente of stad - van alle kruispunten die in hun totaliteit (dus alle takken) volledig conflictvrij zijn (in absolute aantallen en procentueel)?</t>
+          <t>Zijn er in gemeenten waar die voorrang van toepassing is effectief procentueel minder leerlingen uit anderstalige gezinnen ingeschreven in het eerste jaar van Nederlandstalig secundair onderwijs?</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.969679057598114</v>
+        <v>0.9925193786621094</v>
       </c>
       <c r="D118" t="n">
-        <v>0.03032094240188599</v>
+        <v>0.007480621337890625</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Welke vertragingen zijn er gemiddeld?</t>
+          <t>Wat zijn de laatste cijfers wat betreft de IPCC-definitie ‘forest land’?</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9712814092636108</v>
+        <v>0.9925928711891174</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02871859073638916</v>
+        <v>0.007407128810882568</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Hoe groot is het ‘middellang’ ziekteverzuim bij De Lijn?</t>
+          <t>Kan de minister-president per lichting een overzicht geven van het aantal studenten dat deelnam aan de selectieprocedure van de Fayatbeurzen?</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9722506999969482</v>
+        <v>0.9926055669784546</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02774930000305176</v>
+        <v>0.00739443302154541</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hoe staat de minister tegenover een snelheidsverlaging naar 50 km/u op de Lierselei, en meer in het algemeen op wegen waar 70 km/u de maximumsnelheid is en er geen vrijliggend fietspad aanwezig is?</t>
+          <t>Hoe evolueert de hoeveelheid abonnees en het leesbereik?</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9733081459999084</v>
+        <v>0.9927090406417847</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02669185400009155</v>
+        <v>0.007290959358215332</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wat was de verwachte duur van de verwijdering?</t>
+          <t>Is er nog een volgend overleg gepland en zo ja, wanneer?</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.973653256893158</v>
+        <v>0.9927173852920532</v>
       </c>
       <c r="D122" t="n">
-        <v>0.02634674310684204</v>
+        <v>0.007282614707946777</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Wat zal de (na) bestemming zijn van de strook verharding?</t>
+          <t>Ontvangt de VRT enige inkomsten voor het uitzenden van de erediensten?</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9762275218963623</v>
+        <v>0.9928569793701172</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0237724781036377</v>
+        <v>0.007143020629882812</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de resultaten van de zesde oproep voor huursubsidies in het onderwijs?</t>
+          <t>c) Moeten klanten de aanvraag tot terugbetaling binnen een bepaalde termijn doen? Zo ja, welke?</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9772765636444092</v>
+        <v>0.9930263757705688</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02272343635559082</v>
+        <v>0.006973624229431152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wat is de vooropgestelde datum van de effectieve inwerkingtreding?</t>
+          <t>Zijn de bestaande vangrails nog voldoende veilig gelet op de tendens naar steeds groter en zwaarder wordende voertuigen en de grotere impact van die voertuigen?</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.977390468120575</v>
+        <v>0.9931584000587463</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02260953187942505</v>
+        <v>0.006841599941253662</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem dat op dit knelpunt gesignaleerd was, welke maatregelen hier genomen werden, welke resultaten dit oplevert en hoeveel het budget bedroeg?</t>
+          <t>Kan de minister een overzicht geven van het aantal tractorsluizen op de Vlaamse wegen?</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9775400161743164</v>
+        <v>0.9933566451072693</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02245998382568359</v>
+        <v>0.006643354892730713</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>De federale overheid bleef na de zesde staatshervorming instaan voor de financiering Om hoeveel woongelegenheden gaat dit in Vlaanderen?</t>
+          <t>Wie zal de hosting, onderhoud en financiering van de website www.akkerdelen.be verder beheren?</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9776579141616821</v>
+        <v>0.9935146570205688</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02234208583831787</v>
+        <v>0.006485342979431152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Wanneer zal de vergunning van de tramstelplaats in de Jan Van de Wouwerstraat in Hoboken verlopen?</t>
+          <t>Hoe evalueert de minister de cijfers in vergelijking met vorig jaar?</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9778242707252502</v>
+        <v>0.9935247898101807</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02217572927474976</v>
+        <v>0.006475210189819336</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hoe groot is het ‘globaal’ ziekteverzuim bij De Lijn?</t>
+          <t>Hoe evalueert de minister de cijfers in vergelijking met vorig jaar?</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9784333109855652</v>
+        <v>0.9935247898101807</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02156668901443481</v>
+        <v>0.006475210189819336</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Is er een termijn bepaald van hoelang de persoon met een handicap ondersteund moet worden door bijvoorbeeld een woonzorgcentrum of een psychiatrische instelling?</t>
+          <t>Zijn er nog Blue Dealprojecten die ingezet werden ter compensatie van watervolume dat elders verdwijnt?</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9790761470794678</v>
+        <v>0.9936227202415466</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02092385292053223</v>
+        <v>0.006377279758453369</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Klopt het dat de files voor het gemotoriseerd verkeer op de Tiensesteenweg langer zijn geworden ten gevolge van de heraanleg van de Tiensepoort?</t>
+          <t>Wat is de huidige stand van zaken met betrekking tot het monitoren van de tijdens deze legislatuur aangeplante bossen in Vlaanderen?</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9797599911689758</v>
+        <v>0.9938331842422485</v>
       </c>
       <c r="D131" t="n">
-        <v>0.02024000883102417</v>
+        <v>0.006166815757751465</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Zijn de files richting Tiensepoort op de vesten verminderd, vergroot of hetzelfde gebleven?</t>
+          <t>Zo niet, wat is de geplande timing van de realisatie alsook de begroting ervoor?</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9817548394203186</v>
+        <v>0.993895947933197</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0182451605796814</v>
+        <v>0.006104052066802979</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welke maatregelen hier genomen worden, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
+          <t>Zo niet, wat is de geplande timing van de realisatie alsook de begroting ervoor?</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9820739030838013</v>
+        <v>0.993895947933197</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01792609691619873</v>
+        <v>0.006104052066802979</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Als de 100 miljoen niet gebruikt wordt, wat zal de minister dan met het overschot van dat budget doen?</t>
+          <t>Kan de minister een overzicht geven van het aantal ongevallen veroorzaakt door een tractorsluis?</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9824368953704834</v>
+        <v>0.9940432906150818</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0175631046295166</v>
+        <v>0.005956709384918213</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wat zijn per grond nog de geplande initiatieven?</t>
+          <t>Heeft de minister zicht op de timing waarbinnen deze projecten ook effectief gerealiseerd zullen zijn?</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9827114939689636</v>
+        <v>0.9941478967666626</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01728850603103638</v>
+        <v>0.005852103233337402</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Zijn er al resultaten beschikbaar die gedeeld kunnen worden?</t>
+          <t>a) Houdt De Vlaamse Waterweg bij, voor de bruggen onder haar beheer, hoe lang ze gemiddeld geopend zijn per keer? Zo ja, kan de minister die cijfers voor de Brugse bruggen vrijgeven?</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9833329916000366</v>
+        <v>0.9941613078117371</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01666700839996338</v>
+        <v>0.005838692188262939</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>b) Welke plaatsen werden gerealiseerd tussen 1 januari 2020 en heden?</t>
+          <t>Zal het aantal ongevallen gestegen, afgenomen of stabiel gebleven zijn ten opzichte van de voorgaande jaren?</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9837765097618103</v>
+        <v>0.9944633841514587</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0162234902381897</v>
+        <v>0.00553661584854126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem stappen en timing hierin worden vooropgesteld?</t>
+          <t>Hoe evalueert de minister-president het Flanders Trainee Programme tot nu toe?</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9839385151863098</v>
+        <v>0.994537889957428</v>
       </c>
       <c r="D138" t="n">
-        <v>0.01606148481369019</v>
+        <v>0.005462110042572021</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>In verband met de kostprijs en besparing daarop:a) Wat was de jaarlijkse investeringskostprijs in de voorbije 5 jaar om meer gericht te kunnen strooien?</t>
+          <t>Hoe evalueert de minister deze initiatieven?</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9839608669281006</v>
+        <v>0.994539201259613</v>
       </c>
       <c r="D139" t="n">
-        <v>0.01603913307189941</v>
+        <v>0.005460798740386963</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ingeschreven SUV’s?</t>
+          <t>c) In haar antwoord op de bovenvermelde vraag gaf de minister ook een overzicht Kan de minister per provincie in nominale cijfers weergeven hoeveel offroadpaden er in elke categorie zijn?</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9844368696212769</v>
+        <v>0.994551956653595</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01556313037872314</v>
+        <v>0.005448043346405029</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ingeschreven SUV’s?</t>
+          <t>c) In haar antwoord op de bovenvermelde vraag gaf de minister ook een overzicht Kan de minister per provincie in nominale cijfers weergeven hoeveel offroadpaden er in elke categorie zijn?</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9844368696212769</v>
+        <v>0.994551956653595</v>
       </c>
       <c r="D141" t="n">
-        <v>0.01556313037872314</v>
+        <v>0.005448043346405029</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Waren er in het schooljaar 2022-2023 tekorten aan leerwerkplekken?</t>
+          <t>Kan de minister een overzicht geven van het aantal tractorsluizen dat opnieuw verwijderd werd?</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9846816062927246</v>
+        <v>0.9946147799491882</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01531839370727539</v>
+        <v>0.005385220050811768</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Vroeger werd er ‘wild’ gestrooid maar de laatste jaren meer gericht op basis van weersvoorspellingen, metingen en met materiaal dat beter bepaalt hoeveel en waar exact er gestrooid moet worden.</t>
+          <t>Hoe evalueert de minister de aanpak rond de veiligheidsmaaibeurten?</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.984683096408844</v>
+        <v>0.9947133660316467</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01531690359115601</v>
+        <v>0.005286633968353271</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>a) Een overzicht van het aantal maatwerkondernemingen, opgedeeld naar hoeveel maatwerkers er actief zijn binnen de onderneming.</t>
+          <t>Hoe evalueert de minister de aanpak rond de veiligheidsmaaibeurten?</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9848832488059998</v>
+        <v>0.9947133660316467</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01511675119400024</v>
+        <v>0.005286633968353271</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welke maatregelen hier genomen zullen worden, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
+          <t>Kan de minister de methodologie voor de bosteller in detail bezorgen, zowel voor bosuitbreiding, als voor boscompensatie?</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9850908517837524</v>
+        <v>0.9948391318321228</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01490914821624756</v>
+        <v>0.005160868167877197</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Welke woonzorgvoorzieningen kregen een Kappa-controle in de jaren 2021, 2022 en tot op heden in 2023?</t>
+          <t>Hoe evalueert de minister die nieuwe cijfers in verhouding tot de laatste cijfers in juni 2022?</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9851527214050293</v>
+        <v>0.9951184988021851</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0148472785949707</v>
+        <v>0.004881501197814941</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welk onderzoek hier concreet loopt, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
+          <t>Is er nood aan aanpassing van het vooropgestelde budget?</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9854530692100525</v>
+        <v>0.9951500296592712</v>
       </c>
       <c r="D147" t="n">
-        <v>0.01454693078994751</v>
+        <v>0.00484997034072876</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>VDAB heeft geen data over het aantal “oudkomers” die in de voorbije 10 jaar verplicht werden door VDAB om een inburgeringstraject te volgen, wel hoeveel keer werkzoekenden de opdracht kregen door de VDAB bemiddelaar om een inburgeringstraject te volgen sinds de hernieuwde samenwerking in 2022.</t>
+          <t>Zo niet, wanneer plant de minister die campagne?</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9855421781539917</v>
+        <v>0.9952090382575989</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0144578218460083</v>
+        <v>0.004790961742401123</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>b) Wat was de besparing in de hoeveelheid strooizout, kostprijs van strooizout en ook werkuren door dat meer gericht strooien?</t>
+          <t>Zo niet, wanneer plant de minister die campagne?</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.985586404800415</v>
+        <v>0.9952090382575989</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01441359519958496</v>
+        <v>0.004790961742401123</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Beschikt de minister over cijfers van het aantal aannemers dat zijn lidmaatschap stop wenst te zetten? Zo ja, kan hij die meedelen?</t>
+          <t>technisch adviseur, adjunct-directeur), bevorderingsambten (directeur, beheerder) als voor meesters-, vak- en dienstpersoneel?</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9857012033462524</v>
+        <v>0.9952137470245361</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01429879665374756</v>
+        <v>0.004786252975463867</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Wanneer zal De Lijn de alternatieve stelplaatsstudie opleveren?</t>
+          <t>Om na te gaan hoeveel gemeenten beschikken over een afwijking van het Bermbesluit die nog geldig is, is opzoekingswerk nodig dat niet mogelijk is binnen de behandelingsperiode voor deze vraag.</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9858801960945129</v>
+        <v>0.9953509569168091</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01411980390548706</v>
+        <v>0.004649043083190918</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Wanneer verwacht de minister het resultaat van deze studie?</t>
+          <t>Hoe evalueert de minister-president het succes en het concept van de Fayatbeurzen?</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9860509037971497</v>
+        <v>0.9954608082771301</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01394909620285034</v>
+        <v>0.004539191722869873</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Wanneer kunnen de richtlijnen daaromtrent verwacht worden?</t>
+          <t>Wat is de methodologie om de boscompensatie via het Boscompensatiefonds te controleren?</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9861765503883362</v>
+        <v>0.9954719543457031</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01382344961166382</v>
+        <v>0.004528045654296875</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Is de minister tevreden met de geografische spreiding van de aanvragen?</t>
+          <t>Hoe evalueert tot nu toe de minister de effectiviteit van de voorrang?</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9866304993629456</v>
+        <v>0.9954962730407715</v>
       </c>
       <c r="D154" t="n">
-        <v>0.01336950063705444</v>
+        <v>0.004503726959228516</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Waarvoor is het bedrag van 9 miljoen euro exact bestemd?</t>
+          <t>Is de hoeveelheid participerende lokale besturen het afgelopen jaar toegenomen?</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9868029952049255</v>
+        <v>0.9954987168312073</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01319700479507446</v>
+        <v>0.004501283168792725</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Hoe verhouden deze cijfers zich tot het aantal 6- tot 18-jarige inwoners in de provincie?</t>
+          <t>Hoe evalueert de minister de toepassingsgraad van die voorrang?</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.987443745136261</v>
+        <v>0.9955857992172241</v>
       </c>
       <c r="D156" t="n">
-        <v>0.01255625486373901</v>
+        <v>0.004414200782775879</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Hoe verhouden deze cijfers zich tot het aantal 6- tot 18-jarige inwoners in de provincie?</t>
+          <t>Hoe evalueert de minister de toepassingsgraad van die voorrang?</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.987443745136261</v>
+        <v>0.9955857992172241</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01255625486373901</v>
+        <v>0.004414200782775879</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hoe verhouden deze cijfers zich tot het aantal 6- tot 18-jarige inwoners in de provincie?</t>
+          <t>Hoe evalueert de minister deze drie uitrolstrategieën?</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.987443745136261</v>
+        <v>0.9955927729606628</v>
       </c>
       <c r="D158" t="n">
-        <v>0.01255625486373901</v>
+        <v>0.004407227039337158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Hoe verhoudt dat zich tot het totaalaantal bewoners in een woonzorgcentrum?</t>
+          <t>Wat is de kostprijs daarvoor?</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9883245229721069</v>
+        <v>0.9956271648406982</v>
       </c>
       <c r="D159" t="n">
-        <v>0.01167547702789307</v>
+        <v>0.004372835159301758</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Welk subsidiebudget werd vrijgemaakt voor deze oproep?</t>
+          <t>Wat is de kostprijs daarvoor?</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9884892106056213</v>
+        <v>0.9956271648406982</v>
       </c>
       <c r="D160" t="n">
-        <v>0.01151078939437866</v>
+        <v>0.004372835159301758</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Wat is de laatste stand van zaken in de uitvoering van het akkoord dat door beide landen met bemiddeling van de EU gesloten werd?</t>
+          <t>Het is echter niet te achterhalen door wie dit filmpje werd bekeken.</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9889751672744751</v>
+        <v>0.9957054257392883</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0110248327255249</v>
+        <v>0.00429457426071167</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hoe groot is het ‘lang’ ziekteverzuim bij De Lijn?</t>
+          <t>d) Welk streefdoel wil de minister behalen, qua timing en aantal participerende besturen?</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9889914989471436</v>
+        <v>0.9957188963890076</v>
       </c>
       <c r="D162" t="n">
-        <v>0.01100850105285645</v>
+        <v>0.004281103610992432</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Wat zijn de gevolgen gekoppeld aan het niet voldoen?</t>
+          <t>b) Gaat het departement MOW terug voor laattijdige keuringen tot 1 januari 2023?</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9895373582839966</v>
+        <v>0.9957337975502014</v>
       </c>
       <c r="D163" t="n">
-        <v>0.01046264171600342</v>
+        <v>0.004266202449798584</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Wat zijn de gevolgen gekoppeld aan het niet voldoen?</t>
+          <t>Hoe evalueert tot nu toe de minister de effectiviteit van deze voorrang?</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9895373582839966</v>
+        <v>0.9959184527397156</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01046264171600342</v>
+        <v>0.004081547260284424</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Welke timing heeft de minister voor ogen om de actie in haar geheel af te ronden?</t>
+          <t>Wat is de verhouding tussen het totaalaantal goedgekeurde aanvragen en het aantal effectief terugbetaalde boetes?</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0.989790141582489</v>
+        <v>0.9959375858306885</v>
       </c>
       <c r="D165" t="n">
-        <v>0.01020985841751099</v>
+        <v>0.004062414169311523</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>En wie op basis van zijn functie een laptop, GSM of draagtas nodig heeft die krijgt er één.</t>
+          <t>Wat is de verhouding tussen het totaalaantal goedgekeurde aanvragen en het aantal effectief terugbetaalde boetes?</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9897997379302979</v>
+        <v>0.9959375858306885</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01020026206970215</v>
+        <v>0.004062414169311523</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Over welke grond (locatie, hoeveelheid, vervuilingsgraad en juridisch statuut) gaat het precies?</t>
+          <t>Voorbeelden uit het voorbije seizoen:•Op VRT 1: Dagen zonder broer (reeks waarin Jeroen Meus op zoek gaat naar manieren om de dood van zijn broer een plaats te geven), Lichtpuntjes tegen kanker (waarbij Siska Schoeters spreekt met mensen die leven met kanker), Het laatste portret (waarin Lieve Blancquaert ‘laatste portretten’ maakt van mensen voor wie het einde van het leven nabij is) en De inzichten (gesprekken over levensbeschouwelijke thema’s).</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9898175597190857</v>
+        <v>0.9959761500358582</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01018244028091431</v>
+        <v>0.004023849964141846</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hoe verhouden deze cijfers zich tot het aantal ongevallen met 6- tot 18-jarigen in andere provincies?</t>
+          <t>Hoe evalueert de minister de recente cijfers van beide sporen in vergelijking met dezelfde cijfers vorig jaar?</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9898236393928528</v>
+        <v>0.9959816932678223</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01017636060714722</v>
+        <v>0.004018306732177734</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hoe verhouden deze cijfers zich tot het aantal ongevallen met 6- tot 18-jarigen in andere provincies?</t>
+          <t>Kan de minister aangeven wat de gemiddelde prijs per m² is voor de aankoop van bebosbare grond?</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9898236393928528</v>
+        <v>0.9960045218467712</v>
       </c>
       <c r="D169" t="n">
-        <v>0.01017636060714722</v>
+        <v>0.00399547815322876</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Hoe verhouden deze cijfers zich tot het aantal ongevallen met 6- tot 18-jarigen in andere provincies?</t>
+          <t>Welke financiële incentives en/of stimulerende fiscale maatregelen overweegt de minister om de transitie naar duurzaam watergebruik in de industrie te faciliteren?</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9898236393928528</v>
+        <v>0.9960287809371948</v>
       </c>
       <c r="D170" t="n">
-        <v>0.01017636060714722</v>
+        <v>0.003971219062805176</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Zullen scholen vacante uren kunnen omzetten in een krediet om flexi-jobbers te kunnen betalen?</t>
+          <t>Wat was de kostprijs van de veiligheidsmaaibeurten?</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9900223612785339</v>
+        <v>0.9960502982139587</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009977638721466064</v>
+        <v>0.00394970178604126</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hebben die geen gronden in bezit/gebruik (en dan verdwijnen er ook geen ha in de data als we die niet meetellen)?</t>
+          <t>Wat was de kostprijs van de veiligheidsmaaibeurten?</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9901447296142578</v>
+        <v>0.9960502982139587</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009855270385742188</v>
+        <v>0.00394970178604126</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Welk gevolg werd er gegeven aan de dossiers?</t>
+          <t>Wat is de vooropgestelde timing voor de start van de werken?</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0.990577220916748</v>
+        <v>0.9961517453193665</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009422779083251953</v>
+        <v>0.003848254680633545</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>a) Een overzicht van het aantal ondernemingen dat werkt met individueel maatwerkers, opgedeeld naar hoeveel individueel maatwerkers er actief zijn binnen de onderneming (ondernemingen met: minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+).</t>
+          <t>b) Zal er een nieuw subsidieproject volgen om schoolroutes op gemeentewegen veiliger te maken? Zo ja, welk budget wordt daarvoor uitgetrokken?</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9906460046768188</v>
+        <v>0.9961750507354736</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009353995323181152</v>
+        <v>0.003824949264526367</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>b) Als blijkt dat er nog budget over is, wat zal de minister daar dan mee doen?</t>
+          <t>Kan de minister meedelen welk aandeel van de niet-Belgische studenten met een studietoelage uiteindelijk een hogeschool- of universiteitsdiploma behaalt?</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9910049438476562</v>
+        <v>0.9961942434310913</v>
       </c>
       <c r="D175" t="n">
-        <v>0.00899505615234375</v>
+        <v>0.003805756568908691</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Deels?</t>
+          <t>Wanneer gebeurde dat?</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9910935759544373</v>
+        <v>0.9962588548660278</v>
       </c>
       <c r="D176" t="n">
-        <v>0.008906424045562744</v>
+        <v>0.003741145133972168</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Is het gebruik van iPads en gsm’s achter het stuur wel toegestaan voor chauffeurs?</t>
+          <t>Heeft de minister cijfers over het aantal steden en gemeenten dat ondertussen vertrouwd is met Chiron en toeziet op de aanwezigheid van apparatuur of software in elk voertuig bij de vergunningsaanvraag?</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9911508560180664</v>
+        <v>0.9963579773902893</v>
       </c>
       <c r="D177" t="n">
-        <v>0.008849143981933594</v>
+        <v>0.003642022609710693</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Beschikt de minister over de voornaamste reden van afwijzing?</t>
+          <t>Kan de minister een overzicht geven van de evolutie van het aantal champignonkwekers in Vlaanderen sinds 2005?</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9912909269332886</v>
+        <v>0.9963977336883545</v>
       </c>
       <c r="D178" t="n">
-        <v>0.008709073066711426</v>
+        <v>0.003602266311645508</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Hoe lang worden ze al gebruikt?</t>
+          <t>Welk aandeel van de extra capaciteit in het buitengewoon onderwijs betreft structurele duurzame plaatsen door scholenbouw en -renovatie?</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0.991445779800415</v>
+        <v>0.9964439272880554</v>
       </c>
       <c r="D179" t="n">
-        <v>0.008554220199584961</v>
+        <v>0.00355607271194458</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>In 2022, hoeveel sportwedstrijden en -competities werden rechtstreeks uitgezonden op de VRT?</t>
+          <t>Kan de minister deze cijfers inzake participatiegraad verder uitsplitsen naar deelname met onderscheid tussen academische bachelors, professionele bachelors, graduaten en hbo5-opleidingen (hbo5: hoger beroepsonderwijs 5)?</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0.991814136505127</v>
+        <v>0.9964699745178223</v>
       </c>
       <c r="D180" t="n">
-        <v>0.008185863494873047</v>
+        <v>0.003530025482177734</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>STAGEbonussen in schooljaar 2021-2022?</t>
+          <t>Hoe is dat cijfer geëvolueerd ten opzichte van 2021?</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9918363690376282</v>
+        <v>0.9964943528175354</v>
       </c>
       <c r="D181" t="n">
-        <v>0.008163630962371826</v>
+        <v>0.0035056471824646</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Maakt die trajectcontrole langs de N368 effectief deel uit van de twintig nieuwe locaties die dit jaar door AWV werden geselecteerd?</t>
+          <t>Hoe evalueert de minister de maatregel om boetes voor laattijdige keuring wegens de lange wachttijden terug te betalen?</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9919107556343079</v>
+        <v>0.9964951872825623</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008089244365692139</v>
+        <v>0.003504812717437744</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal ongevallen met personenwagens en het aantal ingeschreven personenwagens, zonder de SUV’s?</t>
+          <t>Wat is de verhouding tussen het totaalaantal aanvragen en het aantal goedgekeurde aanvragen?</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9922789335250854</v>
+        <v>0.9964983463287354</v>
       </c>
       <c r="D183" t="n">
-        <v>0.007721066474914551</v>
+        <v>0.003501653671264648</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal ongevallen met personenwagens en het aantal ingeschreven personenwagens, zonder de SUV’s?</t>
+          <t>Wat is de verhouding tussen het totaalaantal aanvragen en het aantal goedgekeurde aanvragen?</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9922789335250854</v>
+        <v>0.9964983463287354</v>
       </c>
       <c r="D184" t="n">
-        <v>0.007721066474914551</v>
+        <v>0.003501653671264648</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Kan de minister-president, meer specifiek voor het arrondissement Mechelen, een overzicht geven van de lokale straat-, buurt- of verenigingsinitiatieven die in 2023 en 2022 een feestcheque ontvingen?</t>
+          <t>Kan de minister een overzicht geven van de evolutie van het volume geïmporteerde champignons sinds 2005?</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9922996163368225</v>
+        <v>0.9965394735336304</v>
       </c>
       <c r="D185" t="n">
-        <v>0.00770038366317749</v>
+        <v>0.003460526466369629</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>e) Wordt voor het totaal van deze 674.000ha hectaresteun toegekend?</t>
+          <t>Heeft de minister cijfermateriaal over het aantal politiezones (per provincie) die gebruikmaken van Chiron en het aantal boetes die ondertussen uitgeschreven zijn?</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9923431277275085</v>
+        <v>0.9965614676475525</v>
       </c>
       <c r="D186" t="n">
-        <v>0.007656872272491455</v>
+        <v>0.00343853235244751</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Worden in 2023 en 2024 specifieke acties opgezet op basis van wat men heeft geleerd uit de voorgaande jaren? Zo ja, welke en wat zijn de resultaten daarvan?</t>
+          <t>Wat is de verhouding tussen het aantal gewestwegen met bermbeheerplannen en het aantal gewestwegen zonder bermbeheerplannen?</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9923507571220398</v>
+        <v>0.9966149926185608</v>
       </c>
       <c r="D187" t="n">
-        <v>0.007649242877960205</v>
+        <v>0.003385007381439209</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Graag verduidelijking over die extra 55-60.000ha:a) Onder welke categorieën worden deze gronden in het betaalorgaan genoteerd zodat ze daarna uit de cijfers kunnen gefilterd worden richting Statbel?</t>
+          <t>Wat is de verhouding tussen het aantal gewestwegen met bermbeheerplannen en het aantal gewestwegen zonder bermbeheerplannen?</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9923515915870667</v>
+        <v>0.9966149926185608</v>
       </c>
       <c r="D188" t="n">
-        <v>0.00764840841293335</v>
+        <v>0.003385007381439209</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2.Hoe en wanneer kan dit initiatief verder worden uitgerold over heel Vlaanderen ?</t>
+          <t>Hoe evalueert de minister de nieuwe en verbrede oproep voor volkstuinprojecten?</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9923552274703979</v>
+        <v>0.9966363906860352</v>
       </c>
       <c r="D189" t="n">
-        <v>0.007644772529602051</v>
+        <v>0.003363609313964844</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2.Hoe en wanneer kan dit initiatief verder worden uitgerold over heel Vlaanderen ?</t>
+          <t>Welk aandeel daarvan betreft plaatsen gecreëerd door huursubsidies of tijdelijke infrastructuurmaatregelen?</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9923552274703979</v>
+        <v>0.9966541528701782</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007644772529602051</v>
+        <v>0.003345847129821777</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Wat was de kostprijs van de uitwerking van het ontwerp van de N41 door het studiebureau Tractebel Engineering nv?</t>
+          <t>Zijn er terreincontroles?</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9924909472465515</v>
+        <v>0.9966740608215332</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007509052753448486</v>
+        <v>0.003325939178466797</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het aantal verkeersslachtoffers bij 6- tot 18-jarigen die de laatste vijf jaar in Limburg vielen tijdens de uren van de verplaatsingen donderdag, vrijdag; 12-12.59u woensdag)?</t>
+          <t>Wat is de verhouding tussen het totaalaantal aanvragen en het totaalaantal afgekeurde aanvragen?</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9926078319549561</v>
+        <v>0.9966747760772705</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007392168045043945</v>
+        <v>0.003325223922729492</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Gebeurde er een vergelijking met andere systemen? Zo ja, welke en wat is het resultaat?</t>
+          <t>Wat is de verhouding tussen het totaalaantal aanvragen en het totaalaantal afgekeurde aanvragen?</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9927772283554077</v>
+        <v>0.9966747760772705</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007222771644592285</v>
+        <v>0.003325223922729492</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Beschikt de minister over de voornaamste redenen van afwijzing?</t>
+          <t>Wat is de geschatte impact op de koolstofopslagcapaciteit van die bosuitbreidings- en boscompensatieprojecten?</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9928029179573059</v>
+        <v>0.9966756105422974</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007197082042694092</v>
+        <v>0.003324389457702637</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Beschikt de minister over de voornaamste redenen van afwijzing?</t>
+          <t>a) Wat is momenteel de kostprijs voor de Vlaamse overheid per audit?</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9928029179573059</v>
+        <v>0.9967227578163147</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007197082042694092</v>
+        <v>0.003277242183685303</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ongevallen met andere personenwagens?</t>
+          <t>De Federale Regering wil werk maken van een online platform waar men kan zien hoeveel uren men al gewerkt heeft als flexi-jobber.</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9928814172744751</v>
+        <v>0.9967240691184998</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007118582725524902</v>
+        <v>0.003275930881500244</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ongevallen met andere personenwagens?</t>
+          <t>Wat zijn de cijfers van de redactionele doorstroming van de berichten naar andere persagentschappen?</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9928814172744751</v>
+        <v>0.9967317581176758</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007118582725524902</v>
+        <v>0.003268241882324219</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Wat is het slaagpercentage van leerlingen die hun diploma secundair onderwijs via de centrale examencommissie wensen te behalen?</t>
+          <t>Wat is de kostprijs van de onteigeningen?</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9930777549743652</v>
+        <v>0.9967664480209351</v>
       </c>
       <c r="D198" t="n">
-        <v>0.006922245025634766</v>
+        <v>0.003233551979064941</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Wat zal de minister doen om er voor te zorgen dat een Europees ambtenaar die zijn kind wil inschrijven in een kinderopvang van de Vlaamse Gemeenschap met inkomenstarief, de gepaste prijs betaalt op basis van zijn werkelijk nettoloon en werkelijke gezinssamenstelling?</t>
+          <t>a) Als de paden niet van elkaar te onderscheiden zijn, graag een algemeen overzicht b) Wat betreft de mountainbikepaden, hoeveel kilometer staat geklasseerd als offroad?</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9932223558425903</v>
+        <v>0.9967717528343201</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006777644157409668</v>
+        <v>0.003228247165679932</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Wat waren die sancties per voorziening?</t>
+          <t>a) Als de paden niet van elkaar te onderscheiden zijn, graag een algemeen overzicht b) Wat betreft de mountainbikepaden, hoeveel kilometer staat geklasseerd als offroad?</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0.993225634098053</v>
+        <v>0.9967717528343201</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006774365901947021</v>
+        <v>0.003228247165679932</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Wat is de volledige kostprijs voor de aanpassingen die werden gedaan in de stelplaats Winterslag?</t>
+          <t>Wat was het totale budget voor de werkbaarheidscheques in 2022?</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9932437539100647</v>
+        <v>0.996782660484314</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006756246089935303</v>
+        <v>0.003217339515686035</v>
       </c>
     </row>
   </sheetData>

--- a/Identifier/to_label.xlsx
+++ b/Identifier/to_label.xlsx
@@ -458,929 +458,929 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hoe wordt de 55.000 euro precies ingezet?</t>
+          <t>Dus ik kan niet zeggen hoeveel meldingen door dierenartsen gedaan werden en evenmin het onderscheid maken tussen dierenverwaarlozing en dierenmishandeling in die meldingen.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5139790773391724</v>
+        <v>0.512811541557312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4860209226608276</v>
+        <v>0.487188458442688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Heeft de minister het DG Energie van de Europese Commissie intussen al opnieuw in kennis gesteld van de gerezen interpretatieproblemen, alsook gewezen op de absolute noodzaak aan verduidelijking op korte termijn? Zo ja, wanneer, en welk resultaat heeft dat opgeleverd?</t>
+          <t>Voor welk totaalbedrag?</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5608975291252136</v>
+        <v>0.5165201425552368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4391024708747864</v>
+        <v>0.4834798574447632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wie daarin zowel ingeschreven was in een hogeschool als in een universiteit, zal twee keer meetellen in de tabel.</t>
+          <t>Voor welk totaalbedrag?</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.561947226524353</v>
+        <v>0.5165201425552368</v>
       </c>
       <c r="D4" t="n">
-        <v>0.438052773475647</v>
+        <v>0.4834798574447632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wat is de begin- en einddatum?</t>
+          <t>In welke mate is fase 2 de totale uitrol van basisbereikbaarheid, zal dat 89% zijn in alle vervoerregio’s?</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5674788951873779</v>
+        <v>0.5269792675971985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4325211048126221</v>
+        <v>0.4730207324028015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acht(te) de minister het opportuun om in de periode tussen het afronden van de survey en het beëindigen van de datacleaning andere maatregelen/initiatieven te nemen inzake de bestrijding van gendergerelateerd geweld? Zo ja, wat zijn/waren dat, welk budget wordt/werd ervoor vrijgemaakt en wat zijn de beoogde doelstellingen van die maatregelen/initiatieven?</t>
+          <t>Kan meer informatie gegeven worden over de uitvoering en timing van die werken?</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5700417757034302</v>
+        <v>0.560687780380249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4299582242965698</v>
+        <v>0.439312219619751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vijf functies zouden worden opgevuld door vijf van de negen personeelsleden, van wie de rest deel wordt van de werfreserve.</t>
+          <t>In onderstaande tabel kan u nalezen hoeveel personen met jongdementie -personen die een diagnose van dementie kregen voor de leeftijd van 65 jaar- in een woongelegenheid van een woonzorgcentrum met de bijkomende erkenning jongdementie, verbleven.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5722977519035339</v>
+        <v>0.5675599575042725</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4277022480964661</v>
+        <v>0.4324400424957275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aangezien de samenwerking jaarlijks opnieuw wordt geëvalueerd, wordt de samenwerking met Belga ook volgend jaar verlengd?</t>
+          <t>Heeft de minister zicht op de verdeling tussen mannen en vrouwen, de leeftijden, en de provincies waaruit de personen komen?</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6201326251029968</v>
+        <v>0.5707699060440063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3798673748970032</v>
+        <v>0.4292300939559937</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zo niet, wanneer mogen we dat verwachten?</t>
+          <t>Waarop werd het besluit gebaseerd om 1 begeleider per 18 kinderen in te zetten?</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6608119010925293</v>
+        <v>0.5836332440376282</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3391880989074707</v>
+        <v>0.4163667559623718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wat was de werklast voor het departement MOW?</t>
+          <t>Wat was de respons op de eerste campagne van maart 2023?</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6706766486167908</v>
+        <v>0.6077452898025513</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3293233513832092</v>
+        <v>0.3922547101974487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Welke normen en binnen welke timing?</t>
+          <t>Vanaf/tot welke leeftijd kan dat?</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.716020941734314</v>
+        <v>0.6228856444358826</v>
       </c>
       <c r="D11" t="n">
-        <v>0.283979058265686</v>
+        <v>0.3771143555641174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we ter zake?</t>
+          <t>Kan de minister een overzicht geven van de signaalgebieden die een bouwvrijopgave kregen, met daarbij de vermelding van de oppervlakte die ze hadden bij de goedkeuring van het vervolgtraject door de Vlaamse Regering en de oppervlakte die ze actueel hebben na voorlopige aanduiding door de Vlaamse Regering?</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7437469959259033</v>
+        <v>0.6281733512878418</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2562530040740967</v>
+        <v>0.3718266487121582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we ter zake?</t>
+          <t>Wat was het doel van de besparingen en waar worden de bespaarde middelen nu voor ingezet?</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7437469959259033</v>
+        <v>0.6371607184410095</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2562530040740967</v>
+        <v>0.3628392815589905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>indien wel, wanneer en onder welke vorm mogen we dit verwachten?</t>
+          <t>Kan de minister een overzicht geven van alle subsidies die Refu Interim sinds 2014 kreeg?</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7528078556060791</v>
+        <v>0.6788992285728455</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2471921443939209</v>
+        <v>0.3211007714271545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Over de aansluiting op het elektriciteitsnet: a) Werd in de concessieovereenkomst ook in een maximale termijn voorzien voor de aansluiting op het elektriciteitsnet? Zo ja, welke?</t>
+          <t>Wat was het studierendement in het hoger onderwijs voor het academiejaar 2022-2023?</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7569022178649902</v>
+        <v>0.688809335231781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2430977821350098</v>
+        <v>0.311190664768219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aan welke premies is de voorwaarde van een tijdige EPB-aangifte verbonden?</t>
+          <t>Wat is het energiebesparende potentieel van alle schuilhuisjes van De Lijn?</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7723560929298401</v>
+        <v>0.6980946660041809</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2276439070701599</v>
+        <v>0.3019053339958191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wat is de stand van zaken met betrekking tot de opmaak van het onteigeningsplan en het inpassen van de onteigeningsbudgetten op het investeringsprogramma?</t>
+          <t>b) Hoe werd de 1 miljoen euro voor digitalisering van jobbeurzen uiteindelijk besteed?</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8302158713340759</v>
+        <v>0.7004759311676025</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1697841286659241</v>
+        <v>0.2995240688323975</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wanneer niet alle bosuitbreidingsprojecten systematisch geregistreerd worden in de bosteller, kan de minister dan de gedetailleerde bosuitbreidingsboekhouding bezorgen voor de periode 2019-2023?</t>
+          <t>Wat is de impact van de hervorming van vastgoedtransacties op dat concrete project, kan ze de voortgang van het dossier bevorderen?</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8325195908546448</v>
+        <v>0.7183680534362793</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1674804091453552</v>
+        <v>0.2816319465637207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>c) Welke evolutie is er merkbaar inzake de deelelementen die gemeenten laten screenen?</t>
+          <t>Kan de minister een overzicht geven van de evolutie van de uitgaven voor individuele hulpverlening?</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8354138135910034</v>
+        <v>0.7243918180465698</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1645861864089966</v>
+        <v>0.2756081819534302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Welke impact heeft de klimaatverandering op de vegetatie in bermen?</t>
+          <t>Welke projectsubsidies zijn er in de laatste 3 jaar toegekend aan initiatieven in het beleidsdomein van de minister, in het bijzonder in de gezinszorg en de thuiszorg?</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8464345335960388</v>
+        <v>0.7381505370140076</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1535654664039612</v>
+        <v>0.2618494629859924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Welke impact heeft de klimaatverandering op de vegetatie in bermen?</t>
+          <t>Is het budget voldoende om de tramverbinding naar de Kioskplaats in Hoboken weer in dienst te nemen?</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8464345335960388</v>
+        <v>0.7771413326263428</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1535654664039612</v>
+        <v>0.2228586673736572</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kan de minister die cijfers ook opsplitsen tussen: a) EU-onderdanen; b) EER-onderdanen; c) niet-EU- of niet-EER-onderdanen (EER: Europese Economische Ruimte)?</t>
+          <t>Daarbij vermeld (a) hoeveel elke maatregel kost, (b) of hij eenmalig, recurrent is of voor enkele jaren geldt (zo ja, welke jaren), (c) in welk jaar deze uitgave wordt begroot en besteed, (d) in welke begrotingspost deze maatregel is begroot, en (e) vanwaar de middelen komen om deze uitgave te realiseren (dus uit welke begrotingspost, met code + naam).</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8506177663803101</v>
+        <v>0.7901685833930969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1493822336196899</v>
+        <v>0.2098314166069031</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wordt de staat, de leeftijd en het type van de vangrails bijgehouden in een database?</t>
+          <t>Aangezien zowel de verbintenistermijn als de uitvoeringstermijn is afgelopen, wat is de stand van zaken van het bestek met drie opdrachten?</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8529776930809021</v>
+        <v>0.804233729839325</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1470223069190979</v>
+        <v>0.195766270160675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Zo niet, waarom niet en wanneer kan goedkeuring verwacht worden?</t>
+          <t>De onderstaande tabel geeft weer hoeveel van de bovenstaande aanvragen werden goedgekeurd door de bijzondere bijstandscommissie.</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8531425595283508</v>
+        <v>0.8148652315139771</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1468574404716492</v>
+        <v>0.1851347684860229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kan de minister een stand van zaken geven van het aantal Vlamingen dat al ondersteund is sinds de start van het programma?</t>
+          <t>Kan de minister een overzicht geven van de totale schuld van de gemeenten?</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8559725284576416</v>
+        <v>0.8306124806404114</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1440274715423584</v>
+        <v>0.1693875193595886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Wat zijn de verwachtingen voor het jaar 2023?</t>
+          <t>a) Zal er inderdaad in bijkomend budget voorzien worden?</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8588871359825134</v>
+        <v>0.8310427069664001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1411128640174866</v>
+        <v>0.1689572930335999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hoe en op welke termijn zal zij dat bewerkstelligen?</t>
+          <t>b) Welke taak en welk financieel aandeel heeft VDAB daarbij op zich genomen?</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8631840348243713</v>
+        <v>0.8324915766716003</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1368159651756287</v>
+        <v>0.1675084233283997</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Zijn er al ervaringen met hacking via omvormers gemeld in Vlaanderen? Zo ja,a) Wat was de top 3 van vormen van hacking?</t>
+          <t>Met betrekking tot de begroting:a) Zijn die middelen al opgenomen in de begroting?</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.86628657579422</v>
+        <v>0.8428669571876526</v>
       </c>
       <c r="D28" t="n">
-        <v>0.13371342420578</v>
+        <v>0.1571330428123474</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wanneer niet alle boscompensatieprojecten systematisch geregistreerd worden op de bosteller, kan de minister dan de gedetailleerde boscompensatieboekhouding bezorgen voor de periode 2019-2023?</t>
+          <t>Over welke projecten gaat het precies, wat is/was de looptijd per project, welk budget werd per project vrijgemaakt, en wat zijn/waren de doelstellingen?</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8714605569839478</v>
+        <v>0.8460424542427063</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1285394430160522</v>
+        <v>0.1539575457572937</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Zijn de officiële gegevens voor 2022 ondertussen beschikbaar?</t>
+          <t>Wat is de timing voor de site in Rekkem?</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8756571412086487</v>
+        <v>0.8734812140464783</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1243428587913513</v>
+        <v>0.1265187859535217</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kan er een overzicht gegeven worden van de bestede middelen en een overzicht van de partners die betrokken zijn in het hele project?</t>
+          <t>a) Op hoeveel informatie-events van scholen (infodagen, opendeurdagen, ..</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8869045972824097</v>
+        <v>0.8740693330764771</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1130954027175903</v>
+        <v>0.1259306669235229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>f) Wanneer er bebossingsprojecten zijn die niet geregistreerd worden in de bosteller, wat is daar de oorzaak van?</t>
+          <t>Beschikt de minister over een inschatting over het percentage dat effectief in aanmerking komt of interesse heeft om ook echt de stap te zetten?</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.894813597202301</v>
+        <v>0.882175087928772</v>
       </c>
       <c r="D32" t="n">
-        <v>0.105186402797699</v>
+        <v>0.117824912071228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>b) Welke van deze aangevraagde projecten doen voor meer dan 50% een beroep op de subsidie van de Vlaamse overheid?</t>
+          <t>Bij hoeveel en bij welke van die locaties gaf Opgroeien de opdracht tot het uitvoeren 10.</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8981442451477051</v>
+        <v>0.8845998048782349</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1018557548522949</v>
+        <v>0.1154001951217651</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hoe zal de minister de kloof van 1000 euro tussen de graduaats- en bacheloropleidingen proberen te dichten?</t>
+          <t>Hoe lang moeten we nog wachten op het advies van de Raad van State?</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9061340093612671</v>
+        <v>0.8853968381881714</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09386599063873291</v>
+        <v>0.1146031618118286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>b) Wat waren de resultaten?</t>
+          <t>Kan de minister een overzicht geven van de evolutie van de werkingsinkomsten van de lokale besturen (verhuur van sportcentra, dagprijzen van woonzorgcentra ...)?</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9085326194763184</v>
+        <v>0.8883336782455444</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09146738052368164</v>
+        <v>0.1116663217544556</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>c) Zijn er bepaalde uren of dagen waarop de bussen zonder airco niet uitrijden (wegens de hitte), maar vervangen worden door bussen met airco?</t>
+          <t>Over welke steunbedragen gaat het?</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9158803820610046</v>
+        <v>0.908084511756897</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08411961793899536</v>
+        <v>0.09191548824310303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van de aanpassingen waarin in de vervoerregio Antwerpen voorzien zal worden vanaf 1 januari 2024?</t>
+          <t>Wat is de timing voor die werken?</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9204357862472534</v>
+        <v>0.9119324088096619</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07956421375274658</v>
+        <v>0.08806759119033813</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Werd in de concessieovereenkomst in een maximale termijn voorzien voor het plaatsen welke?</t>
+          <t>Wat is de timing voor die werken?</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9299899339675903</v>
+        <v>0.9119324088096619</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07001006603240967</v>
+        <v>0.08806759119033813</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Zo niet, wanneer is deadline?</t>
+          <t>Wanneer zal hij in de toekomst nog samenkomen?</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9304949045181274</v>
+        <v>0.9240348935127258</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06950509548187256</v>
+        <v>0.07596510648727417</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>a) Voor welke periode is die maatregel van toepassing?</t>
+          <t>Is het enkel de frequentie van de overstorten of ook de duurtijd, het debiet, de waterkwaliteit,…?</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9316155910491943</v>
+        <v>0.9266113638877869</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06838440895080566</v>
+        <v>0.07338863611221313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Wat is de doorlooptijd bij de Raad?</t>
+          <t>Wat is de evolutie van de geblokkeerde EAN-nummers de afgelopen tien jaar?</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9357361793518066</v>
+        <v>0.9310339093208313</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06426382064819336</v>
+        <v>0.0689660906791687</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>De Federale Regering kondigde aan dat er vanaf volgend jaar een limiet komt op hoeveel men als flexi-jobber onbelast kan bijverdienen.</t>
+          <t>Wat zijn de verdere timing en verloop van het dossier?</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9399994611740112</v>
+        <v>0.9325808882713318</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06000053882598877</v>
+        <v>0.06741911172866821</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Wat is de concrete timing en planning voor de uitzending ervan?</t>
+          <t>Wat zijn de verdere timing en verloop van het dossier?</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.940319299697876</v>
+        <v>0.9325808882713318</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05968070030212402</v>
+        <v>0.06741911172866821</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kan de minister zicht geven op de uitvoering van de projecten uit ‘Buurten op den buiten 2021 en eventueel 2022’?</t>
+          <t>na x jaar van de investering), en zo de schuld kan worden afgebouwd?</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9469250440597534</v>
+        <v>0.9391372799873352</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05307495594024658</v>
+        <v>0.06086272001266479</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kan de minister aangeven wat de mediaanprijs per m² is voor de aankoop van bebosbare grond?</t>
+          <t>Kan de minister een overzicht geven van de evolutie van de exploitatie-uitgaven aan onderstaande rubrieken?</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9492113590240479</v>
+        <v>0.9416165947914124</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05078864097595215</v>
+        <v>0.05838340520858765</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kan de minister ook een projectie in de tijd bezorgen?</t>
+          <t>Kan de minister ook een overzicht in euro bezorgen?</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9492432475090027</v>
+        <v>0.9424413442611694</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05075675249099731</v>
+        <v>0.05755865573883057</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sinds wanneer is een tijdige EPB-aangifte een voorwaarde voor het verkrijgen van die premies?</t>
+          <t>Kan de minister een overzicht bezorgen van wanneer die werkgroep in 2023 samenkwam?</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9502458572387695</v>
+        <v>0.9429256319999695</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04975414276123047</v>
+        <v>0.05707436800003052</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de cijfers?</t>
+          <t>vezel uit riet, vezel uit bermmaaisel, ...) per toepassing een aparte grondstoffenverklaring moet in orde brengen?</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9530180692672729</v>
+        <v>0.9436891674995422</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04698193073272705</v>
+        <v>0.05631083250045776</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Liggen de cijfers van de eerste drie kwartalen van 2023 in lijn met de voorgaande jaren?</t>
+          <t>Wat is de huidige status van het implementatieproces van de geschillencommissie?</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9549808502197266</v>
+        <v>0.9522672891616821</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04501914978027344</v>
+        <v>0.04773271083831787</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers?</t>
+          <t>In welke modaliteiten werd voorzien in het raamcontract om wissels te onderhouden en te herstellen?</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9575833082199097</v>
+        <v>0.9525729417800903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04241669178009033</v>
+        <v>0.04742705821990967</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers?</t>
+          <t>Wat is het ecologische potentieel van alle schuilhuisjes van De Lijn?</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9575833082199097</v>
+        <v>0.9583333134651184</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04241669178009033</v>
+        <v>0.04166668653488159</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wat is het beoogde effect op de koolstofopslag van nieuw bos en compensatiebos?</t>
+          <t>Ziet de minister een daling of een stijging in het aantal goedgekeurde subsidiedossiers?</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9599452018737793</v>
+        <v>0.9591612815856934</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0400547981262207</v>
+        <v>0.04083871841430664</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Wie ingeschreven is in meerdere soorten opleidingen, zal ook meerdere keren meetellen in de tabel, nl.</t>
+          <t>Heeft de minister al meer zicht op wanneer het project volledig afgerond zal zijn?</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.965001106262207</v>
+        <v>0.9600172638893127</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03499889373779297</v>
+        <v>0.03998273611068726</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Op welke datum zullen de werken ten vroegste aangevat worden en volledig afgerond zijn?</t>
+          <t>Kan de minister inzicht geven in de hoeveelheid regenwater die uit het rioleringsnet gehouden moet worden om de huidige normen en aantallen (F7) van overstort niet te overstijgen?</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9663927555084229</v>
+        <v>0.9603602886199951</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03360724449157715</v>
+        <v>0.03963971138000488</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>f) Zo ja, sinds wanneer is dat van kracht?</t>
+          <t>Wordt er tegen fase 2 een nieuwe levering bussen verwacht? Zo ja, welk type en wanneer?</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9679327011108398</v>
+        <v>0.9625998139381409</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03206729888916016</v>
+        <v>0.03740018606185913</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1024 gaf de minister een overzicht van de realisatie Wat is de stand van zaken met betrekking tot deze nieuwe infrastructuur in 2023?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9685320258140564</v>
+        <v>0.9640542268753052</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0314679741859436</v>
+        <v>0.03594577312469482</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1024 gaf de minister een overzicht van de realisatie Wat is de stand van zaken met betrekking tot deze nieuwe infrastructuur in 2023?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9685320258140564</v>
+        <v>0.9640542268753052</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0314679741859436</v>
+        <v>0.03594577312469482</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Plant de minister een nieuwe oproep of nieuwe initiatieven in dit kader en welke timing hanteert ze daarvoor?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9687447547912598</v>
+        <v>0.9640542268753052</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03125524520874023</v>
+        <v>0.03594577312469482</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Op datum van 7/11/2023 telt Audit Vlaanderen in totaal 52 medewerkers, van wie 48 met een actieve arbeidsrelatie.</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9693173170089722</v>
+        <v>0.9640542268753052</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03068268299102783</v>
+        <v>0.03594577312469482</v>
       </c>
     </row>
     <row r="60">
@@ -1393,2266 +1393,2266 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9695906043052673</v>
+        <v>0.9640542268753052</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03040939569473267</v>
+        <v>0.03594577312469482</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Als een jongere de overstap van minder- naar meerderjarigheid maakt en over een persoonsvolgend convenant beschikt, zal die dan automatisch worden omgezet in een persoonsvolgend budget? Zo ja, op welke manier wordt de budgethoogte van het persoonsvolgend budget berekend?</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9695906043052673</v>
+        <v>0.9647051095962524</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03040939569473267</v>
+        <v>0.03529489040374756</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9695906043052673</v>
+        <v>0.9664695858955383</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03040939569473267</v>
+        <v>0.03353041410446167</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Wat is het zendschema van de erediensten op de publieke omroep in 2023?</t>
+          <t>100% van de studiepunten?</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9701175093650818</v>
+        <v>0.9668589234352112</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02988249063491821</v>
+        <v>0.03314107656478882</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die evolutie?</t>
+          <t>Wat is het verschil tussen een melding en een klacht?</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9732239842414856</v>
+        <v>0.9677005410194397</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0267760157585144</v>
+        <v>0.0322994589805603</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die evolutie?</t>
+          <t>Welke ritten en haltes worden aangepast of afgeschaft vanaf januari 2024?</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9732239842414856</v>
+        <v>0.9684531092643738</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0267760157585144</v>
+        <v>0.03154689073562622</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
+          <t>Wat is de verdere timing voor de onteigeningen?</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9746160507202148</v>
+        <v>0.9695392847061157</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02538394927978516</v>
+        <v>0.03046071529388428</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
+          <t>Kan meer duiding gegeven worden over de verdere vermindering van de dienstverlening op dat traject?</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9746160507202148</v>
+        <v>0.970551073551178</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02538394927978516</v>
+        <v>0.02944892644882202</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
+          <t>Wanneer wordt de groep gecontacteerd die bezwaar indiende na de weigering?</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9746160507202148</v>
+        <v>0.9718144536018372</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02538394927978516</v>
+        <v>0.02818554639816284</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
+          <t>Zo niet, wanneer zal het afgerond zijn?</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9746160507202148</v>
+        <v>0.9728571772575378</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02538394927978516</v>
+        <v>0.02714282274246216</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kan de minister ook een analoog overzicht geven voor het academiejaar 2022-2023?</t>
+          <t>Is er al een berekening gemaakt van de kostprijs van beide alternatieven? Zo ja, wat kan eruit besloten worden?</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9746160507202148</v>
+        <v>0.9733014702796936</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02538394927978516</v>
+        <v>0.0266985297203064</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Waarom duurt die actualisatie zo lang?</t>
+          <t>Is er al een berekening gemaakt van de kostprijs van beide alternatieven? Zo ja, wat kan eruit besloten worden?</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.974876880645752</v>
+        <v>0.9733014702796936</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02512311935424805</v>
+        <v>0.0266985297203064</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister dat netwerk?</t>
+          <t>Wanneer zal de geschillencommissie operationeel zijn?</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9760091304779053</v>
+        <v>0.9737116694450378</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02399086952209473</v>
+        <v>0.02628833055496216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Welke illegale dierenhuiden komen Vlaanderen binnen?</t>
+          <t>Zo niet, wanneer kunnen de resultaten verwacht worden?</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.977302074432373</v>
+        <v>0.9747772216796875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02269792556762695</v>
+        <v>0.0252227783203125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Wanneer dienen er bermbeheerplannen voor bepaalde zones opgemaakt te worden?</t>
+          <t>Wanneer zal de fietsverbinding gerealiseerd zijn?</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9787217974662781</v>
+        <v>0.9749054312705994</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02127820253372192</v>
+        <v>0.02509456872940063</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Wanneer dienen er bermbeheerplannen voor bepaalde zones opgemaakt te worden?</t>
+          <t>Heeft de minister al meer zicht op de verdere timing voor de nog te nemen stappen?</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9787217974662781</v>
+        <v>0.9764901399612427</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02127820253372192</v>
+        <v>0.02350986003875732</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze nieuwsbrief?</t>
+          <t>Is dat in overeenstemming met de reële kostprijs?</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9796812534332275</v>
+        <v>0.9767754077911377</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02031874656677246</v>
+        <v>0.0232245922088623</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Welke criteria worden er gehanteerd om die switch door te voeren?</t>
+          <t>Wat is de kostprijs van de uitvoering van het bestek en door wie werd de opdracht betaald? Graag een overzicht van de gemaakte kosten en van wie welke kosten heeft betaald.</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.981346070766449</v>
+        <v>0.977433979511261</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01865392923355103</v>
+        <v>0.02256602048873901</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kan de minister deze doorlooptijden verklaren?</t>
+          <t>Hoelang zal de hinder nog duren?</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9815334677696228</v>
+        <v>0.9777333736419678</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0184665322303772</v>
+        <v>0.02226662635803223</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Heeft de minister zicht op de subsidiebudgetten die de verschillende West-Vlaamse VOC’s in 2023 en 2024 zullen ontvangen?</t>
+          <t>Zijn de vooropgestelde plannen nog haalbaar gezien de inflatie en de gestegen bouwkosten?</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9819484353065491</v>
+        <v>0.9782204031944275</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01805156469345093</v>
+        <v>0.02177959680557251</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wanneer gebeurt de uitrol van de digitale radio en welke gevolgen heeft dat voor de uitrol van de auditieve halteaankondiging?</t>
+          <t>Zijn er voor deze regeerperiode al processen-verbaal opgemaakt tegen eventueel zonevreemd gesitueerde dierenasielen?</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9824662208557129</v>
+        <v>0.9789304733276367</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01753377914428711</v>
+        <v>0.02106952667236328</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>d) naargelang de letselsernst van de slachtoffers (dodelijk verwond, zwaargewond of lichtgewond; e) naargelang het vervoersmiddel van de tegenpartij (vrachtwagen, lichte bestelwagen, auto, bromfiets, fiets, step, voetganger, …); f) naargelang de leeftijd van de bestuurder van het landbouwvoertuig dat betrokken was bij een ongeval;  g) waar vonden deze ongevallen plaats (gemeentewegen, gewestwegen, doorlopende weg, kruispunten, rotondes, ...)?</t>
+          <t>Hoe scoren de verschillende provincies volgens de minister in hun aanbod aan plaatsen per 100 kinderen?</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9827640056610107</v>
+        <v>0.9790823459625244</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01723599433898926</v>
+        <v>0.02091765403747559</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wat is de methodologie om de boscompensatie in natura te controleren?</t>
+          <t>Wanneer zullen de werken afgerond zijn?</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9830418825149536</v>
+        <v>0.9791436791419983</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01695811748504639</v>
+        <v>0.02085632085800171</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze evolutie?</t>
+          <t>Zijn er extra onkosten die worden ingebracht, bijvoorbeeld voor telefoon of wifi bij thuiswerk, en gaat de verantwoording eraan vooraf?</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.984207808971405</v>
+        <v>0.9801679849624634</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01579219102859497</v>
+        <v>0.01983201503753662</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Welke tools en middelen zullen daarvoor gebruikt worden?</t>
+          <t>Wat is het effect op het terrein van het project van de Profploeg en andere initiatieven?</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9844598770141602</v>
+        <v>0.9812074899673462</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01554012298583984</v>
+        <v>0.01879251003265381</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>De Lijn bekijkt hoeveel chauffeurs er nodig zijn om het aanbod uit te voeren dat gereden moet worden vanuit een bepaalde stelplaats.</t>
+          <t>Wanneer zal de omgevingsvergunning worden aangevraagd?</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9844971895217896</v>
+        <v>0.9828255772590637</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01550281047821045</v>
+        <v>0.01717442274093628</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze regeling?</t>
+          <t>De onderstaande tabel geeft weer hoeveel aanvragen voor een verhoogde tegemoetkoming werden goedgekeurd door de bijzondere bijstandscommissie.</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9848225116729736</v>
+        <v>0.9832319021224976</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01517748832702637</v>
+        <v>0.01676809787750244</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Is dat sindsdien veranderd? Zo ja, welke nieuwe deelaspecten plant de minister toe te voegen en vanaf wanneer?</t>
+          <t>a) Merkt de minister een evolutie in het aantal of de soort ingediende aanvragen en projecten?</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9854812026023865</v>
+        <v>0.9838289618492126</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01451879739761353</v>
+        <v>0.01617103815078735</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Welke buslijnen van het huidige net zullen wegvallen?</t>
+          <t>a) Merkt de minister een evolutie in het aantal of de soort ingediende aanvragen en projecten?</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9855005145072937</v>
+        <v>0.9838289618492126</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0144994854927063</v>
+        <v>0.01617103815078735</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wanneer staat welke fase gepland?</t>
+          <t>Welke zijn nog gepland in 2023?</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9855254292488098</v>
+        <v>0.9840169548988342</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01447457075119019</v>
+        <v>0.01598304510116577</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>253/15/1), afgemeten ten opzichte van het totaalaantal kinderen dat effectief nieuw is ingeschreven in het eerste jaar van een secundaire school van het Nederlandstalige onderwijs in diezelfde gemeente in de Vlaamse Rand?</t>
+          <t>Zo niet, wanneer zal het masterplan dan klaar zijn?</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9858050942420959</v>
+        <v>0.9841804504394531</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01419490575790405</v>
+        <v>0.01581954956054688</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>In het najaar van 2022 werd de campagne ‘Ooit gebeurd, nooit gehoord?’ gelanceerd om de bekendheid van de commissie te vergroten.</t>
+          <t>Kan de minister een overzicht geven van de buslijnen in de regio Antwerpen voor de eerste fase van de uitrol basisbereikbaarheid op 1 juli 2023?</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.986187219619751</v>
+        <v>0.9843009114265442</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01381278038024902</v>
+        <v>0.01569908857345581</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Welke ambities heeft de Vlaamse Regering nog in dit kader tijdens het EU-voorzitterschap, naast het afronden van de EU-wetgeving ter zake?</t>
+          <t>Hoe werd de kostprijs per kind berekend?</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9862983822822571</v>
+        <v>0.984515905380249</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01370161771774292</v>
+        <v>0.01548409461975098</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Welke boscompensatieprojecten worden geregistreerd in de bosteller?</t>
+          <t>Zal de minister deze projectoproep herhalen? Zo ja, wanneer?</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9863165020942688</v>
+        <v>0.9849660396575928</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0136834979057312</v>
+        <v>0.01503396034240723</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de voorbije edities?</t>
+          <t>Tellen zijinstromers (personen die dus nog in opleiding zijn) mee in de berekening van de ratio per begeleider?</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9865179657936096</v>
+        <v>0.9849886894226074</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01348203420639038</v>
+        <v>0.01501131057739258</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de vorige edities?</t>
+          <t>Wat is de verdere timing en het verloop van het dossier?</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9866021871566772</v>
+        <v>0.9854791164398193</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01339781284332275</v>
+        <v>0.01452088356018066</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wat waren de resultaten van de laatste drie inspecties?</t>
+          <t>Wat is de verdere timing en het verloop van het dossier?</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9868069291114807</v>
+        <v>0.9854791164398193</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01319307088851929</v>
+        <v>0.01452088356018066</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wanneer gebeuren die en welke opvolgstappen zijn er?</t>
+          <t>Hoe oud zijn deze kinderen?</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.987215518951416</v>
+        <v>0.9856804609298706</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01278448104858398</v>
+        <v>0.01431953907012939</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wat is de timing voor de aanvraag van de omgevingsvergunning?</t>
+          <t>Wanneer wordt de groep gecontacteerd die hun aanvraag na weigering wijzigde (bijvoorbeeld door de verkeerde interpretatie op de 75% IKT-norm) (IKT:inkomenstarief)?</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9873878359794617</v>
+        <v>0.9858433604240417</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01261216402053833</v>
+        <v>0.01415663957595825</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Zijn er in gemeenten waar die voorrang van toepassing is effectief procentueel minder kinderen uit anderstalige gezinnen ingeschreven in het Nederlandstalige basisonderwijs?</t>
+          <t>Wanneer worden de resultaten van de studie verwacht?</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9876279830932617</v>
+        <v>0.9859697818756104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01237201690673828</v>
+        <v>0.01403021812438965</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wat zijn de belangrijkste resultaten die uit het netwerk komen?</t>
+          <t>Wanneer worden de resultaten van de studie verwacht?</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9883499145507812</v>
+        <v>0.9859697818756104</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01165008544921875</v>
+        <v>0.01403021812438965</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister-president de werking en de resultaten?</t>
+          <t>Wanneer worden de resultaten van de studie verwacht?</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9887912273406982</v>
+        <v>0.9859697818756104</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01120877265930176</v>
+        <v>0.01403021812438965</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister-president de samenwerking met Belga?</t>
+          <t>Wanneer werd dat beslist, door wie en om welke reden?</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9890193343162537</v>
+        <v>0.9861229658126831</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01098066568374634</v>
+        <v>0.01387703418731689</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b) Wat is de concrete timing om die doelstelling te realiseren?</t>
+          <t>Zal dat budget alsnog vrijgemaakt worden?</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.989391565322876</v>
+        <v>0.9861493110656738</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01060843467712402</v>
+        <v>0.01385068893432617</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wanneer kan worden ingestapt en hoe gebeurt de selectie?</t>
+          <t>Wanneer zullen de werken voltooid zijn?</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9895109534263611</v>
+        <v>0.9862483143806458</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01048904657363892</v>
+        <v>0.01375168561935425</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Welke fysieke verbindingen via het reguliere openbaar vervoer zullen met andere woorden wegvallen?</t>
+          <t>Wanneer zullen de werken voltooid zijn?</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9897612929344177</v>
+        <v>0.9862483143806458</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01023870706558228</v>
+        <v>0.01375168561935425</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze doorlooptijden?</t>
+          <t>Hoe evalueert de minister hen?</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9903517365455627</v>
+        <v>0.9864837527275085</v>
       </c>
       <c r="D106" t="n">
-        <v>0.009648263454437256</v>
+        <v>0.01351624727249146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wanneer precies zal de datacleaning afgerond worden, en kunnen we de data verwachten?</t>
+          <t>a) Welke (fiscale) mogelijkheden zijn er om het wegvallen van de fiscale vrijstelling het secundair onderwijs, op te vangen?</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9903891682624817</v>
+        <v>0.9865308403968811</v>
       </c>
       <c r="D107" t="n">
-        <v>0.009610831737518311</v>
+        <v>0.0134691596031189</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Waaruit bestaat dat? Zo ja, hoe en door wie worden de resultaten van die controles geregistreerd?</t>
+          <t>Ziet de minister een daling of een stijging in het aantal aanvragen ten opzichte van vorige projectoproepen?</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9911224842071533</v>
+        <v>0.9865748286247253</v>
       </c>
       <c r="D108" t="n">
-        <v>0.00887751579284668</v>
+        <v>0.01342517137527466</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b) Wat zijn de uit deze netwerken bekende noden en drempels bij singles en alleenstaanden?</t>
+          <t>Hoe groot kan het effect zijn van een dergelijk mosselrif of, met andere woorden, welke impact kan dit hebben op het nu uitgestippelde beleid van de kustverdediging?</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9911297559738159</v>
+        <v>0.9868016242980957</v>
       </c>
       <c r="D109" t="n">
-        <v>0.008870244026184082</v>
+        <v>0.0131983757019043</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kan er een overzicht gegeven worden van alle geplande evenementen?</t>
+          <t>Wanneer zullen ze voltooid zijn?</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9912220239639282</v>
+        <v>0.9870032668113708</v>
       </c>
       <c r="D110" t="n">
-        <v>0.008777976036071777</v>
+        <v>0.01299673318862915</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Zijn er opvallende verschillen ten opzichte thema?</t>
+          <t>de controle op de toegekende coronasteun?</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9914805889129639</v>
+        <v>0.987495481967926</v>
       </c>
       <c r="D111" t="n">
-        <v>0.008519411087036133</v>
+        <v>0.01250451803207397</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Welke criteria worden gehanteerd om dat te bepalen?</t>
+          <t>Zullen de reguliere huurders die hun woning door het kraken en de vernielingen niet op de vooropgestelde datum kunnen betrekken, worden vergoed? Zo ja, door wie/welke instantie?</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9914851784706116</v>
+        <v>0.987539529800415</v>
       </c>
       <c r="D112" t="n">
-        <v>0.008514821529388428</v>
+        <v>0.01246047019958496</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kregen ze de aanvragen tot terugbetaling van de boetes voor laattijdige keuring wegens de lange wachttijden verwerkt?</t>
+          <t>Wat zijn de grote lijnen van het masterplan en wat is de totale mogelijke opbrengst?</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9915099143981934</v>
+        <v>0.9875800013542175</v>
       </c>
       <c r="D113" t="n">
-        <v>0.008490085601806641</v>
+        <v>0.01241999864578247</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Daarnaast is er binnen mijn administratie nog een groep personeelsleden voor wie de tussenkomst voor de internetverbinding via het derde-betalersysteem geregeld is.</t>
+          <t>Welke verwervingen, waarvoor in het ontwerp-GIP in totaal 504.000 euro is gereserveerd, zijn gepland in 2024?</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.991546094417572</v>
+        <v>0.9884754419326782</v>
       </c>
       <c r="D114" t="n">
-        <v>0.008453905582427979</v>
+        <v>0.01152455806732178</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>253/15/1) zijn ingeschreven in het eerste jaar van het secundair onderwijs in de desbetreffende gemeente?</t>
+          <t>b) Wat is de duurtijd van elke stap in het proces?</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9917438626289368</v>
+        <v>0.9885032773017883</v>
       </c>
       <c r="D115" t="n">
-        <v>0.008256137371063232</v>
+        <v>0.01149672269821167</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Acht de minister dat bedrag voldoende om alle in aanmerking komende projecten te subsidiëren?</t>
+          <t>Wat is ondertussen de timing voor de realisatie van de oostelijke tangent?</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9921220541000366</v>
+        <v>0.9887394905090332</v>
       </c>
       <c r="D116" t="n">
-        <v>0.007877945899963379</v>
+        <v>0.0112605094909668</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wanneer is de aanbesteding afgerond en kunnen de werken voor de aanleg van de fietspaden aanvatten?</t>
+          <t>Welke verwervingen zijn tot nog toe gerealiseerd in 2023?</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9924529194831848</v>
+        <v>0.9889354109764099</v>
       </c>
       <c r="D117" t="n">
-        <v>0.007547080516815186</v>
+        <v>0.01106458902359009</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Zijn er in gemeenten waar die voorrang van toepassing is effectief procentueel minder leerlingen uit anderstalige gezinnen ingeschreven in het eerste jaar van Nederlandstalig secundair onderwijs?</t>
+          <t>Hoe evalueert de minister die situatie?</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9925193786621094</v>
+        <v>0.9890598058700562</v>
       </c>
       <c r="D118" t="n">
-        <v>0.007480621337890625</v>
+        <v>0.01094019412994385</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Wat zijn de laatste cijfers wat betreft de IPCC-definitie ‘forest land’?</t>
+          <t>Onderzoekt de minister of werkt hij aan oplossingen om hiertoe eventueel vanuit de Vlaamse overheid tussenbeide te komen onder de vorm van bijvoorbeeld extra subsidies of verloningsmogelijkheden, los van eigen schoolmiddelen? Zo ja, wat is het plan van aanpak, de timing en het budget?</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9925928711891174</v>
+        <v>0.9892807602882385</v>
       </c>
       <c r="D119" t="n">
-        <v>0.007407128810882568</v>
+        <v>0.01071923971176147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kan de minister-president per lichting een overzicht geven van het aantal studenten dat deelnam aan de selectieprocedure van de Fayatbeurzen?</t>
+          <t>Kan er een detail gegeven worden van het onderwerp van het project en dat per gesubsidieerde organisatie, met een onderscheid tussen private actoren met een non-profitkarakter, private actoren met een profitkarakter en publieke actoren?</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9926055669784546</v>
+        <v>0.9894061684608459</v>
       </c>
       <c r="D120" t="n">
-        <v>0.00739443302154541</v>
+        <v>0.01059383153915405</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hoe evolueert de hoeveelheid abonnees en het leesbereik?</t>
+          <t>Wanneer kunnen we daar een oplossing verwachten?</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9927090406417847</v>
+        <v>0.9896723031997681</v>
       </c>
       <c r="D121" t="n">
-        <v>0.007290959358215332</v>
+        <v>0.01032769680023193</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Is er nog een volgend overleg gepland en zo ja, wanneer?</t>
+          <t>Kan de minister die bezorgen?</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9927173852920532</v>
+        <v>0.9901078939437866</v>
       </c>
       <c r="D122" t="n">
-        <v>0.007282614707946777</v>
+        <v>0.009892106056213379</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ontvangt de VRT enige inkomsten voor het uitzenden van de erediensten?</t>
+          <t>Zijn de coachingtrajecten vastgelegd of is dat verschillend per traject?</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9928569793701172</v>
+        <v>0.9908656477928162</v>
       </c>
       <c r="D123" t="n">
-        <v>0.007143020629882812</v>
+        <v>0.009134352207183838</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>c) Moeten klanten de aanvraag tot terugbetaling binnen een bepaalde termijn doen? Zo ja, welke?</t>
+          <t>Welke fiscale en/of financiële mogelijkheden ziet de minister om een gelijkschakeling met leraren met bekwaamheidsattest te bewerkstelligen?</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9930263757705688</v>
+        <v>0.9909282326698303</v>
       </c>
       <c r="D124" t="n">
-        <v>0.006973624229431152</v>
+        <v>0.009071767330169678</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Zijn de bestaande vangrails nog voldoende veilig gelet op de tendens naar steeds groter en zwaarder wordende voertuigen en de grotere impact van die voertuigen?</t>
+          <t>Kan de minister een overzicht geven van personeelsleden in het onderwijs die met een bachelordiploma gestart zijn en gaandeweg een master hebben behaald en zo betaald worden?</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9931584000587463</v>
+        <v>0.9909645318984985</v>
       </c>
       <c r="D125" t="n">
-        <v>0.006841599941253662</v>
+        <v>0.009035468101501465</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het aantal tractorsluizen op de Vlaamse wegen?</t>
+          <t>Welke regelgeving is van toepassing op persoonsvolgende convenanten?</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9933566451072693</v>
+        <v>0.9910605549812317</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006643354892730713</v>
+        <v>0.008939445018768311</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Wie zal de hosting, onderhoud en financiering van de website www.akkerdelen.be verder beheren?</t>
+          <t>Wat zijn de concrete cijfers?</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9935146570205688</v>
+        <v>0.9910961389541626</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006485342979431152</v>
+        <v>0.008903861045837402</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de cijfers in vergelijking met vorig jaar?</t>
+          <t>Wat zijn de concrete cijfers?</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9935247898101807</v>
+        <v>0.9910961389541626</v>
       </c>
       <c r="D128" t="n">
-        <v>0.006475210189819336</v>
+        <v>0.008903861045837402</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de cijfers in vergelijking met vorig jaar?</t>
+          <t>Wat is de timing en planning voor de verdere opvolging van het Masterplan Vaste Activa?</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9935247898101807</v>
+        <v>0.9911483526229858</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006475210189819336</v>
+        <v>0.00885164737701416</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Zijn er nog Blue Dealprojecten die ingezet werden ter compensatie van watervolume dat elders verdwijnt?</t>
+          <t>Wat is de timing en planning voor de verdere opvolging van het Masterplan Vaste Activa?</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9936227202415466</v>
+        <v>0.9911483526229858</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006377279758453369</v>
+        <v>0.00885164737701416</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Wat is de huidige stand van zaken met betrekking tot het monitoren van de tijdens deze legislatuur aangeplante bossen in Vlaanderen?</t>
+          <t>Wie dat wenst krijgt ook een laptophouder, toetsenbord en rugzak ter beschikking.</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9938331842422485</v>
+        <v>0.9915053248405457</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006166815757751465</v>
+        <v>0.008494675159454346</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Zo niet, wat is de geplande timing van de realisatie alsook de begroting ervoor?</t>
+          <t>Wat is het gereserveerde budget?</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.993895947933197</v>
+        <v>0.9915270209312439</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006104052066802979</v>
+        <v>0.008472979068756104</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Zo niet, wat is de geplande timing van de realisatie alsook de begroting ervoor?</t>
+          <t>c) Wat is de oplevertermijn?</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.993895947933197</v>
+        <v>0.9915794134140015</v>
       </c>
       <c r="D133" t="n">
-        <v>0.006104052066802979</v>
+        <v>0.008420586585998535</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het aantal ongevallen veroorzaakt door een tractorsluis?</t>
+          <t>Wat is de verwachte datum van toekenning van de subsidie?</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9940432906150818</v>
+        <v>0.9916832447052002</v>
       </c>
       <c r="D134" t="n">
-        <v>0.005956709384918213</v>
+        <v>0.008316755294799805</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Heeft de minister zicht op de timing waarbinnen deze projecten ook effectief gerealiseerd zullen zijn?</t>
+          <t>Wanneer zijn de opdrachten opgestart, wie heeft de opdrachten uitgevoerd, wat zijn de resultaten van de opdrachten?</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9941478967666626</v>
+        <v>0.9917778968811035</v>
       </c>
       <c r="D135" t="n">
-        <v>0.005852103233337402</v>
+        <v>0.008222103118896484</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>a) Houdt De Vlaamse Waterweg bij, voor de bruggen onder haar beheer, hoe lang ze gemiddeld geopend zijn per keer? Zo ja, kan de minister die cijfers voor de Brugse bruggen vrijgeven?</t>
+          <t>Hoe evalueert de minister deze projectoproep?</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9941613078117371</v>
+        <v>0.9917857050895691</v>
       </c>
       <c r="D136" t="n">
-        <v>0.005838692188262939</v>
+        <v>0.008214294910430908</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Zal het aantal ongevallen gestegen, afgenomen of stabiel gebleven zijn ten opzichte van de voorgaande jaren?</t>
+          <t>III.Wat is de vooropgestelde timing?</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9944633841514587</v>
+        <v>0.9918427467346191</v>
       </c>
       <c r="D137" t="n">
-        <v>0.00553661584854126</v>
+        <v>0.008157253265380859</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister-president het Flanders Trainee Programme tot nu toe?</t>
+          <t>Hoe evalueert de minister die evolutie?</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.994537889957428</v>
+        <v>0.9921289682388306</v>
       </c>
       <c r="D138" t="n">
-        <v>0.005462110042572021</v>
+        <v>0.007871031761169434</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze initiatieven?</t>
+          <t>Kan de minister een overzicht geven van het aantal personen die in aanmerking kwamen voor versnelde toewijzing?</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.994539201259613</v>
+        <v>0.9921430349349976</v>
       </c>
       <c r="D139" t="n">
-        <v>0.005460798740386963</v>
+        <v>0.007856965065002441</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>c) In haar antwoord op de bovenvermelde vraag gaf de minister ook een overzicht Kan de minister per provincie in nominale cijfers weergeven hoeveel offroadpaden er in elke categorie zijn?</t>
+          <t>Graag de cijfers over wie wel en niet een plek heeft kunnen krijgen per maand, met gevraagde opsplitsing.</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.994551956653595</v>
+        <v>0.9921535849571228</v>
       </c>
       <c r="D140" t="n">
-        <v>0.005448043346405029</v>
+        <v>0.007846415042877197</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>c) In haar antwoord op de bovenvermelde vraag gaf de minister ook een overzicht Kan de minister per provincie in nominale cijfers weergeven hoeveel offroadpaden er in elke categorie zijn?</t>
+          <t>Kan de minister de precieze plannen van de heraanleg bezorgen?</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.994551956653595</v>
+        <v>0.9921727180480957</v>
       </c>
       <c r="D141" t="n">
-        <v>0.005448043346405029</v>
+        <v>0.007827281951904297</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het aantal tractorsluizen dat opnieuw verwijderd werd?</t>
+          <t>In welke mate is de aanwezigheid van de kleuter gedurende het schooljaar de grootste bepalingsfactor om een jaar langer in het kleuteronderwijs te blijven?</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9946147799491882</v>
+        <v>0.9921896457672119</v>
       </c>
       <c r="D142" t="n">
-        <v>0.005385220050811768</v>
+        <v>0.007810354232788086</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de aanpak rond de veiligheidsmaaibeurten?</t>
+          <t>Wat is het maximaal aantal keren dat een budgethouder werd gecontroleerd?</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9947133660316467</v>
+        <v>0.9921987652778625</v>
       </c>
       <c r="D143" t="n">
-        <v>0.005286633968353271</v>
+        <v>0.007801234722137451</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de aanpak rond de veiligheidsmaaibeurten?</t>
+          <t>Gaat in 2024 deze besparing verdergezet worden?</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9947133660316467</v>
+        <v>0.9922846555709839</v>
       </c>
       <c r="D144" t="n">
-        <v>0.005286633968353271</v>
+        <v>0.007715344429016113</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Kan de minister de methodologie voor de bosteller in detail bezorgen, zowel voor bosuitbreiding, als voor boscompensatie?</t>
+          <t>Wat is de verhouding tussen het aantal laadpalen dat op dit moment in gebruik is en het aantal plaatsingsopdrachten dat gegeven werd?</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9948391318321228</v>
+        <v>0.9923104047775269</v>
       </c>
       <c r="D145" t="n">
-        <v>0.005160868167877197</v>
+        <v>0.007689595222473145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die nieuwe cijfers in verhouding tot de laatste cijfers in juni 2022?</t>
+          <t>Wat is de verhouding tussen het aantal laadpalen dat op dit moment in gebruik is en het aantal laadpalen dat in totaal geplaatst is?</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9951184988021851</v>
+        <v>0.9924348592758179</v>
       </c>
       <c r="D146" t="n">
-        <v>0.004881501197814941</v>
+        <v>0.007565140724182129</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Is er nood aan aanpassing van het vooropgestelde budget?</t>
+          <t>Heeft de minister er zicht op in hoeverre er in Vlaanderen zonevreemde dierenasielen zijn?</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9951500296592712</v>
+        <v>0.9925041198730469</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00484997034072876</v>
+        <v>0.007495880126953125</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Zo niet, wanneer plant de minister die campagne?</t>
+          <t>Welke bedragen zijn sinds 2019 jaarlijks al verworven door VLAM via het innen van verplichte bijdragen aan de promotiefondsen?</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9952090382575989</v>
+        <v>0.9925305247306824</v>
       </c>
       <c r="D148" t="n">
-        <v>0.004790961742401123</v>
+        <v>0.007469475269317627</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Zo niet, wanneer plant de minister die campagne?</t>
+          <t>Een overzicht van de gevoerde acties per sector is te vinden in de activiteitenverslagen van VLAM: www.vlaanderen.be/vlam/wie-zijn-we/activiteitenverslagen.</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9952090382575989</v>
+        <v>0.9928233623504639</v>
       </c>
       <c r="D149" t="n">
-        <v>0.004790961742401123</v>
+        <v>0.007176637649536133</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>technisch adviseur, adjunct-directeur), bevorderingsambten (directeur, beheerder) als voor meesters-, vak- en dienstpersoneel?</t>
+          <t>Wat is het totaalbudget dat besteed werd aan de subsidie?</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9952137470245361</v>
+        <v>0.9928681254386902</v>
       </c>
       <c r="D150" t="n">
-        <v>0.004786252975463867</v>
+        <v>0.007131874561309814</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Om na te gaan hoeveel gemeenten beschikken over een afwijking van het Bermbesluit die nog geldig is, is opzoekingswerk nodig dat niet mogelijk is binnen de behandelingsperiode voor deze vraag.</t>
+          <t>Wat is de top 10 van de meest voorkomende onderwerpen?</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9953509569168091</v>
+        <v>0.9928802847862244</v>
       </c>
       <c r="D151" t="n">
-        <v>0.004649043083190918</v>
+        <v>0.007119715213775635</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister-president het succes en het concept van de Fayatbeurzen?</t>
+          <t>Wat was de gemiddelde wachttijd tussen de aanvraag en het uiteindelijke besluit van de bijzondere bijstandscommissie in 2020, in 2021, in 2022 en in 2023?</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9954608082771301</v>
+        <v>0.9928867220878601</v>
       </c>
       <c r="D152" t="n">
-        <v>0.004539191722869873</v>
+        <v>0.007113277912139893</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Wat is de methodologie om de boscompensatie via het Boscompensatiefonds te controleren?</t>
+          <t>Zijn er verschillen in aanpak tussen de verschillende koepels?</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9954719543457031</v>
+        <v>0.9929007291793823</v>
       </c>
       <c r="D153" t="n">
-        <v>0.004528045654296875</v>
+        <v>0.007099270820617676</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hoe evalueert tot nu toe de minister de effectiviteit van de voorrang?</t>
+          <t>Kan een overzicht gegeven worden van de gebruikscijfers van de pendelbus die gepland is op het traject Kioskplaats-Zwaantjes?</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9954962730407715</v>
+        <v>0.9929819107055664</v>
       </c>
       <c r="D154" t="n">
-        <v>0.004503726959228516</v>
+        <v>0.007018089294433594</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Is de hoeveelheid participerende lokale besturen het afgelopen jaar toegenomen?</t>
+          <t>Kan de minister een nauwkeurige omschrijving geven van de uit te voeren werken voor de heraanleg van het knooppunt van de N424 met de N456, voor de eerste fase?</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9954987168312073</v>
+        <v>0.992983341217041</v>
       </c>
       <c r="D155" t="n">
-        <v>0.004501283168792725</v>
+        <v>0.007016658782958984</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de toepassingsgraad van die voorrang?</t>
+          <t>Wat is de gemiddelde doorlooptijd van die procedure?</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9955857992172241</v>
+        <v>0.993099570274353</v>
       </c>
       <c r="D156" t="n">
-        <v>0.004414200782775879</v>
+        <v>0.006900429725646973</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de toepassingsgraad van die voorrang?</t>
+          <t>Is de minister tevreden over het aantal aanvragen en de ingediende projecten sinds de inwerkingtreding van het nieuwe subsidiereglement ‘sectorale prioriteiten’?</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9955857992172241</v>
+        <v>0.9931660294532776</v>
       </c>
       <c r="D157" t="n">
-        <v>0.004414200782775879</v>
+        <v>0.006833970546722412</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze drie uitrolstrategieën?</t>
+          <t>Is de minister tevreden over het aantal aanvragen en de ingediende projecten sinds de inwerkingtreding van het nieuwe subsidiereglement ‘sectorale prioriteiten’?</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9955927729606628</v>
+        <v>0.9931660294532776</v>
       </c>
       <c r="D158" t="n">
-        <v>0.004407227039337158</v>
+        <v>0.006833970546722412</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Wat is de kostprijs daarvoor?</t>
+          <t>Heeft de minister zicht op het totale aantal potentiële doctoraathouders, doctorandi en andere onderzoekers die op dit ogenblik aan een universiteit werken en dus in aanmerking komen voor deze stap of combinatie?</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9956271648406982</v>
+        <v>0.9932622313499451</v>
       </c>
       <c r="D159" t="n">
-        <v>0.004372835159301758</v>
+        <v>0.006737768650054932</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Wat is de kostprijs daarvoor?</t>
+          <t>b) Welke jobbeurzen werden in samenwerking met de lokale besturen georganiseerd?</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9956271648406982</v>
+        <v>0.9932767152786255</v>
       </c>
       <c r="D160" t="n">
-        <v>0.004372835159301758</v>
+        <v>0.006723284721374512</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Het is echter niet te achterhalen door wie dit filmpje werd bekeken.</t>
+          <t>Wat is sinds de invoering van de bijzondere erkenning de gemiddelde verblijfsduur voor personen die lijden aan jongdementie die worden opgevangen in woongelegenheden met die bijzondere erkenning?</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9957054257392883</v>
+        <v>0.9934240579605103</v>
       </c>
       <c r="D161" t="n">
-        <v>0.00429457426071167</v>
+        <v>0.006575942039489746</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>d) Welk streefdoel wil de minister behalen, qua timing en aantal participerende besturen?</t>
+          <t>Kan de minister een overzicht geven van het aantal goedgekeurde subsidiedossiers met bijhorende budgetten?</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9957188963890076</v>
+        <v>0.993439257144928</v>
       </c>
       <c r="D162" t="n">
-        <v>0.004281103610992432</v>
+        <v>0.006560742855072021</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>b) Gaat het departement MOW terug voor laattijdige keuringen tot 1 januari 2023?</t>
+          <t>b) Ziet de minister hier groeikansen voor de toekomst?</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9957337975502014</v>
+        <v>0.9935415983200073</v>
       </c>
       <c r="D163" t="n">
-        <v>0.004266202449798584</v>
+        <v>0.006458401679992676</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hoe evalueert tot nu toe de minister de effectiviteit van deze voorrang?</t>
+          <t>Hoeveel vervoerregio’s zitten boven hun budget en zullen dus aanpassingen moeten doen? Graag een overzicht per regio, hun budget en hoeveel ze over budget zijn gegaan.</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9959184527397156</v>
+        <v>0.9935471415519714</v>
       </c>
       <c r="D164" t="n">
-        <v>0.004081547260284424</v>
+        <v>0.006452858448028564</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het totaalaantal goedgekeurde aanvragen en het aantal effectief terugbetaalde boetes?</t>
+          <t>Wat is de gemiddelde wachttijd tussen de aanvraag en het uiteindelijke besluit van de bijzondere bijstandscommissie in 2020, in 2021, in 2022 en in 2023?</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9959375858306885</v>
+        <v>0.9935646653175354</v>
       </c>
       <c r="D165" t="n">
-        <v>0.004062414169311523</v>
+        <v>0.0064353346824646</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het totaalaantal goedgekeurde aanvragen en het aantal effectief terugbetaalde boetes?</t>
+          <t>Welke subsidies werden tijdens deze legislatuur jaarlijks aan de Pro League gegeven?</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9959375858306885</v>
+        <v>0.9936105608940125</v>
       </c>
       <c r="D166" t="n">
-        <v>0.004062414169311523</v>
+        <v>0.006389439105987549</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Voorbeelden uit het voorbije seizoen:•Op VRT 1: Dagen zonder broer (reeks waarin Jeroen Meus op zoek gaat naar manieren om de dood van zijn broer een plaats te geven), Lichtpuntjes tegen kanker (waarbij Siska Schoeters spreekt met mensen die leven met kanker), Het laatste portret (waarin Lieve Blancquaert ‘laatste portretten’ maakt van mensen voor wie het einde van het leven nabij is) en De inzichten (gesprekken over levensbeschouwelijke thema’s).</t>
+          <t>Kan een gedetailleerd overzicht gegeven worden van het aantal schuilhuisjes per vervoerregio, het aantal nieuwe schuilhuisjes met groendak en/of zonnepaneel en hun locatie, en de geplande plaatsing van dergelijke schuilhuisjes met groendak en/of zonnepaneel en hun locatie?</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9959761500358582</v>
+        <v>0.9936361312866211</v>
       </c>
       <c r="D167" t="n">
-        <v>0.004023849964141846</v>
+        <v>0.006363868713378906</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de recente cijfers van beide sporen in vergelijking met dezelfde cijfers vorig jaar?</t>
+          <t>Welke participatie er is geweest met de buurtbewoners?</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9959816932678223</v>
+        <v>0.9936375617980957</v>
       </c>
       <c r="D168" t="n">
-        <v>0.004018306732177734</v>
+        <v>0.006362438201904297</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Kan de minister aangeven wat de gemiddelde prijs per m² is voor de aankoop van bebosbare grond?</t>
+          <t>Wordt voorzien?CPE - toelichting (goed-gekeurde onderdelen)CPE - getal (goedgekeurde onderdelen)1 GLS € 30.000,00 3 x 150kW 302 Econor € 45.000,00 5 x 11kW 2  x300kW453 Luiknatie € 25.000,00 5 x 80kW 254 Besix € 40.000,00 4 x 150kW 405 Dhaese € 18.000,00 1 x 300kW 206 MAN W-VL € 13.505,50 1 x 300kW207Transport Theo bvba€ 40.000,00 2 x 300kW 408Haven van Antwerpen€ 300.000,00 15 x 300kW 30010Roeselare stad - stedelijke logistiek€ 8.000,00 4 x 22kW 811Touringcarbedrijf De Wilg BVBA€ 75.000,00 15 x 60kW 7512 Man Brugge NV € 1.400,00 2 x 22kW 414Maenhout Automotive€ 17.707,00 6 x 22kW 1 x 250 kW2215 LTI-SKOBO € 1.842,00 3 x 22kW 616 WDP € 46.589,00 17 x 22kW 6 x 50kW 2 x 150kW8418 Kaliber € 4.000,00 2 x 22kW 419Hamann International Logistics NV€ 80.000,00 4 x 360kW 8020 Aerts Truck € 30.000,00 4 x 22 kW 6 x 22kW 1 x 180 kW3021Bpost Antwerpen Centrum€ 52.000,00 26 x 22kW 5222Aartselaar - Bpost€ 57.000,00 70 x 22kW 14023 Deurne - Bpost € 28.846,00 29 x 22kW 5824 Kortrijk - Bpost € 31.535,00 31 x 22kW 6225Linkeroever - Bpost€ 10.113,00 8 x 22kW 1626Merksem - Bpost€ 18.734,00 12 x 22kW 2427Oostkamp - Bpost€ 42.175,00 39 x 22kW 7828Roeselare - Bpost€ 37.510,00 40 x 22kW 8029 Veurne - Bpost € 55.000,00 50 x 22kW 10030 Storex € 41.996,80 1 x 150kW 2 x 300kW5031 Horafrost € 12.000,00 6 x 22kW 1232 Homifreez € 8.000,00 4 x 22kW 833 Ghistelinck € 60.000,00 10 x 22kW 2 x 60 kW 3 x 150 kW6034EG Retail Belgium€ 40.000,00 2 x 150 kW 2 x 150kW4035 Lavrijsen € 24.000,00 1 x 40 kW 1 x 360 kW2436 Derma Trucks € 16.000,00 3 x 22kW 1x 180 kW1637 Weba Gent € 34.000,00 12 x 22kW 1 x 200 kW3439Snellaadinfrastructuur G&amp;V Trucknetwerk -1€ 300.000,00 15 x 400kW 30040Snellaadinfrastructuur G&amp;V Trucknetwerk -2€ 300.000,00 15 x 400 kW 30041Snellaadinfrastructuur G&amp;V Trucknetwerk -3€ 80.000,00 4 x 400 kW 8043 CRM connect € 105.000,00 5 x 60kW 8 x 150kW10544International Car Operators€ 15.500,00 2 x 150 kW 2045Dedecker Vanriet€ 160.000,00 8 x 150kW 4 x 150 kW 4 x 150 kW16046Transport Vervaeke€ 20.000,00 1 x 320 kW 2047 WDP - ABInbev € 40.000,00 4 x 150 kW 4048WDP - Barry Callebaut€ 20.000,00 1 x 350 kW 2049WDP - Big Foot Fast Charging€ 40.000,00 2 x 350 kW 4050DAF - Herent &amp; Houthalen€ 10.000,00 2 x 90 kW 1051Lemahieu Oostende€ 28.000,00 4 x 80 kW 4 x 22 kW2852 Lemahieu Gent € 34.000,00 2 x 22 kW 6 x 80 kW3453 GZA € 10.000,00 5 x 22 kW 1054 Daimler Truck € 35.000,00 1 x 300 kW 1 x 150 kW 1 x 50 kW3555 Biostoom € 30.000,00 2 x 50 kW 2 x 180 kW3056Turbotrucks Kortrijk€ 25.511,00 8 x 22 kW 2 x 200 kW3657 Heylen - Rikesa € 4,00 24 x 50 kW 12058Heylen - Rikesa - 2€ 52.000,00 26 x 22 kW 5259 Essers € 20.000,00 4 x 50 kW 2060Tailormade Transport€ 25.000,00 5 x 80 kW 2561 Finvesta € 173.000,00 24 x 22 kW 5 x 80 kW 10 x 200 kW 17362 Immo Darwin € 196.000,00 22 x 22kW 5 x 80 kW 10 x 200 kW16963 Immo Palmaers € 40.000,00 2 x 300 kW 4064Tailormade logistics€ 25.000,00 5 x 80 kW 2565Tailormade logistics Westerlo€ 25.000,00 5 x 80 kW 2566Immo Darwin Rijkevorsel€ 185.000,00 30 x 22 kW 5 x 80 kW 10 x 200 kW18567Alders Internationaal Transport€ 40.000,00 2 x 150 kW 1 x 300 kW4068 Marcel Depaire € 40.000,00 2 x 300 kW 4069 IKEA - Allego € 255.000,00 75 x 22kW 5  x50kW 10 x 150kW27570Colruyt - Londerzeel€ 24.368,00 10 x 22kW 1 x 60kW2571 Raff Plastics € 14.000,00 1 x 43 kW 1 x 180 kW1472Colruyt - zware vracht€ 230.000,00 7 x 350kW 9 x 180 kW23073Colruyt - centrale diensten bestelwagens€ 26.000,00 13 x 32 kW 2674Colruyt - centrale diensten bestelwagens 2€ 12.000,00 6 x 32 kW 1275Colruyt - publiek HD laadinfra centrale diensten€ 300.000,00 17 x 350 kW 34076 Eutraco € 80.000,00 4 x 400 kW 8077 Devrago € 46.000,00 13 x 22 kW 2 x 80 kW 1 x 200 kW4678 DVM Invest € 44.000,00 2 x 22 kW 2 x 300 kW4479Fastned - Brecht Oost€ 20.000,00 1 x 400 kW 2080Fastned - Peutie Oost€ 20.000,00 1 x 400 kW 2081Fastned - Peutie West€ 20.000,00 1 x 400 kW 2082Fastned - Postel Noord€ 40.000,00 2 x 400kW 4083Fastned - Postel Zuid€ 40.000,00 2 x 400kW 4084Fastned - Walshoutem Noord€ 40.000,00 2 x 400kW 4085Transport Heirwegh€ 10.000,00 2 x 50 kW 1087Mandel Car Toerisme€ 70.000,00 5 x 300 kW 10088 Ganda Cars € 58.000,00 5 x 300 kW 4 x 22 kW10889Ninatrans Electrified€ 4.000,00 1 x 43kW 490Volvo Trucks Ruisbroek€ 46.000,00 4 x 150 kW 3 x 22 kW4691 Multiobus Diest € 30.000,00 6 x 60 kW 3092Multiobus Wijgmaal€ 30.000,00 6 x 60 kW 3095 Charge m Up € 80.000,00 2 x 150 kW 6 x 300 kW20096 Ferry Cars € 200.000,00 14 x 150 kW 12 x 50 kW20098Multiobus Wijgmaal 2€ 20.000,00 1 x 300 kW 2099Antwerp Stevedoring€ 16.000,00 4 x 43 kW 16100Transuniverse forwarding€ 50.000,00 20 x 22 kW 1 x 150 kW50101 Post NL € 17.727,00 20 x 22 kW 2 x 22 kW44102 Verbeketrans € 20.000,00 1 x 300 kW 20103Transport Mervielde€ 15.000,00 1 x 80 kW 1 x 200 kW15105Allego - Heavy Duty Antwerp Euroterminal€ 60.000,00 3 x 400 kW 60106Echarging4busses@Trosbeiaard€ 143.000,00 14 x 150 kW 3 x 11 kW143107DFDS Gent Green Port€ 40.000,00 2 x 300 kW 40108Rijschool Hendriks€ 14.000,00 2 x 22 kW 1 x 150 kW14109 Waaslandia € 210.000,00 21 x 150 210110 Keolis Genk € 130.000,00 13 x 150 130111 Keolis Jabbeke € 60.000,00 6 x 150 60112 Keolis Maaseik € 60.000,00 6 x 150 60113Keolis Tessenderlo€ 40.000,00 4 x 150 40114Keolis Wuustwezel€ 40.000,00 4 x 150 40115 Keolis Zulte € 60.000,00 6 x 150 60116 Teyssen € 65.000,00 13 x 50 65117De Morgenstond€ 135.000,00 27 x 50 135118 Buga NV € 49.000,00 5 x 221x 501 x 3001 x 60049119Buga Limburg NV€ 29.000,00 1 x 300 kW 2 x 22kW 1 x 50 kW294.</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9960045218467712</v>
+        <v>0.9937272071838379</v>
       </c>
       <c r="D169" t="n">
-        <v>0.00399547815322876</v>
+        <v>0.006272792816162109</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Welke financiële incentives en/of stimulerende fiscale maatregelen overweegt de minister om de transitie naar duurzaam watergebruik in de industrie te faciliteren?</t>
+          <t>M.a.w., wat is het percentage verworven studiepunten ten opzichte van het aantal opgenomen studiepunten?</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9960287809371948</v>
+        <v>0.9938388466835022</v>
       </c>
       <c r="D170" t="n">
-        <v>0.003971219062805176</v>
+        <v>0.006161153316497803</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Wat was de kostprijs van de veiligheidsmaaibeurten?</t>
+          <t>Wat was in 2020, in 2021, in 2022 en in 2023 de gemiddelde wachttijd tussen de aanmelding en het eerste bezoek in een neutrale bezoekruimte?</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9960502982139587</v>
+        <v>0.9938439130783081</v>
       </c>
       <c r="D171" t="n">
-        <v>0.00394970178604126</v>
+        <v>0.006156086921691895</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Wat was de kostprijs van de veiligheidsmaaibeurten?</t>
+          <t>Kan de minister de meest recente stand van zaken geven?</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9960502982139587</v>
+        <v>0.9938898086547852</v>
       </c>
       <c r="D172" t="n">
-        <v>0.00394970178604126</v>
+        <v>0.006110191345214844</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wat is de vooropgestelde timing voor de start van de werken?</t>
+          <t>d) Hoelang moeten mensen gemiddeld wachten voor ze een assistentiehond toegewezen krijgen?</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9961517453193665</v>
+        <v>0.9939192533493042</v>
       </c>
       <c r="D173" t="n">
-        <v>0.003848254680633545</v>
+        <v>0.006080746650695801</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>b) Zal er een nieuw subsidieproject volgen om schoolroutes op gemeentewegen veiliger te maken? Zo ja, welk budget wordt daarvoor uitgetrokken?</t>
+          <t>Kan de minister een overzicht geven van de volgende fases van de uit te voeren werken voor de aanleg van de fietsverbinding campus Sterre-Ardoye, met per fase een omschrijving van de werken, de timing en het budget?</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9961750507354736</v>
+        <v>0.9939658045768738</v>
       </c>
       <c r="D174" t="n">
-        <v>0.003824949264526367</v>
+        <v>0.006034195423126221</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Kan de minister meedelen welk aandeel van de niet-Belgische studenten met een studietoelage uiteindelijk een hogeschool- of universiteitsdiploma behaalt?</t>
+          <t>Hoe groot is de wachtlijst van personen die een assistentiehond willen?</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9961942434310913</v>
+        <v>0.994047999382019</v>
       </c>
       <c r="D175" t="n">
-        <v>0.003805756568908691</v>
+        <v>0.005952000617980957</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wanneer gebeurde dat?</t>
+          <t>Kan de minister een overzicht geven van de volgende fases van de werken voor de vervanging van de brug Deinsesteenweg, met per fase een omschrijving van de werken, de timing en het gereserveerde budget?</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9962588548660278</v>
+        <v>0.9940866231918335</v>
       </c>
       <c r="D176" t="n">
-        <v>0.003741145133972168</v>
+        <v>0.005913376808166504</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Heeft de minister cijfers over het aantal steden en gemeenten dat ondertussen vertrouwd is met Chiron en toeziet op de aanwezigheid van apparatuur of software in elk voertuig bij de vergunningsaanvraag?</t>
+          <t>a) Wat is de kostprijs per kabinet opgesplitst voor personeel, externe adviseurs, onkosten van de minister, telefoonkosten, dienstwagens, chauffeur, persoonlijke kok?</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9963579773902893</v>
+        <v>0.9940981864929199</v>
       </c>
       <c r="D177" t="n">
-        <v>0.003642022609710693</v>
+        <v>0.005901813507080078</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de evolutie van het aantal champignonkwekers in Vlaanderen sinds 2005?</t>
+          <t>Wat is de totale kostprijs van de heraanleg?</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9963977336883545</v>
+        <v>0.9941576719284058</v>
       </c>
       <c r="D178" t="n">
-        <v>0.003602266311645508</v>
+        <v>0.005842328071594238</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Welk aandeel van de extra capaciteit in het buitengewoon onderwijs betreft structurele duurzame plaatsen door scholenbouw en -renovatie?</t>
+          <t>a) Acht de minister het vooropgestelde budget voor die subsidie voldoende?</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9964439272880554</v>
+        <v>0.9941938519477844</v>
       </c>
       <c r="D179" t="n">
-        <v>0.00355607271194458</v>
+        <v>0.005806148052215576</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Kan de minister deze cijfers inzake participatiegraad verder uitsplitsen naar deelname met onderscheid tussen academische bachelors, professionele bachelors, graduaten en hbo5-opleidingen (hbo5: hoger beroepsonderwijs 5)?</t>
+          <t>Hoe loopt dat?</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9964699745178223</v>
+        <v>0.9942466616630554</v>
       </c>
       <c r="D180" t="n">
-        <v>0.003530025482177734</v>
+        <v>0.00575333833694458</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Hoe is dat cijfer geëvolueerd ten opzichte van 2021?</t>
+          <t>Kan de minister per signaalgebied een overzicht geven van het aantal afgeleverde omgevingsvergunningen voor stedenbouwkundige handelingen waarbij toelating gegeven werd voor bebouwing, ophoging of andere ingrepen die een impact hebben op het bergingsvolume van het signaalgebied?</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9964943528175354</v>
+        <v>0.9942745566368103</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0035056471824646</v>
+        <v>0.005725443363189697</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de maatregel om boetes voor laattijdige keuring wegens de lange wachttijden terug te betalen?</t>
+          <t>Hoe evalueert de minister dat per provincie?</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9964951872825623</v>
+        <v>0.9942823648452759</v>
       </c>
       <c r="D182" t="n">
-        <v>0.003504812717437744</v>
+        <v>0.005717635154724121</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het totaalaantal aanvragen en het aantal goedgekeurde aanvragen?</t>
+          <t>c) het totale bedrag dat al besteed werd aan alle verleden aktes en akkoorden?</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9964983463287354</v>
+        <v>0.9943227767944336</v>
       </c>
       <c r="D183" t="n">
-        <v>0.003501653671264648</v>
+        <v>0.005677223205566406</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het totaalaantal aanvragen en het aantal goedgekeurde aanvragen?</t>
+          <t>Kan de minister de correcte cijfers geven op datum van 1 oktober 2023 aangaande:a) het aantal percelen waarvoor de voorbije jaren een akkoord werd bereikt en waarvoor ook al een akte werd verleden?</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9964983463287354</v>
+        <v>0.9943893551826477</v>
       </c>
       <c r="D184" t="n">
-        <v>0.003501653671264648</v>
+        <v>0.005610644817352295</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de evolutie van het volume geïmporteerde champignons sinds 2005?</t>
+          <t>Wat zijn de resultaten bij de gemeenten waar het project van de Profploeg werd afgerond?</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9965394735336304</v>
+        <v>0.9943906664848328</v>
       </c>
       <c r="D185" t="n">
-        <v>0.003460526466369629</v>
+        <v>0.005609333515167236</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Heeft de minister cijfermateriaal over het aantal politiezones (per provincie) die gebruikmaken van Chiron en het aantal boetes die ondertussen uitgeschreven zijn?</t>
+          <t>Wat is de uiteindelijke timing van de toekenning van de 5176 extra plaatsen inkomenstarief?</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9965614676475525</v>
+        <v>0.9944373369216919</v>
       </c>
       <c r="D186" t="n">
-        <v>0.00343853235244751</v>
+        <v>0.005562663078308105</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal gewestwegen met bermbeheerplannen en het aantal gewestwegen zonder bermbeheerplannen?</t>
+          <t>Kan een stand van zaken gegeven worden over de noodzakelijke werken aan de spoorinfrastructuur op de Antwerpsesteenweg?</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9966149926185608</v>
+        <v>0.9945749044418335</v>
       </c>
       <c r="D187" t="n">
-        <v>0.003385007381439209</v>
+        <v>0.005425095558166504</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal gewestwegen met bermbeheerplannen en het aantal gewestwegen zonder bermbeheerplannen?</t>
+          <t>c) Wat bepaalt de volgorde op de wachtlijst?</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9966149926185608</v>
+        <v>0.9946157336235046</v>
       </c>
       <c r="D188" t="n">
-        <v>0.003385007381439209</v>
+        <v>0.005384266376495361</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de nieuwe en verbrede oproep voor volkstuinprojecten?</t>
+          <t>Welke West-Vlaamse projecten zitten nog in de pijplijn voor subsidies voor het jaar 2023?</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9966363906860352</v>
+        <v>0.994631290435791</v>
       </c>
       <c r="D189" t="n">
-        <v>0.003363609313964844</v>
+        <v>0.005368709564208984</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Welk aandeel daarvan betreft plaatsen gecreëerd door huursubsidies of tijdelijke infrastructuurmaatregelen?</t>
+          <t>Kan de minister een overzicht geven van de evolutie van de autofinancieringsmarges (AFM) en de gecorrigeerde autofinancieringsmarges?</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9966541528701782</v>
+        <v>0.9947106838226318</v>
       </c>
       <c r="D190" t="n">
-        <v>0.003345847129821777</v>
+        <v>0.005289316177368164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Zijn er terreincontroles?</t>
+          <t>Kan de minister de correcte cijfers geven op datum van 31 december 2022, 31 december 2021, 31 december 2020 en 31 december 2019 aangaande:a) het aantal ingenomen percelen waarvoor de aktes al zijn verleden;b) het aantal in te nemen percelen waarvoor er wel een akkoord is, maar waarvoor de aktes nog niet zijn verleden?</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9966740608215332</v>
+        <v>0.9947168231010437</v>
       </c>
       <c r="D191" t="n">
-        <v>0.003325939178466797</v>
+        <v>0.005283176898956299</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het totaalaantal aanvragen en het totaalaantal afgekeurde aanvragen?</t>
+          <t>Welk bedrag wordt daarvoor extra vrijgemaakt?</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9966747760772705</v>
+        <v>0.9947197437286377</v>
       </c>
       <c r="D192" t="n">
-        <v>0.003325223922729492</v>
+        <v>0.005280256271362305</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het totaalaantal aanvragen en het totaalaantal afgekeurde aanvragen?</t>
+          <t>Acht de minister het budget voldoende?</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9966747760772705</v>
+        <v>0.9947324991226196</v>
       </c>
       <c r="D193" t="n">
-        <v>0.003325223922729492</v>
+        <v>0.005267500877380371</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Wat is de geschatte impact op de koolstofopslagcapaciteit van die bosuitbreidings- en boscompensatieprojecten?</t>
+          <t>Wat was de gemiddelde doorlooptijd van de gehele erkenningsprocedure voor assistentiehondenscholen in 2019-2020-2021-2022-2023?</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9966756105422974</v>
+        <v>0.9947760105133057</v>
       </c>
       <c r="D194" t="n">
-        <v>0.003324389457702637</v>
+        <v>0.005223989486694336</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>a) Wat is momenteel de kostprijs voor de Vlaamse overheid per audit?</t>
+          <t>Welke aansluiting op de N60 en de R40-binnenring is opgenomen in de goedgekeurde projectnota?</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9967227578163147</v>
+        <v>0.9948107004165649</v>
       </c>
       <c r="D195" t="n">
-        <v>0.003277242183685303</v>
+        <v>0.005189299583435059</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>De Federale Regering wil werk maken van een online platform waar men kan zien hoeveel uren men al gewerkt heeft als flexi-jobber.</t>
+          <t>Hoe loopt de vooruitgang met betrekking tot de nodige onteigeningen en verloopt die ondertussen wel op de verhoopte kruissnelheid?</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9967240691184998</v>
+        <v>0.9948116540908813</v>
       </c>
       <c r="D196" t="n">
-        <v>0.003275930881500244</v>
+        <v>0.005188345909118652</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Wat zijn de cijfers van de redactionele doorstroming van de berichten naar andere persagentschappen?</t>
+          <t>86 van 21 oktober 2021 en in latere vragen, ziet de minister concreet en welke stappen zijn daartoe al (succesvol) gezet?</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9967317581176758</v>
+        <v>0.9948263764381409</v>
       </c>
       <c r="D197" t="n">
-        <v>0.003268241882324219</v>
+        <v>0.005173623561859131</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Wat is de kostprijs van de onteigeningen?</t>
+          <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9967664480209351</v>
+        <v>0.994853675365448</v>
       </c>
       <c r="D198" t="n">
-        <v>0.003233551979064941</v>
+        <v>0.005146324634552002</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>a) Als de paden niet van elkaar te onderscheiden zijn, graag een algemeen overzicht b) Wat betreft de mountainbikepaden, hoeveel kilometer staat geklasseerd als offroad?</t>
+          <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9967717528343201</v>
+        <v>0.994853675365448</v>
       </c>
       <c r="D199" t="n">
-        <v>0.003228247165679932</v>
+        <v>0.005146324634552002</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>a) Als de paden niet van elkaar te onderscheiden zijn, graag een algemeen overzicht b) Wat betreft de mountainbikepaden, hoeveel kilometer staat geklasseerd als offroad?</t>
+          <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9967717528343201</v>
+        <v>0.994853675365448</v>
       </c>
       <c r="D200" t="n">
-        <v>0.003228247165679932</v>
+        <v>0.005146324634552002</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Wat was het totale budget voor de werkbaarheidscheques in 2022?</t>
+          <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.996782660484314</v>
+        <v>0.994853675365448</v>
       </c>
       <c r="D201" t="n">
-        <v>0.003217339515686035</v>
+        <v>0.005146324634552002</v>
       </c>
     </row>
   </sheetData>

--- a/Identifier/to_label.xlsx
+++ b/Identifier/to_label.xlsx
@@ -458,3201 +458,3201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dus ik kan niet zeggen hoeveel meldingen door dierenartsen gedaan werden en evenmin het onderscheid maken tussen dierenverwaarlozing en dierenmishandeling in die meldingen.</t>
+          <t>Zal het daar ook om proefprojecten gaan? Zo ja, van welke termijn dan?</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.512811541557312</v>
+        <v>0.5077987909317017</v>
       </c>
       <c r="D2" t="n">
-        <v>0.487188458442688</v>
+        <v>0.4922012090682983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Voor welk totaalbedrag?</t>
+          <t>Wat is het plan van aanpak en de te verwachten timing?</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5165201425552368</v>
+        <v>0.5304445624351501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4834798574447632</v>
+        <v>0.4695554375648499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Voor welk totaalbedrag?</t>
+          <t>Hoe kijkt de minister naar de cijfers?</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5165201425552368</v>
+        <v>0.572084367275238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4834798574447632</v>
+        <v>0.427915632724762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>In welke mate is fase 2 de totale uitrol van basisbereikbaarheid, zal dat 89% zijn in alle vervoerregio’s?</t>
+          <t>Wanneer wordt de finalisering van de kruispunten verwacht?</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5269792675971985</v>
+        <v>0.61017245054245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4730207324028015</v>
+        <v>0.38982754945755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kan meer informatie gegeven worden over de uitvoering en timing van die werken?</t>
+          <t>Kan de minister voor 2022 en 2023 een overzicht geven van de steun die gegeven werd per maatregel waarop land- en tuinbouwers een beroep kunnen doen via het VLIF?</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.560687780380249</v>
+        <v>0.6722014546394348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.439312219619751</v>
+        <v>0.3277985453605652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>In onderstaande tabel kan u nalezen hoeveel personen met jongdementie -personen die een diagnose van dementie kregen voor de leeftijd van 65 jaar- in een woongelegenheid van een woonzorgcentrum met de bijkomende erkenning jongdementie, verbleven.</t>
+          <t>Zo niet, waarom niet? Zo ja, wanneer vonden die overlegmomenten plaats en wat was het resultaat ervan?</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5675599575042725</v>
+        <v>0.6807027459144592</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4324400424957275</v>
+        <v>0.3192972540855408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Heeft de minister zicht op de verdeling tussen mannen en vrouwen, de leeftijden, en de provincies waaruit de personen komen?</t>
+          <t>Binnen welke periode?</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5707699060440063</v>
+        <v>0.685585618019104</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4292300939559937</v>
+        <v>0.314414381980896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Waarop werd het besluit gebaseerd om 1 begeleider per 18 kinderen in te zetten?</t>
+          <t>Wat zijn de vijf meest voorkomende platformen waarop dieren aangeboden worden?</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5836332440376282</v>
+        <v>0.704617440700531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4163667559623718</v>
+        <v>0.295382559299469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wat was de respons op de eerste campagne van maart 2023?</t>
+          <t>a) Wat kan precies als last in natura opgelegd worden en hoe moet dat in verhouding staan tot de verschillende aanvragen?</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6077452898025513</v>
+        <v>0.7280206680297852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3922547101974487</v>
+        <v>0.2719793319702148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vanaf/tot welke leeftijd kan dat?</t>
+          <t>Zijn de provisies daartoe gereserveerd?</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6228856444358826</v>
+        <v>0.7354332804679871</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3771143555641174</v>
+        <v>0.2645667195320129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de signaalgebieden die een bouwvrijopgave kregen, met daarbij de vermelding van de oppervlakte die ze hadden bij de goedkeuring van het vervolgtraject door de Vlaamse Regering en de oppervlakte die ze actueel hebben na voorlopige aanduiding door de Vlaamse Regering?</t>
+          <t>Ziet hij een opvallende stijging of daling in de cijfers? Zo ja, welke verklaringen kunnen daarvoor gegeven worden?</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6281733512878418</v>
+        <v>0.7523938417434692</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3718266487121582</v>
+        <v>0.2476061582565308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wat was het doel van de besparingen en waar worden de bespaarde middelen nu voor ingezet?</t>
+          <t>Wie neemt de kosten op dit moment op zich?</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6371607184410095</v>
+        <v>0.7593768239021301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3628392815589905</v>
+        <v>0.2406231760978699</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van alle subsidies die Refu Interim sinds 2014 kreeg?</t>
+          <t>a) Ziet de minister enige evolutie bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6788992285728455</v>
+        <v>0.8135403990745544</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3211007714271545</v>
+        <v>0.1864596009254456</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wat was het studierendement in het hoger onderwijs voor het academiejaar 2022-2023?</t>
+          <t>Om welke redenen werden er op de 1000 ingediende dossiers slechts 199 ingebrekestellingen verstuurd en 22 boetes uitgeschreven?</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.688809335231781</v>
+        <v>0.8334648013114929</v>
       </c>
       <c r="D15" t="n">
-        <v>0.311190664768219</v>
+        <v>0.1665351986885071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wat is het energiebesparende potentieel van alle schuilhuisjes van De Lijn?</t>
+          <t>Kan een overzicht gegeven worden van de verdere uitrol van het C-ITS-project en wanneer dat in werking zal zijn?</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6980946660041809</v>
+        <v>0.8515535593032837</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3019053339958191</v>
+        <v>0.1484464406967163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>b) Hoe werd de 1 miljoen euro voor digitalisering van jobbeurzen uiteindelijk besteed?</t>
+          <t>Kan hij de verhouding schetsen met de vorige jaren van het aantal aanvragen?</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7004759311676025</v>
+        <v>0.8527868986129761</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2995240688323975</v>
+        <v>0.1472131013870239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wat is de impact van de hervorming van vastgoedtransacties op dat concrete project, kan ze de voortgang van het dossier bevorderen?</t>
+          <t>Wanneer wordt de heraanleg van die kruispunten dan wel gepland?</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7183680534362793</v>
+        <v>0.8783414363861084</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2816319465637207</v>
+        <v>0.1216585636138916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de evolutie van de uitgaven voor individuele hulpverlening?</t>
+          <t>Blijkt uit de ongevalcijfers dat er een verhoogde kans op ongevallen is op de locatie waar het wegdek met NGCS is uitgerust?</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7243918180465698</v>
+        <v>0.892611563205719</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2756081819534302</v>
+        <v>0.107388436794281</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Welke projectsubsidies zijn er in de laatste 3 jaar toegekend aan initiatieven in het beleidsdomein van de minister, in het bijzonder in de gezinszorg en de thuiszorg?</t>
+          <t>Welke bijzondere evoluties zijn er op te merken in het aantal zwerfkatten in Vlaanderen?</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7381505370140076</v>
+        <v>0.895926296710968</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2618494629859924</v>
+        <v>0.104073703289032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Is het budget voldoende om de tramverbinding naar de Kioskplaats in Hoboken weer in dienst te nemen?</t>
+          <t>Kan de minister tevens opsplitsen per nationaliteit?</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7771413326263428</v>
+        <v>0.9114446043968201</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2228586673736572</v>
+        <v>0.08855539560317993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Daarbij vermeld (a) hoeveel elke maatregel kost, (b) of hij eenmalig, recurrent is of voor enkele jaren geldt (zo ja, welke jaren), (c) in welk jaar deze uitgave wordt begroot en besteed, (d) in welke begrotingspost deze maatregel is begroot, en (e) vanwaar de middelen komen om deze uitgave te realiseren (dus uit welke begrotingspost, met code + naam).</t>
+          <t>Wat was de invloed op het aantal inschrijvingen van de invoering van het vierde jaar sinds academiejaar 2016-2017 binnen de professionele bachelor verpleegkunde?</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7901685833930969</v>
+        <v>0.9120884537696838</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2098314166069031</v>
+        <v>0.08791154623031616</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aangezien zowel de verbintenistermijn als de uitvoeringstermijn is afgelopen, wat is de stand van zaken van het bestek met drie opdrachten?</t>
+          <t>Zal (een aanzienlijk deel van) het budget geïnvesteerd worden in de bestaande graduaatsopleidingen?</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.804233729839325</v>
+        <v>0.9154518842697144</v>
       </c>
       <c r="D23" t="n">
-        <v>0.195766270160675</v>
+        <v>0.08454811573028564</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>De onderstaande tabel geeft weer hoeveel van de bovenstaande aanvragen werden goedgekeurd door de bijzondere bijstandscommissie.</t>
+          <t>Zal de minister overleggen met haar federale collega om deze problematiek aan te kaarten? Zo ja, wanneer is het overleg gepland of heeft het al plaatsgevonden?</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8148652315139771</v>
+        <v>0.9179580211639404</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1851347684860229</v>
+        <v>0.08204197883605957</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de totale schuld van de gemeenten?</t>
+          <t>Worden de kosten voor het herstel van de lichtkoepel op de aannemer verhaald, of komen ze ten laste van de overheid?</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8306124806404114</v>
+        <v>0.9214707612991333</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1693875193595886</v>
+        <v>0.0785292387008667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>a) Zal er inderdaad in bijkomend budget voorzien worden?</t>
+          <t>Graduaatsopleidingen  -  Sterk stijgende studentenaantallenDe Vlaamse Hogescholenraad (VLHORA) maakte recent in zijn oktobertelling weer bekend hoeveel studenten zich hebben ingeschreven voor een opleiding aan een van de 13 Vlaamse hogescholen.</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8310427069664001</v>
+        <v>0.9272364377975464</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1689572930335999</v>
+        <v>0.07276356220245361</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>b) Welke taak en welk financieel aandeel heeft VDAB daarbij op zich genomen?</t>
+          <t>b) Wat waren de scores van de projecten die uiteindelijk werden goedgekeurd?</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8324915766716003</v>
+        <v>0.9298389554023743</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1675084233283997</v>
+        <v>0.07016104459762573</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Met betrekking tot de begroting:a) Zijn die middelen al opgenomen in de begroting?</t>
+          <t>Zo ja, wanneer zal dat overleg plaatsvinden?</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8428669571876526</v>
+        <v>0.9338186979293823</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1571330428123474</v>
+        <v>0.06618130207061768</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Over welke projecten gaat het precies, wat is/was de looptijd per project, welk budget werd per project vrijgemaakt, en wat zijn/waren de doelstellingen?</t>
+          <t>Zijn alle bouwprojecten in het DBFM-project ‘Scholen van Morgen’ vandaag gerealiseerd?</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8460424542427063</v>
+        <v>0.9350059628486633</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1539575457572937</v>
+        <v>0.06499403715133667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Wat is de timing voor de site in Rekkem?</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8734812140464783</v>
+        <v>0.9372608065605164</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1265187859535217</v>
+        <v>0.06273919343948364</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>a) Op hoeveel informatie-events van scholen (infodagen, opendeurdagen, ..</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8740693330764771</v>
+        <v>0.9372608065605164</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1259306669235229</v>
+        <v>0.06273919343948364</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Beschikt de minister over een inschatting over het percentage dat effectief in aanmerking komt of interesse heeft om ook echt de stap te zetten?</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.882175087928772</v>
+        <v>0.9372608065605164</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117824912071228</v>
+        <v>0.06273919343948364</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bij hoeveel en bij welke van die locaties gaf Opgroeien de opdracht tot het uitvoeren 10.</t>
+          <t>Zijn er al lessen getrokken uit de best practices en alternatieve vervoersmodi uit de proefprojecten? Zo ja, welke?</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8845998048782349</v>
+        <v>0.9400008320808411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1154001951217651</v>
+        <v>0.05999916791915894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hoe lang moeten we nog wachten op het advies van de Raad van State?</t>
+          <t>Hoe evalueert de minister deze cijfers?</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8853968381881714</v>
+        <v>0.9403272867202759</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1146031618118286</v>
+        <v>0.05967271327972412</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de evolutie van de werkingsinkomsten van de lokale besturen (verhuur van sportcentra, dagprijzen van woonzorgcentra ...)?</t>
+          <t>Acht de minister het zinvol om de bewaartermijnen van schooldocumenten te herbekijken? Zo ja, wanneer zal hij daarmee aan de slag gaan?</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8883336782455444</v>
+        <v>0.9411641359329224</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1116663217544556</v>
+        <v>0.05883586406707764</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Over welke steunbedragen gaat het?</t>
+          <t>Is het vooropgestelde budget nog steeds haalbaar op basis van de al ingediende subsidieaanvragen?</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.908084511756897</v>
+        <v>0.9466886520385742</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09191548824310303</v>
+        <v>0.05331134796142578</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Wat is de timing voor die werken?</t>
+          <t>Het overzicht geeft ook weer hoeveel VTE er gereaffecteerd zijn (= hetzelfde ambt), wedertewerkgesteld zijn (= ander ambt).</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9119324088096619</v>
+        <v>0.9507049918174744</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08806759119033813</v>
+        <v>0.04929500818252563</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Wat is de timing voor die werken?</t>
+          <t>Hierbij ook graag een onderverdeling van alle beoordelingscriteria en hoeveel punten de projecten behaalden op elk van die criteria.</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9119324088096619</v>
+        <v>0.9514381885528564</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08806759119033813</v>
+        <v>0.04856181144714355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Wanneer zal hij in de toekomst nog samenkomen?</t>
+          <t>Indien er een gebrek is aan voorafgaande cijfers sinds de administratieve vereenvoudiging, rijst de vraag hoe het flankerend beleid rond ondernemerscompetenties de kwaliteit van die beroepen waarborgt?</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9240348935127258</v>
+        <v>0.9571282863616943</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07596510648727417</v>
+        <v>0.04287171363830566</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Is het enkel de frequentie van de overstorten of ook de duurtijd, het debiet, de waterkwaliteit,…?</t>
+          <t>De onderstaande tabel geeft weer hoeveel leerlingen het voorbije schooljaar in 1B startten met een behaald getuigschrift basisonderwijs.</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9266113638877869</v>
+        <v>0.9578878283500671</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07338863611221313</v>
+        <v>0.04211217164993286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Wat is de evolutie van de geblokkeerde EAN-nummers de afgelopen tien jaar?</t>
+          <t>Zal De Lijn een oplossing uitwerken om de fietsveiligheid te verhogen voor de niet-gebruikte tramsporen in de Steenvoordelaan en de Land van Rodelaan? Zo ja, wanneer?</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9310339093208313</v>
+        <v>0.9583093523979187</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0689660906791687</v>
+        <v>0.0416906476020813</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Wat zijn de verdere timing en verloop van het dossier?</t>
+          <t>https://www.vlaamsparlement.be/link?id=18136Verder vindt u in bijlage 2 een overzicht van het aantal haltes dat op 1 juli 2023 nog niet basistoegankelijk was, op het niveau van iedere gemeente, iedere vervoerregio en op het niveau van Vlaanderen.</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9325808882713318</v>
+        <v>0.9588873982429504</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06741911172866821</v>
+        <v>0.04111260175704956</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Wat zijn de verdere timing en verloop van het dossier?</t>
+          <t>Volstaat daarvoor de 30 miljoen euro extra budget?</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9325808882713318</v>
+        <v>0.9593276977539062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06741911172866821</v>
+        <v>0.04067230224609375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>na x jaar van de investering), en zo de schuld kan worden afgebouwd?</t>
+          <t>Kan de minister verduidelijken waarom er slechts 1000 dossiers werden ingediend bij de dienst Toezicht ondanks het feit dat 14.401 arbeidsgeschikte sociale huurders zich niet ingeschreven hebben bij VDAB?</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9391372799873352</v>
+        <v>0.9610483050346375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06086272001266479</v>
+        <v>0.03895169496536255</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de evolutie van de exploitatie-uitgaven aan onderstaande rubrieken?</t>
+          <t>b) Welke investeringen dienen nog te gebeuren met als doel mensen te overtuigen gebruik te maken van het openbaar vervoer?</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9416165947914124</v>
+        <v>0.9677554965019226</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05838340520858765</v>
+        <v>0.03224450349807739</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kan de minister ook een overzicht in euro bezorgen?</t>
+          <t>Worden er nu wel of geen juridische gevolgen gekoppeld aan het resultaat van de test? Zo ja, vanaf wanneer en met welke gevolgen precies?</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9424413442611694</v>
+        <v>0.9686405062675476</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05755865573883057</v>
+        <v>0.03135949373245239</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht bezorgen van wanneer die werkgroep in 2023 samenkwam?</t>
+          <t>c) Heeft daarover al overleg plaatsgevonden met de stad Gent? Zo ja, wanneer en met welk resultaat?</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9429256319999695</v>
+        <v>0.9692789316177368</v>
       </c>
       <c r="D47" t="n">
-        <v>0.05707436800003052</v>
+        <v>0.03072106838226318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vezel uit riet, vezel uit bermmaaisel, ...) per toepassing een aparte grondstoffenverklaring moet in orde brengen?</t>
+          <t>a) Heeft de minister intussen al zicht op de kostenraming van haar Waalse ambtsgenoot voor de aanleg van de verbinding Boucle Du Hainaut, alsook voor het verbindingsstuk tussen de gewestgrens en de aansluiting op voormeld project (raming in geval van bovengrondse wisselstroomversie; raming ingeval van ondergrondse gelijkstroomversie)?</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9436891674995422</v>
+        <v>0.9693672060966492</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05631083250045776</v>
+        <v>0.03063279390335083</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Wat is de huidige status van het implementatieproces van de geschillencommissie?</t>
+          <t>Wat is daarvoor de planning?</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9522672891616821</v>
+        <v>0.9701535105705261</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04773271083831787</v>
+        <v>0.02984648942947388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>In welke modaliteiten werd voorzien in het raamcontract om wissels te onderhouden en te herstellen?</t>
+          <t>Kan de minister een overzicht geven van alle maatregelen die zij tot op heden heeft uitgevaardigd in het kader van de door haar in 2020 in het vooruitzicht gestelde “bronmatige aanpak” om de aanwezigheid van genees- en bestrijdingsmiddelenresten in ons drinkwater drastisch terug te dringen, alsook per maatregel de resultaten weergeven die deze tot op heden hebben opgeleverd?</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9525729417800903</v>
+        <v>0.9704385995864868</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04742705821990967</v>
+        <v>0.02956140041351318</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Wat is het ecologische potentieel van alle schuilhuisjes van De Lijn?</t>
+          <t>Worden op het segment van de Antwerpse ring waar het proefproject NGCS is uitgerold, meer ongevallen geregistreerd dan op andere segmenten van de ring?</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9583333134651184</v>
+        <v>0.9727935791015625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04166668653488159</v>
+        <v>0.0272064208984375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ziet de minister een daling of een stijging in het aantal goedgekeurde subsidiedossiers?</t>
+          <t>Wat zijn de vijf meest voorkomende ziektes?</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9591612815856934</v>
+        <v>0.9732999205589294</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04083871841430664</v>
+        <v>0.02670007944107056</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Heeft de minister al meer zicht op wanneer het project volledig afgerond zal zijn?</t>
+          <t>Welke resultaten heeft het parallelle onderzoek door de administratie van de Vlaamse minister van Omgeving intussen al opgeleverd?</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9600172638893127</v>
+        <v>0.9740288257598877</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03998273611068726</v>
+        <v>0.0259711742401123</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kan de minister inzicht geven in de hoeveelheid regenwater die uit het rioleringsnet gehouden moet worden om de huidige normen en aantallen (F7) van overstort niet te overstijgen?</t>
+          <t>Welke resultaten heeft het parallelle onderzoek door de administratie van de Vlaamse minister van Omgeving intussen al opgeleverd?</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9603602886199951</v>
+        <v>0.9740288257598877</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03963971138000488</v>
+        <v>0.0259711742401123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Wordt er tegen fase 2 een nieuwe levering bussen verwacht? Zo ja, welk type en wanneer?</t>
+          <t>Welke ritten zijn het drukst?</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9625998139381409</v>
+        <v>0.9746592044830322</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03740018606185913</v>
+        <v>0.02534079551696777</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Is er een verschil tussen week- en weekenddagen?</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9640542268753052</v>
+        <v>0.9750062823295593</v>
       </c>
       <c r="D56" t="n">
-        <v>0.03594577312469482</v>
+        <v>0.02499371767044067</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>13.Hoe evalueert de minister de cijfers?</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9640542268753052</v>
+        <v>0.9764225482940674</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03594577312469482</v>
+        <v>0.02357745170593262</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>a) Hoe evalueert de minister de cijfers tot en met dit academiejaar?</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9640542268753052</v>
+        <v>0.9766637682914734</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03594577312469482</v>
+        <v>0.02333623170852661</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Hoe en wanneer zal dat gebeuren?</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9640542268753052</v>
+        <v>0.9770129919052124</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03594577312469482</v>
+        <v>0.0229870080947876</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>a) Bemerkt de minister een evolutie bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9640542268753052</v>
+        <v>0.9802508950233459</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03594577312469482</v>
+        <v>0.01974910497665405</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Als een jongere de overstap van minder- naar meerderjarigheid maakt en over een persoonsvolgend convenant beschikt, zal die dan automatisch worden omgezet in een persoonsvolgend budget? Zo ja, op welke manier wordt de budgethoogte van het persoonsvolgend budget berekend?</t>
+          <t>e) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9647051095962524</v>
+        <v>0.9805927276611328</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03529489040374756</v>
+        <v>0.01940727233886719</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers?</t>
+          <t>e) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9664695858955383</v>
+        <v>0.9805927276611328</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03353041410446167</v>
+        <v>0.01940727233886719</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>100% van de studiepunten?</t>
+          <t>f) Zijn alle Hoppinpunten altijd toegankelijk voor alle personen met een beperking, dus voor elke toegankelijkheidsstatus?</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9668589234352112</v>
+        <v>0.9806503653526306</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03314107656478882</v>
+        <v>0.01934963464736938</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Wat is het verschil tussen een melding en een klacht?</t>
+          <t>f) Zijn alle Hoppinpunten altijd toegankelijk voor alle personen met een beperking, dus voor elke toegankelijkheidsstatus?</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9677005410194397</v>
+        <v>0.9806503653526306</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0322994589805603</v>
+        <v>0.01934963464736938</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Welke ritten en haltes worden aangepast of afgeschaft vanaf januari 2024?</t>
+          <t>f) Zijn alle Hoppinpunten altijd toegankelijk voor alle personen met een beperking, dus voor elke toegankelijkheidsstatus?</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9684531092643738</v>
+        <v>0.9806503653526306</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03154689073562622</v>
+        <v>0.01934963464736938</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Wat is de verdere timing voor de onteigeningen?</t>
+          <t>Is er al een concrete timing voor het project?</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9695392847061157</v>
+        <v>0.9814643263816833</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03046071529388428</v>
+        <v>0.01853567361831665</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kan meer duiding gegeven worden over de verdere vermindering van de dienstverlening op dat traject?</t>
+          <t>Wanneer zal uit het oogpunt ruimtelijke ordening de herbestemming van die gebieden rond zijn?</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.970551073551178</v>
+        <v>0.9815967679023743</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02944892644882202</v>
+        <v>0.01840323209762573</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wanneer wordt de groep gecontacteerd die bezwaar indiende na de weigering?</t>
+          <t>In welke (bouw)fase zijn ze momenteel?</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9718144536018372</v>
+        <v>0.9820918440818787</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02818554639816284</v>
+        <v>0.01790815591812134</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Zo niet, wanneer zal het afgerond zijn?</t>
+          <t>a) Merkt de minister enige evolutie bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9728571772575378</v>
+        <v>0.9837239980697632</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02714282274246216</v>
+        <v>0.01627600193023682</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Is er al een berekening gemaakt van de kostprijs van beide alternatieven? Zo ja, wat kan eruit besloten worden?</t>
+          <t>Hoe kunnen ze die vrijstelling of vermindering verkrijgen en wie betaalt dat?</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9733014702796936</v>
+        <v>0.9847057461738586</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0266985297203064</v>
+        <v>0.01529425382614136</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Is er al een berekening gemaakt van de kostprijs van beide alternatieven? Zo ja, wat kan eruit besloten worden?</t>
+          <t>Hoe evalueert de minister deze trend(s)?</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9733014702796936</v>
+        <v>0.9848490953445435</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0266985297203064</v>
+        <v>0.01515090465545654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Wanneer zal de geschillencommissie operationeel zijn?</t>
+          <t>Hoe evalueert de minister deze trend(s)?</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9737116694450378</v>
+        <v>0.9848490953445435</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02628833055496216</v>
+        <v>0.01515090465545654</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zo niet, wanneer kunnen de resultaten verwacht worden?</t>
+          <t>Hoe evalueert de minister deze trend(s)?</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9747772216796875</v>
+        <v>0.9848490953445435</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0252227783203125</v>
+        <v>0.01515090465545654</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Wanneer zal de fietsverbinding gerealiseerd zijn?</t>
+          <t>Hoe evalueert de minister deze trend(s)?</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9749054312705994</v>
+        <v>0.9848490953445435</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02509456872940063</v>
+        <v>0.01515090465545654</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Heeft de minister al meer zicht op de verdere timing voor de nog te nemen stappen?</t>
+          <t>b) Wat is daarbij de vooropgestelde timing en de inhoud van het project?</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9764901399612427</v>
+        <v>0.9853207468986511</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02350986003875732</v>
+        <v>0.01467925310134888</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Is dat in overeenstemming met de reële kostprijs?</t>
+          <t>b) Wat is daarbij de vooropgestelde timing en de inhoud van het project?</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9767754077911377</v>
+        <v>0.9853207468986511</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0232245922088623</v>
+        <v>0.01467925310134888</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Wat is de kostprijs van de uitvoering van het bestek en door wie werd de opdracht betaald? Graag een overzicht van de gemaakte kosten en van wie welke kosten heeft betaald.</t>
+          <t>b) Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.977433979511261</v>
+        <v>0.9853777885437012</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02256602048873901</v>
+        <v>0.01462221145629883</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hoelang zal de hinder nog duren?</t>
+          <t>b) Hoe lang heeft de microsimulatie geduurd en in welke mate versnelt deze het project?</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9777333736419678</v>
+        <v>0.9855072498321533</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02226662635803223</v>
+        <v>0.01449275016784668</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Zijn de vooropgestelde plannen nog haalbaar gezien de inflatie en de gestegen bouwkosten?</t>
+          <t>b) Hoe lang heeft de microsimulatie geduurd en in welke mate versnelt deze het project?</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9782204031944275</v>
+        <v>0.9855072498321533</v>
       </c>
       <c r="D79" t="n">
-        <v>0.02177959680557251</v>
+        <v>0.01449275016784668</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Zijn er voor deze regeerperiode al processen-verbaal opgemaakt tegen eventueel zonevreemd gesitueerde dierenasielen?</t>
+          <t>Wat is de timing voor die werken?</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9789304733276367</v>
+        <v>0.9859218001365662</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02106952667236328</v>
+        <v>0.01407819986343384</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hoe scoren de verschillende provincies volgens de minister in hun aanbod aan plaatsen per 100 kinderen?</t>
+          <t>Werd de voortgang van de ontwikkeling van het monitoringnetwerk sinds 16 december 2022 nog gerapporteerd aan de Vlaamse Regering? Zo ja, wanneer was dat en wat zijn de bevindingen?</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9790823459625244</v>
+        <v>0.986346423625946</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02091765403747559</v>
+        <v>0.01365357637405396</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wanneer zullen de werken afgerond zijn?</t>
+          <t>Kan de minister een eindoverzicht aanreiken van alle goedgekeurde BAR-aanvragen uitgaande van individuele reders, visverwerkende bedrijven en individuele aquacultuurondernemers?</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9791436791419983</v>
+        <v>0.9863595366477966</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02085632085800171</v>
+        <v>0.01364046335220337</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Zijn er extra onkosten die worden ingebracht, bijvoorbeeld voor telefoon of wifi bij thuiswerk, en gaat de verantwoording eraan vooraf?</t>
+          <t>Wie daardoor over geen middelen van bestaan beschikt, kan een financiële dagvergoeding (leefvergoeding) krijgen.</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9801679849624634</v>
+        <v>0.9866346120834351</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01983201503753662</v>
+        <v>0.01336538791656494</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wat is het effect op het terrein van het project van de Profploeg en andere initiatieven?</t>
+          <t>a) Op basis van welke criteria en voor hoeveel personen komen die gemeenten effectief tegemoet?</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9812074899673462</v>
+        <v>0.9866906404495239</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01879251003265381</v>
+        <v>0.01330935955047607</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wanneer zal de omgevingsvergunning worden aangevraagd?</t>
+          <t>a) Ziet de minister daar een significante evolutie bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9828255772590637</v>
+        <v>0.9873730540275574</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01717442274093628</v>
+        <v>0.01262694597244263</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>De onderstaande tabel geeft weer hoeveel aanvragen voor een verhoogde tegemoetkoming werden goedgekeurd door de bijzondere bijstandscommissie.</t>
+          <t>Wat is de timing voor deze werken?</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9832319021224976</v>
+        <v>0.9876000881195068</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01676809787750244</v>
+        <v>0.01239991188049316</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>a) Merkt de minister een evolutie in het aantal of de soort ingediende aanvragen en projecten?</t>
+          <t>Tot wanneer loopt het project precies nog?</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9838289618492126</v>
+        <v>0.9881388545036316</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01617103815078735</v>
+        <v>0.01186114549636841</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>a) Merkt de minister een evolutie in het aantal of de soort ingediende aanvragen en projecten?</t>
+          <t>Wat is de timing voor de werken?</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9838289618492126</v>
+        <v>0.9881851673126221</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01617103815078735</v>
+        <v>0.01181483268737793</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Welke zijn nog gepland in 2023?</t>
+          <t>Kan de minister de volledige studie ter beschikking stellen?</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9840169548988342</v>
+        <v>0.9885529279708862</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01598304510116577</v>
+        <v>0.01144707202911377</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Zo niet, wanneer zal het masterplan dan klaar zijn?</t>
+          <t>Kan de minister, in Excel, een overzicht geven van het aantal aanvragen dat door NARIC niet in behandeling werd genomen in de afgelopen vier jaar?</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9841804504394531</v>
+        <v>0.9890783429145813</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01581954956054688</v>
+        <v>0.0109216570854187</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de buslijnen in de regio Antwerpen voor de eerste fase van de uitrol basisbereikbaarheid op 1 juli 2023?</t>
+          <t>Hoe evalueert de minister die inkanteling?</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9843009114265442</v>
+        <v>0.9891230463981628</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01569908857345581</v>
+        <v>0.01087695360183716</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hoe werd de kostprijs per kind berekend?</t>
+          <t>a) Merkt de minister een evolutie bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.984515905380249</v>
+        <v>0.989446222782135</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01548409461975098</v>
+        <v>0.01055377721786499</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Zal de minister deze projectoproep herhalen? Zo ja, wanneer?</t>
+          <t>a) Merkt de minister een evolutie bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9849660396575928</v>
+        <v>0.989446222782135</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01503396034240723</v>
+        <v>0.01055377721786499</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Tellen zijinstromers (personen die dus nog in opleiding zijn) mee in de berekening van de ratio per begeleider?</t>
+          <t>Wat was de invloed van de invoering van het vierde jaar sinds academiejaar 2016-2017 binnen de professionele bachelor verpleegkunde op het aantal trajectstarters?</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9849886894226074</v>
+        <v>0.9899536371231079</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01501131057739258</v>
+        <v>0.01004636287689209</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wat is de verdere timing en het verloop van het dossier?</t>
+          <t>Zijn de soorten ongevallen dezelfde, of zijn er verschillen qua ongevallenstatistieken en ongevalsanalyses tussen de drie tramnetten?</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9854791164398193</v>
+        <v>0.9901795387268066</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01452088356018066</v>
+        <v>0.009820461273193359</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wat is de verdere timing en het verloop van het dossier?</t>
+          <t>d) Welke evolutie ziet de minister bij de bovenvermelde elementen bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9854791164398193</v>
+        <v>0.9903199076652527</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01452088356018066</v>
+        <v>0.009680092334747314</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hoe oud zijn deze kinderen?</t>
+          <t>Moesten er het afgelopen jaar CVO’s een beroep doen op het automatische genadejaar?</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9856804609298706</v>
+        <v>0.9908022284507751</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01431953907012939</v>
+        <v>0.009197771549224854</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wanneer wordt de groep gecontacteerd die hun aanvraag na weigering wijzigde (bijvoorbeeld door de verkeerde interpretatie op de 75% IKT-norm) (IKT:inkomenstarief)?</t>
+          <t>a) Is er volgens de minister enige evolutie te merken bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9858433604240417</v>
+        <v>0.9909577369689941</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01415663957595825</v>
+        <v>0.009042263031005859</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wanneer worden de resultaten van de studie verwacht?</t>
+          <t>In welke (bouw)fase bevinden ze zich momenteel?</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9859697818756104</v>
+        <v>0.9911154508590698</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01403021812438965</v>
+        <v>0.008884549140930176</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wanneer worden de resultaten van de studie verwacht?</t>
+          <t>Wat was de invloed van de invoering van het vierde jaar sinds academiejaar 2016-2017 binnen de professionele bachelor verpleegkunde op het aantal inschrijvingen?</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9859697818756104</v>
+        <v>0.9911496639251709</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01403021812438965</v>
+        <v>0.008850336074829102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Wanneer worden de resultaten van de studie verwacht?</t>
+          <t>d) Ziet de minister een impact van het nieuwe financieringsmechanisme op het aandeel cursisten zonder diploma secundair onderwijs of werkzoekenden bij de CVO’s?</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9859697818756104</v>
+        <v>0.9911558628082275</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01403021812438965</v>
+        <v>0.008844137191772461</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wanneer werd dat beslist, door wie en om welke reden?</t>
+          <t>Wat is de timing voor de werken, per locatie?</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9861229658126831</v>
+        <v>0.9911583065986633</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01387703418731689</v>
+        <v>0.00884169340133667</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Zal dat budget alsnog vrijgemaakt worden?</t>
+          <t>Is er animo bij de minister om ook zo’n tarief in te voeren?</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9861493110656738</v>
+        <v>0.9912010431289673</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01385068893432617</v>
+        <v>0.008798956871032715</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wanneer zullen de werken voltooid zijn?</t>
+          <t>Wanneer zijn de militaire terreinen vrij en over welke terreinen gaat het juist?</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9862483143806458</v>
+        <v>0.9912472367286682</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01375168561935425</v>
+        <v>0.008752763271331787</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wanneer zullen de werken voltooid zijn?</t>
+          <t>Hoe verhouden de drie tramnetten zich tot elkaar wat het aantal ongevallen met trams betreft?</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9862483143806458</v>
+        <v>0.9913845062255859</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01375168561935425</v>
+        <v>0.008615493774414062</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister hen?</t>
+          <t>Hebben inmiddels alle sociale verhuurders hun sociale huurders gecontroleerd op de nieuwe verplichting?</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9864837527275085</v>
+        <v>0.992073118686676</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01351624727249146</v>
+        <v>0.007926881313323975</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>a) Welke (fiscale) mogelijkheden zijn er om het wegvallen van de fiscale vrijstelling het secundair onderwijs, op te vangen?</t>
+          <t>i) Ziet de minister een evolutie bij één of meerdere van bovenvermelde elementen bij de CVO’s in hun totaliteit?</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9865308403968811</v>
+        <v>0.9921578168869019</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0134691596031189</v>
+        <v>0.007842183113098145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ziet de minister een daling of een stijging in het aantal aanvragen ten opzichte van vorige projectoproepen?</t>
+          <t>Voorzag het huidige investeringsprogramma (GIP) in 2023 in middelen voor voorbereidende werken, studies of uitvoeringen omtrent dit project?</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9865748286247253</v>
+        <v>0.9925657510757446</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01342517137527466</v>
+        <v>0.007434248924255371</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hoe groot kan het effect zijn van een dergelijk mosselrif of, met andere woorden, welke impact kan dit hebben op het nu uitgestippelde beleid van de kustverdediging?</t>
+          <t>Voorzag het huidige investeringsprogramma (GIP) in 2023 in middelen voor voorbereidende werken, studies of uitvoeringen omtrent dit project?</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9868016242980957</v>
+        <v>0.9925657510757446</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0131983757019043</v>
+        <v>0.007434248924255371</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wanneer zullen ze voltooid zijn?</t>
+          <t>Nu het e-loket voorhanden is, kan de minister de cijfers bezorgen (procentueel/absoluut) van aanvragers van wie de aanvraag tot specifieke erkenning geweigerd, die zich inschrijven aan hogeronderwijsinstellingen om de tekortkomingen op vraag nr.</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9870032668113708</v>
+        <v>0.9925711750984192</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01299673318862915</v>
+        <v>0.007428824901580811</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>de controle op de toegekende coronasteun?</t>
+          <t>Wie fraude pleegt, kan geen certificaat behalen enz.</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.987495481967926</v>
+        <v>0.992612361907959</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01250451803207397</v>
+        <v>0.007387638092041016</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Zullen de reguliere huurders die hun woning door het kraken en de vernielingen niet op de vooropgestelde datum kunnen betrekken, worden vergoed? Zo ja, door wie/welke instantie?</t>
+          <t>Welk onderhoud heeft de uitvoering van een wegdek met de oppervlaktebehandeling NGCS nodig?</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.987539529800415</v>
+        <v>0.9931296706199646</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01246047019958496</v>
+        <v>0.0068703293800354</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Wat zijn de grote lijnen van het masterplan en wat is de totale mogelijke opbrengst?</t>
+          <t>Wanneer zal een klachtencommissie het licht zien?</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9875800013542175</v>
+        <v>0.9932863116264343</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01241999864578247</v>
+        <v>0.006713688373565674</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Welke verwervingen, waarvoor in het ontwerp-GIP in totaal 504.000 euro is gereserveerd, zijn gepland in 2024?</t>
+          <t>Welke haltes worden er amper gebruikt?</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9884754419326782</v>
+        <v>0.993306577205658</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01152455806732178</v>
+        <v>0.006693422794342041</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>b) Wat is de duurtijd van elke stap in het proces?</t>
+          <t>Hoe verhoudt zich dat ten opzichte van het totaalaantal huurders?</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9885032773017883</v>
+        <v>0.9933494925498962</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01149672269821167</v>
+        <v>0.00665050745010376</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Wat is ondertussen de timing voor de realisatie van de oostelijke tangent?</t>
+          <t>Wie daarentegen het elektronisch toezicht krijgt opgelegd als autonome straf, kan nog wel een leefloon krijgen.</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9887394905090332</v>
+        <v>0.9933537244796753</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0112605094909668</v>
+        <v>0.006646275520324707</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Welke verwervingen zijn tot nog toe gerealiseerd in 2023?</t>
+          <t>Kan een overzicht gegeven worden van de budgetten die deze legislatuur door de minister werden gereserveerd voor de implementatie van het masterplan toegankelijkheid?</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9889354109764099</v>
+        <v>0.9933579564094543</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01106458902359009</v>
+        <v>0.006642043590545654</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die situatie?</t>
+          <t>Wat is de huidige stand van zaken van het GRUP Lus van Henegouwen en wat is de uiterste datum waarop de Vlaamse Regering een beslissing in het dossier zal uitvaardigen?</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9890598058700562</v>
+        <v>0.9937060475349426</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01094019412994385</v>
+        <v>0.006293952465057373</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Onderzoekt de minister of werkt hij aan oplossingen om hiertoe eventueel vanuit de Vlaamse overheid tussenbeide te komen onder de vorm van bijvoorbeeld extra subsidies of verloningsmogelijkheden, los van eigen schoolmiddelen? Zo ja, wat is het plan van aanpak, de timing en het budget?</t>
+          <t>Welke haltes worden het meest gebruikt?</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9892807602882385</v>
+        <v>0.993720531463623</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01071923971176147</v>
+        <v>0.006279468536376953</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kan er een detail gegeven worden van het onderwerp van het project en dat per gesubsidieerde organisatie, met een onderscheid tussen private actoren met een non-profitkarakter, private actoren met een profitkarakter en publieke actoren?</t>
+          <t>Welke resultaten gaven testen van het proefproject met betrekking tot belemmering van het zicht?</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9894061684608459</v>
+        <v>0.9937512278556824</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01059383153915405</v>
+        <v>0.006248772144317627</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wanneer kunnen we daar een oplossing verwachten?</t>
+          <t>Hoe evalueert de minister de resultaten van de projectoproep?</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9896723031997681</v>
+        <v>0.993787944316864</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01032769680023193</v>
+        <v>0.006212055683135986</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kan de minister die bezorgen?</t>
+          <t>Zo niet, waarom niet? Zo ja, wat heeft dat intussen al opgeleverd?</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9901078939437866</v>
+        <v>0.9938690066337585</v>
       </c>
       <c r="D122" t="n">
-        <v>0.009892106056213379</v>
+        <v>0.006130993366241455</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Zijn de coachingtrajecten vastgelegd of is dat verschillend per traject?</t>
+          <t>Zo niet, waarom niet? Zo ja, wat heeft dat intussen al opgeleverd?</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9908656477928162</v>
+        <v>0.9938690066337585</v>
       </c>
       <c r="D123" t="n">
-        <v>0.009134352207183838</v>
+        <v>0.006130993366241455</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Welke fiscale en/of financiële mogelijkheden ziet de minister om een gelijkschakeling met leraren met bekwaamheidsattest te bewerkstelligen?</t>
+          <t>Te Gek?!</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9909282326698303</v>
+        <v>0.9939219951629639</v>
       </c>
       <c r="D124" t="n">
-        <v>0.009071767330169678</v>
+        <v>0.006078004837036133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van personeelsleden in het onderwijs die met een bachelordiploma gestart zijn en gaandeweg een master hebben behaald en zo betaald worden?</t>
+          <t>Wat is de procedure wanneer de correcte gegevens niet binnen de 60 dagen doorkomen?</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9909645318984985</v>
+        <v>0.9940047860145569</v>
       </c>
       <c r="D125" t="n">
-        <v>0.009035468101501465</v>
+        <v>0.005995213985443115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Welke regelgeving is van toepassing op persoonsvolgende convenanten?</t>
+          <t>Is er meer selectiviteit nodig op basis van een integrale inschatting van de waarde van investeringen voor de transitie van de Vlaamse industrie naar een klimaatneutrale en circulaire toekomst ?</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9910605549812317</v>
+        <v>0.9945804476737976</v>
       </c>
       <c r="D126" t="n">
-        <v>0.008939445018768311</v>
+        <v>0.005419552326202393</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Wat zijn de concrete cijfers?</t>
+          <t>Kan de minister, in Excel, een overzicht geven van het aantal behandelde aanvragen door NARIC waarin geen beslissing genomen werd in de afgelopen vier jaar?</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9910961389541626</v>
+        <v>0.9946823716163635</v>
       </c>
       <c r="D127" t="n">
-        <v>0.008903861045837402</v>
+        <v>0.005317628383636475</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Wat zijn de concrete cijfers?</t>
+          <t>Sociale leningen  -  Aanvragen en toekenningenDe Vlaamse woonlening is een voordelig woonkrediet voor wie een bescheiden inkomen heeft en toch een eigen woning wil kopen in het Vlaamse Gewest.</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9910961389541626</v>
+        <v>0.9947575330734253</v>
       </c>
       <c r="D128" t="n">
-        <v>0.008903861045837402</v>
+        <v>0.005242466926574707</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Wat is de timing en planning voor de verdere opvolging van het Masterplan Vaste Activa?</t>
+          <t>Graag een overzicht:a) per halte;b) per gemeente en provincie;c) per vervoerregio;d) Wat is het plan van aanpak voor deze haltes langs gewestwegen die nog niet basistoegankelijk zijn?</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9911483526229858</v>
+        <v>0.9949074387550354</v>
       </c>
       <c r="D129" t="n">
-        <v>0.00885164737701416</v>
+        <v>0.0050925612449646</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Wat is de timing en planning voor de verdere opvolging van het Masterplan Vaste Activa?</t>
+          <t>Welke ritten worden amper gebruikt?</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9911483526229858</v>
+        <v>0.9950339794158936</v>
       </c>
       <c r="D130" t="n">
-        <v>0.00885164737701416</v>
+        <v>0.004966020584106445</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Wie dat wenst krijgt ook een laptophouder, toetsenbord en rugzak ter beschikking.</t>
+          <t>Wat zijn de verdere timing en verloop van dit dossier?</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9915053248405457</v>
+        <v>0.9950664043426514</v>
       </c>
       <c r="D131" t="n">
-        <v>0.008494675159454346</v>
+        <v>0.004933595657348633</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Wat is het gereserveerde budget?</t>
+          <t>Beschikt de minister over een overzicht van de ongebruikte tramsporen in de stad Gent? Zo ja, kan zij dat overzicht bezorgen?</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9915270209312439</v>
+        <v>0.9950959086418152</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008472979068756104</v>
+        <v>0.004904091358184814</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>c) Wat is de oplevertermijn?</t>
+          <t>Kan er een overzicht worden gegeven?</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9915794134140015</v>
+        <v>0.9953008890151978</v>
       </c>
       <c r="D133" t="n">
-        <v>0.008420586585998535</v>
+        <v>0.004699110984802246</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Wat is de verwachte datum van toekenning van de subsidie?</t>
+          <t>Hoe evalueert de minister het gemeentelijk zwerfkattenplan?</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9916832447052002</v>
+        <v>0.9953784942626953</v>
       </c>
       <c r="D134" t="n">
-        <v>0.008316755294799805</v>
+        <v>0.004621505737304688</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wanneer zijn de opdrachten opgestart, wie heeft de opdrachten uitgevoerd, wat zijn de resultaten van de opdrachten?</t>
+          <t>Wat is de verdere timing en verloop van het dossier?</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9917778968811035</v>
+        <v>0.9954084753990173</v>
       </c>
       <c r="D135" t="n">
-        <v>0.008222103118896484</v>
+        <v>0.004591524600982666</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze projectoproep?</t>
+          <t>b) Heeft de minister zicht op de verhouding tussen het aantal leerlingen dat een Buzzy Pazz aankoopt en het aantal leerlingen dat zich naar een andere gemeente verplaatst in functie van onderwijs, in de gemeenten waar geen middelbare school is?</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9917857050895691</v>
+        <v>0.9954106211662292</v>
       </c>
       <c r="D136" t="n">
-        <v>0.008214294910430908</v>
+        <v>0.004589378833770752</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>III.Wat is de vooropgestelde timing?</t>
+          <t>Hoe heeft de minister dat indexcijfer bepaald?</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9918427467346191</v>
+        <v>0.9954292774200439</v>
       </c>
       <c r="D137" t="n">
-        <v>0.008157253265380859</v>
+        <v>0.004570722579956055</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die evolutie?</t>
+          <t>Wat waren de resultaten?</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9921289682388306</v>
+        <v>0.9954360127449036</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007871031761169434</v>
+        <v>0.004563987255096436</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het aantal personen die in aanmerking kwamen voor versnelde toewijzing?</t>
+          <t>Welke trend(s) merkt de minister op?</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9921430349349976</v>
+        <v>0.995448887348175</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007856965065002441</v>
+        <v>0.004551112651824951</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Graag de cijfers over wie wel en niet een plek heeft kunnen krijgen per maand, met gevraagde opsplitsing.</t>
+          <t>Welke trend(s) merkt de minister op?</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9921535849571228</v>
+        <v>0.995448887348175</v>
       </c>
       <c r="D140" t="n">
-        <v>0.007846415042877197</v>
+        <v>0.004551112651824951</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Kan de minister de precieze plannen van de heraanleg bezorgen?</t>
+          <t>Welke trend(s) merkt de minister op?</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9921727180480957</v>
+        <v>0.995448887348175</v>
       </c>
       <c r="D141" t="n">
-        <v>0.007827281951904297</v>
+        <v>0.004551112651824951</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>In welke mate is de aanwezigheid van de kleuter gedurende het schooljaar de grootste bepalingsfactor om een jaar langer in het kleuteronderwijs te blijven?</t>
+          <t>Welke trend(s) merkt de minister op?</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9921896457672119</v>
+        <v>0.995448887348175</v>
       </c>
       <c r="D142" t="n">
-        <v>0.007810354232788086</v>
+        <v>0.004551112651824951</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Wat is het maximaal aantal keren dat een budgethouder werd gecontroleerd?</t>
+          <t>Tot eind september 2023 bleef het, begrijpe wie kan, ijzig stil rond het project.</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9921987652778625</v>
+        <v>0.9955437779426575</v>
       </c>
       <c r="D143" t="n">
-        <v>0.007801234722137451</v>
+        <v>0.004456222057342529</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Gaat in 2024 deze besparing verdergezet worden?</t>
+          <t>d) Hoe kijkt de minister naar de gespreide betaling van de busabonnementen voor zowel scholieren als studenten die een financiële korting genieten?</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9922846555709839</v>
+        <v>0.9956843852996826</v>
       </c>
       <c r="D144" t="n">
-        <v>0.007715344429016113</v>
+        <v>0.004315614700317383</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal laadpalen dat op dit moment in gebruik is en het aantal plaatsingsopdrachten dat gegeven werd?</t>
+          <t>Graag een overzicht:a) per halte;b) per gemeente en provincie;c) per vervoerregio;d) Wat is het plan van aanpak voor die haltes langs gemeentewegen die nog niet basistoegankelijk zijn?</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9923104047775269</v>
+        <v>0.9957250356674194</v>
       </c>
       <c r="D145" t="n">
-        <v>0.007689595222473145</v>
+        <v>0.004274964332580566</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Wat is de verhouding tussen het aantal laadpalen dat op dit moment in gebruik is en het aantal laadpalen dat in totaal geplaatst is?</t>
+          <t>Welke evolutie zien we op basis van de antwoorden op bovenvermelde vragen?</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9924348592758179</v>
+        <v>0.9957295060157776</v>
       </c>
       <c r="D146" t="n">
-        <v>0.007565140724182129</v>
+        <v>0.004270493984222412</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Heeft de minister er zicht op in hoeverre er in Vlaanderen zonevreemde dierenasielen zijn?</t>
+          <t>Welke evolutie zien we op basis van de antwoorden op bovenvermelde vragen?</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9925041198730469</v>
+        <v>0.9957295060157776</v>
       </c>
       <c r="D147" t="n">
-        <v>0.007495880126953125</v>
+        <v>0.004270493984222412</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Welke bedragen zijn sinds 2019 jaarlijks al verworven door VLAM via het innen van verplichte bijdragen aan de promotiefondsen?</t>
+          <t>Hoe worden de aantallen van koolstofverliezen verwerkt in de compensatieverplichtingen?</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9925305247306824</v>
+        <v>0.9959706664085388</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007469475269317627</v>
+        <v>0.004029333591461182</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Een overzicht van de gevoerde acties per sector is te vinden in de activiteitenverslagen van VLAM: www.vlaanderen.be/vlam/wie-zijn-we/activiteitenverslagen.</t>
+          <t>Wat zijn de bevindingen op het vlak van de aanwezigheid van medicijn- en bestrijdingsmiddelenresten in het effluent van die RWZI’s, alsook in het drinkwater in de regio van die RWZI’s?</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9928233623504639</v>
+        <v>0.996077835559845</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007176637649536133</v>
+        <v>0.003922164440155029</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Wat is het totaalbudget dat besteed werd aan de subsidie?</t>
+          <t>a) Zo ja, om welke uren gaat het?</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9928681254386902</v>
+        <v>0.9960975050926208</v>
       </c>
       <c r="D150" t="n">
-        <v>0.007131874561309814</v>
+        <v>0.00390249490737915</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Wat is de top 10 van de meest voorkomende onderwerpen?</t>
+          <t>Van de leerlingen die in het schooljaar 2022-2023 (met foto op 1 oktober 2022) het eerste leerjaar A of het eerste leerjaar B van het voltijds gewoon secundair onderwijs volgden, wordt in onderstaande tabel aangegeven hoeveel leerlingen het daaraan voorafgaande schooljaar 2021-2022 afsloten in het buitengewoon onderwijs.</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9928802847862244</v>
+        <v>0.996136486530304</v>
       </c>
       <c r="D151" t="n">
-        <v>0.007119715213775635</v>
+        <v>0.003863513469696045</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Wat was de gemiddelde wachttijd tussen de aanvraag en het uiteindelijke besluit van de bijzondere bijstandscommissie in 2020, in 2021, in 2022 en in 2023?</t>
+          <t>Hoe belangrijk is Israël als landbouwhandelspartner voor Vlaanderen?</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9928867220878601</v>
+        <v>0.9962318539619446</v>
       </c>
       <c r="D152" t="n">
-        <v>0.007113277912139893</v>
+        <v>0.00376814603805542</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Zijn er verschillen in aanpak tussen de verschillende koepels?</t>
+          <t>Wat denkt de minister van dat cijfer en hoe kan de minister ervoor zorgen dat er in eerste instantie meer correcte beslissingen worden genomen om tijdverlies te vermijden?</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9929007291793823</v>
+        <v>0.9963135123252869</v>
       </c>
       <c r="D153" t="n">
-        <v>0.007099270820617676</v>
+        <v>0.003686487674713135</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van de gebruikscijfers van de pendelbus die gepland is op het traject Kioskplaats-Zwaantjes?</t>
+          <t>Hoe evalueert de minister de verplichting van rookmelders?</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9929819107055664</v>
+        <v>0.9963935017585754</v>
       </c>
       <c r="D154" t="n">
-        <v>0.007018089294433594</v>
+        <v>0.003606498241424561</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Kan de minister een nauwkeurige omschrijving geven van de uit te voeren werken voor de heraanleg van het knooppunt van de N424 met de N456, voor de eerste fase?</t>
+          <t>a) Hebben er ondertussen nog verdere gesprekken plaatsgevonden? Zo ja, wanneer?</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.992983341217041</v>
+        <v>0.9963967204093933</v>
       </c>
       <c r="D155" t="n">
-        <v>0.007016658782958984</v>
+        <v>0.003603279590606689</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Wat is de gemiddelde doorlooptijd van die procedure?</t>
+          <t>a) Hebben er ondertussen nog verdere gesprekken plaatsgevonden? Zo ja, wanneer?</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.993099570274353</v>
+        <v>0.9963967204093933</v>
       </c>
       <c r="D156" t="n">
-        <v>0.006900429725646973</v>
+        <v>0.003603279590606689</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Is de minister tevreden over het aantal aanvragen en de ingediende projecten sinds de inwerkingtreding van het nieuwe subsidiereglement ‘sectorale prioriteiten’?</t>
+          <t>Zijn de details ondertussen, een maand later, beschikbaar?</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9931660294532776</v>
+        <v>0.9964210987091064</v>
       </c>
       <c r="D157" t="n">
-        <v>0.006833970546722412</v>
+        <v>0.003578901290893555</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Is de minister tevreden over het aantal aanvragen en de ingediende projecten sinds de inwerkingtreding van het nieuwe subsidiereglement ‘sectorale prioriteiten’?</t>
+          <t>Zijn de details ondertussen, een maand later, beschikbaar?</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9931660294532776</v>
+        <v>0.9964210987091064</v>
       </c>
       <c r="D158" t="n">
-        <v>0.006833970546722412</v>
+        <v>0.003578901290893555</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Heeft de minister zicht op het totale aantal potentiële doctoraathouders, doctorandi en andere onderzoekers die op dit ogenblik aan een universiteit werken en dus in aanmerking komen voor deze stap of combinatie?</t>
+          <t>Kan de minister een overzicht geven van alle soorten landbouwproducten die vanuit Vlaanderen in deze legislatuur naar Israël geëxporteerd werden?</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9932622313499451</v>
+        <v>0.9964434504508972</v>
       </c>
       <c r="D159" t="n">
-        <v>0.006737768650054932</v>
+        <v>0.003556549549102783</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>b) Welke jobbeurzen werden in samenwerking met de lokale besturen georganiseerd?</t>
+          <t>Zijn de grondige renovatiewerken in 2020 en 2021 succesvol verlopen?</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9932767152786255</v>
+        <v>0.9964661598205566</v>
       </c>
       <c r="D160" t="n">
-        <v>0.006723284721374512</v>
+        <v>0.003533840179443359</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Wat is sinds de invoering van de bijzondere erkenning de gemiddelde verblijfsduur voor personen die lijden aan jongdementie die worden opgevangen in woongelegenheden met die bijzondere erkenning?</t>
+          <t>Welk gevolg werd eraan gegeven door de ontwikkelaars?</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9934240579605103</v>
+        <v>0.9964826107025146</v>
       </c>
       <c r="D161" t="n">
-        <v>0.006575942039489746</v>
+        <v>0.003517389297485352</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het aantal goedgekeurde subsidiedossiers met bijhorende budgetten?</t>
+          <t>b) Kwam er nadien van de aanwezigen feedback over de infosessies? Zo ja, wat was die feedback?</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0.993439257144928</v>
+        <v>0.9966768026351929</v>
       </c>
       <c r="D162" t="n">
-        <v>0.006560742855072021</v>
+        <v>0.003323197364807129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>b) Ziet de minister hier groeikansen voor de toekomst?</t>
+          <t>Wanneer zal het afgelopen zijn en wanneer kan een evaluatie volgen?</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9935415983200073</v>
+        <v>0.9966781139373779</v>
       </c>
       <c r="D163" t="n">
-        <v>0.006458401679992676</v>
+        <v>0.00332188606262207</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hoeveel vervoerregio’s zitten boven hun budget en zullen dus aanpassingen moeten doen? Graag een overzicht per regio, hun budget en hoeveel ze over budget zijn gegaan.</t>
+          <t>Heeft de minister zicht op het aantal gemeenten dat een financiële tegemoetkoming voor de Buzzy Pazz aanbiedt?</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9935471415519714</v>
+        <v>0.996757447719574</v>
       </c>
       <c r="D164" t="n">
-        <v>0.006452858448028564</v>
+        <v>0.003242552280426025</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Wat is de gemiddelde wachttijd tussen de aanvraag en het uiteindelijke besluit van de bijzondere bijstandscommissie in 2020, in 2021, in 2022 en in 2023?</t>
+          <t>Wie een beperking heeft of ouder is en slecht ter been, moet zich met het openbaar vervoer kunnen verplaatsen.</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9935646653175354</v>
+        <v>0.9967740178108215</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0064353346824646</v>
+        <v>0.003225982189178467</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Welke subsidies werden tijdens deze legislatuur jaarlijks aan de Pro League gegeven?</t>
+          <t>Verder gaf hij te kennen dat die parameters, voor het invoeren van het nieuwe Financieringsdecreet in 2019, niet geregistreerd werden in de databank a) Hoe komt het dat de minister slechts gegevens had van twee kalenderjaren?</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9936105608940125</v>
+        <v>0.9969130754470825</v>
       </c>
       <c r="D166" t="n">
-        <v>0.006389439105987549</v>
+        <v>0.00308692455291748</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Kan een gedetailleerd overzicht gegeven worden van het aantal schuilhuisjes per vervoerregio, het aantal nieuwe schuilhuisjes met groendak en/of zonnepaneel en hun locatie, en de geplande plaatsing van dergelijke schuilhuisjes met groendak en/of zonnepaneel en hun locatie?</t>
+          <t>Wanneer zal het monitoringnetwerk effectief uitgerold worden?</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9936361312866211</v>
+        <v>0.9969193935394287</v>
       </c>
       <c r="D167" t="n">
-        <v>0.006363868713378906</v>
+        <v>0.003080606460571289</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Welke participatie er is geweest met de buurtbewoners?</t>
+          <t>a) Kan de minister een overzicht geven van de projecten die in deze legislatuur werden opgestart om de modal shift - vooral naar doelgroep Buzzy Pass-gebruikers - te bewerkstelligen?</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9936375617980957</v>
+        <v>0.9969196319580078</v>
       </c>
       <c r="D168" t="n">
-        <v>0.006362438201904297</v>
+        <v>0.003080368041992188</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Wordt voorzien?CPE - toelichting (goed-gekeurde onderdelen)CPE - getal (goedgekeurde onderdelen)1 GLS € 30.000,00 3 x 150kW 302 Econor € 45.000,00 5 x 11kW 2  x300kW453 Luiknatie € 25.000,00 5 x 80kW 254 Besix € 40.000,00 4 x 150kW 405 Dhaese € 18.000,00 1 x 300kW 206 MAN W-VL € 13.505,50 1 x 300kW207Transport Theo bvba€ 40.000,00 2 x 300kW 408Haven van Antwerpen€ 300.000,00 15 x 300kW 30010Roeselare stad - stedelijke logistiek€ 8.000,00 4 x 22kW 811Touringcarbedrijf De Wilg BVBA€ 75.000,00 15 x 60kW 7512 Man Brugge NV € 1.400,00 2 x 22kW 414Maenhout Automotive€ 17.707,00 6 x 22kW 1 x 250 kW2215 LTI-SKOBO € 1.842,00 3 x 22kW 616 WDP € 46.589,00 17 x 22kW 6 x 50kW 2 x 150kW8418 Kaliber € 4.000,00 2 x 22kW 419Hamann International Logistics NV€ 80.000,00 4 x 360kW 8020 Aerts Truck € 30.000,00 4 x 22 kW 6 x 22kW 1 x 180 kW3021Bpost Antwerpen Centrum€ 52.000,00 26 x 22kW 5222Aartselaar - Bpost€ 57.000,00 70 x 22kW 14023 Deurne - Bpost € 28.846,00 29 x 22kW 5824 Kortrijk - Bpost € 31.535,00 31 x 22kW 6225Linkeroever - Bpost€ 10.113,00 8 x 22kW 1626Merksem - Bpost€ 18.734,00 12 x 22kW 2427Oostkamp - Bpost€ 42.175,00 39 x 22kW 7828Roeselare - Bpost€ 37.510,00 40 x 22kW 8029 Veurne - Bpost € 55.000,00 50 x 22kW 10030 Storex € 41.996,80 1 x 150kW 2 x 300kW5031 Horafrost € 12.000,00 6 x 22kW 1232 Homifreez € 8.000,00 4 x 22kW 833 Ghistelinck € 60.000,00 10 x 22kW 2 x 60 kW 3 x 150 kW6034EG Retail Belgium€ 40.000,00 2 x 150 kW 2 x 150kW4035 Lavrijsen € 24.000,00 1 x 40 kW 1 x 360 kW2436 Derma Trucks € 16.000,00 3 x 22kW 1x 180 kW1637 Weba Gent € 34.000,00 12 x 22kW 1 x 200 kW3439Snellaadinfrastructuur G&amp;V Trucknetwerk -1€ 300.000,00 15 x 400kW 30040Snellaadinfrastructuur G&amp;V Trucknetwerk -2€ 300.000,00 15 x 400 kW 30041Snellaadinfrastructuur G&amp;V Trucknetwerk -3€ 80.000,00 4 x 400 kW 8043 CRM connect € 105.000,00 5 x 60kW 8 x 150kW10544International Car Operators€ 15.500,00 2 x 150 kW 2045Dedecker Vanriet€ 160.000,00 8 x 150kW 4 x 150 kW 4 x 150 kW16046Transport Vervaeke€ 20.000,00 1 x 320 kW 2047 WDP - ABInbev € 40.000,00 4 x 150 kW 4048WDP - Barry Callebaut€ 20.000,00 1 x 350 kW 2049WDP - Big Foot Fast Charging€ 40.000,00 2 x 350 kW 4050DAF - Herent &amp; Houthalen€ 10.000,00 2 x 90 kW 1051Lemahieu Oostende€ 28.000,00 4 x 80 kW 4 x 22 kW2852 Lemahieu Gent € 34.000,00 2 x 22 kW 6 x 80 kW3453 GZA € 10.000,00 5 x 22 kW 1054 Daimler Truck € 35.000,00 1 x 300 kW 1 x 150 kW 1 x 50 kW3555 Biostoom € 30.000,00 2 x 50 kW 2 x 180 kW3056Turbotrucks Kortrijk€ 25.511,00 8 x 22 kW 2 x 200 kW3657 Heylen - Rikesa € 4,00 24 x 50 kW 12058Heylen - Rikesa - 2€ 52.000,00 26 x 22 kW 5259 Essers € 20.000,00 4 x 50 kW 2060Tailormade Transport€ 25.000,00 5 x 80 kW 2561 Finvesta € 173.000,00 24 x 22 kW 5 x 80 kW 10 x 200 kW 17362 Immo Darwin € 196.000,00 22 x 22kW 5 x 80 kW 10 x 200 kW16963 Immo Palmaers € 40.000,00 2 x 300 kW 4064Tailormade logistics€ 25.000,00 5 x 80 kW 2565Tailormade logistics Westerlo€ 25.000,00 5 x 80 kW 2566Immo Darwin Rijkevorsel€ 185.000,00 30 x 22 kW 5 x 80 kW 10 x 200 kW18567Alders Internationaal Transport€ 40.000,00 2 x 150 kW 1 x 300 kW4068 Marcel Depaire € 40.000,00 2 x 300 kW 4069 IKEA - Allego € 255.000,00 75 x 22kW 5  x50kW 10 x 150kW27570Colruyt - Londerzeel€ 24.368,00 10 x 22kW 1 x 60kW2571 Raff Plastics € 14.000,00 1 x 43 kW 1 x 180 kW1472Colruyt - zware vracht€ 230.000,00 7 x 350kW 9 x 180 kW23073Colruyt - centrale diensten bestelwagens€ 26.000,00 13 x 32 kW 2674Colruyt - centrale diensten bestelwagens 2€ 12.000,00 6 x 32 kW 1275Colruyt - publiek HD laadinfra centrale diensten€ 300.000,00 17 x 350 kW 34076 Eutraco € 80.000,00 4 x 400 kW 8077 Devrago € 46.000,00 13 x 22 kW 2 x 80 kW 1 x 200 kW4678 DVM Invest € 44.000,00 2 x 22 kW 2 x 300 kW4479Fastned - Brecht Oost€ 20.000,00 1 x 400 kW 2080Fastned - Peutie Oost€ 20.000,00 1 x 400 kW 2081Fastned - Peutie West€ 20.000,00 1 x 400 kW 2082Fastned - Postel Noord€ 40.000,00 2 x 400kW 4083Fastned - Postel Zuid€ 40.000,00 2 x 400kW 4084Fastned - Walshoutem Noord€ 40.000,00 2 x 400kW 4085Transport Heirwegh€ 10.000,00 2 x 50 kW 1087Mandel Car Toerisme€ 70.000,00 5 x 300 kW 10088 Ganda Cars € 58.000,00 5 x 300 kW 4 x 22 kW10889Ninatrans Electrified€ 4.000,00 1 x 43kW 490Volvo Trucks Ruisbroek€ 46.000,00 4 x 150 kW 3 x 22 kW4691 Multiobus Diest € 30.000,00 6 x 60 kW 3092Multiobus Wijgmaal€ 30.000,00 6 x 60 kW 3095 Charge m Up € 80.000,00 2 x 150 kW 6 x 300 kW20096 Ferry Cars € 200.000,00 14 x 150 kW 12 x 50 kW20098Multiobus Wijgmaal 2€ 20.000,00 1 x 300 kW 2099Antwerp Stevedoring€ 16.000,00 4 x 43 kW 16100Transuniverse forwarding€ 50.000,00 20 x 22 kW 1 x 150 kW50101 Post NL € 17.727,00 20 x 22 kW 2 x 22 kW44102 Verbeketrans € 20.000,00 1 x 300 kW 20103Transport Mervielde€ 15.000,00 1 x 80 kW 1 x 200 kW15105Allego - Heavy Duty Antwerp Euroterminal€ 60.000,00 3 x 400 kW 60106Echarging4busses@Trosbeiaard€ 143.000,00 14 x 150 kW 3 x 11 kW143107DFDS Gent Green Port€ 40.000,00 2 x 300 kW 40108Rijschool Hendriks€ 14.000,00 2 x 22 kW 1 x 150 kW14109 Waaslandia € 210.000,00 21 x 150 210110 Keolis Genk € 130.000,00 13 x 150 130111 Keolis Jabbeke € 60.000,00 6 x 150 60112 Keolis Maaseik € 60.000,00 6 x 150 60113Keolis Tessenderlo€ 40.000,00 4 x 150 40114Keolis Wuustwezel€ 40.000,00 4 x 150 40115 Keolis Zulte € 60.000,00 6 x 150 60116 Teyssen € 65.000,00 13 x 50 65117De Morgenstond€ 135.000,00 27 x 50 135118 Buga NV € 49.000,00 5 x 221x 501 x 3001 x 60049119Buga Limburg NV€ 29.000,00 1 x 300 kW 2 x 22kW 1 x 50 kW294.</t>
+          <t>Hoe evalueert de minister de sterk stijgende studentenaantallen in de graduaatsopleidingen en de nieuwe grieven omtrent hun beperkte financiering?</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9937272071838379</v>
+        <v>0.9969636797904968</v>
       </c>
       <c r="D169" t="n">
-        <v>0.006272792816162109</v>
+        <v>0.003036320209503174</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>M.a.w., wat is het percentage verworven studiepunten ten opzichte van het aantal opgenomen studiepunten?</t>
+          <t>Zijn er verdere resultaten en conclusies in het onderzoek?</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9938388466835022</v>
+        <v>0.9969878792762756</v>
       </c>
       <c r="D170" t="n">
-        <v>0.006161153316497803</v>
+        <v>0.003012120723724365</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Wat was in 2020, in 2021, in 2022 en in 2023 de gemiddelde wachttijd tussen de aanmelding en het eerste bezoek in een neutrale bezoekruimte?</t>
+          <t>Overweegt de minister nieuwe sensibiliseringscampagnes te lanceren? Zo ja, wanneer?</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9938439130783081</v>
+        <v>0.9970232844352722</v>
       </c>
       <c r="D171" t="n">
-        <v>0.006156086921691895</v>
+        <v>0.002976715564727783</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Kan de minister de meest recente stand van zaken geven?</t>
+          <t>Denkt de minister dat de proportie woningen met eigenaars-bewoners die niet aan de verplichting voldoen hoger of lager ligt dan de proportie op de huurmarkt?</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9938898086547852</v>
+        <v>0.9970365762710571</v>
       </c>
       <c r="D172" t="n">
-        <v>0.006110191345214844</v>
+        <v>0.002963423728942871</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>d) Hoelang moeten mensen gemiddeld wachten voor ze een assistentiehond toegewezen krijgen?</t>
+          <t>Wat zijn de vijf meest voorkomende vormen van dierenmishandeling?</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9939192533493042</v>
+        <v>0.9970685839653015</v>
       </c>
       <c r="D173" t="n">
-        <v>0.006080746650695801</v>
+        <v>0.002931416034698486</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende fases van de uit te voeren werken voor de aanleg van de fietsverbinding campus Sterre-Ardoye, met per fase een omschrijving van de werken, de timing en het budget?</t>
+          <t>Personen aan wie elektronisch toezicht wordt opgelegd als modaliteit voor een gevangenisstraf moeten, net als personen aan wie het elektronisch toezicht wordt opgelegd als autonome straf, een bepaald uurrooster naleven.</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9939658045768738</v>
+        <v>0.9970911741256714</v>
       </c>
       <c r="D174" t="n">
-        <v>0.006034195423126221</v>
+        <v>0.002908825874328613</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Hoe groot is de wachtlijst van personen die een assistentiehond willen?</t>
+          <t>De databank Hoger Onderwijs bevat geen informatie over het tijdstip waarop de lessen binnen het hoger onderwijs plaatsvinden, waardoor het niet mogelijk is om een inschatting te maken hoeveel studenten via avondonderwijs de opleiding verpleegkunde volgen.</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.994047999382019</v>
+        <v>0.9971081614494324</v>
       </c>
       <c r="D175" t="n">
-        <v>0.005952000617980957</v>
+        <v>0.002891838550567627</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende fases van de werken voor de vervanging van de brug Deinsesteenweg, met per fase een omschrijving van de werken, de timing en het gereserveerde budget?</t>
+          <t>Op welke diersoorten werden er in 2022 aan de KU Leuven proeven uitgevoerd?</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9940866231918335</v>
+        <v>0.9971100687980652</v>
       </c>
       <c r="D176" t="n">
-        <v>0.005913376808166504</v>
+        <v>0.002889931201934814</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>a) Wat is de kostprijs per kabinet opgesplitst voor personeel, externe adviseurs, onkosten van de minister, telefoonkosten, dienstwagens, chauffeur, persoonlijke kok?</t>
+          <t>Nu is het namelijk zo dat het elk jaar rond eind augustus bang afwachten is hoeveel leerlingen zich in het buitengewoon onderwijs hebben ingeschreven om dan te hopen dat er voldoende budgetten zijn of dat men nog wat extra budgetten kan binnenrijven om de ergste situaties te verhelpen.</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9940981864929199</v>
+        <v>0.9971135854721069</v>
       </c>
       <c r="D177" t="n">
-        <v>0.005901813507080078</v>
+        <v>0.002886414527893066</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wat is de totale kostprijs van de heraanleg?</t>
+          <t>Hoever staat het project om zonnepanelen op de Beverentunnel te plaatsen momenteel?</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9941576719284058</v>
+        <v>0.9971233010292053</v>
       </c>
       <c r="D178" t="n">
-        <v>0.005842328071594238</v>
+        <v>0.002876698970794678</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>a) Acht de minister het vooropgestelde budget voor die subsidie voldoende?</t>
+          <t>van de Buzzy Pazz?</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9941938519477844</v>
+        <v>0.9971477389335632</v>
       </c>
       <c r="D179" t="n">
-        <v>0.005806148052215576</v>
+        <v>0.002852261066436768</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Hoe loopt dat?</t>
+          <t>Kan de minister een overzicht geven van alle soorten landbouwproducten die vanuit Israël in deze legislatuur in Vlaanderen geïmporteerd werden?</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9942466616630554</v>
+        <v>0.9971477389335632</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00575333833694458</v>
+        <v>0.002852261066436768</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Kan de minister per signaalgebied een overzicht geven van het aantal afgeleverde omgevingsvergunningen voor stedenbouwkundige handelingen waarbij toelating gegeven werd voor bebouwing, ophoging of andere ingrepen die een impact hebben op het bergingsvolume van het signaalgebied?</t>
+          <t>Hoe verhoudt dat aantal meldingen zich ten opzichte van andere meldingen over verkeersveiligheid van weggebruikers op de Antwerpse ring?</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9942745566368103</v>
+        <v>0.9971678853034973</v>
       </c>
       <c r="D181" t="n">
-        <v>0.005725443363189697</v>
+        <v>0.002832114696502686</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister dat per provincie?</t>
+          <t>Die regeling is van toepassing op wie een gevangenisstraf uitzit, maar ook op personen aan wie het elektronisch toezicht is toegekend als strafuitvoeringsmodaliteit van een gevangenisstraf of als modaliteit van een voorlopige hechtenis.</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9942823648452759</v>
+        <v>0.9971729516983032</v>
       </c>
       <c r="D182" t="n">
-        <v>0.005717635154724121</v>
+        <v>0.002827048301696777</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>c) het totale bedrag dat al besteed werd aan alle verleden aktes en akkoorden?</t>
+          <t>Het doel van dergelijk netwerk is alle aangeboden jongeren en hun context zich vooraf geen vragen moeten stellen over “waar” en “hoe” ze zich moeten aanmelden of “hoeveel dat kost”.</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9943227767944336</v>
+        <v>0.9971837401390076</v>
       </c>
       <c r="D183" t="n">
-        <v>0.005677223205566406</v>
+        <v>0.002816259860992432</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Kan de minister de correcte cijfers geven op datum van 1 oktober 2023 aangaande:a) het aantal percelen waarvoor de voorbije jaren een akkoord werd bereikt en waarvoor ook al een akte werd verleden?</t>
+          <t>Hoe evalueert de minister de fusies die de afgelopen jaren gerealiseerd zijn in het volwassenenonderwijs?</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9943893551826477</v>
+        <v>0.9971963167190552</v>
       </c>
       <c r="D184" t="n">
-        <v>0.005610644817352295</v>
+        <v>0.002803683280944824</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Wat zijn de resultaten bij de gemeenten waar het project van de Profploeg werd afgerond?</t>
+          <t>e) Wanneer zullen die haltes basistoegankelijk gemaakt worden?</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9943906664848328</v>
+        <v>0.9972411394119263</v>
       </c>
       <c r="D185" t="n">
-        <v>0.005609333515167236</v>
+        <v>0.00275886058807373</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Wat is de uiteindelijke timing van de toekenning van de 5176 extra plaatsen inkomenstarief?</t>
+          <t>e) Wanneer zullen die haltes basistoegankelijk gemaakt worden?</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9944373369216919</v>
+        <v>0.9972411394119263</v>
       </c>
       <c r="D186" t="n">
-        <v>0.005562663078308105</v>
+        <v>0.00275886058807373</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Kan een stand van zaken gegeven worden over de noodzakelijke werken aan de spoorinfrastructuur op de Antwerpsesteenweg?</t>
+          <t>Welke evolutie zien we?</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9945749044418335</v>
+        <v>0.9972532391548157</v>
       </c>
       <c r="D187" t="n">
-        <v>0.005425095558166504</v>
+        <v>0.002746760845184326</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>c) Wat bepaalt de volgorde op de wachtlijst?</t>
+          <t>Welke evolutie zien we?</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9946157336235046</v>
+        <v>0.9972532391548157</v>
       </c>
       <c r="D188" t="n">
-        <v>0.005384266376495361</v>
+        <v>0.002746760845184326</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Welke West-Vlaamse projecten zitten nog in de pijplijn voor subsidies voor het jaar 2023?</t>
+          <t>Wanneer?</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0.994631290435791</v>
+        <v>0.9972594976425171</v>
       </c>
       <c r="D189" t="n">
-        <v>0.005368709564208984</v>
+        <v>0.00274050235748291</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de evolutie van de autofinancieringsmarges (AFM) en de gecorrigeerde autofinancieringsmarges?</t>
+          <t>Wanneer?</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9947106838226318</v>
+        <v>0.9972594976425171</v>
       </c>
       <c r="D190" t="n">
-        <v>0.005289316177368164</v>
+        <v>0.00274050235748291</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Kan de minister de correcte cijfers geven op datum van 31 december 2022, 31 december 2021, 31 december 2020 en 31 december 2019 aangaande:a) het aantal ingenomen percelen waarvoor de aktes al zijn verleden;b) het aantal in te nemen percelen waarvoor er wel een akkoord is, maar waarvoor de aktes nog niet zijn verleden?</t>
+          <t>Wanneer?</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9947168231010437</v>
+        <v>0.9972594976425171</v>
       </c>
       <c r="D191" t="n">
-        <v>0.005283176898956299</v>
+        <v>0.00274050235748291</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Welk bedrag wordt daarvoor extra vrijgemaakt?</t>
+          <t>Wanneer?</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9947197437286377</v>
+        <v>0.9972594976425171</v>
       </c>
       <c r="D192" t="n">
-        <v>0.005280256271362305</v>
+        <v>0.00274050235748291</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Acht de minister het budget voldoende?</t>
+          <t>Wanneer?</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9947324991226196</v>
+        <v>0.9972594976425171</v>
       </c>
       <c r="D193" t="n">
-        <v>0.005267500877380371</v>
+        <v>0.00274050235748291</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Wat was de gemiddelde doorlooptijd van de gehele erkenningsprocedure voor assistentiehondenscholen in 2019-2020-2021-2022-2023?</t>
+          <t>Wanneer?</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9947760105133057</v>
+        <v>0.9972594976425171</v>
       </c>
       <c r="D194" t="n">
-        <v>0.005223989486694336</v>
+        <v>0.00274050235748291</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Welke aansluiting op de N60 en de R40-binnenring is opgenomen in de goedgekeurde projectnota?</t>
+          <t>Wanneer?</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9948107004165649</v>
+        <v>0.9972594976425171</v>
       </c>
       <c r="D195" t="n">
-        <v>0.005189299583435059</v>
+        <v>0.00274050235748291</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hoe loopt de vooruitgang met betrekking tot de nodige onteigeningen en verloopt die ondertussen wel op de verhoopte kruissnelheid?</t>
+          <t>Wanneer?</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9948116540908813</v>
+        <v>0.9972594976425171</v>
       </c>
       <c r="D196" t="n">
-        <v>0.005188345909118652</v>
+        <v>0.00274050235748291</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>86 van 21 oktober 2021 en in latere vragen, ziet de minister concreet en welke stappen zijn daartoe al (succesvol) gezet?</t>
+          <t>Hoe evalueert de minister de handhavingsmaatregel van het ongeschikt verklaren van een woning?</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9948263764381409</v>
+        <v>0.9972797632217407</v>
       </c>
       <c r="D197" t="n">
-        <v>0.005173623561859131</v>
+        <v>0.002720236778259277</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
+          <t>Heeft het Agentschap Wegen en Verkeer (AWV) metingen gedaan om eventueel objectief te kunnen aantonen dat het op en rond de Tiensepoort drukker geworden is? Zo ja, op welke plaatsen werden die metingen gedaan en wat bleek daar precies uit?</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0.994853675365448</v>
+        <v>0.9972890615463257</v>
       </c>
       <c r="D198" t="n">
-        <v>0.005146324634552002</v>
+        <v>0.002710938453674316</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
+          <t>Heeft de minister sedert de vorige bespreking van deze kwestie in de commissie van 11 mei nog overleg gepleegd met de VLHORA en/of meer concreet vertegenwoordigers termijn op die opleidingen?</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.994853675365448</v>
+        <v>0.9974721074104309</v>
       </c>
       <c r="D199" t="n">
-        <v>0.005146324634552002</v>
+        <v>0.002527892589569092</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
+          <t>f) Wanneer zullen die haltes toegankelijk gemaakt worden voor iedereen, dus voor elke toegankelijkheidsstatus?</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0.994853675365448</v>
+        <v>0.9974879026412964</v>
       </c>
       <c r="D200" t="n">
-        <v>0.005146324634552002</v>
+        <v>0.002512097358703613</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
+          <t>f) Wanneer zullen die haltes toegankelijk gemaakt worden voor iedereen, dus voor elke toegankelijkheidsstatus?</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0.994853675365448</v>
+        <v>0.9974879026412964</v>
       </c>
       <c r="D201" t="n">
-        <v>0.005146324634552002</v>
+        <v>0.002512097358703613</v>
       </c>
     </row>
   </sheetData>

--- a/Identifier/to_label.xlsx
+++ b/Identifier/to_label.xlsx
@@ -458,3201 +458,3201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zal het daar ook om proefprojecten gaan? Zo ja, van welke termijn dan?</t>
+          <t>Kan een overzicht gegeven worden van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Kallosluis?</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5077987909317017</v>
+        <v>0.5882582664489746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4922012090682983</v>
+        <v>0.4117417335510254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wat is het plan van aanpak en de te verwachten timing?</t>
+          <t>Kan een overzicht worden gegeven van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Royerssluis?</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5304445624351501</v>
+        <v>0.5903065204620361</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4695554375648499</v>
+        <v>0.4096934795379639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hoe kijkt de minister naar de cijfers?</t>
+          <t>Om welke redenen wordt dit eerst toegepast en vanaf wanneer wordt er beslist om een procedure tot uithuiszetting op te starten?</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.572084367275238</v>
+        <v>0.5957940220832825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.427915632724762</v>
+        <v>0.4042059779167175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wanneer wordt de finalisering van de kruispunten verwacht?</t>
+          <t>Ziet de minister bij de in deelvragen 7-8 bedoelde trajectstarters, positieve of negatieve evoluties?</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.61017245054245</v>
+        <v>0.7255906462669373</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38982754945755</v>
+        <v>0.2744093537330627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kan de minister voor 2022 en 2023 een overzicht geven van de steun die gegeven werd per maatregel waarop land- en tuinbouwers een beroep kunnen doen via het VLIF?</t>
+          <t>Kwamen vanuit de lokale besturen al meldingen van een verhoogde spanning/meer problemen sinds de terroristische massaslachting van Hamas op 7 oktober 2023?</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6722014546394348</v>
+        <v>0.7261225581169128</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3277985453605652</v>
+        <v>0.2738774418830872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zo niet, waarom niet? Zo ja, wanneer vonden die overlegmomenten plaats en wat was het resultaat ervan?</t>
+          <t>Kwamen vanuit de lokale besturen al meldingen van een verhoogde spanning/meer problemen sinds de terroristische massaslachting van Hamas op 7 oktober 2023?</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6807027459144592</v>
+        <v>0.7261225581169128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3192972540855408</v>
+        <v>0.2738774418830872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Binnen welke periode?</t>
+          <t>Kwamen vanuit de lokale besturen al meldingen van een verhoogde spanning/meer problemen sinds de terroristische massaslachting van Hamas op 7 oktober 2023?</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.685585618019104</v>
+        <v>0.7261225581169128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314414381980896</v>
+        <v>0.2738774418830872</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wat zijn de vijf meest voorkomende platformen waarop dieren aangeboden worden?</t>
+          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.704617440700531</v>
+        <v>0.7467806339263916</v>
       </c>
       <c r="D9" t="n">
-        <v>0.295382559299469</v>
+        <v>0.2532193660736084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a) Wat kan precies als last in natura opgelegd worden en hoe moet dat in verhouding staan tot de verschillende aanvragen?</t>
+          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7280206680297852</v>
+        <v>0.7467806339263916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2719793319702148</v>
+        <v>0.2532193660736084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Zijn de provisies daartoe gereserveerd?</t>
+          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7354332804679871</v>
+        <v>0.7467806339263916</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2645667195320129</v>
+        <v>0.2532193660736084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ziet hij een opvallende stijging of daling in de cijfers? Zo ja, welke verklaringen kunnen daarvoor gegeven worden?</t>
+          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7523938417434692</v>
+        <v>0.7467806339263916</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2476061582565308</v>
+        <v>0.2532193660736084</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wie neemt de kosten op dit moment op zich?</t>
+          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7593768239021301</v>
+        <v>0.7467806339263916</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2406231760978699</v>
+        <v>0.2532193660736084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a) Ziet de minister enige evolutie bij de CVO’s in hun totaliteit?</t>
+          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8135403990745544</v>
+        <v>0.7467806339263916</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1864596009254456</v>
+        <v>0.2532193660736084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Om welke redenen werden er op de 1000 ingediende dossiers slechts 199 ingebrekestellingen verstuurd en 22 boetes uitgeschreven?</t>
+          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8334648013114929</v>
+        <v>0.7467806339263916</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1665351986885071</v>
+        <v>0.2532193660736084</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van de verdere uitrol van het C-ITS-project en wanneer dat in werking zal zijn?</t>
+          <t>Wat is de planning tot de effectieve werken in dat scenario?</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8515535593032837</v>
+        <v>0.7534207701683044</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1484464406967163</v>
+        <v>0.2465792298316956</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kan hij de verhouding schetsen met de vorige jaren van het aantal aanvragen?</t>
+          <t>Kan een overzicht gegeven worden van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Berendrecht- en Zandvlietsluis?</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8527868986129761</v>
+        <v>0.8097757697105408</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1472131013870239</v>
+        <v>0.1902242302894592</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wanneer wordt de heraanleg van die kruispunten dan wel gepland?</t>
+          <t>b) Welk geluidsniveau is voor de minister aanvaardbaar?</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8783414363861084</v>
+        <v>0.8241244554519653</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1216585636138916</v>
+        <v>0.1758755445480347</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Blijkt uit de ongevalcijfers dat er een verhoogde kans op ongevallen is op de locatie waar het wegdek met NGCS is uitgerust?</t>
+          <t>Wanneer hebben DVW en de diensten van de minister contact opgenomen met het Brugse stadsbestuur?</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.892611563205719</v>
+        <v>0.8254289031028748</v>
       </c>
       <c r="D19" t="n">
-        <v>0.107388436794281</v>
+        <v>0.1745710968971252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Welke bijzondere evoluties zijn er op te merken in het aantal zwerfkatten in Vlaanderen?</t>
+          <t>Welke investeringen in het ontwerp GIP 2024 worden specifiek gereserveerd om het goederenvervoer van de weg naar het spoor te doen evolueren?</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.895926296710968</v>
+        <v>0.8325734734535217</v>
       </c>
       <c r="D20" t="n">
-        <v>0.104073703289032</v>
+        <v>0.1674265265464783</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kan de minister tevens opsplitsen per nationaliteit?</t>
+          <t>Wanneer denkt de minister de eerste resultaten te krijgen van de verscherpte taalmaatregel, namelijk dat sociale huurders nu bijna één jaar aan taalniveau A2 moeten voldoen?</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9114446043968201</v>
+        <v>0.835089385509491</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08855539560317993</v>
+        <v>0.164910614490509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Wat was de invloed op het aantal inschrijvingen van de invoering van het vierde jaar sinds academiejaar 2016-2017 binnen de professionele bachelor verpleegkunde?</t>
+          <t>Is er een streefdoel om tegen een bepaald jaar een bepaald percentage van kruispunten toegankelijk te maken? Zo ja, welk streefdoel is dat?</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9120884537696838</v>
+        <v>0.8357807993888855</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08791154623031616</v>
+        <v>0.1642192006111145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Zal (een aanzienlijk deel van) het budget geïnvesteerd worden in de bestaande graduaatsopleidingen?</t>
+          <t>Wat is voor de plas Hazewinkel de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9154518842697144</v>
+        <v>0.8659244179725647</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08454811573028564</v>
+        <v>0.1340755820274353</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Zal de minister overleggen met haar federale collega om deze problematiek aan te kaarten? Zo ja, wanneer is het overleg gepland of heeft het al plaatsgevonden?</t>
+          <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2005-2006, 2006-2007, 2007-2008, 2008-2009, 2009-2010, 2010-2011; 2011-2012, 2012-2013, 2013-2014, 2014-2015, 2015-2016, 2016-2017, 2017-2018, 2018-2019, 2019-2020, 2020-2021, 2021-2022 en 2022-2023 voor de opleiding diergeneeskunde?</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9179580211639404</v>
+        <v>0.867526650428772</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08204197883605957</v>
+        <v>0.132473349571228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Worden de kosten voor het herstel van de lichtkoepel op de aannemer verhaald, of komen ze ten laste van de overheid?</t>
+          <t>Kan er een overzicht gegeven worden van alle steunaanvragen van de afgelopen jaren die de Vlaamse overheid heeft ontvangen voor de Brexit Adjustment Reserve (BAR) nu de aanvragen afgerond zijn?</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9214707612991333</v>
+        <v>0.8770909309387207</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0785292387008667</v>
+        <v>0.1229090690612793</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Graduaatsopleidingen  -  Sterk stijgende studentenaantallenDe Vlaamse Hogescholenraad (VLHORA) maakte recent in zijn oktobertelling weer bekend hoeveel studenten zich hebben ingeschreven voor een opleiding aan een van de 13 Vlaamse hogescholen.</t>
+          <t>Welke gebouwen heeft De Lijn in eigendom die niet meer in gebruik zijn en sinds wanneer zijn die niet meer in gebruik?</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9272364377975464</v>
+        <v>0.884540855884552</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07276356220245361</v>
+        <v>0.115459144115448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>b) Wat waren de scores van de projecten die uiteindelijk werden goedgekeurd?</t>
+          <t>Heeft de minister een beeld van de intensiteit van de studies bij de oudere studenten?</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9298389554023743</v>
+        <v>0.8868915438652039</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07016104459762573</v>
+        <v>0.1131084561347961</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Zo ja, wanneer zal dat overleg plaatsvinden?</t>
+          <t>In het ontwerp GIP 2024 wordt onder nummer GIP003510/01: “Kallosluis” een budget Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zal worden?</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9338186979293823</v>
+        <v>0.8914620280265808</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06618130207061768</v>
+        <v>0.1085379719734192</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Zijn alle bouwprojecten in het DBFM-project ‘Scholen van Morgen’ vandaag gerealiseerd?</t>
+          <t>Wanneer vond het laatste overleg plaats met het gemeentebestuur van Beernem?</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9350059628486633</v>
+        <v>0.901080310344696</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06499403715133667</v>
+        <v>0.09891968965530396</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers?</t>
+          <t>e) Wat is volgens de minister het effect van de verplichte starttoets op het aantal inschrijvingen in vergelijking met de laatste drie academiejaren voor de invoering?</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9372608065605164</v>
+        <v>0.905438244342804</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06273919343948364</v>
+        <v>0.09456175565719604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers?</t>
+          <t>Wat is de verdere timing van de onteigeningen?</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9372608065605164</v>
+        <v>0.9071404337882996</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06273919343948364</v>
+        <v>0.09285956621170044</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers?</t>
+          <t>Welke opdrachten en vergoedingen vallen er onder?</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9372608065605164</v>
+        <v>0.9103837609291077</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06273919343948364</v>
+        <v>0.08961623907089233</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Zijn er al lessen getrokken uit de best practices en alternatieve vervoersmodi uit de proefprojecten? Zo ja, welke?</t>
+          <t>Ziet de minister een evolutie in vergelijking met dezelfde gegevens van vorig jaar? Zo ja, hoe verklaart hij die?</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9400008320808411</v>
+        <v>0.9110502600669861</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05999916791915894</v>
+        <v>0.08894973993301392</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze cijfers?</t>
+          <t>Hoe hoog is de nood tot extra ondersteuning voor onze Vlaamse bedrijven volgens de minister?</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9403272867202759</v>
+        <v>0.9136707782745361</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05967271327972412</v>
+        <v>0.08632922172546387</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Acht de minister het zinvol om de bewaartermijnen van schooldocumenten te herbekijken? Zo ja, wanneer zal hij daarmee aan de slag gaan?</t>
+          <t>Is het budget op het ontwerp GIP 2024 voorzien voor hetzelfde project, of is dit een nieuwe investering?</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9411641359329224</v>
+        <v>0.9241819977760315</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05883586406707764</v>
+        <v>0.07581800222396851</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Is het vooropgestelde budget nog steeds haalbaar op basis van de al ingediende subsidieaanvragen?</t>
+          <t>b) Naar welke landen ging het leeuwendeel van dat geld?</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9466886520385742</v>
+        <v>0.9279946684837341</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05331134796142578</v>
+        <v>0.07200533151626587</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Het overzicht geeft ook weer hoeveel VTE er gereaffecteerd zijn (= hetzelfde ambt), wedertewerkgesteld zijn (= ander ambt).</t>
+          <t>Kan een overzicht worden gegeven van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Boudewijn- en Van Cauwelaertsluis?</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9507049918174744</v>
+        <v>0.9293157458305359</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04929500818252563</v>
+        <v>0.07068425416946411</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hierbij ook graag een onderverdeling van alle beoordelingscriteria en hoeveel punten de projecten behaalden op elk van die criteria.</t>
+          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen of cofinancieringen dit budget gebruikt zal worden?</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9514381885528564</v>
+        <v>0.9300076961517334</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04856181144714355</v>
+        <v>0.0699923038482666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Indien er een gebrek is aan voorafgaande cijfers sinds de administratieve vereenvoudiging, rijst de vraag hoe het flankerend beleid rond ondernemerscompetenties de kwaliteit van die beroepen waarborgt?</t>
+          <t>Kan de minister een overzicht geven van de volgende fases van de werken voor de herbouw van de Meulestedebrug, met per fase een omschrijving van de werken en de timing?</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9571282863616943</v>
+        <v>0.937175452709198</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04287171363830566</v>
+        <v>0.062824547290802</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>De onderstaande tabel geeft weer hoeveel leerlingen het voorbije schooljaar in 1B startten met een behaald getuigschrift basisonderwijs.</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9578878283500671</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04211217164993286</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Zal De Lijn een oplossing uitwerken om de fietsveiligheid te verhogen voor de niet-gebruikte tramsporen in de Steenvoordelaan en de Land van Rodelaan? Zo ja, wanneer?</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9583093523979187</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0416906476020813</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.vlaamsparlement.be/link?id=18136Verder vindt u in bijlage 2 een overzicht van het aantal haltes dat op 1 juli 2023 nog niet basistoegankelijk was, op het niveau van iedere gemeente, iedere vervoerregio en op het niveau van Vlaanderen.</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9588873982429504</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04111260175704956</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Volstaat daarvoor de 30 miljoen euro extra budget?</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9593276977539062</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04067230224609375</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kan de minister verduidelijken waarom er slechts 1000 dossiers werden ingediend bij de dienst Toezicht ondanks het feit dat 14.401 arbeidsgeschikte sociale huurders zich niet ingeschreven hebben bij VDAB?</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9610483050346375</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03895169496536255</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>b) Welke investeringen dienen nog te gebeuren met als doel mensen te overtuigen gebruik te maken van het openbaar vervoer?</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9677554965019226</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03224450349807739</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Worden er nu wel of geen juridische gevolgen gekoppeld aan het resultaat van de test? Zo ja, vanaf wanneer en met welke gevolgen precies?</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9686405062675476</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03135949373245239</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>c) Heeft daarover al overleg plaatsgevonden met de stad Gent? Zo ja, wanneer en met welk resultaat?</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9692789316177368</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03072106838226318</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>a) Heeft de minister intussen al zicht op de kostenraming van haar Waalse ambtsgenoot voor de aanleg van de verbinding Boucle Du Hainaut, alsook voor het verbindingsstuk tussen de gewestgrens en de aansluiting op voormeld project (raming in geval van bovengrondse wisselstroomversie; raming ingeval van ondergrondse gelijkstroomversie)?</t>
+          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9693672060966492</v>
+        <v>0.9422717094421387</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03063279390335083</v>
+        <v>0.05772829055786133</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Wat is daarvoor de planning?</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9701535105705261</v>
+        <v>0.9441023468971252</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02984648942947388</v>
+        <v>0.05589765310287476</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van alle maatregelen die zij tot op heden heeft uitgevaardigd in het kader van de door haar in 2020 in het vooruitzicht gestelde “bronmatige aanpak” om de aanwezigheid van genees- en bestrijdingsmiddelenresten in ons drinkwater drastisch terug te dringen, alsook per maatregel de resultaten weergeven die deze tot op heden hebben opgeleverd?</t>
+          <t>Zijn de volgende documenten: opmaak bestek, dossier omgevingsvergunning en grondverwerving van het inrichtingsproject, al beschikbaar? Zo ja, kan de minister ze bezorgen?</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9704385995864868</v>
+        <v>0.9491526484489441</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02956140041351318</v>
+        <v>0.05084735155105591</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Worden op het segment van de Antwerpse ring waar het proefproject NGCS is uitgerold, meer ongevallen geregistreerd dan op andere segmenten van de ring?</t>
+          <t>Wanneer zullen zij dit dossier agenderen?</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9727935791015625</v>
+        <v>0.9495179057121277</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0272064208984375</v>
+        <v>0.05048209428787231</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wat zijn de vijf meest voorkomende ziektes?</t>
+          <t>- Hoe vaak vind je het moeilijk om met gamen te stoppen?</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9732999205589294</v>
+        <v>0.9503614902496338</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02670007944107056</v>
+        <v>0.04963850975036621</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Welke resultaten heeft het parallelle onderzoek door de administratie van de Vlaamse minister van Omgeving intussen al opgeleverd?</t>
+          <t>d) Zijn er tijdens de verschillende afvissingsperiodes (merkwaardige) nieuwe vissoorten waargenomen en zo ja, welke vissoorten?</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9740288257598877</v>
+        <v>0.9522285461425781</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0259711742401123</v>
+        <v>0.04777145385742188</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Welke resultaten heeft het parallelle onderzoek door de administratie van de Vlaamse minister van Omgeving intussen al opgeleverd?</t>
+          <t>d) Zijn er tijdens de verschillende afvissingsperiodes (merkwaardige) nieuwe vissoorten waargenomen en zo ja, welke vissoorten?</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9740288257598877</v>
+        <v>0.9522285461425781</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0259711742401123</v>
+        <v>0.04777145385742188</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Welke ritten zijn het drukst?</t>
+          <t>d) Zijn er tijdens de verschillende afvissingsperiodes (merkwaardige) nieuwe vissoorten waargenomen en zo ja, welke vissoorten?</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9746592044830322</v>
+        <v>0.9522285461425781</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02534079551696777</v>
+        <v>0.04777145385742188</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Is er een verschil tussen week- en weekenddagen?</t>
+          <t>Kan de minister een overzicht geven van de volgende fases van de renovatie van de Beverentunnel, met vermelding van de timing en het budget?</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9750062823295593</v>
+        <v>0.9526218771934509</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02499371767044067</v>
+        <v>0.04737812280654907</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>13.Hoe evalueert de minister de cijfers?</t>
+          <t>Waarom zijn die bedragen ook niet opgenomen in het ontwerp GIP 2024 of het doorkijk GIP 2025 of het doorkijk GIP 2026?</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9764225482940674</v>
+        <v>0.9531804919242859</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02357745170593262</v>
+        <v>0.04681950807571411</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>a) Hoe evalueert de minister de cijfers tot en met dit academiejaar?</t>
+          <t>Kan de minister een overzicht geven van de belangrijkste personeels- en werkingskosten van de VLIR in 2022 in het kader van de bovenvermelde beheersovereenkomst?</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9766637682914734</v>
+        <v>0.9597851037979126</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02333623170852661</v>
+        <v>0.0402148962020874</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hoe en wanneer zal dat gebeuren?</t>
+          <t>Hoe evalueert de minister de actie?</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9770129919052124</v>
+        <v>0.9609419107437134</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0229870080947876</v>
+        <v>0.03905808925628662</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>a) Bemerkt de minister een evolutie bij de CVO’s in hun totaliteit?</t>
+          <t>Welke investering wordt met dit budget gepland?</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9802508950233459</v>
+        <v>0.962899386882782</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01974910497665405</v>
+        <v>0.03710061311721802</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>e) Hoe evalueert de minister die cijfers?</t>
+          <t>Welke investering wordt met dit budget gepland?</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9805927276611328</v>
+        <v>0.962899386882782</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01940727233886719</v>
+        <v>0.03710061311721802</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>e) Hoe evalueert de minister die cijfers?</t>
+          <t>Welke investering wordt met dit budget gepland?</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9805927276611328</v>
+        <v>0.962899386882782</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01940727233886719</v>
+        <v>0.03710061311721802</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>f) Zijn alle Hoppinpunten altijd toegankelijk voor alle personen met een beperking, dus voor elke toegankelijkheidsstatus?</t>
+          <t>Zijn die ondertussen afgerond? Zo ja, wat zijn de resultaten van de studies?</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9806503653526306</v>
+        <v>0.9662876725196838</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01934963464736938</v>
+        <v>0.03371232748031616</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f) Zijn alle Hoppinpunten altijd toegankelijk voor alle personen met een beperking, dus voor elke toegankelijkheidsstatus?</t>
+          <t>In welke mate is er momenteel signalisatie aanwezig om de zichtbaarheid ter plaatse te garanderen?</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9806503653526306</v>
+        <v>0.9690107703208923</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01934963464736938</v>
+        <v>0.03098922967910767</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>f) Zijn alle Hoppinpunten altijd toegankelijk voor alle personen met een beperking, dus voor elke toegankelijkheidsstatus?</t>
+          <t>b) Is 9 miljoen euro voldoende om alle in aanmerking komende aanvragen te subsidiëren?</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9806503653526306</v>
+        <v>0.9692451953887939</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01934963464736938</v>
+        <v>0.03075480461120605</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Is er al een concrete timing voor het project?</t>
+          <t>Verwacht de minister een toename van het aantal personen, ouder dan 25 jaar, die een nieuwe opleiding hoger onderwijs zullen starten?</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9814643263816833</v>
+        <v>0.9692464470863342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01853567361831665</v>
+        <v>0.03075355291366577</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Wanneer zal uit het oogpunt ruimtelijke ordening de herbestemming van die gebieden rond zijn?</t>
+          <t>Binnen welk budget wordt de financiering van 850.000 euro voor de bouw van deze brug opgenomen?</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9815967679023743</v>
+        <v>0.9706863164901733</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01840323209762573</v>
+        <v>0.02931368350982666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>In welke (bouw)fase zijn ze momenteel?</t>
+          <t>Overweegt de minister om de vervoersgarantie uit te breiden tot jongeren die te maken hebben met een langdurige pleegzorgsituatie? Zo ja, welke initiatieven zal de minister nemen om het te realiseren en wat is de verdere timing?</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9820918440818787</v>
+        <v>0.9708240628242493</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01790815591812134</v>
+        <v>0.02917593717575073</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>a) Merkt de minister enige evolutie bij de CVO’s in hun totaliteit?</t>
+          <t>a) Welke vooruitgang wordt de komende jaren verwacht?</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9837239980697632</v>
+        <v>0.9708542823791504</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01627600193023682</v>
+        <v>0.02914571762084961</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Hoe kunnen ze die vrijstelling of vermindering verkrijgen en wie betaalt dat?</t>
+          <t>a) Welke vooruitgang wordt de komende jaren verwacht?</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9847057461738586</v>
+        <v>0.9708542823791504</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01529425382614136</v>
+        <v>0.02914571762084961</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze trend(s)?</t>
+          <t>a) Welke vooruitgang wordt de komende jaren verwacht?</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9848490953445435</v>
+        <v>0.9708542823791504</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01515090465545654</v>
+        <v>0.02914571762084961</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze trend(s)?</t>
+          <t>Kadert het budget binnen de vervanging van de Boudewijnbrug?</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9848490953445435</v>
+        <v>0.9725944995880127</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01515090465545654</v>
+        <v>0.0274055004119873</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze trend(s)?</t>
+          <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2012-2013, 2013-2014, 2014-2015, 2015-2016, 2016-2017, 2017-2018, 2018-2019, 2019-2020, 2020-2021, 2021-2022 en 2022-2023 voor de opleidingen burgerlijk ingenieur en burgerlijk ingenieur-architect?</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9848490953445435</v>
+        <v>0.9748924374580383</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01515090465545654</v>
+        <v>0.02510756254196167</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister deze trend(s)?</t>
+          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zou worden?</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9848490953445435</v>
+        <v>0.9753026962280273</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01515090465545654</v>
+        <v>0.02469730377197266</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>b) Wat is daarbij de vooropgestelde timing en de inhoud van het project?</t>
+          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zou worden?</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9853207468986511</v>
+        <v>0.9753026962280273</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01467925310134888</v>
+        <v>0.02469730377197266</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>b) Wat is daarbij de vooropgestelde timing en de inhoud van het project?</t>
+          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zou worden?</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9853207468986511</v>
+        <v>0.9753026962280273</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01467925310134888</v>
+        <v>0.02469730377197266</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>b) Hoe evalueert de minister die cijfers?</t>
+          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de natuurdoelstellingen van de Antwerpse haven?</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9853777885437012</v>
+        <v>0.9768524169921875</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01462221145629883</v>
+        <v>0.0231475830078125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>b) Hoe lang heeft de microsimulatie geduurd en in welke mate versnelt deze het project?</t>
+          <t>Hoe evalueert de minister het aantal aanvragen?</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9855072498321533</v>
+        <v>0.9770417809486389</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01449275016784668</v>
+        <v>0.02295821905136108</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>b) Hoe lang heeft de microsimulatie geduurd en in welke mate versnelt deze het project?</t>
+          <t>Zijn de betonblokken bij nacht voldoende zichtbaar?</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9855072498321533</v>
+        <v>0.9772486686706543</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01449275016784668</v>
+        <v>0.0227513313293457</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wat is de timing voor die werken?</t>
+          <t>Hoe evalueert de minister die evolutie?</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9859218001365662</v>
+        <v>0.9776178002357483</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01407819986343384</v>
+        <v>0.02238219976425171</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Werd de voortgang van de ontwikkeling van het monitoringnetwerk sinds 16 december 2022 nog gerapporteerd aan de Vlaamse Regering? Zo ja, wanneer was dat en wat zijn de bevindingen?</t>
+          <t>Hoe evalueert de minister die evolutie?</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.986346423625946</v>
+        <v>0.9776178002357483</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01365357637405396</v>
+        <v>0.02238219976425171</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kan de minister een eindoverzicht aanreiken van alle goedgekeurde BAR-aanvragen uitgaande van individuele reders, visverwerkende bedrijven en individuele aquacultuurondernemers?</t>
+          <t>Hoe evalueert de minister die evolutie?</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9863595366477966</v>
+        <v>0.9776178002357483</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01364046335220337</v>
+        <v>0.02238219976425171</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wie daardoor over geen middelen van bestaan beschikt, kan een financiële dagvergoeding (leefvergoeding) krijgen.</t>
+          <t>Kan de minister ook een opsplitseng maken per categorie van ernstige of blijvende tekortkoming aan huurdersverplichtingen?</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9866346120834351</v>
+        <v>0.9784881472587585</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01336538791656494</v>
+        <v>0.02151185274124146</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>a) Op basis van welke criteria en voor hoeveel personen komen die gemeenten effectief tegemoet?</t>
+          <t>Heeft de minister, haar kabinet of administratie al eerder gelijkaardige meldingen ontvangen over de zichtbaarheid op de expresweg in Oud-Heverlee?</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9866906404495239</v>
+        <v>0.9795020222663879</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01330935955047607</v>
+        <v>0.02049797773361206</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>a) Ziet de minister daar een significante evolutie bij de CVO’s in hun totaliteit?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9873730540275574</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01262694597244263</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wat is de timing voor deze werken?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9876000881195068</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01239991188049316</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tot wanneer loopt het project precies nog?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9881388545036316</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01186114549636841</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wat is de timing voor de werken?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9881851673126221</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01181483268737793</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kan de minister de volledige studie ter beschikking stellen?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9885529279708862</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01144707202911377</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kan de minister, in Excel, een overzicht geven van het aantal aanvragen dat door NARIC niet in behandeling werd genomen in de afgelopen vier jaar?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9890783429145813</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0109216570854187</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die inkanteling?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9891230463981628</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01087695360183716</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>a) Merkt de minister een evolutie bij de CVO’s in hun totaliteit?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.989446222782135</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01055377721786499</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>a) Merkt de minister een evolutie bij de CVO’s in hun totaliteit?</t>
+          <t>Hoe evalueert de minister die samenwerking?</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.989446222782135</v>
+        <v>0.9795998334884644</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01055377721786499</v>
+        <v>0.02040016651153564</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wat was de invloed van de invoering van het vierde jaar sinds academiejaar 2016-2017 binnen de professionele bachelor verpleegkunde op het aantal trajectstarters?</t>
+          <t>Wanneer wordt beslist over de toewijzing van de subsidies?</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9899536371231079</v>
+        <v>0.9801459908485413</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01004636287689209</v>
+        <v>0.01985400915145874</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Zijn de soorten ongevallen dezelfde, of zijn er verschillen qua ongevallenstatistieken en ongevalsanalyses tussen de drie tramnetten?</t>
+          <t>Wat is de effectieve startdatum van de werken?</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9901795387268066</v>
+        <v>0.9812577962875366</v>
       </c>
       <c r="D95" t="n">
-        <v>0.009820461273193359</v>
+        <v>0.01874220371246338</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>d) Welke evolutie ziet de minister bij de bovenvermelde elementen bij de CVO’s in hun totaliteit?</t>
+          <t>Zo ja, welke plannen werden daarover al vastgelegd qua kosten, timing en dergelijke?</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9903199076652527</v>
+        <v>0.9812668561935425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.009680092334747314</v>
+        <v>0.01873314380645752</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Moesten er het afgelopen jaar CVO’s een beroep doen op het automatische genadejaar?</t>
+          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de instandhouding van haveninfrastructuur op de Schelde in het Antwerpse havengebied?</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9908022284507751</v>
+        <v>0.981300950050354</v>
       </c>
       <c r="D97" t="n">
-        <v>0.009197771549224854</v>
+        <v>0.018699049949646</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>a) Is er volgens de minister enige evolutie te merken bij de CVO’s in hun totaliteit?</t>
+          <t>Kan de minister ons de huidige stand van zaken bezorgen over de financiering van dat project, zowel beoogd als daadwerkelijk?</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9909577369689941</v>
+        <v>0.9815550446510315</v>
       </c>
       <c r="D98" t="n">
-        <v>0.009042263031005859</v>
+        <v>0.01844495534896851</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>In welke (bouw)fase bevinden ze zich momenteel?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9911154508590698</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D99" t="n">
-        <v>0.008884549140930176</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wat was de invloed van de invoering van het vierde jaar sinds academiejaar 2016-2017 binnen de professionele bachelor verpleegkunde op het aantal inschrijvingen?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9911496639251709</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D100" t="n">
-        <v>0.008850336074829102</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>d) Ziet de minister een impact van het nieuwe financieringsmechanisme op het aandeel cursisten zonder diploma secundair onderwijs of werkzoekenden bij de CVO’s?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9911558628082275</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D101" t="n">
-        <v>0.008844137191772461</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wat is de timing voor de werken, per locatie?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9911583065986633</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D102" t="n">
-        <v>0.00884169340133667</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Is er animo bij de minister om ook zo’n tarief in te voeren?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9912010431289673</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D103" t="n">
-        <v>0.008798956871032715</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wanneer zijn de militaire terreinen vrij en over welke terreinen gaat het juist?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9912472367286682</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D104" t="n">
-        <v>0.008752763271331787</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hoe verhouden de drie tramnetten zich tot elkaar wat het aantal ongevallen met trams betreft?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9913845062255859</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D105" t="n">
-        <v>0.008615493774414062</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hebben inmiddels alle sociale verhuurders hun sociale huurders gecontroleerd op de nieuwe verplichting?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.992073118686676</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D106" t="n">
-        <v>0.007926881313323975</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>i) Ziet de minister een evolutie bij één of meerdere van bovenvermelde elementen bij de CVO’s in hun totaliteit?</t>
+          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9921578168869019</v>
+        <v>0.9823930263519287</v>
       </c>
       <c r="D107" t="n">
-        <v>0.007842183113098145</v>
+        <v>0.01760697364807129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Voorzag het huidige investeringsprogramma (GIP) in 2023 in middelen voor voorbereidende werken, studies of uitvoeringen omtrent dit project?</t>
+          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zou worden?</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9925657510757446</v>
+        <v>0.9832215309143066</v>
       </c>
       <c r="D108" t="n">
-        <v>0.007434248924255371</v>
+        <v>0.01677846908569336</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Voorzag het huidige investeringsprogramma (GIP) in 2023 in middelen voor voorbereidende werken, studies of uitvoeringen omtrent dit project?</t>
+          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zou worden?</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9925657510757446</v>
+        <v>0.9832215309143066</v>
       </c>
       <c r="D109" t="n">
-        <v>0.007434248924255371</v>
+        <v>0.01677846908569336</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Nu het e-loket voorhanden is, kan de minister de cijfers bezorgen (procentueel/absoluut) van aanvragers van wie de aanvraag tot specifieke erkenning geweigerd, die zich inschrijven aan hogeronderwijsinstellingen om de tekortkomingen op vraag nr.</t>
+          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zou worden?</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9925711750984192</v>
+        <v>0.9832215309143066</v>
       </c>
       <c r="D110" t="n">
-        <v>0.007428824901580811</v>
+        <v>0.01677846908569336</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wie fraude pleegt, kan geen certificaat behalen enz.</t>
+          <t>Wanneer worden de resultaten verwacht?</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.992612361907959</v>
+        <v>0.9832388162612915</v>
       </c>
       <c r="D111" t="n">
-        <v>0.007387638092041016</v>
+        <v>0.0167611837387085</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Welk onderhoud heeft de uitvoering van een wegdek met de oppervlaktebehandeling NGCS nodig?</t>
+          <t>Wat zijn de meest voorkomende gezinssituaties van mantelzorgers?</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9931296706199646</v>
+        <v>0.9833620190620422</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0068703293800354</v>
+        <v>0.01663798093795776</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Wanneer zal een klachtencommissie het licht zien?</t>
+          <t>a) Hoe evalueert de minister de cijfers?</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9932863116264343</v>
+        <v>0.9842542409896851</v>
       </c>
       <c r="D113" t="n">
-        <v>0.006713688373565674</v>
+        <v>0.01574575901031494</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Welke haltes worden er amper gebruikt?</t>
+          <t>Kan een overzicht gegeven worden voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de instandhouding van haveninfrastructuur op de Schelde in het Antwerpse havengebied?</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.993306577205658</v>
+        <v>0.9845609664916992</v>
       </c>
       <c r="D114" t="n">
-        <v>0.006693422794342041</v>
+        <v>0.01543903350830078</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hoe verhoudt zich dat ten opzichte van het totaalaantal huurders?</t>
+          <t>- Hoe vaak voel je je onrustig, gestrest of geïrriteerd omdat je niet kunt gamen?</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9933494925498962</v>
+        <v>0.9849141240119934</v>
       </c>
       <c r="D115" t="n">
-        <v>0.00665050745010376</v>
+        <v>0.01508587598800659</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Wie daarentegen het elektronisch toezicht krijgt opgelegd als autonome straf, kan nog wel een leefloon krijgen.</t>
+          <t>Wat is voor de Poelaertplas en de Gaverplas de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9933537244796753</v>
+        <v>0.9851865172386169</v>
       </c>
       <c r="D116" t="n">
-        <v>0.006646275520324707</v>
+        <v>0.01481348276138306</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van de budgetten die deze legislatuur door de minister werden gereserveerd voor de implementatie van het masterplan toegankelijkheid?</t>
+          <t>Heeft de minister er zicht op of die problemen zich nog steeds voordoen? Zo ja:a) Is er zicht op de grootte van de problemen?</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9933579564094543</v>
+        <v>0.985842764377594</v>
       </c>
       <c r="D117" t="n">
-        <v>0.006642043590545654</v>
+        <v>0.01415723562240601</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wat is de huidige stand van zaken van het GRUP Lus van Henegouwen en wat is de uiterste datum waarop de Vlaamse Regering een beslissing in het dossier zal uitvaardigen?</t>
+          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zal worden?</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9937060475349426</v>
+        <v>0.9858755469322205</v>
       </c>
       <c r="D118" t="n">
-        <v>0.006293952465057373</v>
+        <v>0.01412445306777954</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Welke haltes worden het meest gebruikt?</t>
+          <t>Kan zij een overzicht geven van de verschillende types weggebruikers (fietsers, voetgangers, personenwagens, vrachtwagens enzovoort)?</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.993720531463623</v>
+        <v>0.986214816570282</v>
       </c>
       <c r="D119" t="n">
-        <v>0.006279468536376953</v>
+        <v>0.01378518342971802</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Welke resultaten gaven testen van het proefproject met betrekking tot belemmering van het zicht?</t>
+          <t>Is de studie al afgerond? Zo ja, wat zijn de resultaten en conclusies van de studie?</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9937512278556824</v>
+        <v>0.987017810344696</v>
       </c>
       <c r="D120" t="n">
-        <v>0.006248772144317627</v>
+        <v>0.01298218965530396</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de resultaten van de projectoproep?</t>
+          <t>Hoe evalueert de minister de situatie op de expresweg?</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.993787944316864</v>
+        <v>0.9872263073921204</v>
       </c>
       <c r="D121" t="n">
-        <v>0.006212055683135986</v>
+        <v>0.01277369260787964</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Zo niet, waarom niet? Zo ja, wat heeft dat intussen al opgeleverd?</t>
+          <t>Het aantal effectieve dossiers geeft weer hoeveel ontbindingen of uithuiszettingen voltrokken worden, onafhankelijk van de vraag of het vertrek vrijwillig of na een tussenkomst van de rechter gebeurd is.</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9938690066337585</v>
+        <v>0.987354576587677</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006130993366241455</v>
+        <v>0.012645423412323</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Zo niet, waarom niet? Zo ja, wat heeft dat intussen al opgeleverd?</t>
+          <t>Zijn de nodige onderdelen ondertussen geleverd?</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9938690066337585</v>
+        <v>0.9874075651168823</v>
       </c>
       <c r="D123" t="n">
-        <v>0.006130993366241455</v>
+        <v>0.01259243488311768</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Te Gek?!</t>
+          <t>Wat is de waarde van die gebouwen?</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9939219951629639</v>
+        <v>0.9877622127532959</v>
       </c>
       <c r="D124" t="n">
-        <v>0.006078004837036133</v>
+        <v>0.0122377872467041</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wat is de procedure wanneer de correcte gegevens niet binnen de 60 dagen doorkomen?</t>
+          <t>Wat is de waarde van die gebouwen?</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9940047860145569</v>
+        <v>0.9877622127532959</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005995213985443115</v>
+        <v>0.0122377872467041</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Is er meer selectiviteit nodig op basis van een integrale inschatting van de waarde van investeringen voor de transitie van de Vlaamse industrie naar een klimaatneutrale en circulaire toekomst ?</t>
+          <t>Op welke termijn zal de Vlaamse Vaccinatiekoepel een advies formuleren over de uitrol twee nieuwe RSV-vaccins die pas in het najaar en volgend jaar op de markt zullen komen?</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9945804476737976</v>
+        <v>0.9882274270057678</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005419552326202393</v>
+        <v>0.01177257299423218</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Kan de minister, in Excel, een overzicht geven van het aantal behandelde aanvragen door NARIC waarin geen beslissing genomen werd in de afgelopen vier jaar?</t>
+          <t>- Hoe vaak zeggen anderen (bijvoorbeeld vrienden of ouders) dat je minder zou moeten gamen?</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9946823716163635</v>
+        <v>0.9882414937019348</v>
       </c>
       <c r="D127" t="n">
-        <v>0.005317628383636475</v>
+        <v>0.01175850629806519</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sociale leningen  -  Aanvragen en toekenningenDe Vlaamse woonlening is een voordelig woonkrediet voor wie een bescheiden inkomen heeft en toch een eigen woning wil kopen in het Vlaamse Gewest.</t>
+          <t>Wanneer verwacht de minister dat alle onteigeningsdossiers afgerond zullen zijn?</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9947575330734253</v>
+        <v>0.9886114001274109</v>
       </c>
       <c r="D128" t="n">
-        <v>0.005242466926574707</v>
+        <v>0.01138859987258911</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Graag een overzicht:a) per halte;b) per gemeente en provincie;c) per vervoerregio;d) Wat is het plan van aanpak voor deze haltes langs gewestwegen die nog niet basistoegankelijk zijn?</t>
+          <t>Blijft het oorspronkelijk vastgestelde budget nog altijd gehandhaafd, zoals besproken in eerdere fasen van het project?</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9949074387550354</v>
+        <v>0.9887245297431946</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0050925612449646</v>
+        <v>0.01127547025680542</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Welke ritten worden amper gebruikt?</t>
+          <t>Hoe evalueert de minister het aantal consultaties van de handleiding?</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9950339794158936</v>
+        <v>0.9892400503158569</v>
       </c>
       <c r="D130" t="n">
-        <v>0.004966020584106445</v>
+        <v>0.01075994968414307</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Wat zijn de verdere timing en verloop van dit dossier?</t>
+          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor het grondbeheer in de Antwerpse haven?</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9950664043426514</v>
+        <v>0.9893538951873779</v>
       </c>
       <c r="D131" t="n">
-        <v>0.004933595657348633</v>
+        <v>0.01064610481262207</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Beschikt de minister over een overzicht van de ongebruikte tramsporen in de stad Gent? Zo ja, kan zij dat overzicht bezorgen?</t>
+          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zal worden?</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9950959086418152</v>
+        <v>0.9893781542778015</v>
       </c>
       <c r="D132" t="n">
-        <v>0.004904091358184814</v>
+        <v>0.01062184572219849</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Kan er een overzicht worden gegeven?</t>
+          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zal worden?</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9953008890151978</v>
+        <v>0.9893781542778015</v>
       </c>
       <c r="D133" t="n">
-        <v>0.004699110984802246</v>
+        <v>0.01062184572219849</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister het gemeentelijk zwerfkattenplan?</t>
+          <t>Wanneer zullen de resultaten en conclusies van de studie bekend zijn?</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9953784942626953</v>
+        <v>0.9893932342529297</v>
       </c>
       <c r="D134" t="n">
-        <v>0.004621505737304688</v>
+        <v>0.01060676574707031</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wat is de verdere timing en verloop van het dossier?</t>
+          <t>Voor welke slibverwerkingseenheid of -eenheden wordt de exploitatie hiermee voorzien?</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9954084753990173</v>
+        <v>0.9896495342254639</v>
       </c>
       <c r="D135" t="n">
-        <v>0.004591524600982666</v>
+        <v>0.01035046577453613</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>b) Heeft de minister zicht op de verhouding tussen het aantal leerlingen dat een Buzzy Pazz aankoopt en het aantal leerlingen dat zich naar een andere gemeente verplaatst in functie van onderwijs, in de gemeenten waar geen middelbare school is?</t>
+          <t>Op welke locaties moet slib verwerkt worden, van welke locaties is dit slib afkomstig en wat wordt met dit slib concreet gedaan?</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9954106211662292</v>
+        <v>0.9901610612869263</v>
       </c>
       <c r="D136" t="n">
-        <v>0.004589378833770752</v>
+        <v>0.00983893871307373</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hoe heeft de minister dat indexcijfer bepaald?</t>
+          <t>Indien het een budgettaire kwestie zou zijn hoe verklaart De Lijn dat ze per inwoner inwoners van de vervoerregio Limburg?</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9954292774200439</v>
+        <v>0.9902920126914978</v>
       </c>
       <c r="D137" t="n">
-        <v>0.004570722579956055</v>
+        <v>0.009707987308502197</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Wat waren de resultaten?</t>
+          <t>Waarom geldt voor statutairen de 60%-norm?</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9954360127449036</v>
+        <v>0.9905965328216553</v>
       </c>
       <c r="D138" t="n">
-        <v>0.004563987255096436</v>
+        <v>0.009403467178344727</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Welke trend(s) merkt de minister op?</t>
+          <t>Kan de minister een overzicht geven van alle Vlaamse evenementen met inbegrip van naam event, naam organisator, datum event, locatie, beknopte eventomschrijving en link met EU/overkoepelende EU-voorzitterschapsthema’s?</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.995448887348175</v>
+        <v>0.9906290173530579</v>
       </c>
       <c r="D139" t="n">
-        <v>0.004551112651824951</v>
+        <v>0.009370982646942139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Welke trend(s) merkt de minister op?</t>
+          <t>Wat is de mening van de minister betreffende de evolutie van het aantal gevallen van agressie naar medewerkers en mandatarissen van de lokale besturen in Vlaanderen?</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.995448887348175</v>
+        <v>0.9906623959541321</v>
       </c>
       <c r="D140" t="n">
-        <v>0.004551112651824951</v>
+        <v>0.00933760404586792</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Welke trend(s) merkt de minister op?</t>
+          <t>c) Zijn er bijzondere evoluties op te merken in vergelijking met voorgaande jaren?</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.995448887348175</v>
+        <v>0.9909219145774841</v>
       </c>
       <c r="D141" t="n">
-        <v>0.004551112651824951</v>
+        <v>0.009078085422515869</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Welke trend(s) merkt de minister op?</t>
+          <t>Met welke firma’s zijn er vandaag baggercontracten afgesloten en welke baggerwerken staan er deze legislatuur nog op til wat betreft de IJzer, alsook wat betreft de overige bevaarbare en niet-bevaarbare waterlopen in het IJzerbekken?</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.995448887348175</v>
+        <v>0.9912062287330627</v>
       </c>
       <c r="D142" t="n">
-        <v>0.004551112651824951</v>
+        <v>0.008793771266937256</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Tot eind september 2023 bleef het, begrijpe wie kan, ijzig stil rond het project.</t>
+          <t>Er wordt enkel geregistreerd hoeveel kabinetsmedewerkers uit dienst gaan.</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9955437779426575</v>
+        <v>0.9913586378097534</v>
       </c>
       <c r="D143" t="n">
-        <v>0.004456222057342529</v>
+        <v>0.008641362190246582</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>d) Hoe kijkt de minister naar de gespreide betaling van de busabonnementen voor zowel scholieren als studenten die een financiële korting genieten?</t>
+          <t>- Hoe vaak ga je gamen omdat je je rot voelt?</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9956843852996826</v>
+        <v>0.9913819432258606</v>
       </c>
       <c r="D144" t="n">
-        <v>0.004315614700317383</v>
+        <v>0.008618056774139404</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Graag een overzicht:a) per halte;b) per gemeente en provincie;c) per vervoerregio;d) Wat is het plan van aanpak voor die haltes langs gemeentewegen die nog niet basistoegankelijk zijn?</t>
+          <t>Voorziet de minister voor 2024 opnieuw in het reguliere toelagebedrag van 250.000 euro voor de VLIR, of zijn bijkomende middelen nodig?</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9957250356674194</v>
+        <v>0.9914538860321045</v>
       </c>
       <c r="D145" t="n">
-        <v>0.004274964332580566</v>
+        <v>0.008546113967895508</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we op basis van de antwoorden op bovenvermelde vragen?</t>
+          <t>Zijn die ondertussen klaar?</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9957295060157776</v>
+        <v>0.9915181994438171</v>
       </c>
       <c r="D146" t="n">
-        <v>0.004270493984222412</v>
+        <v>0.008481800556182861</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we op basis van de antwoorden op bovenvermelde vragen?</t>
+          <t>Wanneer worden de resultaten van de studie verwacht?</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9957295060157776</v>
+        <v>0.9916371703147888</v>
       </c>
       <c r="D147" t="n">
-        <v>0.004270493984222412</v>
+        <v>0.008362829685211182</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Hoe worden de aantallen van koolstofverliezen verwerkt in de compensatieverplichtingen?</t>
+          <t>Wanneer worden de resultaten van de studie verwacht?</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9959706664085388</v>
+        <v>0.9916371703147888</v>
       </c>
       <c r="D148" t="n">
-        <v>0.004029333591461182</v>
+        <v>0.008362829685211182</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Wat zijn de bevindingen op het vlak van de aanwezigheid van medicijn- en bestrijdingsmiddelenresten in het effluent van die RWZI’s, alsook in het drinkwater in de regio van die RWZI’s?</t>
+          <t>Kan de minister een overzicht geven van het type ongevallen?</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.996077835559845</v>
+        <v>0.9916592240333557</v>
       </c>
       <c r="D149" t="n">
-        <v>0.003922164440155029</v>
+        <v>0.008340775966644287</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>a) Zo ja, om welke uren gaat het?</t>
+          <t>Welke investeringen konden worden gepland met het budget van 598.000 euro dat in het GIP 2023 gereserveerd werd voor de Kallosluis?</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9960975050926208</v>
+        <v>0.991869330406189</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00390249490737915</v>
+        <v>0.008130669593811035</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Van de leerlingen die in het schooljaar 2022-2023 (met foto op 1 oktober 2022) het eerste leerjaar A of het eerste leerjaar B van het voltijds gewoon secundair onderwijs volgden, wordt in onderstaande tabel aangegeven hoeveel leerlingen het daaraan voorafgaande schooljaar 2021-2022 afsloten in het buitengewoon onderwijs.</t>
+          <t>Hoe evalueert de minister de cijfers van de verschillende leeftijdscategorieën?</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.996136486530304</v>
+        <v>0.9919309020042419</v>
       </c>
       <c r="D151" t="n">
-        <v>0.003863513469696045</v>
+        <v>0.008069097995758057</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Hoe belangrijk is Israël als landbouwhandelspartner voor Vlaanderen?</t>
+          <t>- Hoe vaak maak je je huiswerk snel en slordig af om te kunnen gamen?</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9962318539619446</v>
+        <v>0.992315411567688</v>
       </c>
       <c r="D152" t="n">
-        <v>0.00376814603805542</v>
+        <v>0.007684588432312012</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Wat denkt de minister van dat cijfer en hoe kan de minister ervoor zorgen dat er in eerste instantie meer correcte beslissingen worden genomen om tijdverlies te vermijden?</t>
+          <t>Kan de minister een overzicht geven van de volgende stappen in dit dossier (fasering, timing en planning)?</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9963135123252869</v>
+        <v>0.9928344488143921</v>
       </c>
       <c r="D153" t="n">
-        <v>0.003686487674713135</v>
+        <v>0.00716555118560791</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de verplichting van rookmelders?</t>
+          <t>Wat is het tracé van de nieuwe ontsluitingsweg naar de westelijke oever van het veer van Langerbrugge?</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9963935017585754</v>
+        <v>0.9928354620933533</v>
       </c>
       <c r="D154" t="n">
-        <v>0.003606498241424561</v>
+        <v>0.007164537906646729</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>a) Hebben er ondertussen nog verdere gesprekken plaatsgevonden? Zo ja, wanneer?</t>
+          <t>Wat is de verdere timing en planning van het project?</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9963967204093933</v>
+        <v>0.9930425882339478</v>
       </c>
       <c r="D155" t="n">
-        <v>0.003603279590606689</v>
+        <v>0.006957411766052246</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>a) Hebben er ondertussen nog verdere gesprekken plaatsgevonden? Zo ja, wanneer?</t>
+          <t>Kan de minister een overzicht geven van de volgende stappen in het dossier (fasering, timing en planning)?</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9963967204093933</v>
+        <v>0.9930700659751892</v>
       </c>
       <c r="D156" t="n">
-        <v>0.003603279590606689</v>
+        <v>0.006929934024810791</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Zijn de details ondertussen, een maand later, beschikbaar?</t>
+          <t>Kan de minister een overzicht geven van de volgende stappen in het dossier (fasering, timing en planning)?</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9964210987091064</v>
+        <v>0.9930700659751892</v>
       </c>
       <c r="D157" t="n">
-        <v>0.003578901290893555</v>
+        <v>0.006929934024810791</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Zijn de details ondertussen, een maand later, beschikbaar?</t>
+          <t>Kan de minister een overzicht geven van de volgende stappen in het dossier (fasering, timing en planning)?</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9964210987091064</v>
+        <v>0.9930700659751892</v>
       </c>
       <c r="D158" t="n">
-        <v>0.003578901290893555</v>
+        <v>0.006929934024810791</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van alle soorten landbouwproducten die vanuit Vlaanderen in deze legislatuur naar Israël geëxporteerd werden?</t>
+          <t>Hoe evalueert de minister de bestaande mechanismen?</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9964434504508972</v>
+        <v>0.9930906295776367</v>
       </c>
       <c r="D159" t="n">
-        <v>0.003556549549102783</v>
+        <v>0.006909370422363281</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Zijn de grondige renovatiewerken in 2020 en 2021 succesvol verlopen?</t>
+          <t>Wanneer wordt verwacht met het eenvoudigere financieringsmodel aan de slag te kunnen gaan?</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9964661598205566</v>
+        <v>0.9933648109436035</v>
       </c>
       <c r="D160" t="n">
-        <v>0.003533840179443359</v>
+        <v>0.006635189056396484</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Welk gevolg werd eraan gegeven door de ontwikkelaars?</t>
+          <t>Wat zijn de volgende stappen in de timing in het dossier?</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9964826107025146</v>
+        <v>0.9935466647148132</v>
       </c>
       <c r="D161" t="n">
-        <v>0.003517389297485352</v>
+        <v>0.006453335285186768</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>b) Kwam er nadien van de aanwezigen feedback over de infosessies? Zo ja, wat was die feedback?</t>
+          <t>Werkte het Agentschap Binnenlands Bestuur in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9966768026351929</v>
+        <v>0.9936453104019165</v>
       </c>
       <c r="D162" t="n">
-        <v>0.003323197364807129</v>
+        <v>0.006354689598083496</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Wanneer zal het afgelopen zijn en wanneer kan een evaluatie volgen?</t>
+          <t>Werkte het Agentschap Binnenlands Bestuur in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9966781139373779</v>
+        <v>0.9936453104019165</v>
       </c>
       <c r="D163" t="n">
-        <v>0.00332188606262207</v>
+        <v>0.006354689598083496</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Heeft de minister zicht op het aantal gemeenten dat een financiële tegemoetkoming voor de Buzzy Pazz aanbiedt?</t>
+          <t>Werkte het Agentschap Binnenlands Bestuur in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.996757447719574</v>
+        <v>0.9936453104019165</v>
       </c>
       <c r="D164" t="n">
-        <v>0.003242552280426025</v>
+        <v>0.006354689598083496</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Wie een beperking heeft of ouder is en slecht ter been, moet zich met het openbaar vervoer kunnen verplaatsen.</t>
+          <t>Welke investeringen konden worden gepland met het budget van 850.000 euro dat in het GIP 2023 gereserveerd werd voor de Boudewijn- en Van Cauwelaertsluis?</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9967740178108215</v>
+        <v>0.9936968684196472</v>
       </c>
       <c r="D165" t="n">
-        <v>0.003225982189178467</v>
+        <v>0.006303131580352783</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Verder gaf hij te kennen dat die parameters, voor het invoeren van het nieuwe Financieringsdecreet in 2019, niet geregistreerd werden in de databank a) Hoe komt het dat de minister slechts gegevens had van twee kalenderjaren?</t>
+          <t>Bracht het hijsen van de 230 ton zware brug met de grote kranen over de bomen langs de Ringvaart/R4 extra kosten met zich mee? Zo ja, wat is de extra kostprijs?</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9969130754470825</v>
+        <v>0.9938468337059021</v>
       </c>
       <c r="D166" t="n">
-        <v>0.00308692455291748</v>
+        <v>0.0061531662940979</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Wanneer zal het monitoringnetwerk effectief uitgerold worden?</t>
+          <t>Werkte het Agentschap Integratie en Inburgering in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9969193935394287</v>
+        <v>0.9939411878585815</v>
       </c>
       <c r="D167" t="n">
-        <v>0.003080606460571289</v>
+        <v>0.006058812141418457</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>a) Kan de minister een overzicht geven van de projecten die in deze legislatuur werden opgestart om de modal shift - vooral naar doelgroep Buzzy Pass-gebruikers - te bewerkstelligen?</t>
+          <t>Werkte het Agentschap Integratie en Inburgering in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9969196319580078</v>
+        <v>0.9939411878585815</v>
       </c>
       <c r="D168" t="n">
-        <v>0.003080368041992188</v>
+        <v>0.006058812141418457</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de sterk stijgende studentenaantallen in de graduaatsopleidingen en de nieuwe grieven omtrent hun beperkte financiering?</t>
+          <t>Werkte het Agentschap Integratie en Inburgering in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9969636797904968</v>
+        <v>0.9939411878585815</v>
       </c>
       <c r="D169" t="n">
-        <v>0.003036320209503174</v>
+        <v>0.006058812141418457</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Zijn er verdere resultaten en conclusies in het onderzoek?</t>
+          <t>Hoe evalueert de minister die cijfers (vraag 1 tot en met 6) van studenten die meerdere richtingen starten?</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9969878792762756</v>
+        <v>0.9939471483230591</v>
       </c>
       <c r="D170" t="n">
-        <v>0.003012120723724365</v>
+        <v>0.006052851676940918</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Overweegt de minister nieuwe sensibiliseringscampagnes te lanceren? Zo ja, wanneer?</t>
+          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen dit budget gebruikt zal worden?</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9970232844352722</v>
+        <v>0.9940289258956909</v>
       </c>
       <c r="D171" t="n">
-        <v>0.002976715564727783</v>
+        <v>0.005971074104309082</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Denkt de minister dat de proportie woningen met eigenaars-bewoners die niet aan de verplichting voldoen hoger of lager ligt dan de proportie op de huurmarkt?</t>
+          <t>Hoe evalueert de minister het systeem van lokale trajectcontroles?</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9970365762710571</v>
+        <v>0.9940621256828308</v>
       </c>
       <c r="D172" t="n">
-        <v>0.002963423728942871</v>
+        <v>0.005937874317169189</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wat zijn de vijf meest voorkomende vormen van dierenmishandeling?</t>
+          <t>Wanneer exact werd de studie aanbesteed voor de uitvoering van een technische ontwerpstudie van het gekozen tracé?</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9970685839653015</v>
+        <v>0.9942070245742798</v>
       </c>
       <c r="D173" t="n">
-        <v>0.002931416034698486</v>
+        <v>0.005792975425720215</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Personen aan wie elektronisch toezicht wordt opgelegd als modaliteit voor een gevangenisstraf moeten, net als personen aan wie het elektronisch toezicht wordt opgelegd als autonome straf, een bepaald uurrooster naleven.</t>
+          <t>Welke slibverwerkingseenheid of -eenheden worden hiermee gerealiseerd?</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9970911741256714</v>
+        <v>0.9942100048065186</v>
       </c>
       <c r="D174" t="n">
-        <v>0.002908825874328613</v>
+        <v>0.005789995193481445</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>De databank Hoger Onderwijs bevat geen informatie over het tijdstip waarop de lessen binnen het hoger onderwijs plaatsvinden, waardoor het niet mogelijk is om een inschatting te maken hoeveel studenten via avondonderwijs de opleiding verpleegkunde volgen.</t>
+          <t>Welke vooruitgang werd hier in 2023 geboekt?</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9971081614494324</v>
+        <v>0.9945011138916016</v>
       </c>
       <c r="D175" t="n">
-        <v>0.002891838550567627</v>
+        <v>0.005498886108398438</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Op welke diersoorten werden er in 2022 aan de KU Leuven proeven uitgevoerd?</t>
+          <t>Wat is voor de Prosperpolder de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9971100687980652</v>
+        <v>0.9945436716079712</v>
       </c>
       <c r="D176" t="n">
-        <v>0.002889931201934814</v>
+        <v>0.005456328392028809</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Nu is het namelijk zo dat het elk jaar rond eind augustus bang afwachten is hoeveel leerlingen zich in het buitengewoon onderwijs hebben ingeschreven om dan te hopen dat er voldoende budgetten zijn of dat men nog wat extra budgetten kan binnenrijven om de ergste situaties te verhelpen.</t>
+          <t>Welke maatregelen neemt de minister en welk budget zal ze volgend jaar daarvoor vrijmaken?</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9971135854721069</v>
+        <v>0.9945487380027771</v>
       </c>
       <c r="D177" t="n">
-        <v>0.002886414527893066</v>
+        <v>0.0054512619972229</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Hoever staat het project om zonnepanelen op de Beverentunnel te plaatsen momenteel?</t>
+          <t>Wordt er werk gemaakt van het doortrekken van het gelijke speelveld naar (emissievrije) vrachtwagens met een maximale laadcapaciteit van 44 ton, zodat ook deze emissievrije vrachtwagens tot 2 ton meer kunnen laden? Zo ja, kan de minister daar een timing en een stand van zaken van geven?</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9971233010292053</v>
+        <v>0.9945703148841858</v>
       </c>
       <c r="D178" t="n">
-        <v>0.002876698970794678</v>
+        <v>0.005429685115814209</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>van de Buzzy Pazz?</t>
+          <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2005-2006 tot en met 2022-2023 voor de opleidingen bio-industriële wetenschappen, biowetenschappen, industriële wetenschappen en bachelor engineering technology?</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9971477389335632</v>
+        <v>0.994576096534729</v>
       </c>
       <c r="D179" t="n">
-        <v>0.002852261066436768</v>
+        <v>0.005423903465270996</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van alle soorten landbouwproducten die vanuit Israël in deze legislatuur in Vlaanderen geïmporteerd werden?</t>
+          <t>Wat is de huidige stand van zaken in het proces voor een eenvoudiger financieringsmodel, met in het bijzonder de vergoeding voor variabele prestaties?</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9971477389335632</v>
+        <v>0.9946182370185852</v>
       </c>
       <c r="D180" t="n">
-        <v>0.002852261066436768</v>
+        <v>0.005381762981414795</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Hoe verhoudt dat aantal meldingen zich ten opzichte van andere meldingen over verkeersveiligheid van weggebruikers op de Antwerpse ring?</t>
+          <t>Over de starttoets - onderdeel wiskunde:a) Welke onderdelen worden en werden er getoetst bij de starttoets wiskunde?</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9971678853034973</v>
+        <v>0.9947975873947144</v>
       </c>
       <c r="D181" t="n">
-        <v>0.002832114696502686</v>
+        <v>0.005202412605285645</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Die regeling is van toepassing op wie een gevangenisstraf uitzit, maar ook op personen aan wie het elektronisch toezicht is toegekend als strafuitvoeringsmodaliteit van een gevangenisstraf of als modaliteit van een voorlopige hechtenis.</t>
+          <t>632 van 13 april 2021 gaf de minister a) Zijn er voor de voorbije academiejaren 2022-2023 en de opstart van het huidige academiejaar 2023-2024 al (voorlopige) effecten meetbaar? Zo ja, welke?</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9971729516983032</v>
+        <v>0.9948477745056152</v>
       </c>
       <c r="D182" t="n">
-        <v>0.002827048301696777</v>
+        <v>0.005152225494384766</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Het doel van dergelijk netwerk is alle aangeboden jongeren en hun context zich vooraf geen vragen moeten stellen over “waar” en “hoe” ze zich moeten aanmelden of “hoeveel dat kost”.</t>
+          <t>In het ontwerp GIP 2024 wordt onder nummer GIP003495/01: “Boudewijn- en Van Cauwelaertsluis” een budget van 360.000 euro gereserveerd Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zal worden?</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9971837401390076</v>
+        <v>0.9949026107788086</v>
       </c>
       <c r="D183" t="n">
-        <v>0.002816259860992432</v>
+        <v>0.005097389221191406</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de fusies die de afgelopen jaren gerealiseerd zijn in het volwassenenonderwijs?</t>
+          <t>Kan de minister een overzicht geven van de volgende stappen in het dossier: fasering, timing, planning en de verschillende processen?</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9971963167190552</v>
+        <v>0.9949420094490051</v>
       </c>
       <c r="D184" t="n">
-        <v>0.002803683280944824</v>
+        <v>0.005057990550994873</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>e) Wanneer zullen die haltes basistoegankelijk gemaakt worden?</t>
+          <t>Is de omgevingsvergunning al verleend? Zo ja, wanneer?</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9972411394119263</v>
+        <v>0.9951421022415161</v>
       </c>
       <c r="D185" t="n">
-        <v>0.00275886058807373</v>
+        <v>0.004857897758483887</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>e) Wanneer zullen die haltes basistoegankelijk gemaakt worden?</t>
+          <t>Vroeg u de voormalige renovatiepremie voor dakwerken tussen 7 mei 2022 en 30 juni 2022 (de dag na de bekendmaking van het besluit in het Belgisch Staatsblad)?</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9972411394119263</v>
+        <v>0.9953030347824097</v>
       </c>
       <c r="D186" t="n">
-        <v>0.00275886058807373</v>
+        <v>0.004696965217590332</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we?</t>
+          <t>b) Kan de minister de ligging van de staalnameplaatsen/meetplaatsen meedelen, een overzichtstabel van de totale vangsten weergeven en eventueel ook een tabel met de effectieve vangst per vissoort en per staalnameplaats?</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9972532391548157</v>
+        <v>0.9953244924545288</v>
       </c>
       <c r="D187" t="n">
-        <v>0.002746760845184326</v>
+        <v>0.004675507545471191</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we?</t>
+          <t>b) Kan de minister de ligging van de staalnameplaatsen/meetplaatsen meedelen, een overzichtstabel van de totale vangsten weergeven en eventueel ook een tabel met de effectieve vangst per vissoort en per staalnameplaats?</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9972532391548157</v>
+        <v>0.9953244924545288</v>
       </c>
       <c r="D188" t="n">
-        <v>0.002746760845184326</v>
+        <v>0.004675507545471191</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Wanneer?</t>
+          <t>b) Kan de minister de ligging van de staalnameplaatsen/meetplaatsen meedelen, een overzichtstabel van de totale vangsten weergeven en eventueel ook een tabel met de effectieve vangst per vissoort en per staalnameplaats?</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9972594976425171</v>
+        <v>0.9953244924545288</v>
       </c>
       <c r="D189" t="n">
-        <v>0.00274050235748291</v>
+        <v>0.004675507545471191</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Wanneer?</t>
+          <t>Hoe apprecieert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9972594976425171</v>
+        <v>0.995369017124176</v>
       </c>
       <c r="D190" t="n">
-        <v>0.00274050235748291</v>
+        <v>0.004630982875823975</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Wanneer?</t>
+          <t>b) Wanneer wordt een optimaal niveau van de waterkwaliteit verwacht?</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9972594976425171</v>
+        <v>0.995394229888916</v>
       </c>
       <c r="D191" t="n">
-        <v>0.00274050235748291</v>
+        <v>0.004605770111083984</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Wanneer?</t>
+          <t>b) Wanneer wordt een optimaal niveau van de waterkwaliteit verwacht?</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9972594976425171</v>
+        <v>0.995394229888916</v>
       </c>
       <c r="D192" t="n">
-        <v>0.00274050235748291</v>
+        <v>0.004605770111083984</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Wanneer?</t>
+          <t>b) Wanneer wordt een optimaal niveau van de waterkwaliteit verwacht?</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9972594976425171</v>
+        <v>0.995394229888916</v>
       </c>
       <c r="D193" t="n">
-        <v>0.00274050235748291</v>
+        <v>0.004605770111083984</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Wanneer?</t>
+          <t>Wanneer zullen de werken worden aangevat?</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9972594976425171</v>
+        <v>0.9954160451889038</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00274050235748291</v>
+        <v>0.004583954811096191</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Wanneer?</t>
+          <t>- In één melding kunnen meerdere mogelijkheden aangeduid worden- In sommige gevallen is het niet altijd duidelijk wie slachtoffer en of pleger is- In sommige gevallen gaat het om meerdere slachtoffers/plegersSinds augustus 2021 is er een nieuw meldformulier, dat meer kwaliteitsvolle data oplevert.</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9972594976425171</v>
+        <v>0.9954881072044373</v>
       </c>
       <c r="D195" t="n">
-        <v>0.00274050235748291</v>
+        <v>0.004511892795562744</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Wanneer?</t>
+          <t>Welke fasering en planning zal gehanteerd worden bij de aanpak van het kruispunt?</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9972594976425171</v>
+        <v>0.9955167174339294</v>
       </c>
       <c r="D196" t="n">
-        <v>0.00274050235748291</v>
+        <v>0.004483282566070557</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de handhavingsmaatregel van het ongeschikt verklaren van een woning?</t>
+          <t>Waarom krijgen enkel (emissievrije) vrachtwagens die aan bepaalde voordelen voldoen, zoals een drieassig trekkend en getrokken voertuig, een grotere maximale laadcapaciteit?</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9972797632217407</v>
+        <v>0.9955235719680786</v>
       </c>
       <c r="D197" t="n">
-        <v>0.002720236778259277</v>
+        <v>0.004476428031921387</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Heeft het Agentschap Wegen en Verkeer (AWV) metingen gedaan om eventueel objectief te kunnen aantonen dat het op en rond de Tiensepoort drukker geworden is? Zo ja, op welke plaatsen werden die metingen gedaan en wat bleek daar precies uit?</t>
+          <t>Wanneer zal de volgende en zevende oproep plaatsvinden?</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9972890615463257</v>
+        <v>0.9955644607543945</v>
       </c>
       <c r="D198" t="n">
-        <v>0.002710938453674316</v>
+        <v>0.004435539245605469</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Heeft de minister sedert de vorige bespreking van deze kwestie in de commissie van 11 mei nog overleg gepleegd met de VLHORA en/of meer concreet vertegenwoordigers termijn op die opleidingen?</t>
+          <t>Over de starttoets - onderdeel Nederlands:a) Welke onderdelen worden en werden er getoetst bij de starttoets Nederlands?</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9974721074104309</v>
+        <v>0.9956637024879456</v>
       </c>
       <c r="D199" t="n">
-        <v>0.002527892589569092</v>
+        <v>0.004336297512054443</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>f) Wanneer zullen die haltes toegankelijk gemaakt worden voor iedereen, dus voor elke toegankelijkheidsstatus?</t>
+          <t>b) Hoe evalueert de minister de starttoetsen tot nu toe?</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9974879026412964</v>
+        <v>0.9957541227340698</v>
       </c>
       <c r="D200" t="n">
-        <v>0.002512097358703613</v>
+        <v>0.004245877265930176</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>f) Wanneer zullen die haltes toegankelijk gemaakt worden voor iedereen, dus voor elke toegankelijkheidsstatus?</t>
+          <t>Heeft de minister in het bijzonder een aanvraag van het gemeentebestuur Schoten over de Schoten Vaart (of E10-plas) ontvangen?</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9974879026412964</v>
+        <v>0.9958392381668091</v>
       </c>
       <c r="D201" t="n">
-        <v>0.002512097358703613</v>
+        <v>0.004160761833190918</v>
       </c>
     </row>
   </sheetData>

--- a/Identifier/to_label.xlsx
+++ b/Identifier/to_label.xlsx
@@ -458,3201 +458,3201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Kallosluis?</t>
+          <t>Kan de minister een overzichtstabel van de commerciële snelheid van de tram- en buslijnen op dit moment bezorgen in dezelfde vorm als het antwoord op mijn bus- en tramlijn, tijdens de spits)?</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5882582664489746</v>
+        <v>0.5384010672569275</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4117417335510254</v>
+        <v>0.4615989327430725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Royerssluis?</t>
+          <t>Over welk totaalaanbod aan kampeermateriaal beschikt de ULDK momenteel?</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5903065204620361</v>
+        <v>0.6050562262535095</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4096934795379639</v>
+        <v>0.3949437737464905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Om welke redenen wordt dit eerst toegepast en vanaf wanneer wordt er beslist om een procedure tot uithuiszetting op te starten?</t>
+          <t>En gebeurt dat meer, minder of evenveel wanneer er wordt gesolliciteerd na voorstel van een bemiddelaar?</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5957940220832825</v>
+        <v>0.6206936836242676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4042059779167175</v>
+        <v>0.3793063163757324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ziet de minister bij de in deelvragen 7-8 bedoelde trajectstarters, positieve of negatieve evoluties?</t>
+          <t>Welke haltes worden het meest gebruikt?</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7255906462669373</v>
+        <v>0.6951528191566467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2744093537330627</v>
+        <v>0.3048471808433533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kwamen vanuit de lokale besturen al meldingen van een verhoogde spanning/meer problemen sinds de terroristische massaslachting van Hamas op 7 oktober 2023?</t>
+          <t>Welke haltes worden het meest gebruikt?</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7261225581169128</v>
+        <v>0.6951528191566467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2738774418830872</v>
+        <v>0.3048471808433533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kwamen vanuit de lokale besturen al meldingen van een verhoogde spanning/meer problemen sinds de terroristische massaslachting van Hamas op 7 oktober 2023?</t>
+          <t>Welke haltes worden het meest gebruikt?</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7261225581169128</v>
+        <v>0.6951528191566467</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2738774418830872</v>
+        <v>0.3048471808433533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kwamen vanuit de lokale besturen al meldingen van een verhoogde spanning/meer problemen sinds de terroristische massaslachting van Hamas op 7 oktober 2023?</t>
+          <t>Welke haltes worden het meest gebruikt?</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7261225581169128</v>
+        <v>0.6951528191566467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2738774418830872</v>
+        <v>0.3048471808433533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
+          <t>Wanneer denkt de Vlaamse Regering, de eerste kritische mijlpaal, het definitieve GRUP, te kunnen vaststellen?</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7467806339263916</v>
+        <v>0.7058936357498169</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2532193660736084</v>
+        <v>0.2941063642501831</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
+          <t>Heeft de minister zicht op enige timing van het decreet?</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7467806339263916</v>
+        <v>0.7313242554664612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2532193660736084</v>
+        <v>0.2686757445335388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
+          <t>Werden inmiddels nog nieuwe geloofsgemeenschappen erkend? Zo ja, welke en op welke datum?</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7467806339263916</v>
+        <v>0.7347829341888428</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2532193660736084</v>
+        <v>0.2652170658111572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
+          <t>Worden de baggerwerken met hetzelfde budget uitgevoerd?</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7467806339263916</v>
+        <v>0.7396329045295715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2532193660736084</v>
+        <v>0.2603670954704285</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
+          <t>Wanneer zal de Vlaamse Regering de definitieve vaststelling doen?</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7467806339263916</v>
+        <v>0.780096709728241</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2532193660736084</v>
+        <v>0.219903290271759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
+          <t>Kan de minister ook die cijfers verwerken in zijn antwoord?</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7467806339263916</v>
+        <v>0.7927873134613037</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2532193660736084</v>
+        <v>0.2072126865386963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
+          <t>Op welke datum zal de meetcampagne van De Lijn om de ‘asset health’ van de tramsporen in vervoerregio Antwerpen afgerond zijn?</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7467806339263916</v>
+        <v>0.7952580451965332</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2532193660736084</v>
+        <v>0.2047419548034668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wat is de planning tot de effectieve werken in dat scenario?</t>
+          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7534207701683044</v>
+        <v>0.7970938682556152</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2465792298316956</v>
+        <v>0.2029061317443848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Berendrecht- en Zandvlietsluis?</t>
+          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8097757697105408</v>
+        <v>0.7970938682556152</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1902242302894592</v>
+        <v>0.2029061317443848</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>b) Welk geluidsniveau is voor de minister aanvaardbaar?</t>
+          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8241244554519653</v>
+        <v>0.7970938682556152</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1758755445480347</v>
+        <v>0.2029061317443848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wanneer hebben DVW en de diensten van de minister contact opgenomen met het Brugse stadsbestuur?</t>
+          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8254289031028748</v>
+        <v>0.7970938682556152</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1745710968971252</v>
+        <v>0.2029061317443848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Welke investeringen in het ontwerp GIP 2024 worden specifiek gereserveerd om het goederenvervoer van de weg naar het spoor te doen evolueren?</t>
+          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8325734734535217</v>
+        <v>0.7970938682556152</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1674265265464783</v>
+        <v>0.2029061317443848</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wanneer denkt de minister de eerste resultaten te krijgen van de verscherpte taalmaatregel, namelijk dat sociale huurders nu bijna één jaar aan taalniveau A2 moeten voldoen?</t>
+          <t>Welke evolutie onderging het aanbod het afgelopen jaar?</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.835089385509491</v>
+        <v>0.8078072071075439</v>
       </c>
       <c r="D21" t="n">
-        <v>0.164910614490509</v>
+        <v>0.1921927928924561</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Is er een streefdoel om tegen een bepaald jaar een bepaald percentage van kruispunten toegankelijk te maken? Zo ja, welk streefdoel is dat?</t>
+          <t>Wanneer volgen nog inspraakmomenten voor de buurt waarop meegedacht kan worden en reacties gegeven kunnen worden?</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8357807993888855</v>
+        <v>0.8259468078613281</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1642192006111145</v>
+        <v>0.1740531921386719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wat is voor de plas Hazewinkel de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
+          <t>Op welke nieuwe timing wordt gemikt voor de realisatie van de picknickplek in Zwevegem?</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8659244179725647</v>
+        <v>0.8424273133277893</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1340755820274353</v>
+        <v>0.1575726866722107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2005-2006, 2006-2007, 2007-2008, 2008-2009, 2009-2010, 2010-2011; 2011-2012, 2012-2013, 2013-2014, 2014-2015, 2015-2016, 2016-2017, 2017-2018, 2018-2019, 2019-2020, 2020-2021, 2021-2022 en 2022-2023 voor de opleiding diergeneeskunde?</t>
+          <t>Welke evolutie ziet de minister daarin?</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.867526650428772</v>
+        <v>0.8497001528739929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132473349571228</v>
+        <v>0.1502998471260071</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kan er een overzicht gegeven worden van alle steunaanvragen van de afgelopen jaren die de Vlaamse overheid heeft ontvangen voor de Brexit Adjustment Reserve (BAR) nu de aanvragen afgerond zijn?</t>
+          <t>Welke evolutie ziet de minister daarin?</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8770909309387207</v>
+        <v>0.8497001528739929</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1229090690612793</v>
+        <v>0.1502998471260071</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Welke gebouwen heeft De Lijn in eigendom die niet meer in gebruik zijn en sinds wanneer zijn die niet meer in gebruik?</t>
+          <t>Welke evolutie ziet de minister daarin?</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.884540855884552</v>
+        <v>0.8497001528739929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.115459144115448</v>
+        <v>0.1502998471260071</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Heeft de minister een beeld van de intensiteit van de studies bij de oudere studenten?</t>
+          <t>In onderstaande tabellen is weergeven hoeveel keer er sollicitatiefeedback is gegeven.</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8868915438652039</v>
+        <v>0.8501775860786438</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1131084561347961</v>
+        <v>0.1498224139213562</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>In het ontwerp GIP 2024 wordt onder nummer GIP003510/01: “Kallosluis” een budget Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zal worden?</t>
+          <t>Welke evolutie zien we?</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8914620280265808</v>
+        <v>0.8523243069648743</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1085379719734192</v>
+        <v>0.1476756930351257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wanneer vond het laatste overleg plaats met het gemeentebestuur van Beernem?</t>
+          <t>Welke evolutie zien we?</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.901080310344696</v>
+        <v>0.8523243069648743</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09891968965530396</v>
+        <v>0.1476756930351257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>e) Wat is volgens de minister het effect van de verplichte starttoets op het aantal inschrijvingen in vergelijking met de laatste drie academiejaren voor de invoering?</t>
+          <t>Welke evolutie zien we?</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.905438244342804</v>
+        <v>0.8523243069648743</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09456175565719604</v>
+        <v>0.1476756930351257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Wat is de verdere timing van de onteigeningen?</t>
+          <t>Welke evolutie zien we?</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9071404337882996</v>
+        <v>0.8523243069648743</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09285956621170044</v>
+        <v>0.1476756930351257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Welke opdrachten en vergoedingen vallen er onder?</t>
+          <t>Werden er bijkomende investeringen binnengehaald of nieuwe partnerschappen afgesloten?</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9103837609291077</v>
+        <v>0.8540660738945007</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08961623907089233</v>
+        <v>0.1459339261054993</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ziet de minister een evolutie in vergelijking met dezelfde gegevens van vorig jaar? Zo ja, hoe verklaart hij die?</t>
+          <t>Wanneer zullen ze verlaten kunnen worden?</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9110502600669861</v>
+        <v>0.8709856867790222</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08894973993301392</v>
+        <v>0.1290143132209778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hoe hoog is de nood tot extra ondersteuning voor onze Vlaamse bedrijven volgens de minister?</t>
+          <t>Is er sprake van een blijvende stijgende lijn in het aantal klachten over dat onderwerp?</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9136707782745361</v>
+        <v>0.8942252397537231</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08632922172546387</v>
+        <v>0.1057747602462769</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Is het budget op het ontwerp GIP 2024 voorzien voor hetzelfde project, of is dit een nieuwe investering?</t>
+          <t>In welke bijkomende middelen, middelenverschuiving, personeelsinzet en/of beleidskeuzes voorziet VDAB om de sociale huurders naar werk te begeleiden?</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9241819977760315</v>
+        <v>0.894990086555481</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07581800222396851</v>
+        <v>0.105009913444519</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>b) Naar welke landen ging het leeuwendeel van dat geld?</t>
+          <t>a) In welk deel van die gevallen werd de werkzoekende daarna aangeworven?</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9279946684837341</v>
+        <v>0.9025012850761414</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07200533151626587</v>
+        <v>0.09749871492385864</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Boudewijn- en Van Cauwelaertsluis?</t>
+          <t>Welke plannen zijn er met het vooropgestelde fietsbudget van 300.000 euro, waarvoor en wanneer zal dat budget gebruikt worden?</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9293157458305359</v>
+        <v>0.9095795154571533</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07068425416946411</v>
+        <v>0.09042048454284668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen of cofinancieringen dit budget gebruikt zal worden?</t>
+          <t>Welke evolutie is er?</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9300076961517334</v>
+        <v>0.911430835723877</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0699923038482666</v>
+        <v>0.08856916427612305</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende fases van de werken voor de herbouw van de Meulestedebrug, met per fase een omschrijving van de werken en de timing?</t>
+          <t>Welke evolutie is er?</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.937175452709198</v>
+        <v>0.911430835723877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.062824547290802</v>
+        <v>0.08856916427612305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>Welke evolutie is er?</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.911430835723877</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.08856916427612305</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>Welke evolutie is er?</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.911430835723877</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.08856916427612305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>b) Wat waren de behaalde kijkcijfers op de verschillende mediadragers?</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.9209908843040466</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.07900911569595337</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>Wat is het groeipad naar volledig toegankelijke premetrostations op het Antwerpse premetronet?</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.9220922589302063</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.0779077410697937</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>Kan de minister een overzicht bezorgen van het presentiegeld dat in 2022 werd uitbetaald aan gemeenteraadsleden?</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.9275526404380798</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.07244735956192017</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>Kan de minister een overzicht geven van de oppervlakte tijdelijk grasland, blijvend grasland en meerjarig grasland dat geregistreerd werd in de perceelsregistratie tijdens de periode 2020-2023?</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.92778080701828</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.07221919298171997</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>Is het de laatste schijf van de financiering voor dat project?</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.9348506331443787</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.06514936685562134</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>Welke compensaties en onteigeningen konden worden uitgevoerd met het budget van 7.024.000 euro dat op het GIP 2023 gereserveerd werd?</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.9349147081375122</v>
       </c>
       <c r="D47" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.06508529186248779</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kan de minister - opgesplitst per kabinet - het totaalaantal kabinetsmedewerkers dat deze legislatuur werd aangeworven, opsommen?</t>
+          <t>Wat is de timing voor het vervolg van het project?</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9422717094421387</v>
+        <v>0.9459191560745239</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05772829055786133</v>
+        <v>0.05408084392547607</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers?</t>
+          <t>a) Kan de minister de meest recente versie van de lijst met doorstromingsknelpunten voor de vervoerregio Antwerpen bezorgen?</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9441023468971252</v>
+        <v>0.9538542032241821</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05589765310287476</v>
+        <v>0.04614579677581787</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Zijn de volgende documenten: opmaak bestek, dossier omgevingsvergunning en grondverwerving van het inrichtingsproject, al beschikbaar? Zo ja, kan de minister ze bezorgen?</t>
+          <t>Kan van die roltrappen een werkzaamheidsgraad berekend worden?</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9491526484489441</v>
+        <v>0.9545509219169617</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05084735155105591</v>
+        <v>0.04544907808303833</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Wanneer zullen zij dit dossier agenderen?</t>
+          <t>Kan de minister toelichting geven bij de beschikbare capaciteit voor de opvang van asielzoekers gedurende de voorbije maanden in Vlaamse jeugdverblijven?</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9495179057121277</v>
+        <v>0.9565433859825134</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05048209428787231</v>
+        <v>0.04345661401748657</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>- Hoe vaak vind je het moeilijk om met gamen te stoppen?</t>
+          <t>Kan van die liften een werkzaamheidsgraad berekend worden?</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9503614902496338</v>
+        <v>0.9601953029632568</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04963850975036621</v>
+        <v>0.03980469703674316</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>d) Zijn er tijdens de verschillende afvissingsperiodes (merkwaardige) nieuwe vissoorten waargenomen en zo ja, welke vissoorten?</t>
+          <t>d) Hoe is die oppervlakte geëvolueerd in de periode 2019 tot op heden?</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9522285461425781</v>
+        <v>0.9602252840995789</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04777145385742188</v>
+        <v>0.03977471590042114</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>d) Zijn er tijdens de verschillende afvissingsperiodes (merkwaardige) nieuwe vissoorten waargenomen en zo ja, welke vissoorten?</t>
+          <t>Wanneer zal er duidelijkheid komen in het dossier van het Liedtskasteel?</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9522285461425781</v>
+        <v>0.9637421369552612</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04777145385742188</v>
+        <v>0.03625786304473877</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>d) Zijn er tijdens de verschillende afvissingsperiodes (merkwaardige) nieuwe vissoorten waargenomen en zo ja, welke vissoorten?</t>
+          <t>Hoe evolueerde de (structurele en niet-structurele) leegstand tijdens het afgelopen jaar in vergelijking met vorig jaar?</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9522285461425781</v>
+        <v>0.9659050107002258</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04777145385742188</v>
+        <v>0.03409498929977417</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende fases van de renovatie van de Beverentunnel, met vermelding van de timing en het budget?</t>
+          <t>Kan de ministers de cijfers opdelen naar de verschillende types die worden aangeboden in het buitengewoon kleuteronderwijs?</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9526218771934509</v>
+        <v>0.9666619300842285</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04737812280654907</v>
+        <v>0.03333806991577148</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Waarom zijn die bedragen ook niet opgenomen in het ontwerp GIP 2024 of het doorkijk GIP 2025 of het doorkijk GIP 2026?</t>
+          <t>Kan de minister een overzicht bezorgen van de aanvullende financiële ondersteuning (fractiebudgetten, fractiepersoneel, vormingsbudgetten…) die in 2022 werd uitbetaald?</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9531804919242859</v>
+        <v>0.9674186706542969</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04681950807571411</v>
+        <v>0.03258132934570312</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de belangrijkste personeels- en werkingskosten van de VLIR in 2022 in het kader van de bovenvermelde beheersovereenkomst?</t>
+          <t>d) Wanneer worden de onderzoeksresultaten verwacht?</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9597851037979126</v>
+        <v>0.9682264924049377</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0402148962020874</v>
+        <v>0.03177350759506226</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de actie?</t>
+          <t>Kan de minister meedelen hoeveel lokale besturen de toolbox ondertussen hebben geraadpleegd?</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9609419107437134</v>
+        <v>0.9691939353942871</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03905808925628662</v>
+        <v>0.03080606460571289</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Welke investering wordt met dit budget gepland?</t>
+          <t>a) Tegen wanneer worden de functionele en de financiële verantwoording verwacht bij het Departement Landbouw en Visserij?</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.962899386882782</v>
+        <v>0.9693521857261658</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03710061311721802</v>
+        <v>0.03064781427383423</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Welke investering wordt met dit budget gepland?</t>
+          <t>Hoe vaak heeft Opgroeien, in een juridisch geschil met een voorziening, de medewerking van het VECK gevraagd om een dossier te onderzoeken?</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.962899386882782</v>
+        <v>0.9697578549385071</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03710061311721802</v>
+        <v>0.03024214506149292</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Welke investering wordt met dit budget gepland?</t>
+          <t>Kon de initiële timing voor de drie andere picknickspots tot nu toe wel worden aangehouden?</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.962899386882782</v>
+        <v>0.9711390733718872</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03710061311721802</v>
+        <v>0.02886092662811279</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Zijn die ondertussen afgerond? Zo ja, wat zijn de resultaten van de studies?</t>
+          <t>Bijkomend wordt vastgesteld dat naar schatting slechts 12,5 à 25% van wie in aanmerking komt voor de opleidingscheque, die ook effectief aanvraagt.</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9662876725196838</v>
+        <v>0.9730193614959717</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03371232748031616</v>
+        <v>0.02698063850402832</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>In welke mate is er momenteel signalisatie aanwezig om de zichtbaarheid ter plaatse te garanderen?</t>
+          <t>Hoe zal het budget evolueren in 2024 en 2025?</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9690107703208923</v>
+        <v>0.9759340286254883</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03098922967910767</v>
+        <v>0.02406597137451172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b) Is 9 miljoen euro voldoende om alle in aanmerking komende aanvragen te subsidiëren?</t>
+          <t>Uit de gegevens die de lokale besturen aan de Vlaamse overheid bezorgen over hun meerjarenplannen en jaarrekeningen kan niet worden afgeleid hoeveel gronden de openbare centra voor maatschappelijk welzijn de voorbije 10 jaar verkocht hebben.</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9692451953887939</v>
+        <v>0.9763619303703308</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03075480461120605</v>
+        <v>0.02363806962966919</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Verwacht de minister een toename van het aantal personen, ouder dan 25 jaar, die een nieuwe opleiding hoger onderwijs zullen starten?</t>
+          <t>Kan een overzicht worden gegeven welke concrete onteigeningen ermee werden voorzien?</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9692464470863342</v>
+        <v>0.9777547717094421</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03075355291366577</v>
+        <v>0.02224522829055786</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Binnen welk budget wordt de financiering van 850.000 euro voor de bouw van deze brug opgenomen?</t>
+          <t>Welke budgettaire inspanning zou dat vereisen?</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9706863164901733</v>
+        <v>0.9790701866149902</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02931368350982666</v>
+        <v>0.02092981338500977</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Overweegt de minister om de vervoersgarantie uit te breiden tot jongeren die te maken hebben met een langdurige pleegzorgsituatie? Zo ja, welke initiatieven zal de minister nemen om het te realiseren en wat is de verdere timing?</t>
+          <t>Wie neemt de kosten op het moment op zich?</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9708240628242493</v>
+        <v>0.9792103171348572</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02917593717575073</v>
+        <v>0.02078968286514282</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>a) Welke vooruitgang wordt de komende jaren verwacht?</t>
+          <t>Wie neemt de kosten op het moment op zich?</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9708542823791504</v>
+        <v>0.9792103171348572</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02914571762084961</v>
+        <v>0.02078968286514282</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>a) Welke vooruitgang wordt de komende jaren verwacht?</t>
+          <t>Welke concrete investeringen zullen met dit budget uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9708542823791504</v>
+        <v>0.981196403503418</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02914571762084961</v>
+        <v>0.01880359649658203</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>a) Welke vooruitgang wordt de komende jaren verwacht?</t>
+          <t>Welke concrete investeringen zullen met dit budget uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9708542823791504</v>
+        <v>0.981196403503418</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02914571762084961</v>
+        <v>0.01880359649658203</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kadert het budget binnen de vervanging van de Boudewijnbrug?</t>
+          <t>Welke concrete investeringen zullen met dit budget uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9725944995880127</v>
+        <v>0.981196403503418</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0274055004119873</v>
+        <v>0.01880359649658203</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2012-2013, 2013-2014, 2014-2015, 2015-2016, 2016-2017, 2017-2018, 2018-2019, 2019-2020, 2020-2021, 2021-2022 en 2022-2023 voor de opleidingen burgerlijk ingenieur en burgerlijk ingenieur-architect?</t>
+          <t>Wanneer zullen de draaiboeken worden gefinaliseerd?</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9748924374580383</v>
+        <v>0.9827443957328796</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02510756254196167</v>
+        <v>0.01725560426712036</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zou worden?</t>
+          <t>Voor welke periode is de opdracht aanbesteed?</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9753026962280273</v>
+        <v>0.9853116273880005</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02469730377197266</v>
+        <v>0.01468837261199951</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zou worden?</t>
+          <t>Zijn er nog andere relevante verschillen in kostprijs, bijvoorbeeld naargelang het migratiemotief of de thuistaal?</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9753026962280273</v>
+        <v>0.9862638711929321</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02469730377197266</v>
+        <v>0.01373612880706787</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zou worden?</t>
+          <t>Wanneer zal het implementatieplan gefinaliseerd zijn?</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9753026962280273</v>
+        <v>0.9870398640632629</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02469730377197266</v>
+        <v>0.01296013593673706</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de natuurdoelstellingen van de Antwerpse haven?</t>
+          <t>De buffercapaciteit van een spaarbekken is afhankelijk van de totale oppervlakte ervan en hoeveel het waterpeil omhoog en omlaag kan variëren in het bekken.</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9768524169921875</v>
+        <v>0.988086462020874</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0231475830078125</v>
+        <v>0.01191353797912598</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister het aantal aanvragen?</t>
+          <t>Wie neemt de kosten op dit moment op zich?</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9770417809486389</v>
+        <v>0.988148033618927</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02295821905136108</v>
+        <v>0.011851966381073</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Zijn de betonblokken bij nacht voldoende zichtbaar?</t>
+          <t>Wie neemt de kosten op dit moment op zich?</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9772486686706543</v>
+        <v>0.988148033618927</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0227513313293457</v>
+        <v>0.011851966381073</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die evolutie?</t>
+          <t>Welke verschillen zijn er tussen de gevraagde vreemde talen voor de verschillende sectoren in 2023?</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9776178002357483</v>
+        <v>0.9896050691604614</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02238219976425171</v>
+        <v>0.01039493083953857</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die evolutie?</t>
+          <t>Kan de minister alle verslagen bezorgen van de bijeenkomsten die tot nu toe plaatsvonden?</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9776178002357483</v>
+        <v>0.9902328252792358</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02238219976425171</v>
+        <v>0.00976717472076416</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die evolutie?</t>
+          <t>De Lijn  -  Ritduur sneldienst 180 Hasselt-LommelGraag had ik volgende gegevens verkregen van sneldienst 180 Hasselt-Lommel:a) Wat is de theoretische ritduur van die sneldienst?</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9776178002357483</v>
+        <v>0.9904236197471619</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02238219976425171</v>
+        <v>0.009576380252838135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kan de minister ook een opsplitseng maken per categorie van ernstige of blijvende tekortkoming aan huurdersverplichtingen?</t>
+          <t>Onderstaande tabellen bieden wel een zicht op hoeveel sollicitatieopdrachten er gemiddeld zijn gegeven per vacature.</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9784881472587585</v>
+        <v>0.9913279414176941</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02151185274124146</v>
+        <v>0.008672058582305908</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Heeft de minister, haar kabinet of administratie al eerder gelijkaardige meldingen ontvangen over de zichtbaarheid op de expresweg in Oud-Heverlee?</t>
+          <t>Welke werken konden worden uitgevoerd worden met het budget van 3.629.000 euro dat op het GIP 2023 gereserveerd werd voor het flankerend beleid binnen Oosterweel?</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9795020222663879</v>
+        <v>0.99224853515625</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02049797773361206</v>
+        <v>0.00775146484375</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>Kan meer uitleg over de benutting en timing van de investering worden gegeven?</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9922524094581604</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.0077475905418396</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>Kan meer uitleg over de benutting en timing van de investering worden gegeven?</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9922524094581604</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.0077475905418396</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>Op welke termijn zou daar werk van gemaakt kunnen worden?</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9926470518112183</v>
       </c>
       <c r="D87" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.007352948188781738</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>Wat is de uitstroom uit de IBO naar tewerkstelling bij de onderneming waarmee een IBO-contract werd gesloten?</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9926965236663818</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.007303476333618164</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>Welke evolutie kan er worden onderkend sinds 2020 (coronajaar waarin het aantal controles ernstig daalde) inzake de controles?</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9928144812583923</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.007185518741607666</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>b) En/of zien we een (al dan niet duurzame) uitstroom naar werk?</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9933112859725952</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.006688714027404785</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>Kan de minister de uitstroom uit werkloosheid en uitstroom naar werk in een vergelijkingspercentage stellen voor zowel VDAB als zijn externe actoren en dat voor de eerste zes maanden van 2023?</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9935970306396484</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.006402969360351562</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>d) Is de verhouding van het aantal (al dan niet kinderloze) alleenstaanden een stijging of daling ten opzichte van de vorige jaren?</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9936044812202454</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.006395518779754639</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die samenwerking?</t>
+          <t>Kan de minister een overzicht geven van alle Minder Mobielen Centrales in Vlaanderen?</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9795998334884644</v>
+        <v>0.9936586022377014</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02040016651153564</v>
+        <v>0.006341397762298584</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wanneer wordt beslist over de toewijzing van de subsidies?</t>
+          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9801459908485413</v>
+        <v>0.9936969876289368</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01985400915145874</v>
+        <v>0.006303012371063232</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wat is de effectieve startdatum van de werken?</t>
+          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9812577962875366</v>
+        <v>0.9936969876289368</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01874220371246338</v>
+        <v>0.006303012371063232</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Zo ja, welke plannen werden daarover al vastgelegd qua kosten, timing en dergelijke?</t>
+          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9812668561935425</v>
+        <v>0.9936969876289368</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01873314380645752</v>
+        <v>0.006303012371063232</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de instandhouding van haveninfrastructuur op de Schelde in het Antwerpse havengebied?</t>
+          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.981300950050354</v>
+        <v>0.9936969876289368</v>
       </c>
       <c r="D97" t="n">
-        <v>0.018699049949646</v>
+        <v>0.006303012371063232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kan de minister ons de huidige stand van zaken bezorgen over de financiering van dat project, zowel beoogd als daadwerkelijk?</t>
+          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9815550446510315</v>
+        <v>0.9936969876289368</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01844495534896851</v>
+        <v>0.006303012371063232</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>We meten het bereik (wie heeft de campagne gezien), de appreciatie en het effect (zien we verschil ten opzichte van de voormeting in de belangrijkste gedragsfactoren).</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.9939117431640625</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.0060882568359375</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>Welke werken konden worden uitgevoerd met het budget van 7.875.000 euro dat op het GIP 2023 gereserveerd werd voor het flankerend beleid binnen Oosterweel?</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.994027853012085</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.005972146987915039</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>Welke nieuwe timing hanteert de minister voor publicatie en gunning van het onderzoek?</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.9940616488456726</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.005938351154327393</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>Kan de minister de uitstroom uit werkloosheid en uitstroom naar werk in een vergelijkingspercentage stellen voor zowel VDAB als zijn externe actoren en dat voor 2022?</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.9943991303443909</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.005600869655609131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>Zullen de cijfers in de toekomst ontsloten worden in de dataloep?</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.9945003986358643</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.005499601364135742</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>Zijn alle haltes waar ritten werden geschrapt, uitgerust met correcte reizigersinformatie met betrekking tot de aangepaste dienstregeling?</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.9945498108863831</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.005450189113616943</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>Indien ze niet allemaal konden gebeuren, graag een opdeling van hoeveel wel en hoeveel nog niet, opgedeeld per provincie.</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.9947553873062134</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.005244612693786621</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>Wanneer kan vervolgens overgegaan worden tot project-MER, de technische uitwerking van de voorkeursoplossing, grondinnames, het verkrijgen van een omgevingsvergunning?</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.9950237274169922</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.004976272583007812</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+          <t>Kan de minister een stand van zaken geven qua timing?</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9823930263519287</v>
+        <v>0.9951863884925842</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01760697364807129</v>
+        <v>0.004813611507415771</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zou worden?</t>
+          <t>Wat bepaalt de termijnen?</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9832215309143066</v>
+        <v>0.9952076077461243</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01677846908569336</v>
+        <v>0.004792392253875732</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zou worden?</t>
+          <t>a) Kan de minister een overzicht geven van het aantal reizigers per jaar?</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9832215309143066</v>
+        <v>0.9952543973922729</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01677846908569336</v>
+        <v>0.004745602607727051</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zou worden?</t>
+          <t>a) Kan de minister een overzicht geven van het aantal reizigers per jaar?</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9832215309143066</v>
+        <v>0.9952543973922729</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01677846908569336</v>
+        <v>0.004745602607727051</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wanneer worden de resultaten verwacht?</t>
+          <t>a) Kan de minister een overzicht geven van het aantal reizigers per jaar?</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9832388162612915</v>
+        <v>0.9952543973922729</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0167611837387085</v>
+        <v>0.004745602607727051</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Wat zijn de meest voorkomende gezinssituaties van mantelzorgers?</t>
+          <t>c) Kan de minister een overzicht van het aantal reizigers per dag?</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9833620190620422</v>
+        <v>0.9953409433364868</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01663798093795776</v>
+        <v>0.004659056663513184</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>a) Hoe evalueert de minister de cijfers?</t>
+          <t>c) Kan de minister een overzicht van het aantal reizigers per dag?</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9842542409896851</v>
+        <v>0.9953409433364868</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01574575901031494</v>
+        <v>0.004659056663513184</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kan een overzicht gegeven worden voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de instandhouding van haveninfrastructuur op de Schelde in het Antwerpse havengebied?</t>
+          <t>c) Kan de minister een overzicht van het aantal reizigers per dag?</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9845609664916992</v>
+        <v>0.9953409433364868</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01543903350830078</v>
+        <v>0.004659056663513184</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>- Hoe vaak voel je je onrustig, gestrest of geïrriteerd omdat je niet kunt gamen?</t>
+          <t>c) Kan de minister een overzicht van het aantal reizigers per dag?</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9849141240119934</v>
+        <v>0.9953409433364868</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01508587598800659</v>
+        <v>0.004659056663513184</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Wat is voor de Poelaertplas en de Gaverplas de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
+          <t>b) Kan de minister een overzicht geven van het aantal reizigers per maand?</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9851865172386169</v>
+        <v>0.9954249262809753</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01481348276138306</v>
+        <v>0.004575073719024658</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Heeft de minister er zicht op of die problemen zich nog steeds voordoen? Zo ja:a) Is er zicht op de grootte van de problemen?</t>
+          <t>b) Kan de minister een overzicht geven van het aantal reizigers per maand?</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.985842764377594</v>
+        <v>0.9954249262809753</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01415723562240601</v>
+        <v>0.004575073719024658</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zal worden?</t>
+          <t>b) Kan de minister een overzicht geven van het aantal reizigers per maand?</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9858755469322205</v>
+        <v>0.9954249262809753</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01412445306777954</v>
+        <v>0.004575073719024658</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kan zij een overzicht geven van de verschillende types weggebruikers (fietsers, voetgangers, personenwagens, vrachtwagens enzovoort)?</t>
+          <t>b) Kan de minister een overzicht geven van het aantal reizigers per maand?</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.986214816570282</v>
+        <v>0.9954249262809753</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01378518342971802</v>
+        <v>0.004575073719024658</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Is de studie al afgerond? Zo ja, wat zijn de resultaten en conclusies van de studie?</t>
+          <t>Kan de minister een overzicht geven van het totaalbudget?</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.987017810344696</v>
+        <v>0.9954415559768677</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01298218965530396</v>
+        <v>0.004558444023132324</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de situatie op de expresweg?</t>
+          <t>d) Kan de minister een overzicht geven van het aantal reizigers per rit?</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9872263073921204</v>
+        <v>0.9955154061317444</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01277369260787964</v>
+        <v>0.004484593868255615</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Het aantal effectieve dossiers geeft weer hoeveel ontbindingen of uithuiszettingen voltrokken worden, onafhankelijk van de vraag of het vertrek vrijwillig of na een tussenkomst van de rechter gebeurd is.</t>
+          <t>d) Kan de minister een overzicht geven van het aantal reizigers per rit?</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.987354576587677</v>
+        <v>0.9955154061317444</v>
       </c>
       <c r="D122" t="n">
-        <v>0.012645423412323</v>
+        <v>0.004484593868255615</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Zijn de nodige onderdelen ondertussen geleverd?</t>
+          <t>d) Kan de minister een overzicht geven van het aantal reizigers per rit?</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9874075651168823</v>
+        <v>0.9955154061317444</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01259243488311768</v>
+        <v>0.004484593868255615</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wat is de waarde van die gebouwen?</t>
+          <t>d) Kan de minister een overzicht geven van het aantal reizigers per rit?</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9877622127532959</v>
+        <v>0.9955154061317444</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0122377872467041</v>
+        <v>0.004484593868255615</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wat is de waarde van die gebouwen?</t>
+          <t>a) Kan de minister een overzicht geven per agentschap?</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9877622127532959</v>
+        <v>0.9955378770828247</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0122377872467041</v>
+        <v>0.004462122917175293</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Op welke termijn zal de Vlaamse Vaccinatiekoepel een advies formuleren over de uitrol twee nieuwe RSV-vaccins die pas in het najaar en volgend jaar op de markt zullen komen?</t>
+          <t>a) Wanneer is die sneldienst 184 ontstaan?</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9882274270057678</v>
+        <v>0.9955456256866455</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01177257299423218</v>
+        <v>0.004454374313354492</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>- Hoe vaak zeggen anderen (bijvoorbeeld vrienden of ouders) dat je minder zou moeten gamen?</t>
+          <t>Welke ritten zijn het drukst?</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9882414937019348</v>
+        <v>0.9956560134887695</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01175850629806519</v>
+        <v>0.004343986511230469</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Wanneer verwacht de minister dat alle onteigeningsdossiers afgerond zullen zijn?</t>
+          <t>Welke ritten zijn het drukst?</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9886114001274109</v>
+        <v>0.9956560134887695</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01138859987258911</v>
+        <v>0.004343986511230469</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Blijft het oorspronkelijk vastgestelde budget nog altijd gehandhaafd, zoals besproken in eerdere fasen van het project?</t>
+          <t>Welke ritten zijn het drukst?</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9887245297431946</v>
+        <v>0.9956560134887695</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01127547025680542</v>
+        <v>0.004343986511230469</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister het aantal consultaties van de handleiding?</t>
+          <t>Welke ritten zijn het drukst?</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9892400503158569</v>
+        <v>0.9956560134887695</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01075994968414307</v>
+        <v>0.004343986511230469</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor het grondbeheer in de Antwerpse haven?</t>
+          <t>Wat is de timing voor de heraanleg van de sporen voor tram 11?</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9893538951873779</v>
+        <v>0.9957345128059387</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01064610481262207</v>
+        <v>0.004265487194061279</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zal worden?</t>
+          <t>Wat leren de cijfers de minister?</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9893781542778015</v>
+        <v>0.9958497285842896</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01062184572219849</v>
+        <v>0.004150271415710449</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zal worden?</t>
+          <t>Zijn er vervolgopleidingen?</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9893781542778015</v>
+        <v>0.9959008097648621</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01062184572219849</v>
+        <v>0.004099190235137939</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Wanneer zullen de resultaten en conclusies van de studie bekend zijn?</t>
+          <t>Kan de minister een overzicht geven van het aantal partners die sedert de inwerkingtreding van het nieuwe wettelijke kader al lid zijn geworden van het netwerk ‘Iedereen verdient vakantie’ en het charter ‘Iedereen verdient vakantie’ hebben ondertekend?</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9893932342529297</v>
+        <v>0.9959214925765991</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01060676574707031</v>
+        <v>0.004078507423400879</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Voor welke slibverwerkingseenheid of -eenheden wordt de exploitatie hiermee voorzien?</t>
+          <t>Hoe verhoudt het aantal goedgekeurde cultuurgerelateerde aanvragen zich tot andere sectoren?</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9896495342254639</v>
+        <v>0.9959778189659119</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01035046577453613</v>
+        <v>0.004022181034088135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Op welke locaties moet slib verwerkt worden, van welke locaties is dit slib afkomstig en wat wordt met dit slib concreet gedaan?</t>
+          <t>Kan de minister informatie bezorgen over het aantal andere betrokken partners (sportclubs, -federaties enz.) die gebruik hebben gemaakt van de toolbox?</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9901610612869263</v>
+        <v>0.9959989786148071</v>
       </c>
       <c r="D136" t="n">
-        <v>0.00983893871307373</v>
+        <v>0.004001021385192871</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Indien het een budgettaire kwestie zou zijn hoe verklaart De Lijn dat ze per inwoner inwoners van de vervoerregio Limburg?</t>
+          <t>Kan dat enkel digitaal of wordt er ook in een fysiek label voorzien?</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9902920126914978</v>
+        <v>0.9960103034973145</v>
       </c>
       <c r="D137" t="n">
-        <v>0.009707987308502197</v>
+        <v>0.003989696502685547</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Waarom geldt voor statutairen de 60%-norm?</t>
+          <t>c) Kan de minister daarnaast ook een overzicht geven van het aantal nieuwe subprojecten?</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9905965328216553</v>
+        <v>0.9960403442382812</v>
       </c>
       <c r="D138" t="n">
-        <v>0.009403467178344727</v>
+        <v>0.00395965576171875</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van alle Vlaamse evenementen met inbegrip van naam event, naam organisator, datum event, locatie, beknopte eventomschrijving en link met EU/overkoepelende EU-voorzitterschapsthema’s?</t>
+          <t>b) Kan de minister de meest recente lijst van doorstromingsprojecten bezorgen voor de vervoerregio Antwerpen?</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9906290173530579</v>
+        <v>0.9960426092147827</v>
       </c>
       <c r="D139" t="n">
-        <v>0.009370982646942139</v>
+        <v>0.003957390785217285</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Wat is de mening van de minister betreffende de evolutie van het aantal gevallen van agressie naar medewerkers en mandatarissen van de lokale besturen in Vlaanderen?</t>
+          <t>Kan de minister een overzicht geven van het aantal partners die sedert de inwerkingtreding van het nieuwe wettelijke kader lid zijn geworden van het netwerk Iedereen Verdient Vakantie en het charter Iedereen Verdient Vakantie hebben ondertekend?</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9906623959541321</v>
+        <v>0.9960857629776001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00933760404586792</v>
+        <v>0.003914237022399902</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>c) Zijn er bijzondere evoluties op te merken in vergelijking met voorgaande jaren?</t>
+          <t>Wat is het derde fusiecompromis waarvan sprake?</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9909219145774841</v>
+        <v>0.9961223006248474</v>
       </c>
       <c r="D141" t="n">
-        <v>0.009078085422515869</v>
+        <v>0.003877699375152588</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Met welke firma’s zijn er vandaag baggercontracten afgesloten en welke baggerwerken staan er deze legislatuur nog op til wat betreft de IJzer, alsook wat betreft de overige bevaarbare en niet-bevaarbare waterlopen in het IJzerbekken?</t>
+          <t>a) Wanneer is de sneldienst 183 ontstaan?</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9912062287330627</v>
+        <v>0.9961460828781128</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008793771266937256</v>
+        <v>0.003853917121887207</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Er wordt enkel geregistreerd hoeveel kabinetsmedewerkers uit dienst gaan.</t>
+          <t>Het aantal reizigers:a) Kan de minister een overzicht geven van het aantal reizigers per jaar?</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9913586378097534</v>
+        <v>0.9961559176445007</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008641362190246582</v>
+        <v>0.003844082355499268</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>- Hoe vaak ga je gamen omdat je je rot voelt?</t>
+          <t>a) Wanneer is die sneldienst 182 ontstaan?</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9913819432258606</v>
+        <v>0.9961787462234497</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008618056774139404</v>
+        <v>0.003821253776550293</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Voorziet de minister voor 2024 opnieuw in het reguliere toelagebedrag van 250.000 euro voor de VLIR, of zijn bijkomende middelen nodig?</t>
+          <t>Zijn er gesprekken met de gemeente rond de herbestemming van de site en in welke investeringen moet daarvoor voorzien worden?</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9914538860321045</v>
+        <v>0.9961833357810974</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008546113967895508</v>
+        <v>0.003816664218902588</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Zijn die ondertussen klaar?</t>
+          <t>Welke timing wordt er aangehouden?</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9915181994438171</v>
+        <v>0.9961915016174316</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008481800556182861</v>
+        <v>0.003808498382568359</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Wanneer worden de resultaten van de studie verwacht?</t>
+          <t>Kan de minister die chronologisch weergeven?</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9916371703147888</v>
+        <v>0.9961923360824585</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008362829685211182</v>
+        <v>0.003807663917541504</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Wanneer worden de resultaten van de studie verwacht?</t>
+          <t>Hoe verhoudt het aantal goedgekeurde toerismegerelateerde aanvragen zich tot andere sectoren?</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9916371703147888</v>
+        <v>0.9962050318717957</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008362829685211182</v>
+        <v>0.003794968128204346</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het type ongevallen?</t>
+          <t>Op de website https://gemeente-stadsmonitor.vlaanderen.be/gemeente kan afgelezen worden hoeveel inwoners een gemeente heeft.</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9916592240333557</v>
+        <v>0.9962117671966553</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008340775966644287</v>
+        <v>0.003788232803344727</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Welke investeringen konden worden gepland met het budget van 598.000 euro dat in het GIP 2023 gereserveerd werd voor de Kallosluis?</t>
+          <t>Kan de minister die cijfers ter beschikking stellen voor de laatste 5 schooljaren?</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.991869330406189</v>
+        <v>0.9963024854660034</v>
       </c>
       <c r="D150" t="n">
-        <v>0.008130669593811035</v>
+        <v>0.003697514533996582</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de cijfers van de verschillende leeftijdscategorieën?</t>
+          <t>b) Kan de minister een overzicht geven per agentschap?</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9919309020042419</v>
+        <v>0.9963066577911377</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008069097995758057</v>
+        <v>0.003693342208862305</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>- Hoe vaak maak je je huiswerk snel en slordig af om te kunnen gamen?</t>
+          <t>Welke werken konden worden uitgevoerd met het budget van 8.050.000 euro dat op het GIP 2023 gereserveerd werd voor de voorbereideinde werken binnen Oosterweel?</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.992315411567688</v>
+        <v>0.9963793158531189</v>
       </c>
       <c r="D152" t="n">
-        <v>0.007684588432312012</v>
+        <v>0.003620684146881104</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende stappen in dit dossier (fasering, timing en planning)?</t>
+          <t>Welke bedrijven gebruiken de IBO’s het meest?</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9928344488143921</v>
+        <v>0.9963866472244263</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00716555118560791</v>
+        <v>0.00361335277557373</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Wat is het tracé van de nieuwe ontsluitingsweg naar de westelijke oever van het veer van Langerbrugge?</t>
+          <t>Kan de minister toelichten wat moet, mag en zeker niet mag gebeuren met de bestuursdocumenten aanwezig op het kabinet of in het bezit van een minister, hetzij wanneer een minister niet langer bevoegd is voor het beleidsdomein, hetzij wanneer het kabinet wordt ontbonden?</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9928354620933533</v>
+        <v>0.9964535236358643</v>
       </c>
       <c r="D154" t="n">
-        <v>0.007164537906646729</v>
+        <v>0.003546476364135742</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Wat is de verdere timing en planning van het project?</t>
+          <t>Moet een kandidaat-rijschooldirecteur eveneens een schriftelijk en mondeling examen afleggen, en al drie jaar een brevet als theorie- en praktijkinstructeur hebben?</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9930425882339478</v>
+        <v>0.9964593052864075</v>
       </c>
       <c r="D155" t="n">
-        <v>0.006957411766052246</v>
+        <v>0.003540694713592529</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende stappen in het dossier (fasering, timing en planning)?</t>
+          <t>Wat is de timing voor deze werken?</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9930700659751892</v>
+        <v>0.9964917302131653</v>
       </c>
       <c r="D156" t="n">
-        <v>0.006929934024810791</v>
+        <v>0.003508269786834717</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende stappen in het dossier (fasering, timing en planning)?</t>
+          <t>b) Wat zijn de (voorlopige) conclusies en verdere timing voor een eventuele vertaling in een wetgevend kader?</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9930700659751892</v>
+        <v>0.9965412020683289</v>
       </c>
       <c r="D157" t="n">
-        <v>0.006929934024810791</v>
+        <v>0.003458797931671143</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende stappen in het dossier (fasering, timing en planning)?</t>
+          <t>Ziet het ernaaruit dat de volledige gereserveerde som van 4 miljoen euro zal worden gebruikt?</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9930700659751892</v>
+        <v>0.996593177318573</v>
       </c>
       <c r="D158" t="n">
-        <v>0.006929934024810791</v>
+        <v>0.003406822681427002</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister de bestaande mechanismen?</t>
+          <t>Hoeveel van de gecontroleerde ongevallen sinds 2014 vonden plaats in het kader van uitzendarbeid?</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9930906295776367</v>
+        <v>0.9965984225273132</v>
       </c>
       <c r="D159" t="n">
-        <v>0.006909370422363281</v>
+        <v>0.003401577472686768</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Wanneer wordt verwacht met het eenvoudigere financieringsmodel aan de slag te kunnen gaan?</t>
+          <t>Wat is de timing van het verdere proces van het RUP?</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9933648109436035</v>
+        <v>0.9966166615486145</v>
       </c>
       <c r="D160" t="n">
-        <v>0.006635189056396484</v>
+        <v>0.003383338451385498</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Wat zijn de volgende stappen in de timing in het dossier?</t>
+          <t>Op welke wijze kwam die schatting tot stand en op basis van welke data wordt dat getal gehanteerd?</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9935466647148132</v>
+        <v>0.9966167807579041</v>
       </c>
       <c r="D161" t="n">
-        <v>0.006453335285186768</v>
+        <v>0.003383219242095947</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Werkte het Agentschap Binnenlands Bestuur in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
+          <t>Kan de ministers de cijfers opdelen naar onderwijsniveau (buitengewoon kleuteronderwijs, buitengewoon lager onderwijs en buitengewoon secundair onderwijs)?</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9936453104019165</v>
+        <v>0.9966281056404114</v>
       </c>
       <c r="D162" t="n">
-        <v>0.006354689598083496</v>
+        <v>0.003371894359588623</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Werkte het Agentschap Binnenlands Bestuur in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
+          <t>a) Heeft de minister zicht op het aantal alleenstaanden die zich geen of te weinig dienstencheques kunnen permitteren hoewel ze die wel kunnen gebruiken en wensen?</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9936453104019165</v>
+        <v>0.9966310858726501</v>
       </c>
       <c r="D163" t="n">
-        <v>0.006354689598083496</v>
+        <v>0.003368914127349854</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Werkte het Agentschap Binnenlands Bestuur in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
+          <t>f) Is die sneldienst winstgevend of verlieslatend?</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9936453104019165</v>
+        <v>0.9966673254966736</v>
       </c>
       <c r="D164" t="n">
-        <v>0.006354689598083496</v>
+        <v>0.003332674503326416</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Welke investeringen konden worden gepland met het budget van 850.000 euro dat in het GIP 2023 gereserveerd werd voor de Boudewijn- en Van Cauwelaertsluis?</t>
+          <t>f) Is die sneldienst winstgevend of verlieslatend?</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9936968684196472</v>
+        <v>0.9966673254966736</v>
       </c>
       <c r="D165" t="n">
-        <v>0.006303131580352783</v>
+        <v>0.003332674503326416</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Bracht het hijsen van de 230 ton zware brug met de grote kranen over de bomen langs de Ringvaart/R4 extra kosten met zich mee? Zo ja, wat is de extra kostprijs?</t>
+          <t>Welke ambities en intenties zijn er nog om dit complex project op te starten?</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9938468337059021</v>
+        <v>0.9966754913330078</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0061531662940979</v>
+        <v>0.003324508666992188</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Werkte het Agentschap Integratie en Inburgering in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
+          <t>Kan per station van de Antwerpse premetro een overzicht gegeven worden van het aantal roltrappen?</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9939411878585815</v>
+        <v>0.9966757297515869</v>
       </c>
       <c r="D167" t="n">
-        <v>0.006058812141418457</v>
+        <v>0.003324270248413086</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Werkte het Agentschap Integratie en Inburgering in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
+          <t>Zijn er werken in het Permekemuseum die vergunningsplichtig zijn?</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9939411878585815</v>
+        <v>0.9966782331466675</v>
       </c>
       <c r="D168" t="n">
-        <v>0.006058812141418457</v>
+        <v>0.00332176685333252</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Werkte het Agentschap Integratie en Inburgering in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
+          <t>Kan de minister een overzicht geven van de volgende fases van de werken voor  de fietstunnel  Raverschootstraat, met vermelding van de timing en het budget per fase?</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9939411878585815</v>
+        <v>0.9967092275619507</v>
       </c>
       <c r="D169" t="n">
-        <v>0.006058812141418457</v>
+        <v>0.003290772438049316</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister die cijfers (vraag 1 tot en met 6) van studenten die meerdere richtingen starten?</t>
+          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de aanleg en de studiewerken voor het Haventracé en het complex De Nieuwe Rand?</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9939471483230591</v>
+        <v>0.9967883825302124</v>
       </c>
       <c r="D170" t="n">
-        <v>0.006052851676940918</v>
+        <v>0.003211617469787598</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Kan er een overzicht worden gegeven voor welke concrete investeringen dit budget gebruikt zal worden?</t>
+          <t>Zo niet, welk bedrag dreigt onbenut te blijven en wat zijn daarvan de redenen?</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9940289258956909</v>
+        <v>0.9968191385269165</v>
       </c>
       <c r="D171" t="n">
-        <v>0.005971074104309082</v>
+        <v>0.003180861473083496</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hoe evalueert de minister het systeem van lokale trajectcontroles?</t>
+          <t>In haar antwoord stelde de minister het volgende: “Indien de rijschool geen enkele vorm van verbetering toont, kan overgegaan worden tot intrekking van de erkenning.” Na hoeveel negatieve vaststellingen of na verloop van hoeveel tijd wordt er dan effectief tot intrekking van de erkenning overgegaan?</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9940621256828308</v>
+        <v>0.9968414306640625</v>
       </c>
       <c r="D172" t="n">
-        <v>0.005937874317169189</v>
+        <v>0.0031585693359375</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wanneer exact werd de studie aanbesteed voor de uitvoering van een technische ontwerpstudie van het gekozen tracé?</t>
+          <t>Kan per station van de Antwerpse premetro een overzicht gegeven worden van het aantal liften?</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9942070245742798</v>
+        <v>0.9968530535697937</v>
       </c>
       <c r="D173" t="n">
-        <v>0.005792975425720215</v>
+        <v>0.003146946430206299</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Welke slibverwerkingseenheid of -eenheden worden hiermee gerealiseerd?</t>
+          <t>Welke ritten worden amper gebruikt?</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9942100048065186</v>
+        <v>0.9969090819358826</v>
       </c>
       <c r="D174" t="n">
-        <v>0.005789995193481445</v>
+        <v>0.003090918064117432</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Welke vooruitgang werd hier in 2023 geboekt?</t>
+          <t>Welke ritten worden amper gebruikt?</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9945011138916016</v>
+        <v>0.9969090819358826</v>
       </c>
       <c r="D175" t="n">
-        <v>0.005498886108398438</v>
+        <v>0.003090918064117432</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wat is voor de Prosperpolder de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
+          <t>Welke ritten worden amper gebruikt?</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9945436716079712</v>
+        <v>0.9969090819358826</v>
       </c>
       <c r="D176" t="n">
-        <v>0.005456328392028809</v>
+        <v>0.003090918064117432</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Welke maatregelen neemt de minister en welk budget zal ze volgend jaar daarvoor vrijmaken?</t>
+          <t>Welke ritten worden amper gebruikt?</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9945487380027771</v>
+        <v>0.9969090819358826</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0054512619972229</v>
+        <v>0.003090918064117432</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wordt er werk gemaakt van het doortrekken van het gelijke speelveld naar (emissievrije) vrachtwagens met een maximale laadcapaciteit van 44 ton, zodat ook deze emissievrije vrachtwagens tot 2 ton meer kunnen laden? Zo ja, kan de minister daar een timing en een stand van zaken van geven?</t>
+          <t>Is de neerwaartse trend nog steeds actueel?</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9945703148841858</v>
+        <v>0.9969224333763123</v>
       </c>
       <c r="D178" t="n">
-        <v>0.005429685115814209</v>
+        <v>0.003077566623687744</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2005-2006 tot en met 2022-2023 voor de opleidingen bio-industriële wetenschappen, biowetenschappen, industriële wetenschappen en bachelor engineering technology?</t>
+          <t>d) Kan de minister een overzicht geven van het aantal opstappers per halte en per rit?</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0.994576096534729</v>
+        <v>0.9969251751899719</v>
       </c>
       <c r="D179" t="n">
-        <v>0.005423903465270996</v>
+        <v>0.003074824810028076</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Wat is de huidige stand van zaken in het proces voor een eenvoudiger financieringsmodel, met in het bijzonder de vergoeding voor variabele prestaties?</t>
+          <t>d) Kan de minister een overzicht geven van het aantal opstappers per halte en per rit?</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9946182370185852</v>
+        <v>0.9969251751899719</v>
       </c>
       <c r="D180" t="n">
-        <v>0.005381762981414795</v>
+        <v>0.003074824810028076</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Over de starttoets - onderdeel wiskunde:a) Welke onderdelen worden en werden er getoetst bij de starttoets wiskunde?</t>
+          <t>d) Kan de minister een overzicht geven van het aantal opstappers per halte en per rit?</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9947975873947144</v>
+        <v>0.9969251751899719</v>
       </c>
       <c r="D181" t="n">
-        <v>0.005202412605285645</v>
+        <v>0.003074824810028076</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>632 van 13 april 2021 gaf de minister a) Zijn er voor de voorbije academiejaren 2022-2023 en de opstart van het huidige academiejaar 2023-2024 al (voorlopige) effecten meetbaar? Zo ja, welke?</t>
+          <t>d) Kan de minister een overzicht geven van het aantal opstappers per halte en per rit?</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9948477745056152</v>
+        <v>0.9969251751899719</v>
       </c>
       <c r="D182" t="n">
-        <v>0.005152225494384766</v>
+        <v>0.003074824810028076</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>In het ontwerp GIP 2024 wordt onder nummer GIP003495/01: “Boudewijn- en Van Cauwelaertsluis” een budget van 360.000 euro gereserveerd Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zal worden?</t>
+          <t>a) Kan de minister de cijfers van de koolstofopslag van blijvend grasland voor de periode 2014-2023 bezorgen?</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9949026107788086</v>
+        <v>0.9969350099563599</v>
       </c>
       <c r="D183" t="n">
-        <v>0.005097389221191406</v>
+        <v>0.003064990043640137</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende stappen in het dossier: fasering, timing, planning en de verschillende processen?</t>
+          <t>Kan de minister aangeven hoeveel leerlingen in het buitengewoon onderwijs aantikken op de indicatoren (1) Gezinstaal (thuistaal niet-Nederlands), (2) Opleidingsniveau van de moeder (laag opleidingsniveau moeder), (3) Schooltoeslag/schooltoelage en (4) Buurt met een hoge mate van schoolse vertraging?</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9949420094490051</v>
+        <v>0.9969511032104492</v>
       </c>
       <c r="D184" t="n">
-        <v>0.005057990550994873</v>
+        <v>0.003048896789550781</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Is de omgevingsvergunning al verleend? Zo ja, wanneer?</t>
+          <t>Wat is de timing voor de werken?</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9951421022415161</v>
+        <v>0.9969651103019714</v>
       </c>
       <c r="D185" t="n">
-        <v>0.004857897758483887</v>
+        <v>0.003034889698028564</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vroeg u de voormalige renovatiepremie voor dakwerken tussen 7 mei 2022 en 30 juni 2022 (de dag na de bekendmaking van het besluit in het Belgisch Staatsblad)?</t>
+          <t>Met andere woorden, over hoeveel inburgeraars ging het?</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9953030347824097</v>
+        <v>0.9970037341117859</v>
       </c>
       <c r="D186" t="n">
-        <v>0.004696965217590332</v>
+        <v>0.002996265888214111</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>b) Kan de minister de ligging van de staalnameplaatsen/meetplaatsen meedelen, een overzichtstabel van de totale vangsten weergeven en eventueel ook een tabel met de effectieve vangst per vissoort en per staalnameplaats?</t>
+          <t>Welk percentage van het ledennetwerk maakt al gebruik van het label?</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9953244924545288</v>
+        <v>0.9970593452453613</v>
       </c>
       <c r="D187" t="n">
-        <v>0.004675507545471191</v>
+        <v>0.002940654754638672</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>b) Kan de minister de ligging van de staalnameplaatsen/meetplaatsen meedelen, een overzichtstabel van de totale vangsten weergeven en eventueel ook een tabel met de effectieve vangst per vissoort en per staalnameplaats?</t>
+          <t>In hoeveel gevallen werden er herhaaldelijk negatieve vaststellingen gedaan?</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9953244924545288</v>
+        <v>0.9970610737800598</v>
       </c>
       <c r="D188" t="n">
-        <v>0.004675507545471191</v>
+        <v>0.002938926219940186</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>b) Kan de minister de ligging van de staalnameplaatsen/meetplaatsen meedelen, een overzichtstabel van de totale vangsten weergeven en eventueel ook een tabel met de effectieve vangst per vissoort en per staalnameplaats?</t>
+          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor zeehavenoverschrijdend grondbeheer, landinrichting, afbraakwerken en terreinherstel?</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9953244924545288</v>
+        <v>0.9970705509185791</v>
       </c>
       <c r="D189" t="n">
-        <v>0.004675507545471191</v>
+        <v>0.002929449081420898</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Hoe apprecieert de minister die cijfers?</t>
+          <t>Wanneer zullen de onteigeningen voltooid zijn?</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0.995369017124176</v>
+        <v>0.9970813393592834</v>
       </c>
       <c r="D190" t="n">
-        <v>0.004630982875823975</v>
+        <v>0.002918660640716553</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>b) Wanneer wordt een optimaal niveau van de waterkwaliteit verwacht?</t>
+          <t>Kan ze daarnaast een overzicht geven van de huidige timing en planning van het project?</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0.995394229888916</v>
+        <v>0.9970943927764893</v>
       </c>
       <c r="D191" t="n">
-        <v>0.004605770111083984</v>
+        <v>0.002905607223510742</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>b) Wanneer wordt een optimaal niveau van de waterkwaliteit verwacht?</t>
+          <t>In hoeveel gevallen heeft Opgroeien het advies van het VECK gevolgd?</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0.995394229888916</v>
+        <v>0.9971006512641907</v>
       </c>
       <c r="D192" t="n">
-        <v>0.004605770111083984</v>
+        <v>0.002899348735809326</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>b) Wanneer wordt een optimaal niveau van de waterkwaliteit verwacht?</t>
+          <t>c) Wat is de actuele oppervlakte die vandaag in Vlaanderen valt onder volkstuinen en volksparken?</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0.995394229888916</v>
+        <v>0.9971256852149963</v>
       </c>
       <c r="D193" t="n">
-        <v>0.004605770111083984</v>
+        <v>0.002874314785003662</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Wanneer zullen de werken worden aangevat?</t>
+          <t>f) Is de sneldienst winstgevend of verlieslatend?</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9954160451889038</v>
+        <v>0.9971346855163574</v>
       </c>
       <c r="D194" t="n">
-        <v>0.004583954811096191</v>
+        <v>0.002865314483642578</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>- In één melding kunnen meerdere mogelijkheden aangeduid worden- In sommige gevallen is het niet altijd duidelijk wie slachtoffer en of pleger is- In sommige gevallen gaat het om meerdere slachtoffers/plegersSinds augustus 2021 is er een nieuw meldformulier, dat meer kwaliteitsvolle data oplevert.</t>
+          <t>f) Is de sneldienst winstgevend of verlieslatend?</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9954881072044373</v>
+        <v>0.9971346855163574</v>
       </c>
       <c r="D195" t="n">
-        <v>0.004511892795562744</v>
+        <v>0.002865314483642578</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Welke fasering en planning zal gehanteerd worden bij de aanpak van het kruispunt?</t>
+          <t>b) Kan de minister een overzicht geven van het aantal opstappers per halte en per maand?</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9955167174339294</v>
+        <v>0.997138500213623</v>
       </c>
       <c r="D196" t="n">
-        <v>0.004483282566070557</v>
+        <v>0.002861499786376953</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Waarom krijgen enkel (emissievrije) vrachtwagens die aan bepaalde voordelen voldoen, zoals een drieassig trekkend en getrokken voertuig, een grotere maximale laadcapaciteit?</t>
+          <t>b) Kan de minister een overzicht geven van het aantal opstappers per halte en per maand?</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9955235719680786</v>
+        <v>0.997138500213623</v>
       </c>
       <c r="D197" t="n">
-        <v>0.004476428031921387</v>
+        <v>0.002861499786376953</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Wanneer zal de volgende en zevende oproep plaatsvinden?</t>
+          <t>b) Kan de minister een overzicht geven van het aantal opstappers per halte en per maand?</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9955644607543945</v>
+        <v>0.997138500213623</v>
       </c>
       <c r="D198" t="n">
-        <v>0.004435539245605469</v>
+        <v>0.002861499786376953</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Over de starttoets - onderdeel Nederlands:a) Welke onderdelen worden en werden er getoetst bij de starttoets Nederlands?</t>
+          <t>b) Kan de minister een overzicht geven van het aantal opstappers per halte en per maand?</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9956637024879456</v>
+        <v>0.997138500213623</v>
       </c>
       <c r="D199" t="n">
-        <v>0.004336297512054443</v>
+        <v>0.002861499786376953</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>b) Hoe evalueert de minister de starttoetsen tot nu toe?</t>
+          <t>a) Kan de minister een overzicht geven van het aantal opstappers per halte en per jaar?</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9957541227340698</v>
+        <v>0.9971434473991394</v>
       </c>
       <c r="D200" t="n">
-        <v>0.004245877265930176</v>
+        <v>0.002856552600860596</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Heeft de minister in het bijzonder een aanvraag van het gemeentebestuur Schoten over de Schoten Vaart (of E10-plas) ontvangen?</t>
+          <t>a) Kan de minister een overzicht geven van het aantal opstappers per halte en per jaar?</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9958392381668091</v>
+        <v>0.9971434473991394</v>
       </c>
       <c r="D201" t="n">
-        <v>0.004160761833190918</v>
+        <v>0.002856552600860596</v>
       </c>
     </row>
   </sheetData>

--- a/Identifier/to_label.xlsx
+++ b/Identifier/to_label.xlsx
@@ -458,3201 +458,3201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kan de minister een overzichtstabel van de commerciële snelheid van de tram- en buslijnen op dit moment bezorgen in dezelfde vorm als het antwoord op mijn bus- en tramlijn, tijdens de spits)?</t>
+          <t>Rekening houdende met een aantal praktische overwegingen en budgettaire beperkingen: in welke mate zijn hier deeloplossingen mogelijk of is het veeleer aangewezen/noodzakelijk om tot totaalrenovaties over te gaan?</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5384010672569275</v>
+        <v>0.5020594000816345</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4615989327430725</v>
+        <v>0.4979405999183655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Over welk totaalaanbod aan kampeermateriaal beschikt de ULDK momenteel?</t>
+          <t>Zo niet, wanneer wordt er een beslissing genomen over de timing van die heraanleg?</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6050562262535095</v>
+        <v>0.5029087662696838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3949437737464905</v>
+        <v>0.4970912337303162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>En gebeurt dat meer, minder of evenveel wanneer er wordt gesolliciteerd na voorstel van een bemiddelaar?</t>
+          <t>Welke concrete investeringen dienen volgende jaren uitgevoerd te worden?</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6206936836242676</v>
+        <v>0.5069775581359863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3793063163757324</v>
+        <v>0.4930224418640137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Welke haltes worden het meest gebruikt?</t>
+          <t>Worden er door het Departement MOW controles uitgevoerd op de stages? Zo ja, wanneer en op welke basis?</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6951528191566467</v>
+        <v>0.5256940126419067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3048471808433533</v>
+        <v>0.4743059873580933</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welke haltes worden het meest gebruikt?</t>
+          <t>Worden er door het Departement MOW controles uitgevoerd op de stages? Zo ja, wanneer en op welke basis?</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6951528191566467</v>
+        <v>0.5256940126419067</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3048471808433533</v>
+        <v>0.4743059873580933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welke haltes worden het meest gebruikt?</t>
+          <t>Worden er door het Departement MOW controles uitgevoerd op de stages? Zo ja, wanneer en op welke basis?</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6951528191566467</v>
+        <v>0.5256940126419067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3048471808433533</v>
+        <v>0.4743059873580933</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Welke haltes worden het meest gebruikt?</t>
+          <t>Worden er door het Departement MOW controles uitgevoerd op de stages? Zo ja, wanneer en op welke basis?</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6951528191566467</v>
+        <v>0.5256940126419067</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3048471808433533</v>
+        <v>0.4743059873580933</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wanneer denkt de Vlaamse Regering, de eerste kritische mijlpaal, het definitieve GRUP, te kunnen vaststellen?</t>
+          <t>Zijn er volgens de minister genoeg preventieadviseurs werkzaam in het onderwijs?</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7058936357498169</v>
+        <v>0.5563010573387146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2941063642501831</v>
+        <v>0.4436989426612854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Heeft de minister zicht op enige timing van het decreet?</t>
+          <t>Kan een overzicht gegeven worden van welke werken in 2021 uitgevoerd werden aan de spoorinfrastructuur op het Antwerpse tramnet?</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7313242554664612</v>
+        <v>0.5729732513427734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2686757445335388</v>
+        <v>0.4270267486572266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Werden inmiddels nog nieuwe geloofsgemeenschappen erkend? Zo ja, welke en op welke datum?</t>
+          <t>Welke concrete investeringen zullen hiermee worden uitgevoerd?</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7347829341888428</v>
+        <v>0.5738553404808044</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2652170658111572</v>
+        <v>0.4261446595191956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Worden de baggerwerken met hetzelfde budget uitgevoerd?</t>
+          <t>Welke concrete investeringen zullen hiermee worden uitgevoerd?</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7396329045295715</v>
+        <v>0.5738553404808044</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2603670954704285</v>
+        <v>0.4261446595191956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wanneer zal de Vlaamse Regering de definitieve vaststelling doen?</t>
+          <t>Tegen wanneer moeten de laadpalen geleverd zijn?</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.780096709728241</v>
+        <v>0.5846706032752991</v>
       </c>
       <c r="D13" t="n">
-        <v>0.219903290271759</v>
+        <v>0.4153293967247009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kan de minister ook die cijfers verwerken in zijn antwoord?</t>
+          <t>Heeft de minister er zicht op en kan hij de cijfers geven voor de laatste tien jaar?</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7927873134613037</v>
+        <v>0.5918243527412415</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2072126865386963</v>
+        <v>0.4081756472587585</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Op welke datum zal de meetcampagne van De Lijn om de ‘asset health’ van de tramsporen in vervoerregio Antwerpen afgerond zijn?</t>
+          <t>Zal er voldoende budget zijn om 350 onthaalouders te laten omschakelen al naargelang waar ze tewerkgesteld zijn?</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7952580451965332</v>
+        <v>0.6119104623794556</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2047419548034668</v>
+        <v>0.3880895376205444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
+          <t>Is er (in de toekomst) sprake van een premie bij dergelijke opgravingen om de bijkomende kosten te dekken?</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7970938682556152</v>
+        <v>0.6313749551773071</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2029061317443848</v>
+        <v>0.3686250448226929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
+          <t>Zijn er inmiddels meer dan 2 SVK’s die onderzoeken uitgevoerd hebben via het raamcontract?</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7970938682556152</v>
+        <v>0.6446681022644043</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2029061317443848</v>
+        <v>0.3553318977355957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
+          <t>In het GIP 2023 werd onder GIP002667/01: “spoorvernieuwing Belgiëlei” een budget Welke werken werden hiermee gepland en konden deze worden uitgevoerd?</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7970938682556152</v>
+        <v>0.6935986876487732</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2029061317443848</v>
+        <v>0.3064013123512268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7970938682556152</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2029061317443848</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Op welke nieuwe timing wordt op dit moment gemikt?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7970938682556152</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2029061317443848</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Welke evolutie onderging het aanbod het afgelopen jaar?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8078072071075439</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1921927928924561</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Wanneer volgen nog inspraakmomenten voor de buurt waarop meegedacht kan worden en reacties gegeven kunnen worden?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8259468078613281</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1740531921386719</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Op welke nieuwe timing wordt gemikt voor de realisatie van de picknickplek in Zwevegem?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8424273133277893</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1575726866722107</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Welke evolutie ziet de minister daarin?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8497001528739929</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1502998471260071</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Welke evolutie ziet de minister daarin?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8497001528739929</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1502998471260071</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Welke evolutie ziet de minister daarin?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8497001528739929</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1502998471260071</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>In onderstaande tabellen is weergeven hoeveel keer er sollicitatiefeedback is gegeven.</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8501775860786438</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1498224139213562</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8523243069648743</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1476756930351257</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8523243069648743</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1476756930351257</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we?</t>
+          <t>Welke timing wordt hierin voorzien?</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8523243069648743</v>
+        <v>0.701849639415741</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1476756930351257</v>
+        <v>0.298150360584259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Welke evolutie zien we?</t>
+          <t>In onderstaande tabel is aangegeven hoeveel stemmen er waren er tijdens de verkiezingen van 2020, 2017 en 2014 en op welke manieren er toen kon worden gestemd.</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8523243069648743</v>
+        <v>0.7023077607154846</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1476756930351257</v>
+        <v>0.2976922392845154</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Werden er bijkomende investeringen binnengehaald of nieuwe partnerschappen afgesloten?</t>
+          <t>Waarom is het exacte aantal laadpalen nog niet bekend en wat zijn de redenen daarvoor?</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8540660738945007</v>
+        <v>0.7539724707603455</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1459339261054993</v>
+        <v>0.2460275292396545</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wanneer zullen ze verlaten kunnen worden?</t>
+          <t>In welke mate wordt een bijdrage van de bedrijven gevraagd en hoe wordt ze bepaald?</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8709856867790222</v>
+        <v>0.7860585451126099</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1290143132209778</v>
+        <v>0.2139414548873901</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Is er sprake van een blijvende stijgende lijn in het aantal klachten over dat onderwerp?</t>
+          <t>Zijn er sinds 2021 bijkomende economische partnerschappen met de regio opgestart? Zo ja, binnen welke sectoren bevinden die partnerschappen zich?</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8942252397537231</v>
+        <v>0.7962351441383362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1057747602462769</v>
+        <v>0.2037648558616638</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>In welke bijkomende middelen, middelenverschuiving, personeelsinzet en/of beleidskeuzes voorziet VDAB om de sociale huurders naar werk te begeleiden?</t>
+          <t>Beschikt de minister over gegevens betreffende de soorten drugs die buschauffeurs drugs?</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.894990086555481</v>
+        <v>0.7970340251922607</v>
       </c>
       <c r="D35" t="n">
-        <v>0.105009913444519</v>
+        <v>0.2029659748077393</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>a) In welk deel van die gevallen werd de werkzoekende daarna aangeworven?</t>
+          <t>Is het mogelijk om per jaar een indeling in grote categorieën van maatschappelijke sectoren te krijgen waar die werkstraffen werden uitgevoerd?</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9025012850761414</v>
+        <v>0.8187716007232666</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09749871492385864</v>
+        <v>0.1812283992767334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Welke plannen zijn er met het vooropgestelde fietsbudget van 300.000 euro, waarvoor en wanneer zal dat budget gebruikt worden?</t>
+          <t>Is er een evolutie waar te nemen in het afval dat wordt opgevist?</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9095795154571533</v>
+        <v>0.8200858235359192</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09042048454284668</v>
+        <v>0.1799141764640808</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Welke evolutie is er?</t>
+          <t>Is er een specifiek beleid voor de tarieven die gemeenten of intergemeentelijke samenwerkingsverbanden moeten betalen in het kader van dat beleid?</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.911430835723877</v>
+        <v>0.82774418592453</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08856916427612305</v>
+        <v>0.17225581407547</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Welke evolutie is er?</t>
+          <t>Hoe groot is de pool van redders waarop steden en gemeenten een beroep kunnen doen?</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.911430835723877</v>
+        <v>0.8368848562240601</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08856916427612305</v>
+        <v>0.1631151437759399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Welke evolutie is er?</t>
+          <t>Voor de vergunning voor doorvoer van Noorwegen naar Zuid-Afrika (ML03a), gaat het daarbij om een doorvoer met of zonder overlading?</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.911430835723877</v>
+        <v>0.8380728363990784</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08856916427612305</v>
+        <v>0.1619271636009216</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Welke evolutie is er?</t>
+          <t>Wordt hiermee in de bouw van één boot of meerdere boten voorzien?</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.911430835723877</v>
+        <v>0.8489772081375122</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08856916427612305</v>
+        <v>0.1510227918624878</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>b) Wat waren de behaalde kijkcijfers op de verschillende mediadragers?</t>
+          <t>Welke financiële inspanningen werden al gedaan binnen dit project?</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9209908843040466</v>
+        <v>0.8490884304046631</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07900911569595337</v>
+        <v>0.1509115695953369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Wat is het groeipad naar volledig toegankelijke premetrostations op het Antwerpse premetronet?</t>
+          <t>In hoeverre beïnvloeden munitievondsten de duur en de kostprijs van archeologische opgravingen?</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9220922589302063</v>
+        <v>0.8493872284889221</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0779077410697937</v>
+        <v>0.1506127715110779</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht bezorgen van het presentiegeld dat in 2022 werd uitbetaald aan gemeenteraadsleden?</t>
+          <t>Is de spoorvernieuwing aan de Cogels-Osylei met dit budget en daarbijhorende werken gefinaliseerd?</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9275526404380798</v>
+        <v>0.8501205444335938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07244735956192017</v>
+        <v>0.1498794555664062</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de oppervlakte tijdelijk grasland, blijvend grasland en meerjarig grasland dat geregistreerd werd in de perceelsregistratie tijdens de periode 2020-2023?</t>
+          <t>Wat heeft het maken van die reclamespot gekost aan de VRT?</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.92778080701828</v>
+        <v>0.8507562279701233</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07221919298171997</v>
+        <v>0.1492437720298767</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Is het de laatste schijf van de financiering voor dat project?</t>
+          <t>Van die broers en zussen met wie een kind heeft samengeleefd, is 40 procent bij hun broer of zus geplaatst, woont 25 procent nog thuis, woont 10 procent zelfstandig en is 25 procent elders geplaatst.</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9348506331443787</v>
+        <v>0.856624960899353</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06514936685562134</v>
+        <v>0.143375039100647</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Welke compensaties en onteigeningen konden worden uitgevoerd met het budget van 7.024.000 euro dat op het GIP 2023 gereserveerd werd?</t>
+          <t>Hoe gebeurt dat in het bijzonder bij langdurige duurzame overheidsopdrachten zoals wegenwerken en signalisatie die een groot deel uitmaken van de uitgaven van het Vlaamse Gewest?</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9349147081375122</v>
+        <v>0.8627018332481384</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06508529186248779</v>
+        <v>0.1372981667518616</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Wat is de timing voor het vervolg van het project?</t>
+          <t>Overweegt de minister alsnog de cyclus van de verkeerslichten aan te passen van 8s naar 25s, zodat de fietsers voldoende tijd krijgen om over te steken? Zo ja, op welke termijn kan dat gerealiseerd worden?</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9459191560745239</v>
+        <v>0.8628671169281006</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05408084392547607</v>
+        <v>0.1371328830718994</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>a) Kan de minister de meest recente versie van de lijst met doorstromingsknelpunten voor de vervoerregio Antwerpen bezorgen?</t>
+          <t>Welke concrete investeringen zullen hiermee uitgevoerd worden?</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9538542032241821</v>
+        <v>0.8676481246948242</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04614579677581787</v>
+        <v>0.1323518753051758</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kan van die roltrappen een werkzaamheidsgraad berekend worden?</t>
+          <t>Voor welke concrete werken zal dat budget in 2024-2026 worden aangewend?</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9545509219169617</v>
+        <v>0.8682924509048462</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04544907808303833</v>
+        <v>0.1317075490951538</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kan de minister toelichting geven bij de beschikbare capaciteit voor de opvang van asielzoekers gedurende de voorbije maanden in Vlaamse jeugdverblijven?</t>
+          <t>Tegen wanneer moeten de laadpalen in gebruik zijn?</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9565433859825134</v>
+        <v>0.8839074373245239</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04345661401748657</v>
+        <v>0.1160925626754761</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kan van die liften een werkzaamheidsgraad berekend worden?</t>
+          <t>Welke timing wordt voorzien?</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9601953029632568</v>
+        <v>0.8899433612823486</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03980469703674316</v>
+        <v>0.1100566387176514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>d) Hoe is die oppervlakte geëvolueerd in de periode 2019 tot op heden?</t>
+          <t>Dient dat extra budget voor onvoorziene meerkosten of de opvang van prijsstijgingen?</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9602252840995789</v>
+        <v>0.8911805152893066</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03977471590042114</v>
+        <v>0.1088194847106934</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Wanneer zal er duidelijkheid komen in het dossier van het Liedtskasteel?</t>
+          <t>Zo ja, wanneer en wat was het resultaat van dat overleg?</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9637421369552612</v>
+        <v>0.8938323855400085</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03625786304473877</v>
+        <v>0.1061676144599915</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hoe evolueerde de (structurele en niet-structurele) leegstand tijdens het afgelopen jaar in vergelijking met vorig jaar?</t>
+          <t>Over welke infrastructuur gaat deze investering?</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9659050107002258</v>
+        <v>0.8970253467559814</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03409498929977417</v>
+        <v>0.1029746532440186</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kan de ministers de cijfers opdelen naar de verschillende types die worden aangeboden in het buitengewoon kleuteronderwijs?</t>
+          <t>b) Worden bepaalde opleidingen die bijvoorbeeld maar een paar uur per week of slechts één avond per week in beslag nemen, beschouwd als voldoende om zich te laten verhinderen?</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9666619300842285</v>
+        <v>0.9021331667900085</v>
       </c>
       <c r="D56" t="n">
-        <v>0.03333806991577148</v>
+        <v>0.09786683320999146</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht bezorgen van de aanvullende financiële ondersteuning (fractiebudgetten, fractiepersoneel, vormingsbudgetten…) die in 2022 werd uitbetaald?</t>
+          <t>Wat de overbrenging van België naar de Verenigde Staten (ML06a_02), om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9674186706542969</v>
+        <v>0.9136523008346558</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03258132934570312</v>
+        <v>0.08634769916534424</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>d) Wanneer worden de onderzoeksresultaten verwacht?</t>
+          <t>Welke aanvragen zijn toegekend?</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9682264924049377</v>
+        <v>0.9153633117675781</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03177350759506226</v>
+        <v>0.08463668823242188</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kan de minister meedelen hoeveel lokale besturen de toolbox ondertussen hebben geraadpleegd?</t>
+          <t>Wanneer wil de minister het nieuwe woninghuurdecreet aan de Vlaamse Regering voorleggen?</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9691939353942871</v>
+        <v>0.922380805015564</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03080606460571289</v>
+        <v>0.07761919498443604</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>a) Tegen wanneer worden de functionele en de financiële verantwoording verwacht bij het Departement Landbouw en Visserij?</t>
+          <t>Hoe en wanneer zal de voorgestelde uitbreiding geëvalueerd worden?</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9693521857261658</v>
+        <v>0.9275711178779602</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03064781427383423</v>
+        <v>0.07242888212203979</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hoe vaak heeft Opgroeien, in een juridisch geschil met een voorziening, de medewerking van het VECK gevraagd om een dossier te onderzoeken?</t>
+          <t>Welke delen van het project konden al gerealiseerd worden?</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9697578549385071</v>
+        <v>0.930563747882843</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03024214506149292</v>
+        <v>0.06943625211715698</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kon de initiële timing voor de drie andere picknickspots tot nu toe wel worden aangehouden?</t>
+          <t>Met welke frequentie komt het overleg samen?</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9711390733718872</v>
+        <v>0.9307407140731812</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02886092662811279</v>
+        <v>0.06925928592681885</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bijkomend wordt vastgesteld dat naar schatting slechts 12,5 à 25% van wie in aanmerking komt voor de opleidingscheque, die ook effectief aanvraagt.</t>
+          <t>Welke aanvragen zijn afgewezen?</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9730193614959717</v>
+        <v>0.9345750212669373</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02698063850402832</v>
+        <v>0.06542497873306274</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hoe zal het budget evolueren in 2024 en 2025?</t>
+          <t>Welk afval verzamelde De Vlaamse Waterweg bij de opruimacties van 2023?</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9759340286254883</v>
+        <v>0.9351006150245667</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02406597137451172</v>
+        <v>0.06489938497543335</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Uit de gegevens die de lokale besturen aan de Vlaamse overheid bezorgen over hun meerjarenplannen en jaarrekeningen kan niet worden afgeleid hoeveel gronden de openbare centra voor maatschappelijk welzijn de voorbije 10 jaar verkocht hebben.</t>
+          <t>Voor de twee vergunningen van overbrenging van België naar Frankrijk (ML11a): om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9763619303703308</v>
+        <v>0.9360462427139282</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02363806962966919</v>
+        <v>0.06395375728607178</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven welke concrete onteigeningen ermee werden voorzien?</t>
+          <t>Hoe deed die opleiding het de voorbije twee jaar?</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9777547717094421</v>
+        <v>0.9366498589515686</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02224522829055786</v>
+        <v>0.0633501410484314</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Welke budgettaire inspanning zou dat vereisen?</t>
+          <t>Waarvoor zal het extra budget van 2.500.000 euro gebruikt worden?</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9790701866149902</v>
+        <v>0.9427707195281982</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02092981338500977</v>
+        <v>0.05722928047180176</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wie neemt de kosten op het moment op zich?</t>
+          <t>Hoe wordt opgevolgd in welke mate voorzieningen het samenhouden van broers en zussen als thema, prioriteit geven en opvolgen?</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9792103171348572</v>
+        <v>0.9478998184204102</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02078968286514282</v>
+        <v>0.05210018157958984</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Wie neemt de kosten op het moment op zich?</t>
+          <t>Over welke infrastructuur gaat die investering?</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9792103171348572</v>
+        <v>0.9487301111221313</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02078968286514282</v>
+        <v>0.05126988887786865</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Welke concrete investeringen zullen met dit budget uitgevoerd worden?</t>
+          <t>Heeft de minister er zicht op welke deelauto-exploitanten in Vlaanderen het vervoer vervoer van huisdieren toestaan mits voldaan wordt aan strikte voorwaarden (zoals het vervoer in gesloten kooien of manden)?</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.981196403503418</v>
+        <v>0.9487676620483398</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01880359649658203</v>
+        <v>0.05123233795166016</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Welke concrete investeringen zullen met dit budget uitgevoerd worden?</t>
+          <t>Kan een overzicht gegeven worden van de werken aan het tractienet die in 2023 uitgevoerd konden worden met dit budget?</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.981196403503418</v>
+        <v>0.9502915143966675</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01880359649658203</v>
+        <v>0.04970848560333252</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Welke concrete investeringen zullen met dit budget uitgevoerd worden?</t>
+          <t>Heeft de minister zicht op welke initiatieven en inspanningen kunnen worden genomen om het tekort aan redders weg te werken? Zo ja, welke initiatieven plant de minister en hoe worden ze op poten gezet?</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.981196403503418</v>
+        <v>0.951104998588562</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01880359649658203</v>
+        <v>0.04889500141143799</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Wanneer zullen de draaiboeken worden gefinaliseerd?</t>
+          <t>d) zijn uitbetaald?</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9827443957328796</v>
+        <v>0.9524145126342773</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01725560426712036</v>
+        <v>0.04758548736572266</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Voor welke periode is de opdracht aanbesteed?</t>
+          <t>Welk gewicht geeft de labelcommissie aan de kwaliteit van de jeugdinfrastructuur wanneer ze overgaat tot de evaluatie van een aanvraag?</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9853116273880005</v>
+        <v>0.9528378248214722</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01468837261199951</v>
+        <v>0.04716217517852783</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Zijn er nog andere relevante verschillen in kostprijs, bijvoorbeeld naargelang het migratiemotief of de thuistaal?</t>
+          <t>Zijn er steden en gemeenten die hun label zijn verloren of hun aanvraag niet gehonoreerd zagen om infrastructurele redenen? Zo ja, welke steden en gemeenten?</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9862638711929321</v>
+        <v>0.9534803032875061</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01373612880706787</v>
+        <v>0.0465196967124939</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Wanneer zal het implementatieplan gefinaliseerd zijn?</t>
+          <t>Is de spoorvernieuwing aan de Belgiëlei met dit budget en daarbijhorende werken gefinaliseerd?</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9870398640632629</v>
+        <v>0.9559085369110107</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01296013593673706</v>
+        <v>0.04409146308898926</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>De buffercapaciteit van een spaarbekken is afhankelijk van de totale oppervlakte ervan en hoeveel het waterpeil omhoog en omlaag kan variëren in het bekken.</t>
+          <t>Om welke reden (per project)?</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.988086462020874</v>
+        <v>0.9577288627624512</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01191353797912598</v>
+        <v>0.04227113723754883</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Wie neemt de kosten op dit moment op zich?</t>
+          <t>Op welke trajecten werden de voorziene werken opgestart in 2023 en hoe lopen deze verder?</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.988148033618927</v>
+        <v>0.9597734212875366</v>
       </c>
       <c r="D78" t="n">
-        <v>0.011851966381073</v>
+        <v>0.04022657871246338</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Wie neemt de kosten op dit moment op zich?</t>
+          <t>Hoe verloopt de omzetting naar ledverlichting op de gewestwegen in 2023?</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.988148033618927</v>
+        <v>0.9603400826454163</v>
       </c>
       <c r="D79" t="n">
-        <v>0.011851966381073</v>
+        <v>0.03965991735458374</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Welke verschillen zijn er tussen de gevraagde vreemde talen voor de verschillende sectoren in 2023?</t>
+          <t>Overweegt de minister om de verkeerslichten tijdens de ochtendspits dynamisch te maken zodat het licht op groen springt zodra een fietser wordt gedetecteerd? Zo ja, op welke termijn kan dat gerealiseerd worden?</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9896050691604614</v>
+        <v>0.9609866142272949</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01039493083953857</v>
+        <v>0.03901338577270508</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kan de minister alle verslagen bezorgen van de bijeenkomsten die tot nu toe plaatsvonden?</t>
+          <t>Welke vergoeding werd ervoor door de openbare omroep aan hen aangerekend?</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9902328252792358</v>
+        <v>0.9618459939956665</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00976717472076416</v>
+        <v>0.0381540060043335</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>De Lijn  -  Ritduur sneldienst 180 Hasselt-LommelGraag had ik volgende gegevens verkregen van sneldienst 180 Hasselt-Lommel:a) Wat is de theoretische ritduur van die sneldienst?</t>
+          <t>Kan een overzicht gegeven worden van de al voorziene en nog te voorziene budgetten voor het nieuwe ACC?</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9904236197471619</v>
+        <v>0.9624372720718384</v>
       </c>
       <c r="D82" t="n">
-        <v>0.009576380252838135</v>
+        <v>0.03756272792816162</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Onderstaande tabellen bieden wel een zicht op hoeveel sollicitatieopdrachten er gemiddeld zijn gegeven per vacature.</t>
+          <t>Wat is de timing daarvoor?</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9913279414176941</v>
+        <v>0.9654420018196106</v>
       </c>
       <c r="D83" t="n">
-        <v>0.008672058582305908</v>
+        <v>0.0345579981803894</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Welke werken konden worden uitgevoerd worden met het budget van 3.629.000 euro dat op het GIP 2023 gereserveerd werd voor het flankerend beleid binnen Oosterweel?</t>
+          <t>Wat is de timing daarvoor?</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.99224853515625</v>
+        <v>0.9654420018196106</v>
       </c>
       <c r="D84" t="n">
-        <v>0.00775146484375</v>
+        <v>0.0345579981803894</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kan meer uitleg over de benutting en timing van de investering worden gegeven?</t>
+          <t>Welke concrete investeringen worden hiermee gepland?</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9922524094581604</v>
+        <v>0.9658063650131226</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0077475905418396</v>
+        <v>0.03419363498687744</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kan meer uitleg over de benutting en timing van de investering worden gegeven?</t>
+          <t>Welke concrete investeringen worden hiermee gepland?</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9922524094581604</v>
+        <v>0.9658063650131226</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0077475905418396</v>
+        <v>0.03419363498687744</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Op welke termijn zou daar werk van gemaakt kunnen worden?</t>
+          <t>Welke concrete investeringen worden hiermee gepland?</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9926470518112183</v>
+        <v>0.9658063650131226</v>
       </c>
       <c r="D87" t="n">
-        <v>0.007352948188781738</v>
+        <v>0.03419363498687744</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wat is de uitstroom uit de IBO naar tewerkstelling bij de onderneming waarmee een IBO-contract werd gesloten?</t>
+          <t>Welke concrete investeringen worden hiermee gepland?</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9926965236663818</v>
+        <v>0.9658063650131226</v>
       </c>
       <c r="D88" t="n">
-        <v>0.007303476333618164</v>
+        <v>0.03419363498687744</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Welke evolutie kan er worden onderkend sinds 2020 (coronajaar waarin het aantal controles ernstig daalde) inzake de controles?</t>
+          <t>Welke concrete investeringen worden hiermee gepland?</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9928144812583923</v>
+        <v>0.9658063650131226</v>
       </c>
       <c r="D89" t="n">
-        <v>0.007185518741607666</v>
+        <v>0.03419363498687744</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>b) En/of zien we een (al dan niet duurzame) uitstroom naar werk?</t>
+          <t>Heeft de minister er al een idee van wanneer dat project aanbesteed zou worden?</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9933112859725952</v>
+        <v>0.9665683507919312</v>
       </c>
       <c r="D90" t="n">
-        <v>0.006688714027404785</v>
+        <v>0.03343164920806885</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kan de minister de uitstroom uit werkloosheid en uitstroom naar werk in een vergelijkingspercentage stellen voor zowel VDAB als zijn externe actoren en dat voor de eerste zes maanden van 2023?</t>
+          <t>Voor de overbrenging van België naar Duitsland (ML05a): om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9935970306396484</v>
+        <v>0.9667450189590454</v>
       </c>
       <c r="D91" t="n">
-        <v>0.006402969360351562</v>
+        <v>0.03325498104095459</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>d) Is de verhouding van het aantal (al dan niet kinderloze) alleenstaanden een stijging of daling ten opzichte van de vorige jaren?</t>
+          <t>Voor de uitvoer van België naar de Verenigde Staten (ML22a en ML10a): om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9936044812202454</v>
+        <v>0.9670595526695251</v>
       </c>
       <c r="D92" t="n">
-        <v>0.006395518779754639</v>
+        <v>0.03294044733047485</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van alle Minder Mobielen Centrales in Vlaanderen?</t>
+          <t>Is de verlichtingsstudie afgerond?</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9936586022377014</v>
+        <v>0.9670813679695129</v>
       </c>
       <c r="D93" t="n">
-        <v>0.006341397762298584</v>
+        <v>0.03291863203048706</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
+          <t>Werd het totale budget hiervoor gebruikt?</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9936969876289368</v>
+        <v>0.9675691723823547</v>
       </c>
       <c r="D94" t="n">
-        <v>0.006303012371063232</v>
+        <v>0.03243082761764526</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
+          <t>Heeft de minister inmiddels antwoord gekregen van de federale minister van Justitie op zijn schrijven van 30 maart 2023 betreffende het beschikbaar stellen van de cijfers zijn of heeft de minister daar al cijfers van ontvangen?</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9936969876289368</v>
+        <v>0.969308614730835</v>
       </c>
       <c r="D95" t="n">
-        <v>0.006303012371063232</v>
+        <v>0.03069138526916504</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
+          <t>Voor de vier vergunningen van overbrenging van België naar Duitsland (ML06a_02): om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9936969876289368</v>
+        <v>0.969610869884491</v>
       </c>
       <c r="D96" t="n">
-        <v>0.006303012371063232</v>
+        <v>0.03038913011550903</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
+          <t>Welke concrete investeringen worden met dit budget gepland?</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9936969876289368</v>
+        <v>0.970788300037384</v>
       </c>
       <c r="D97" t="n">
-        <v>0.006303012371063232</v>
+        <v>0.02921169996261597</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Welke concrete investeringen kunnen met dit budget uitgevoerd worden?</t>
+          <t>Welke concrete investeringen worden met dit budget gepland?</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9936969876289368</v>
+        <v>0.970788300037384</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006303012371063232</v>
+        <v>0.02921169996261597</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>We meten het bereik (wie heeft de campagne gezien), de appreciatie en het effect (zien we verschil ten opzichte van de voormeting in de belangrijkste gedragsfactoren).</t>
+          <t>Welke concrete investeringen worden met dit budget gepland?</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9939117431640625</v>
+        <v>0.970788300037384</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0060882568359375</v>
+        <v>0.02921169996261597</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Welke werken konden worden uitgevoerd met het budget van 7.875.000 euro dat op het GIP 2023 gereserveerd werd voor het flankerend beleid binnen Oosterweel?</t>
+          <t>Kunnen de studierichtingen ‘ballet’ en ‘dans’ dan voortaan onder dezelfde finaliteit ondergebracht worden?</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.994027853012085</v>
+        <v>0.9708432555198669</v>
       </c>
       <c r="D100" t="n">
-        <v>0.005972146987915039</v>
+        <v>0.02915674448013306</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Welke nieuwe timing hanteert de minister voor publicatie en gunning van het onderzoek?</t>
+          <t>Welke bijsturingen werden intussen al uitgevoerd en welke staan nog op de agenda (graag met vermelding van de geplande uitvoeringstermijn)?</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9940616488456726</v>
+        <v>0.9720170497894287</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005938351154327393</v>
+        <v>0.02798295021057129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kan de minister de uitstroom uit werkloosheid en uitstroom naar werk in een vergelijkingspercentage stellen voor zowel VDAB als zijn externe actoren en dat voor 2022?</t>
+          <t>Welke concrete investeringen zullen hiermee gedaan worden?</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9943991303443909</v>
+        <v>0.9723466038703918</v>
       </c>
       <c r="D102" t="n">
-        <v>0.005600869655609131</v>
+        <v>0.02765339612960815</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Zullen de cijfers in de toekomst ontsloten worden in de dataloep?</t>
+          <t>Is er een tendens in het aantal redders? Zo ja, wat is de oorzaak van de tendens?</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9945003986358643</v>
+        <v>0.9739242196083069</v>
       </c>
       <c r="D103" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.02607578039169312</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Zijn alle haltes waar ritten werden geschrapt, uitgerust met correcte reizigersinformatie met betrekking tot de aangepaste dienstregeling?</t>
+          <t>Zitten er nog nieuwe en toekomstige aanmeldingen van inburgeringsplichtige bedienaars van erediensten in de pijplijn?</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9945498108863831</v>
+        <v>0.9742242693901062</v>
       </c>
       <c r="D104" t="n">
-        <v>0.005450189113616943</v>
+        <v>0.0257757306098938</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Indien ze niet allemaal konden gebeuren, graag een opdeling van hoeveel wel en hoeveel nog niet, opgedeeld per provincie.</t>
+          <t>Wat de volgende Amerikaans-Europese TTC betreft, heeft de minister al een specifieke datum waarop de volgende raad plaatsvindt? Zo ja, hoe staat het met de voorbereiding en wat staat er op de agenda?</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9947553873062134</v>
+        <v>0.9742722511291504</v>
       </c>
       <c r="D105" t="n">
-        <v>0.005244612693786621</v>
+        <v>0.02572774887084961</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Wanneer kan vervolgens overgegaan worden tot project-MER, de technische uitwerking van de voorkeursoplossing, grondinnames, het verkrijgen van een omgevingsvergunning?</t>
+          <t>In hoeverre vermindert modulair bouwen de bouwkosten ten opzichte van de meer traditionele woningbouw?</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9950237274169922</v>
+        <v>0.9745516180992126</v>
       </c>
       <c r="D106" t="n">
-        <v>0.004976272583007812</v>
+        <v>0.02544838190078735</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kan de minister een stand van zaken geven qua timing?</t>
+          <t>Welke budgetten worden momenteel voorzien voor de verdere uitrol van walstroom langs Vlaamse waterwegen en in de Vlaamse havens?</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9951863884925842</v>
+        <v>0.9748787879943848</v>
       </c>
       <c r="D107" t="n">
-        <v>0.004813611507415771</v>
+        <v>0.02512121200561523</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wat bepaalt de termijnen?</t>
+          <t>In het doorkijk GIP 2025 wordt dit aangevuld met een bedrag van €1.704.000 en in het doorkijk GIP 2026 met een bedrag Behelst dit de totale kostprijs voor het project van het premetrostation Groenplaats?</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9952076077461243</v>
+        <v>0.9750725030899048</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004792392253875732</v>
+        <v>0.02492749691009521</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>a) Kan de minister een overzicht geven van het aantal reizigers per jaar?</t>
+          <t>Kinderopvang  -  Aanvragen voor flexibele urenHoeveel aanvragen zijn er bij de loketten kinderopvang binnengekomen voor flexibele uren voor 7.00 uur en na 18.30 uur?</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9952543973922729</v>
+        <v>0.9751055836677551</v>
       </c>
       <c r="D109" t="n">
-        <v>0.004745602607727051</v>
+        <v>0.02489441633224487</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>a) Kan de minister een overzicht geven van het aantal reizigers per jaar?</t>
+          <t>Kan de minister per Vlaamse gemeente een overzicht bezorgen van de kinderdagverblijven die werden vermeld door Opgroeien bij het VECK?</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9952543973922729</v>
+        <v>0.9753344655036926</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004745602607727051</v>
+        <v>0.02466553449630737</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>a) Kan de minister een overzicht geven van het aantal reizigers per jaar?</t>
+          <t>Met andere woorden, betalen gemeenten meer of minder dan private partijen?</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9952543973922729</v>
+        <v>0.9760218262672424</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004745602607727051</v>
+        <v>0.02397817373275757</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>c) Kan de minister een overzicht van het aantal reizigers per dag?</t>
+          <t>Gezien de aanhoudende klachten over geluid en trillingen, overweegt de minister om ter hoogte van het plateau trillings- en geluidsmetingen te laten doen? Zo ja, wanneer kan dat worden ingepland?</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9953409433364868</v>
+        <v>0.9764220714569092</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004659056663513184</v>
+        <v>0.02357792854309082</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>c) Kan de minister een overzicht van het aantal reizigers per dag?</t>
+          <t>Welke concrete investeringen worden ermee gepland?</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9953409433364868</v>
+        <v>0.9764680862426758</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004659056663513184</v>
+        <v>0.02353191375732422</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>c) Kan de minister een overzicht van het aantal reizigers per dag?</t>
+          <t>Valt het openen van de stations Morkhoven en Drink ook binnen dit budget?</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9953409433364868</v>
+        <v>0.9768135547637939</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004659056663513184</v>
+        <v>0.02318644523620605</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>c) Kan de minister een overzicht van het aantal reizigers per dag?</t>
+          <t>Voor de uitvoer van België naar de Verenigde Staten (ML06a_02): om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9953409433364868</v>
+        <v>0.9776799082756042</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004659056663513184</v>
+        <v>0.02232009172439575</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven van het aantal reizigers per maand?</t>
+          <t>Zal dit bedrag worden ingezet voor de technische infrastructuur van het station Plantijn, voor de ruwbouw van het station, of voor spoorvernieuwing?</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9954249262809753</v>
+        <v>0.9784157872200012</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004575073719024658</v>
+        <v>0.02158421277999878</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven van het aantal reizigers per maand?</t>
+          <t>Hoe evalueert de minister die cijfers?</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9954249262809753</v>
+        <v>0.9786752462387085</v>
       </c>
       <c r="D117" t="n">
-        <v>0.004575073719024658</v>
+        <v>0.0213247537612915</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven van het aantal reizigers per maand?</t>
+          <t>Klopt dat, en hoe ziet het departement de timing voor de afhandeling van die twee claims?</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9954249262809753</v>
+        <v>0.9788493514060974</v>
       </c>
       <c r="D118" t="n">
-        <v>0.004575073719024658</v>
+        <v>0.02115064859390259</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven van het aantal reizigers per maand?</t>
+          <t>Heeft de minister zicht op onderzoek naar het effect van zo’n maatregel voor de studie-efficiëntie bij de betrokken studenten, die anders niet in de les kunnen zijn?</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9954249262809753</v>
+        <v>0.9790255427360535</v>
       </c>
       <c r="D119" t="n">
-        <v>0.004575073719024658</v>
+        <v>0.02097445726394653</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het totaalbudget?</t>
+          <t>Wat is de timing ervan?</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9954415559768677</v>
+        <v>0.9794734120368958</v>
       </c>
       <c r="D120" t="n">
-        <v>0.004558444023132324</v>
+        <v>0.02052658796310425</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>d) Kan de minister een overzicht geven van het aantal reizigers per rit?</t>
+          <t>Zal de minister meer investeren in noodwoningen en sociale woningen om aan de lokale besturen de hefbomen te geven om de dakloosheid te bestrijden, die zal toenemen ten gevolge van het voorstel om aan mensen zonder papieren geen woning meer te verhuren?</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9955154061317444</v>
+        <v>0.9803715348243713</v>
       </c>
       <c r="D121" t="n">
-        <v>0.004484593868255615</v>
+        <v>0.01962846517562866</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>d) Kan de minister een overzicht geven van het aantal reizigers per rit?</t>
+          <t>d) Hoe lang gaat het nog duren voor dat onderzoek afgerond wordt?</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9955154061317444</v>
+        <v>0.9815727472305298</v>
       </c>
       <c r="D122" t="n">
-        <v>0.004484593868255615</v>
+        <v>0.01842725276947021</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>d) Kan de minister een overzicht geven van het aantal reizigers per rit?</t>
+          <t>Privéluchtvaart doet alle klimaatinspanningen teniet: wie met een privéjet één enkele vlucht van Antwerpen naar pakweg Malaga doet, stoot evenveel uit als de gemiddelde Europeaan in een jaar.</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9955154061317444</v>
+        <v>0.9819797277450562</v>
       </c>
       <c r="D123" t="n">
-        <v>0.004484593868255615</v>
+        <v>0.01802027225494385</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>d) Kan de minister een overzicht geven van het aantal reizigers per rit?</t>
+          <t>schade werd er al uitbetaald aan de gedupeerden?</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9955154061317444</v>
+        <v>0.9825639128684998</v>
       </c>
       <c r="D124" t="n">
-        <v>0.004484593868255615</v>
+        <v>0.01743608713150024</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>a) Kan de minister een overzicht geven per agentschap?</t>
+          <t>In welke projecten konden de vooropgestelde werken worden opgestart in 2023 en hoe lopen ze verder?</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9955378770828247</v>
+        <v>0.9825873970985413</v>
       </c>
       <c r="D125" t="n">
-        <v>0.004462122917175293</v>
+        <v>0.01741260290145874</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>a) Wanneer is die sneldienst 184 ontstaan?</t>
+          <t>Hoe evalueert de minister de cijfers van het voorbije jaar?</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9955456256866455</v>
+        <v>0.9826201796531677</v>
       </c>
       <c r="D126" t="n">
-        <v>0.004454374313354492</v>
+        <v>0.01737982034683228</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Welke ritten zijn het drukst?</t>
+          <t>Kan het wachtdok eind 2023 in gebruik genomen worden zoals aanvankelijk gepland?</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9956560134887695</v>
+        <v>0.983025074005127</v>
       </c>
       <c r="D127" t="n">
-        <v>0.004343986511230469</v>
+        <v>0.01697492599487305</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Welke ritten zijn het drukst?</t>
+          <t>Wordt hiermee in de videomonitoring van de premetro voorzien?</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9956560134887695</v>
+        <v>0.9831363558769226</v>
       </c>
       <c r="D128" t="n">
-        <v>0.004343986511230469</v>
+        <v>0.01686364412307739</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Welke ritten zijn het drukst?</t>
+          <t>a) Zo ja, welke? Graag een overzicht met het bedrag, de ontvanger en de bestemming b) Overweegt de minister alternatieve financieringsvormen ter ondersteuning van het subsidiebeleid? Zo ja, welke?</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9956560134887695</v>
+        <v>0.9832404255867004</v>
       </c>
       <c r="D129" t="n">
-        <v>0.004343986511230469</v>
+        <v>0.01675957441329956</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Welke ritten zijn het drukst?</t>
+          <t>Wordt het nu door alle OCMW’s in Vlaanderen gebruikt?</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9956560134887695</v>
+        <v>0.9836169481277466</v>
       </c>
       <c r="D130" t="n">
-        <v>0.004343986511230469</v>
+        <v>0.01638305187225342</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Wat is de timing voor de heraanleg van de sporen voor tram 11?</t>
+          <t>a) Op welke plaatsen is het visbestand in het Zennegat het grootst en op welke plaatsen bijna onbestaand en dit voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9957345128059387</v>
+        <v>0.9836596250534058</v>
       </c>
       <c r="D131" t="n">
-        <v>0.004265487194061279</v>
+        <v>0.01634037494659424</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Wat leren de cijfers de minister?</t>
+          <t>Kan de minister bij het aantal uitgevoerde uithuiszettingen een onderscheid maken betreffende de nationaliteit?</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9958497285842896</v>
+        <v>0.9837027788162231</v>
       </c>
       <c r="D132" t="n">
-        <v>0.004150271415710449</v>
+        <v>0.01629722118377686</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Zijn er vervolgopleidingen?</t>
+          <t>Zijn er bedrijven die in 2023 de erkenning hebben verloren door het niet behalen van de voorwaarde van 65%?</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9959008097648621</v>
+        <v>0.9841685891151428</v>
       </c>
       <c r="D133" t="n">
-        <v>0.004099190235137939</v>
+        <v>0.01583141088485718</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het aantal partners die sedert de inwerkingtreding van het nieuwe wettelijke kader al lid zijn geworden van het netwerk ‘Iedereen verdient vakantie’ en het charter ‘Iedereen verdient vakantie’ hebben ondertekend?</t>
+          <t>Welke budgetten dienen hiertoe voorzien te worden?</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9959214925765991</v>
+        <v>0.9842463731765747</v>
       </c>
       <c r="D134" t="n">
-        <v>0.004078507423400879</v>
+        <v>0.01575362682342529</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hoe verhoudt het aantal goedgekeurde cultuurgerelateerde aanvragen zich tot andere sectoren?</t>
+          <t>Wat is de dossierlast van de dossierbeheerders per maand van 2020 tot nu?</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9959778189659119</v>
+        <v>0.9847399592399597</v>
       </c>
       <c r="D135" t="n">
-        <v>0.004022181034088135</v>
+        <v>0.01526004076004028</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Kan de minister informatie bezorgen over het aantal andere betrokken partners (sportclubs, -federaties enz.) die gebruik hebben gemaakt van de toolbox?</t>
+          <t>Wanneer zal het Stuurorgaan Vlaams Informatie- en ICT-beleid klaar zijn met het opstellen van de datarichtlijnen?</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9959989786148071</v>
+        <v>0.9847577810287476</v>
       </c>
       <c r="D136" t="n">
-        <v>0.004001021385192871</v>
+        <v>0.01524221897125244</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Kan dat enkel digitaal of wordt er ook in een fysiek label voorzien?</t>
+          <t>Welke installaties werden ermee vernieuwd of gemoderniseerd?</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9960103034973145</v>
+        <v>0.9851721525192261</v>
       </c>
       <c r="D137" t="n">
-        <v>0.003989696502685547</v>
+        <v>0.01482784748077393</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>c) Kan de minister daarnaast ook een overzicht geven van het aantal nieuwe subprojecten?</t>
+          <t>c) Op welke manier en onder welke voorwaarden werden de gronden als ‘toegewezen’ aanzien indien ze in aanmerking kwamen voor het plaatsen van zonnepanelen of hernieuwbare energie (HE)?</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9960403442382812</v>
+        <v>0.9852041006088257</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00395965576171875</v>
+        <v>0.01479589939117432</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>b) Kan de minister de meest recente lijst van doorstromingsprojecten bezorgen voor de vervoerregio Antwerpen?</t>
+          <t>Welke besparing zal de recuperatie van materiaal opleveren?</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9960426092147827</v>
+        <v>0.9855470657348633</v>
       </c>
       <c r="D139" t="n">
-        <v>0.003957390785217285</v>
+        <v>0.01445293426513672</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van het aantal partners die sedert de inwerkingtreding van het nieuwe wettelijke kader lid zijn geworden van het netwerk Iedereen Verdient Vakantie en het charter Iedereen Verdient Vakantie hebben ondertekend?</t>
+          <t>Wanneer is de evaluatie van het Vlaamse woninghuurdecreet gepland?</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9960857629776001</v>
+        <v>0.9856426119804382</v>
       </c>
       <c r="D140" t="n">
-        <v>0.003914237022399902</v>
+        <v>0.01435738801956177</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Wat is het derde fusiecompromis waarvan sprake?</t>
+          <t>Tegen wanneer en waar zullen de laadpalen worden geïnstalleerd?</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9961223006248474</v>
+        <v>0.9860970377922058</v>
       </c>
       <c r="D141" t="n">
-        <v>0.003877699375152588</v>
+        <v>0.01390296220779419</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>a) Wanneer is de sneldienst 183 ontstaan?</t>
+          <t>Waarom is de stagetoelating 3 jaar geldig, maar heeft men slechts 2 jaar de tijd om de stage af te ronden?</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9961460828781128</v>
+        <v>0.9862104058265686</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003853917121887207</v>
+        <v>0.0137895941734314</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Het aantal reizigers:a) Kan de minister een overzicht geven van het aantal reizigers per jaar?</t>
+          <t>Waarom is de stagetoelating 3 jaar geldig, maar heeft men slechts 2 jaar de tijd om de stage af te ronden?</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9961559176445007</v>
+        <v>0.9862104058265686</v>
       </c>
       <c r="D143" t="n">
-        <v>0.003844082355499268</v>
+        <v>0.0137895941734314</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>a) Wanneer is die sneldienst 182 ontstaan?</t>
+          <t>Waarom is de stagetoelating 3 jaar geldig, maar heeft men slechts 2 jaar de tijd om de stage af te ronden?</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9961787462234497</v>
+        <v>0.9862104058265686</v>
       </c>
       <c r="D144" t="n">
-        <v>0.003821253776550293</v>
+        <v>0.0137895941734314</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Zijn er gesprekken met de gemeente rond de herbestemming van de site en in welke investeringen moet daarvoor voorzien worden?</t>
+          <t>Waarom is de stagetoelating 3 jaar geldig, maar heeft men slechts 2 jaar de tijd om de stage af te ronden?</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9961833357810974</v>
+        <v>0.9862104058265686</v>
       </c>
       <c r="D145" t="n">
-        <v>0.003816664218902588</v>
+        <v>0.0137895941734314</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Welke timing wordt er aangehouden?</t>
+          <t>Ziet de minister een positief effect van het volgen van een zevende leerjaar op de studieduur en het studierendement van de betrokken leerlingen in het hoger onderwijs?</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9961915016174316</v>
+        <v>0.9863190650939941</v>
       </c>
       <c r="D146" t="n">
-        <v>0.003808498382568359</v>
+        <v>0.01368093490600586</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Kan de minister die chronologisch weergeven?</t>
+          <t>Kan de minister eveneens een lijst bezorgen met alle haltes, per gemeente, met per halte de info of de halte op 6 januari behouden, verplaatst of geschrapt wordt dan wel of het om een nieuwe halte gaat?</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9961923360824585</v>
+        <v>0.9864600896835327</v>
       </c>
       <c r="D147" t="n">
-        <v>0.003807663917541504</v>
+        <v>0.01353991031646729</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Hoe verhoudt het aantal goedgekeurde toerismegerelateerde aanvragen zich tot andere sectoren?</t>
+          <t>Zijn er onlangs stakeholderconsultaties georganiseerd rond bepaalde thema’s of voorstellen?</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9962050318717957</v>
+        <v>0.9867847561836243</v>
       </c>
       <c r="D148" t="n">
-        <v>0.003794968128204346</v>
+        <v>0.01321524381637573</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Op de website https://gemeente-stadsmonitor.vlaanderen.be/gemeente kan afgelezen worden hoeveel inwoners een gemeente heeft.</t>
+          <t>Wat is de frequentie daarvan?</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9962117671966553</v>
+        <v>0.9874656796455383</v>
       </c>
       <c r="D149" t="n">
-        <v>0.003788232803344727</v>
+        <v>0.01253432035446167</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Kan de minister die cijfers ter beschikking stellen voor de laatste 5 schooljaren?</t>
+          <t>Zijn er gegevens beschikbaar over de kosten die gepaard gaan met het veilig registreren, opsporen, en bergen van historische munitie tijdens archeologische projecten?</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9963024854660034</v>
+        <v>0.9874695539474487</v>
       </c>
       <c r="D150" t="n">
-        <v>0.003697514533996582</v>
+        <v>0.01253044605255127</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven per agentschap?</t>
+          <t>Hoe evalueert de minister het project?</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9963066577911377</v>
+        <v>0.9877676367759705</v>
       </c>
       <c r="D151" t="n">
-        <v>0.003693342208862305</v>
+        <v>0.01223236322402954</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Welke werken konden worden uitgevoerd met het budget van 8.050.000 euro dat op het GIP 2023 gereserveerd werd voor de voorbereideinde werken binnen Oosterweel?</t>
+          <t>Had het verlagen van de waterstand van de Gentse binnenwateren tijdens de overstromingen in andere delen van Vlaanderen een impact op de waterstanden elders in Vlaanderen? Zo ja, welke?</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9963793158531189</v>
+        <v>0.9878795742988586</v>
       </c>
       <c r="D152" t="n">
-        <v>0.003620684146881104</v>
+        <v>0.01212042570114136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Welke bedrijven gebruiken de IBO’s het meest?</t>
+          <t>Zijn er aandachtspunten die het aanbod en/of bereik van het naschools sporten kunnen doen stijgen?</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9963866472244263</v>
+        <v>0.9879307746887207</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00361335277557373</v>
+        <v>0.0120692253112793</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Kan de minister toelichten wat moet, mag en zeker niet mag gebeuren met de bestuursdocumenten aanwezig op het kabinet of in het bezit van een minister, hetzij wanneer een minister niet langer bevoegd is voor het beleidsdomein, hetzij wanneer het kabinet wordt ontbonden?</t>
+          <t>In welke landen zijn de onderzoeken uitgevoerd?</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9964535236358643</v>
+        <v>0.988152801990509</v>
       </c>
       <c r="D154" t="n">
-        <v>0.003546476364135742</v>
+        <v>0.01184719800949097</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Moet een kandidaat-rijschooldirecteur eveneens een schriftelijk en mondeling examen afleggen, en al drie jaar een brevet als theorie- en praktijkinstructeur hebben?</t>
+          <t>Welke impact had het niet of laattijdig uitrijden van de wintertram op het netwerk?</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9964593052864075</v>
+        <v>0.9883423447608948</v>
       </c>
       <c r="D155" t="n">
-        <v>0.003540694713592529</v>
+        <v>0.01165765523910522</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Wat is de timing voor deze werken?</t>
+          <t>Voor de twee vergunningen van tijdelijke uitvoer van België naar Israël (ML05b): om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9964917302131653</v>
+        <v>0.988359808921814</v>
       </c>
       <c r="D156" t="n">
-        <v>0.003508269786834717</v>
+        <v>0.01164019107818604</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>b) Wat zijn de (voorlopige) conclusies en verdere timing voor een eventuele vertaling in een wetgevend kader?</t>
+          <t>Wat zijn de voornaamste oorzaken (aantallen) op de totalen?</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9965412020683289</v>
+        <v>0.9886988997459412</v>
       </c>
       <c r="D157" t="n">
-        <v>0.003458797931671143</v>
+        <v>0.01130110025405884</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ziet het ernaaruit dat de volledige gereserveerde som van 4 miljoen euro zal worden gebruikt?</t>
+          <t>Zal de gebruiker verschillen in werkzaamheden of in functionaliteit ervaren?</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.996593177318573</v>
+        <v>0.9888390898704529</v>
       </c>
       <c r="D158" t="n">
-        <v>0.003406822681427002</v>
+        <v>0.01116091012954712</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Hoeveel van de gecontroleerde ongevallen sinds 2014 vonden plaats in het kader van uitzendarbeid?</t>
+          <t>Maakt Vlaanderen actief gebruik van de Europese Tourism Data Space? Zo ja, voor welke doeleinden wordt dat medium gebruikt?</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9965984225273132</v>
+        <v>0.9888441562652588</v>
       </c>
       <c r="D159" t="n">
-        <v>0.003401577472686768</v>
+        <v>0.01115584373474121</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Wat is de timing van het verdere proces van het RUP?</t>
+          <t>Wat de overbrenging van België naar Duitsland (ML06a_02) betreft, om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9966166615486145</v>
+        <v>0.988863468170166</v>
       </c>
       <c r="D160" t="n">
-        <v>0.003383338451385498</v>
+        <v>0.01113653182983398</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Op welke wijze kwam die schatting tot stand en op basis van welke data wordt dat getal gehanteerd?</t>
+          <t>Heeft de minister al een overleg gehad met de deelauto-exploitanten in Vlaanderen om hen bewust te maken van dat probleem? Zo ja, wanneer en wat is eruit voortgekomen?</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9966167807579041</v>
+        <v>0.9889982342720032</v>
       </c>
       <c r="D161" t="n">
-        <v>0.003383219242095947</v>
+        <v>0.01100176572799683</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Kan de ministers de cijfers opdelen naar onderwijsniveau (buitengewoon kleuteronderwijs, buitengewoon lager onderwijs en buitengewoon secundair onderwijs)?</t>
+          <t>Kan de minister toelichten welke initiatieven er al lopen en welke, indien van toepassing, in opmaak zijn?</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9966281056404114</v>
+        <v>0.9890744090080261</v>
       </c>
       <c r="D162" t="n">
-        <v>0.003371894359588623</v>
+        <v>0.01092559099197388</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>a) Heeft de minister zicht op het aantal alleenstaanden die zich geen of te weinig dienstencheques kunnen permitteren hoewel ze die wel kunnen gebruiken en wensen?</t>
+          <t>Welke concrete investeringen worden met dat budget gepland?</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9966310858726501</v>
+        <v>0.9894511103630066</v>
       </c>
       <c r="D163" t="n">
-        <v>0.003368914127349854</v>
+        <v>0.01054888963699341</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>f) Is die sneldienst winstgevend of verlieslatend?</t>
+          <t>Wanneer zal de Vlaamse Regering knopen doorhakken in het dossier?</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9966673254966736</v>
+        <v>0.9894515872001648</v>
       </c>
       <c r="D164" t="n">
-        <v>0.003332674503326416</v>
+        <v>0.01054841279983521</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>f) Is die sneldienst winstgevend of verlieslatend?</t>
+          <t>We kunnen niet achterhalen hoeveel van die bezoekers effectief inburgeraars zijn.</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9966673254966736</v>
+        <v>0.9894787669181824</v>
       </c>
       <c r="D165" t="n">
-        <v>0.003332674503326416</v>
+        <v>0.01052123308181763</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Welke ambities en intenties zijn er nog om dit complex project op te starten?</t>
+          <t>a) Moet het al dan niet gaan om een voltijdse opleiding gedurende een minimale periode van twaalf weken?</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9966754913330078</v>
+        <v>0.9900990128517151</v>
       </c>
       <c r="D166" t="n">
-        <v>0.003324508666992188</v>
+        <v>0.009900987148284912</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Kan per station van de Antwerpse premetro een overzicht gegeven worden van het aantal roltrappen?</t>
+          <t>Wanneer precies zullen de werken in 2024 van start gaan?</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9966757297515869</v>
+        <v>0.9905277490615845</v>
       </c>
       <c r="D167" t="n">
-        <v>0.003324270248413086</v>
+        <v>0.009472250938415527</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Zijn er werken in het Permekemuseum die vergunningsplichtig zijn?</t>
+          <t>Welke trajecten werden in 2023 afgerond?</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9966782331466675</v>
+        <v>0.9906880855560303</v>
       </c>
       <c r="D168" t="n">
-        <v>0.00332176685333252</v>
+        <v>0.009311914443969727</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Kan de minister een overzicht geven van de volgende fases van de werken voor  de fietstunnel  Raverschootstraat, met vermelding van de timing en het budget per fase?</t>
+          <t>Welke trajecten werden in 2023 afgerond?</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9967092275619507</v>
+        <v>0.9906880855560303</v>
       </c>
       <c r="D169" t="n">
-        <v>0.003290772438049316</v>
+        <v>0.009311914443969727</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de aanleg en de studiewerken voor het Haventracé en het complex De Nieuwe Rand?</t>
+          <t>Kan een overzicht gegeven worden van de hinder op het Antwerpse tramnet op de ochtend van 30 november 2023?</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9967883825302124</v>
+        <v>0.990742027759552</v>
       </c>
       <c r="D170" t="n">
-        <v>0.003211617469787598</v>
+        <v>0.009257972240447998</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Zo niet, welk bedrag dreigt onbenut te blijven en wat zijn daarvan de redenen?</t>
+          <t>Worden de nodige randfaciliteiten voor de schippers voorzien (walstroom, watervoorziening, afvalpark, …)?</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9968191385269165</v>
+        <v>0.9908872842788696</v>
       </c>
       <c r="D171" t="n">
-        <v>0.003180861473083496</v>
+        <v>0.009112715721130371</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>In haar antwoord stelde de minister het volgende: “Indien de rijschool geen enkele vorm van verbetering toont, kan overgegaan worden tot intrekking van de erkenning.” Na hoeveel negatieve vaststellingen of na verloop van hoeveel tijd wordt er dan effectief tot intrekking van de erkenning overgegaan?</t>
+          <t>a) Op welke plaatsen is het visbestand in de plas De Bocht het grootst en op welke plaatsen bijna onbestaand en dit voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9968414306640625</v>
+        <v>0.9908971190452576</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0031585693359375</v>
+        <v>0.009102880954742432</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Kan per station van de Antwerpse premetro een overzicht gegeven worden van het aantal liften?</t>
+          <t>b) zijn nog in behandeling, meer bepaald in de verwerkingsfase van de aanvraag, respectievelijk de expertisefase?</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9968530535697937</v>
+        <v>0.9909419417381287</v>
       </c>
       <c r="D173" t="n">
-        <v>0.003146946430206299</v>
+        <v>0.009058058261871338</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Welke ritten worden amper gebruikt?</t>
+          <t>Kan een overzicht gegeven worden van de werken die in 2023 uitgevoerd werden aan de infrastructuur in de Antwerpse premetro?</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9969090819358826</v>
+        <v>0.9911791682243347</v>
       </c>
       <c r="D174" t="n">
-        <v>0.003090918064117432</v>
+        <v>0.008820831775665283</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Welke ritten worden amper gebruikt?</t>
+          <t>Worden er initiatieven voorbereid of georganiseerd met betrekking tot de Amerikaanse of Indische TTC voor het aankomende Belgische voorzitterschap?</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9969090819358826</v>
+        <v>0.9913132786750793</v>
       </c>
       <c r="D175" t="n">
-        <v>0.003090918064117432</v>
+        <v>0.008686721324920654</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Welke ritten worden amper gebruikt?</t>
+          <t>Welke inspanning en welk financieel engagement zal AWV hierin opnemen?</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9969090819358826</v>
+        <v>0.9913177490234375</v>
       </c>
       <c r="D176" t="n">
-        <v>0.003090918064117432</v>
+        <v>0.0086822509765625</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Welke ritten worden amper gebruikt?</t>
+          <t>Kan de minister meedelen hoeveel bedienaars en hun plaatsvervangers geen inburgeringstraject hebben gevolgd omdat ze vrijgesteld zijn?</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9969090819358826</v>
+        <v>0.9914963245391846</v>
       </c>
       <c r="D177" t="n">
-        <v>0.003090918064117432</v>
+        <v>0.00850367546081543</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Is de neerwaartse trend nog steeds actueel?</t>
+          <t>Tegen wanneer wordt ervan uitgegaan dat alle gedupeerden hun schadevergoeding zullen ontvangen?</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9969224333763123</v>
+        <v>0.9917669892311096</v>
       </c>
       <c r="D178" t="n">
-        <v>0.003077566623687744</v>
+        <v>0.008233010768890381</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>d) Kan de minister een overzicht geven van het aantal opstappers per halte en per rit?</t>
+          <t>Kan de minister inmiddels wel een positief effect zien van de nieuwsbrief of blijven een groot aantal van de SHM’s/woonmaatschappijen volharden in het niet voeren van onderzoeken en/of het gebruiken van het raamcontract?</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9969251751899719</v>
+        <v>0.9917861819267273</v>
       </c>
       <c r="D179" t="n">
-        <v>0.003074824810028076</v>
+        <v>0.008213818073272705</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>d) Kan de minister een overzicht geven van het aantal opstappers per halte en per rit?</t>
+          <t>Wat de overbrenging van België naar Polen (ML06a_01_b) betreft, om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9969251751899719</v>
+        <v>0.9917988777160645</v>
       </c>
       <c r="D180" t="n">
-        <v>0.003074824810028076</v>
+        <v>0.008201122283935547</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>d) Kan de minister een overzicht geven van het aantal opstappers per halte en per rit?</t>
+          <t>Wil de minister het aantal nog verhogen? Zo ja, op welke manier?</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9969251751899719</v>
+        <v>0.9918134212493896</v>
       </c>
       <c r="D181" t="n">
-        <v>0.003074824810028076</v>
+        <v>0.008186578750610352</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>d) Kan de minister een overzicht geven van het aantal opstappers per halte en per rit?</t>
+          <t>Gaat dit over het voorzien van walstroom of de ontwikkeling van waterstof als brandstof voor schepen?</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9969251751899719</v>
+        <v>0.9918504357337952</v>
       </c>
       <c r="D182" t="n">
-        <v>0.003074824810028076</v>
+        <v>0.008149564266204834</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>a) Kan de minister de cijfers van de koolstofopslag van blijvend grasland voor de periode 2014-2023 bezorgen?</t>
+          <t>Worden er nog nieuwe dossierbeheerders aangeworven?</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9969350099563599</v>
+        <v>0.9922089576721191</v>
       </c>
       <c r="D183" t="n">
-        <v>0.003064990043640137</v>
+        <v>0.007791042327880859</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Kan de minister aangeven hoeveel leerlingen in het buitengewoon onderwijs aantikken op de indicatoren (1) Gezinstaal (thuistaal niet-Nederlands), (2) Opleidingsniveau van de moeder (laag opleidingsniveau moeder), (3) Schooltoeslag/schooltoelage en (4) Buurt met een hoge mate van schoolse vertraging?</t>
+          <t>Werden binnen de nieuwe gunning vereisten opgenomen rond duurzaamheid, met bijvoorbeeld een lager verbruik van diesel en dito lagere uitstoot?</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9969511032104492</v>
+        <v>0.9923011064529419</v>
       </c>
       <c r="D184" t="n">
-        <v>0.003048896789550781</v>
+        <v>0.007698893547058105</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Wat is de timing voor de werken?</t>
+          <t>Overweegt de minister een gebodsbord “Houd de oversteekplaats vrij!” te laten plaatsen voor de automobilisten? Zo ja, op welke termijn kan dat gerealiseerd worden?</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9969651103019714</v>
+        <v>0.9925683736801147</v>
       </c>
       <c r="D185" t="n">
-        <v>0.003034889698028564</v>
+        <v>0.007431626319885254</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Met andere woorden, over hoeveel inburgeraars ging het?</t>
+          <t>Heeft de Vlaamse overheid nog plannen om nieuwe initiatieven rond toegankelijkheid of te ondersteunen, Zo ja, wat is de stand van zaken, de timing en het budget?</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9970037341117859</v>
+        <v>0.992743968963623</v>
       </c>
       <c r="D186" t="n">
-        <v>0.002996265888214111</v>
+        <v>0.007256031036376953</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Welk percentage van het ledennetwerk maakt al gebruik van het label?</t>
+          <t>Is dat proces nog gaande of al voltooid?</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9970593452453613</v>
+        <v>0.9928497076034546</v>
       </c>
       <c r="D187" t="n">
-        <v>0.002940654754638672</v>
+        <v>0.00715029239654541</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>In hoeveel gevallen werden er herhaaldelijk negatieve vaststellingen gedaan?</t>
+          <t>Wat is de rol van Flanders Investment &amp; Trade (FIT) in de doelstellingen van de TTC en heeft het ook als doel om Vlaamse bedrijven in te zetten om specifieke doelstellingen te behalen?</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9970610737800598</v>
+        <v>0.9930455088615417</v>
       </c>
       <c r="D188" t="n">
-        <v>0.002938926219940186</v>
+        <v>0.006954491138458252</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor zeehavenoverschrijdend grondbeheer, landinrichting, afbraakwerken en terreinherstel?</t>
+          <t>Overweegt de minister om het griepvaccin ook voor onderwijspersoneelsleden gratis ter beschikking te stellen? Zo ja, wanneer zal hij daartoe actie ondernemen?</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9970705509185791</v>
+        <v>0.9931922554969788</v>
       </c>
       <c r="D189" t="n">
-        <v>0.002929449081420898</v>
+        <v>0.00680774450302124</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Wanneer zullen de onteigeningen voltooid zijn?</t>
+          <t>Zijn er nog gelijkaardige gevallen van visvijvers die door ANB werden overgenomen en werden omgevormd tot natte natuur?</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9970813393592834</v>
+        <v>0.993252694606781</v>
       </c>
       <c r="D190" t="n">
-        <v>0.002918660640716553</v>
+        <v>0.006747305393218994</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Kan ze daarnaast een overzicht geven van de huidige timing en planning van het project?</t>
+          <t>a) Op welke plaatsen is het visbestand op de Zeeschelde het grootst en op welke plaatsen bijna onbestaand en dat voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9970943927764893</v>
+        <v>0.9933246970176697</v>
       </c>
       <c r="D191" t="n">
-        <v>0.002905607223510742</v>
+        <v>0.006675302982330322</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>In hoeveel gevallen heeft Opgroeien het advies van het VECK gevolgd?</t>
+          <t>Wanneer denkt de minister dat de werken voor het project effectief van start zullen kunnen gaan?</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9971006512641907</v>
+        <v>0.9934520721435547</v>
       </c>
       <c r="D192" t="n">
-        <v>0.002899348735809326</v>
+        <v>0.006547927856445312</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>c) Wat is de actuele oppervlakte die vandaag in Vlaanderen valt onder volkstuinen en volksparken?</t>
+          <t>Wat was de impact van de Sigmaprojecten in 2023?</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9971256852149963</v>
+        <v>0.9935073852539062</v>
       </c>
       <c r="D193" t="n">
-        <v>0.002874314785003662</v>
+        <v>0.00649261474609375</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>f) Is de sneldienst winstgevend of verlieslatend?</t>
+          <t>Hoe vaak wordt er munitie ontdekt tijdens archeologische opgravingen in Vlaanderen?</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9971346855163574</v>
+        <v>0.993541955947876</v>
       </c>
       <c r="D194" t="n">
-        <v>0.002865314483642578</v>
+        <v>0.006458044052124023</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>f) Is de sneldienst winstgevend of verlieslatend?</t>
+          <t>In het ontwerp GIP 2024 wordt onder nummer GIP004399/02: “N13 Kesselsesteenweg onteigeningen” een budget van €500.000 voorzien, aangevuld met een fietsbudget Kan een stand van zaken gegeven worden voor dit onteigeningsproject in Lier en Nijlen?</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9971346855163574</v>
+        <v>0.9935818910598755</v>
       </c>
       <c r="D195" t="n">
-        <v>0.002865314483642578</v>
+        <v>0.006418108940124512</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven van het aantal opstappers per halte en per maand?</t>
+          <t>Wat zijn de gehanteerde criteria?</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.997138500213623</v>
+        <v>0.9936354160308838</v>
       </c>
       <c r="D196" t="n">
-        <v>0.002861499786376953</v>
+        <v>0.006364583969116211</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven van het aantal opstappers per halte en per maand?</t>
+          <t>Was het ontwerp van voorkeursbesluit al besproken en voorgelegd aan de Vlaamse Regering? Zo ja, wanneer?</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0.997138500213623</v>
+        <v>0.9937230944633484</v>
       </c>
       <c r="D197" t="n">
-        <v>0.002861499786376953</v>
+        <v>0.006276905536651611</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven van het aantal opstappers per halte en per maand?</t>
+          <t>Heeft men, al is het bij benadering, kunnen berekenen wat de tijdswinst is tussen de bouw/constructie van een modulaire woning en die van een ‘traditioneel gebouwde’ woning?</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0.997138500213623</v>
+        <v>0.9937369823455811</v>
       </c>
       <c r="D198" t="n">
-        <v>0.002861499786376953</v>
+        <v>0.006263017654418945</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>b) Kan de minister een overzicht geven van het aantal opstappers per halte en per maand?</t>
+          <t>Is het winterplan zowel voor het Antwerpse, het Gentse als het kusttramnet hetzelfde?</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.997138500213623</v>
+        <v>0.9937787652015686</v>
       </c>
       <c r="D199" t="n">
-        <v>0.002861499786376953</v>
+        <v>0.006221234798431396</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>a) Kan de minister een overzicht geven van het aantal opstappers per halte en per jaar?</t>
+          <t>Wil de minister het gebruik nog verhogen? Zo ja, op welke manier?</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9971434473991394</v>
+        <v>0.9939073920249939</v>
       </c>
       <c r="D200" t="n">
-        <v>0.002856552600860596</v>
+        <v>0.006092607975006104</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>a) Kan de minister een overzicht geven van het aantal opstappers per halte en per jaar?</t>
+          <t>Voor de vergunning voor uitvoer naar het Verenigd Koninkrijk (ML22a en ML10a), om welke goederen gaat het specifiek?</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9971434473991394</v>
+        <v>0.994107723236084</v>
       </c>
       <c r="D201" t="n">
-        <v>0.002856552600860596</v>
+        <v>0.005892276763916016</v>
       </c>
     </row>
   </sheetData>
